--- a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/PM演習_管理ツール_矢吹研A班.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kawasaki\Desktop\PM演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\iwase\Documents\GitHub\-A-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
   <si>
     <t>WBS番号</t>
     <rPh sb="3" eb="5">
@@ -596,10 +596,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コンビニ弁当データベース開発</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>川崎</t>
     <rPh sb="0" eb="2">
       <t>カワサキ</t>
@@ -1088,6 +1084,20 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川崎</t>
+    <rPh sb="0" eb="2">
+      <t>カワサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンビニ弁当情報サイト開発</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1724,6 +1734,22 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1740,51 +1766,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1802,23 +1806,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1827,63 +1837,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="100">
     <dxf>
       <fill>
         <patternFill>
@@ -3018,11 +2972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="152058880"/>
-        <c:axId val="152059272"/>
+        <c:axId val="237513208"/>
+        <c:axId val="237512032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="152058880"/>
+        <c:axId val="237513208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3032,14 +2986,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152059272"/>
+        <c:crossAx val="237512032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="152059272"/>
+        <c:axId val="237512032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3060,7 +3014,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152058880"/>
+        <c:crossAx val="237513208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3554,10 +3508,10 @@
   <dimension ref="A1:DO233"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BF26" sqref="BF26"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3576,61 +3530,65 @@
       <c r="A1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="74"/>
+      <c r="B1" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="86"/>
       <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="83">
         <v>11.4</v>
       </c>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="81" t="s">
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="79" t="s">
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="86"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="72">
+        <v>42522</v>
+      </c>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="74"/>
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A2" s="45"/>
@@ -3659,25 +3617,25 @@
       <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:118" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="80" t="s">
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="49" t="s">
@@ -3801,10 +3759,10 @@
       <c r="DN3" s="51"/>
     </row>
     <row r="4" spans="1:118" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="89"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="53" t="str">
         <f>データ!A2</f>
         <v>川崎</v>
@@ -3821,7 +3779,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>小山</v>
       </c>
-      <c r="I4" s="80"/>
+      <c r="I4" s="79"/>
       <c r="J4" s="54" t="s">
         <v>21</v>
       </c>
@@ -4151,20 +4109,20 @@
       </c>
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A5" s="70">
-        <v>0</v>
-      </c>
-      <c r="B5" s="64" t="str">
+      <c r="A5" s="64">
+        <v>0</v>
+      </c>
+      <c r="B5" s="68" t="str">
         <f>B1</f>
-        <v>コンビニ弁当データベース開発</v>
-      </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
+        <v>コンビニ弁当情報サイト開発</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="84"/>
       <c r="J5" s="55" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K5:DN5)/データ!$D$2,"")</f>
         <v/>
@@ -4279,15 +4237,15 @@
       <c r="DN5" s="19"/>
     </row>
     <row r="6" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="72"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="56" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K6:DN6)/データ!$D$2,"")</f>
         <v/>
@@ -4402,19 +4360,19 @@
       <c r="DN6" s="21"/>
     </row>
     <row r="7" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A7" s="70">
+      <c r="A7" s="64">
         <v>1</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="72"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="84"/>
       <c r="J7" s="55" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DN7)/データ!$D$2,"")</f>
         <v/>
@@ -4529,15 +4487,15 @@
       <c r="DN7" s="19"/>
     </row>
     <row r="8" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="56" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DN8)/データ!$D$2,"")</f>
         <v/>
@@ -4652,23 +4610,23 @@
       <c r="DN8" s="21"/>
     </row>
     <row r="9" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A9" s="70">
+      <c r="A9" s="64">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="64" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="68">
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="66">
         <v>1</v>
       </c>
       <c r="J9" s="55">
@@ -4795,15 +4753,15 @@
       <c r="DN9" s="19"/>
     </row>
     <row r="10" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="69"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="56">
         <f>IF(C9&lt;&gt;"",SUM(K10:DN10)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -4928,25 +4886,25 @@
       <c r="DN10" s="21"/>
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A11" s="70">
+      <c r="A11" s="64">
         <v>1.2</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="68">
+      <c r="F11" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="66">
         <v>1</v>
       </c>
       <c r="J11" s="55">
@@ -5073,15 +5031,15 @@
       <c r="DN11" s="19"/>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="69"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="56">
         <f>IF(C11&lt;&gt;"",SUM(K12:DN12)/データ!$D$2,"")</f>
         <v>4.875</v>
@@ -5212,25 +5170,25 @@
       <c r="DN12" s="21"/>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A13" s="70">
+      <c r="A13" s="64">
         <v>1.3</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="64" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="68">
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="66">
         <v>1</v>
       </c>
       <c r="J13" s="55">
@@ -5349,15 +5307,15 @@
       <c r="DN13" s="19"/>
     </row>
     <row r="14" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="69"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="67"/>
       <c r="J14" s="56">
         <f>IF(C13&lt;&gt;"",SUM(K14:DN14)/データ!$D$2,"")</f>
         <v>0.25</v>
@@ -5476,25 +5434,25 @@
       <c r="DN14" s="21"/>
     </row>
     <row r="15" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A15" s="64">
+      <c r="A15" s="68">
         <v>1.4</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="68">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="66">
         <v>1</v>
       </c>
       <c r="J15" s="55">
@@ -5621,15 +5579,15 @@
       <c r="DN15" s="19"/>
     </row>
     <row r="16" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="69"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="56">
         <f>IF(C15&lt;&gt;"",SUM(K16:DN16)/データ!$D$2,"")</f>
         <v>1</v>
@@ -5754,31 +5712,31 @@
       <c r="DN16" s="21"/>
     </row>
     <row r="17" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A17" s="64">
+      <c r="A17" s="68">
         <v>2</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="64" t="s">
+      <c r="E17" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="68">
+      <c r="F17" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="66">
         <v>1</v>
       </c>
       <c r="J17" s="55">
@@ -5909,15 +5867,15 @@
       <c r="DN17" s="19"/>
     </row>
     <row r="18" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="69"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="56">
         <f>IF(C17&lt;&gt;"",SUM(K18:DN18)/データ!$D$2,"")</f>
         <v>9</v>
@@ -6070,19 +6028,19 @@
       <c r="DN18" s="21"/>
     </row>
     <row r="19" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A19" s="64">
+      <c r="A19" s="68">
         <v>3</v>
       </c>
-      <c r="B19" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="68"/>
+      <c r="B19" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="55" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K19:DN19)/データ!$D$2,"")</f>
         <v/>
@@ -6197,15 +6155,15 @@
       <c r="DN19" s="19"/>
     </row>
     <row r="20" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="69"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="67"/>
       <c r="J20" s="56" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K20:DN20)/データ!$D$2,"")</f>
         <v/>
@@ -6320,27 +6278,27 @@
       <c r="DN20" s="21"/>
     </row>
     <row r="21" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64">
+      <c r="A21" s="68">
         <v>3.1</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="68">
+      <c r="E21" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="66">
         <v>0.8</v>
       </c>
       <c r="J21" s="55">
@@ -6469,15 +6427,15 @@
       <c r="DN21" s="19"/>
     </row>
     <row r="22" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="69"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="67"/>
       <c r="J22" s="56">
         <f>IF(C21&lt;&gt;"",SUM(K22:DN22)/データ!$D$2,"")</f>
         <v>4</v>
@@ -6616,25 +6574,25 @@
       <c r="DN22" s="21"/>
     </row>
     <row r="23" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A23" s="64">
+      <c r="A23" s="68">
         <v>3.2</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="70"/>
+      <c r="I23" s="66"/>
       <c r="J23" s="55">
         <f>IF(C23&lt;&gt;"",SUM(K23:DN23)/データ!$D$2,"")</f>
         <v>4</v>
@@ -6759,15 +6717,15 @@
       <c r="DN23" s="19"/>
     </row>
     <row r="24" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="69"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="56">
         <f>IF(C23&lt;&gt;"",SUM(K24:DN24)/データ!$D$2,"")</f>
         <v>0.125</v>
@@ -6884,25 +6842,25 @@
       <c r="DN24" s="21"/>
     </row>
     <row r="25" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="64">
+      <c r="A25" s="68">
         <v>4</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="68"/>
+      <c r="E25" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="55">
         <f>IF(C25&lt;&gt;"",SUM(K25:DN25)/データ!$D$2,"")</f>
         <v>5</v>
@@ -7025,15 +6983,15 @@
       <c r="DN25" s="19"/>
     </row>
     <row r="26" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="69"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="56">
         <f>IF(C25&lt;&gt;"",SUM(K26:DN26)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7148,19 +7106,19 @@
       <c r="DN26" s="21"/>
     </row>
     <row r="27" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="64">
+      <c r="A27" s="68">
         <v>5</v>
       </c>
-      <c r="B27" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="68"/>
+      <c r="B27" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="55" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K27:DN27)/データ!$D$2,"")</f>
         <v/>
@@ -7275,15 +7233,15 @@
       <c r="DN27" s="19"/>
     </row>
     <row r="28" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="69"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="67"/>
       <c r="J28" s="56" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K28:DN28)/データ!$D$2,"")</f>
         <v/>
@@ -7398,27 +7356,27 @@
       <c r="DN28" s="21"/>
     </row>
     <row r="29" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="64">
+      <c r="A29" s="68">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="I29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="66"/>
       <c r="J29" s="55">
         <f>IF(C29&lt;&gt;"",SUM(K29:DN29)/データ!$D$2,"")</f>
         <v>4.5</v>
@@ -7545,15 +7503,15 @@
       <c r="DN29" s="19"/>
     </row>
     <row r="30" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="69"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="56">
         <f>IF(C29&lt;&gt;"",SUM(K30:DN30)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7668,27 +7626,27 @@
       <c r="DN30" s="21"/>
     </row>
     <row r="31" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="64">
+      <c r="A31" s="68">
         <v>5.2</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="I31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="66"/>
       <c r="J31" s="55">
         <f>IF(C31&lt;&gt;"",SUM(K31:DN31)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -7815,15 +7773,15 @@
       <c r="DN31" s="19"/>
     </row>
     <row r="32" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="69"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="56">
         <f>IF(C31&lt;&gt;"",SUM(K32:DN32)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7938,29 +7896,29 @@
       <c r="DN32" s="21"/>
     </row>
     <row r="33" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="64">
+      <c r="A33" s="68">
         <v>6</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="66"/>
-      <c r="I33" s="68"/>
+      <c r="E33" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="70"/>
+      <c r="I33" s="66"/>
       <c r="J33" s="55">
         <f>IF(C33&lt;&gt;"",SUM(K33:DN33)/データ!$D$2,"")</f>
         <v>3.75</v>
@@ -8087,15 +8045,15 @@
       <c r="DN33" s="19"/>
     </row>
     <row r="34" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="69"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="67"/>
       <c r="J34" s="56">
         <f>IF(C33&lt;&gt;"",SUM(K34:DN34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8210,29 +8168,29 @@
       <c r="DN34" s="21"/>
     </row>
     <row r="35" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A35" s="64">
+      <c r="A35" s="68">
         <v>7</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="66"/>
       <c r="J35" s="55">
         <f>IF(C35&lt;&gt;"",SUM(K35:DN35)/データ!$D$2,"")</f>
         <v>10</v>
@@ -8375,15 +8333,15 @@
       <c r="DN35" s="19"/>
     </row>
     <row r="36" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="69"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="56">
         <f>IF(C35&lt;&gt;"",SUM(K36:DN36)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8498,23 +8456,23 @@
       <c r="DN36" s="21"/>
     </row>
     <row r="37" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A37" s="64">
+      <c r="A37" s="68">
         <v>8</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="68"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="66"/>
       <c r="J37" s="55">
         <f>IF(C37&lt;&gt;"",SUM(K37:DN37)/データ!$D$2,"")</f>
         <v>5</v>
@@ -8649,15 +8607,15 @@
       <c r="DN37" s="19"/>
     </row>
     <row r="38" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="69"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="67"/>
       <c r="J38" s="56">
         <f>IF(C37&lt;&gt;"",SUM(K38:DN38)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8772,19 +8730,19 @@
       <c r="DN38" s="21"/>
     </row>
     <row r="39" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="64">
+      <c r="A39" s="68">
         <v>9</v>
       </c>
-      <c r="B39" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="68"/>
+      <c r="B39" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="66"/>
       <c r="J39" s="55" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K39:DN39)/データ!$D$2,"")</f>
         <v/>
@@ -8899,15 +8857,15 @@
       <c r="DN39" s="19"/>
     </row>
     <row r="40" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="69"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="67"/>
       <c r="J40" s="56" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K40:DN40)/データ!$D$2,"")</f>
         <v/>
@@ -9022,25 +8980,25 @@
       <c r="DN40" s="21"/>
     </row>
     <row r="41" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A41" s="64">
+      <c r="A41" s="68">
         <v>9.1</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="68"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="66"/>
       <c r="J41" s="55">
         <f>IF(C41&lt;&gt;"",SUM(K41:DN41)/データ!$D$2,"")</f>
         <v>1.5</v>
@@ -9161,15 +9119,15 @@
       <c r="DN41" s="19"/>
     </row>
     <row r="42" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="69"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="67"/>
       <c r="J42" s="56">
         <f>IF(C41&lt;&gt;"",SUM(K42:DN42)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9284,25 +9242,25 @@
       <c r="DN42" s="21"/>
     </row>
     <row r="43" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A43" s="64">
+      <c r="A43" s="68">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="66"/>
-      <c r="I43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="70"/>
+      <c r="I43" s="66"/>
       <c r="J43" s="55">
         <f>IF(C43&lt;&gt;"",SUM(K43:DN43)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -9423,15 +9381,15 @@
       <c r="DN43" s="19"/>
     </row>
     <row r="44" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="69"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="67"/>
       <c r="J44" s="56">
         <f>IF(C43&lt;&gt;"",SUM(K44:DN44)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9546,19 +9504,19 @@
       <c r="DN44" s="21"/>
     </row>
     <row r="45" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="64">
+      <c r="A45" s="68">
         <v>10</v>
       </c>
-      <c r="B45" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="68"/>
+      <c r="B45" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="66"/>
       <c r="J45" s="55" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K45:DN45)/データ!$D$2,"")</f>
         <v/>
@@ -9673,15 +9631,15 @@
       <c r="DN45" s="19"/>
     </row>
     <row r="46" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="69"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="67"/>
       <c r="J46" s="56" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K46:DN46)/データ!$D$2,"")</f>
         <v/>
@@ -9796,23 +9754,23 @@
       <c r="DN46" s="21"/>
     </row>
     <row r="47" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A47" s="64">
+      <c r="A47" s="68">
         <v>10.1</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="68"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="66"/>
       <c r="J47" s="55">
         <f>IF(C47&lt;&gt;"",SUM(K47:DN47)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -9933,15 +9891,15 @@
       <c r="DN47" s="19"/>
     </row>
     <row r="48" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="69"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="67"/>
       <c r="J48" s="56">
         <f>IF(C47&lt;&gt;"",SUM(K48:DN48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10056,23 +10014,23 @@
       <c r="DN48" s="21"/>
     </row>
     <row r="49" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A49" s="70">
+      <c r="A49" s="64">
         <v>10.199999999999999</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70" t="s">
+      <c r="B49" s="64"/>
+      <c r="C49" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="E49" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="68"/>
+      <c r="E49" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="66"/>
       <c r="J49" s="55">
         <f>IF(C49&lt;&gt;"",SUM(K49:DN49)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10187,15 +10145,15 @@
       <c r="DN49" s="19"/>
     </row>
     <row r="50" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="69"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="67"/>
       <c r="J50" s="56">
         <f>IF(C49&lt;&gt;"",SUM(K50:DN50)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10310,19 +10268,19 @@
       <c r="DN50" s="21"/>
     </row>
     <row r="51" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A51" s="70">
+      <c r="A51" s="64">
         <v>11</v>
       </c>
-      <c r="B51" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="68"/>
+      <c r="B51" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="66"/>
       <c r="J51" s="55" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K51:DN51)/データ!$D$2,"")</f>
         <v/>
@@ -10437,15 +10395,15 @@
       <c r="DN51" s="19"/>
     </row>
     <row r="52" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="69"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="67"/>
       <c r="J52" s="56" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K52:DN52)/データ!$D$2,"")</f>
         <v/>
@@ -10560,25 +10518,25 @@
       <c r="DN52" s="21"/>
     </row>
     <row r="53" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A53" s="70">
+      <c r="A53" s="64">
         <v>11.1</v>
       </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="70" t="s">
+      <c r="B53" s="64"/>
+      <c r="C53" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="F53" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="68"/>
+      <c r="D53" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="66"/>
       <c r="J53" s="55">
         <f>IF(C53&lt;&gt;"",SUM(K53:DN53)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -10719,15 +10677,15 @@
       <c r="DN53" s="19"/>
     </row>
     <row r="54" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A54" s="70"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="69"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="67"/>
       <c r="J54" s="56">
         <f>IF(C53&lt;&gt;"",SUM(K54:DN54)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10842,23 +10800,23 @@
       <c r="DN54" s="21"/>
     </row>
     <row r="55" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A55" s="70">
+      <c r="A55" s="64">
         <v>11.2</v>
       </c>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="68"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="66"/>
       <c r="J55" s="55">
         <f>IF(C55&lt;&gt;"",SUM(K55:DN55)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -10999,15 +10957,15 @@
       <c r="DN55" s="19"/>
     </row>
     <row r="56" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="69"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="67"/>
       <c r="J56" s="56">
         <f>IF(C55&lt;&gt;"",SUM(K56:DN56)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11122,23 +11080,23 @@
       <c r="DN56" s="21"/>
     </row>
     <row r="57" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A57" s="70">
+      <c r="A57" s="64">
         <v>11.3</v>
       </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="68"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="66"/>
       <c r="J57" s="55">
         <f>IF(C57&lt;&gt;"",SUM(K57:DN57)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11255,15 +11213,15 @@
       <c r="DN57" s="19"/>
     </row>
     <row r="58" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="69"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="67"/>
       <c r="J58" s="56">
         <f>IF(C57&lt;&gt;"",SUM(K58:DN58)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11378,23 +11336,23 @@
       <c r="DN58" s="21"/>
     </row>
     <row r="59" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A59" s="70">
+      <c r="A59" s="64">
         <v>11.4</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="68"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="66"/>
       <c r="J59" s="55">
         <f>IF(C59&lt;&gt;"",SUM(K59:DN59)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11511,15 +11469,15 @@
       <c r="DN59" s="19"/>
     </row>
     <row r="60" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="69"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="67"/>
       <c r="J60" s="56">
         <f>IF(C59&lt;&gt;"",SUM(K60:DN60)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11634,15 +11592,15 @@
       <c r="DN60" s="21"/>
     </row>
     <row r="61" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="68"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="66"/>
       <c r="J61" s="55" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DN61)/データ!$D$2,"")</f>
         <v/>
@@ -11757,15 +11715,15 @@
       <c r="DN61" s="19"/>
     </row>
     <row r="62" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A62" s="70"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="69"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="67"/>
       <c r="J62" s="56" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DN62)/データ!$D$2,"")</f>
         <v/>
@@ -11880,15 +11838,15 @@
       <c r="DN62" s="21"/>
     </row>
     <row r="63" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A63" s="70"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="68"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="66"/>
       <c r="J63" s="55" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K63:DN63)/データ!$D$2,"")</f>
         <v/>
@@ -12003,15 +11961,15 @@
       <c r="DN63" s="19"/>
     </row>
     <row r="64" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A64" s="70"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="69"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="67"/>
       <c r="J64" s="56" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K64:DN64)/データ!$D$2,"")</f>
         <v/>
@@ -12126,15 +12084,15 @@
       <c r="DN64" s="21"/>
     </row>
     <row r="65" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A65" s="70"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="68"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="66"/>
       <c r="J65" s="55" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K65:DN65)/データ!$D$2,"")</f>
         <v/>
@@ -12249,15 +12207,15 @@
       <c r="DN65" s="19"/>
     </row>
     <row r="66" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A66" s="70"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="69"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="67"/>
       <c r="J66" s="56" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K66:DN66)/データ!$D$2,"")</f>
         <v/>
@@ -12372,15 +12330,15 @@
       <c r="DN66" s="21"/>
     </row>
     <row r="67" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A67" s="70"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="68"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="66"/>
       <c r="J67" s="55" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DN67)/データ!$D$2,"")</f>
         <v/>
@@ -12495,15 +12453,15 @@
       <c r="DN67" s="19"/>
     </row>
     <row r="68" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A68" s="70"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="69"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="67"/>
       <c r="J68" s="56" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DN68)/データ!$D$2,"")</f>
         <v/>
@@ -12618,15 +12576,15 @@
       <c r="DN68" s="21"/>
     </row>
     <row r="69" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A69" s="70"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="68"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="66"/>
       <c r="J69" s="55" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DN69)/データ!$D$2,"")</f>
         <v/>
@@ -12741,15 +12699,15 @@
       <c r="DN69" s="19"/>
     </row>
     <row r="70" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="69"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="67"/>
       <c r="J70" s="56" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DN70)/データ!$D$2,"")</f>
         <v/>
@@ -12864,15 +12822,15 @@
       <c r="DN70" s="21"/>
     </row>
     <row r="71" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A71" s="64"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="68"/>
+      <c r="A71" s="68"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="66"/>
       <c r="J71" s="55" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K71:DN71)/データ!$D$2,"")</f>
         <v/>
@@ -12987,15 +12945,15 @@
       <c r="DN71" s="19"/>
     </row>
     <row r="72" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="69"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="67"/>
       <c r="J72" s="56" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K72:DN72)/データ!$D$2,"")</f>
         <v/>
@@ -13110,15 +13068,15 @@
       <c r="DN72" s="21"/>
     </row>
     <row r="73" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="68"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="66"/>
       <c r="J73" s="55" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K73:DN73)/データ!$D$2,"")</f>
         <v/>
@@ -13233,15 +13191,15 @@
       <c r="DN73" s="19"/>
     </row>
     <row r="74" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A74" s="70"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="69"/>
+      <c r="A74" s="64"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="67"/>
       <c r="J74" s="56" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K74:DN74)/データ!$D$2,"")</f>
         <v/>
@@ -13356,15 +13314,15 @@
       <c r="DN74" s="21"/>
     </row>
     <row r="75" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A75" s="70"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="68"/>
+      <c r="A75" s="64"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="66"/>
       <c r="J75" s="55" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K75:DN75)/データ!$D$2,"")</f>
         <v/>
@@ -13479,15 +13437,15 @@
       <c r="DN75" s="19"/>
     </row>
     <row r="76" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A76" s="70"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="69"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="67"/>
       <c r="J76" s="56" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K76:DN76)/データ!$D$2,"")</f>
         <v/>
@@ -13602,15 +13560,15 @@
       <c r="DN76" s="21"/>
     </row>
     <row r="77" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A77" s="64"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="68"/>
+      <c r="A77" s="68"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="70"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="66"/>
       <c r="J77" s="55" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DN77)/データ!$D$2,"")</f>
         <v/>
@@ -13725,15 +13683,15 @@
       <c r="DN77" s="19"/>
     </row>
     <row r="78" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A78" s="65"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="69"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="67"/>
       <c r="J78" s="56" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DN78)/データ!$D$2,"")</f>
         <v/>
@@ -13848,15 +13806,15 @@
       <c r="DN78" s="21"/>
     </row>
     <row r="79" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A79" s="64"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="68"/>
+      <c r="A79" s="68"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="70"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="66"/>
       <c r="J79" s="55" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K79:DN79)/データ!$D$2,"")</f>
         <v/>
@@ -13971,15 +13929,15 @@
       <c r="DN79" s="19"/>
     </row>
     <row r="80" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A80" s="65"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="69"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="67"/>
       <c r="J80" s="56" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K80:DN80)/データ!$D$2,"")</f>
         <v/>
@@ -14094,15 +14052,15 @@
       <c r="DN80" s="21"/>
     </row>
     <row r="81" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A81" s="64"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="68"/>
+      <c r="A81" s="68"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="70"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="66"/>
       <c r="J81" s="55" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K81:DN81)/データ!$D$2,"")</f>
         <v/>
@@ -14217,15 +14175,15 @@
       <c r="DN81" s="19"/>
     </row>
     <row r="82" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="69"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="67"/>
       <c r="J82" s="56" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K82:DN82)/データ!$D$2,"")</f>
         <v/>
@@ -14340,15 +14298,15 @@
       <c r="DN82" s="21"/>
     </row>
     <row r="83" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="64"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="68"/>
+      <c r="A83" s="68"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="70"/>
+      <c r="H83" s="70"/>
+      <c r="I83" s="66"/>
       <c r="J83" s="55" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K83:DN83)/データ!$D$2,"")</f>
         <v/>
@@ -14463,15 +14421,15 @@
       <c r="DN83" s="19"/>
     </row>
     <row r="84" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A84" s="65"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="69"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="71"/>
+      <c r="I84" s="67"/>
       <c r="J84" s="56" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K84:DN84)/データ!$D$2,"")</f>
         <v/>
@@ -14586,15 +14544,15 @@
       <c r="DN84" s="21"/>
     </row>
     <row r="85" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A85" s="64"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="68"/>
+      <c r="A85" s="68"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="66"/>
       <c r="J85" s="55" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DN85)/データ!$D$2,"")</f>
         <v/>
@@ -14709,15 +14667,15 @@
       <c r="DN85" s="19"/>
     </row>
     <row r="86" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A86" s="65"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="69"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="67"/>
       <c r="J86" s="56" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DN86)/データ!$D$2,"")</f>
         <v/>
@@ -14832,15 +14790,15 @@
       <c r="DN86" s="21"/>
     </row>
     <row r="87" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="64"/>
-      <c r="B87" s="64"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="68"/>
+      <c r="A87" s="68"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="66"/>
       <c r="J87" s="55" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K87:DN87)/データ!$D$2,"")</f>
         <v/>
@@ -14955,15 +14913,15 @@
       <c r="DN87" s="19"/>
     </row>
     <row r="88" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A88" s="65"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="69"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="71"/>
+      <c r="I88" s="67"/>
       <c r="J88" s="56" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K88:DN88)/データ!$D$2,"")</f>
         <v/>
@@ -15078,15 +15036,15 @@
       <c r="DN88" s="21"/>
     </row>
     <row r="89" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="64"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="68"/>
+      <c r="A89" s="68"/>
+      <c r="B89" s="68"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="66"/>
       <c r="J89" s="55" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K89:DN89)/データ!$D$2,"")</f>
         <v/>
@@ -15201,15 +15159,15 @@
       <c r="DN89" s="19"/>
     </row>
     <row r="90" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A90" s="65"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="69"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="71"/>
+      <c r="I90" s="67"/>
       <c r="J90" s="56" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K90:DN90)/データ!$D$2,"")</f>
         <v/>
@@ -15324,15 +15282,15 @@
       <c r="DN90" s="21"/>
     </row>
     <row r="91" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A91" s="64"/>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="68"/>
+      <c r="A91" s="68"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="68"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="66"/>
       <c r="J91" s="55" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K91:DN91)/データ!$D$2,"")</f>
         <v/>
@@ -15447,15 +15405,15 @@
       <c r="DN91" s="19"/>
     </row>
     <row r="92" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A92" s="65"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="69"/>
+      <c r="A92" s="69"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="67"/>
       <c r="J92" s="56" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K92:DN92)/データ!$D$2,"")</f>
         <v/>
@@ -15570,15 +15528,15 @@
       <c r="DN92" s="21"/>
     </row>
     <row r="93" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A93" s="64"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="68"/>
+      <c r="A93" s="68"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="70"/>
+      <c r="H93" s="70"/>
+      <c r="I93" s="66"/>
       <c r="J93" s="55" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K93:DN93)/データ!$D$2,"")</f>
         <v/>
@@ -15693,15 +15651,15 @@
       <c r="DN93" s="19"/>
     </row>
     <row r="94" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A94" s="65"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="69"/>
+      <c r="A94" s="69"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="67"/>
       <c r="J94" s="56" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K94:DN94)/データ!$D$2,"")</f>
         <v/>
@@ -15816,15 +15774,15 @@
       <c r="DN94" s="21"/>
     </row>
     <row r="95" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="64"/>
-      <c r="B95" s="64"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="68"/>
+      <c r="A95" s="68"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="70"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="66"/>
       <c r="J95" s="55" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DN95)/データ!$D$2,"")</f>
         <v/>
@@ -15939,15 +15897,15 @@
       <c r="DN95" s="19"/>
     </row>
     <row r="96" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A96" s="65"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="69"/>
+      <c r="A96" s="69"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="71"/>
+      <c r="I96" s="67"/>
       <c r="J96" s="56" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DN96)/データ!$D$2,"")</f>
         <v/>
@@ -16062,15 +16020,15 @@
       <c r="DN96" s="21"/>
     </row>
     <row r="97" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A97" s="64"/>
-      <c r="B97" s="64"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="68"/>
+      <c r="A97" s="68"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="68"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="70"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="66"/>
       <c r="J97" s="55" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DN97)/データ!$D$2,"")</f>
         <v/>
@@ -16185,15 +16143,15 @@
       <c r="DN97" s="19"/>
     </row>
     <row r="98" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A98" s="65"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="69"/>
+      <c r="A98" s="69"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="71"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="67"/>
       <c r="J98" s="56" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DN98)/データ!$D$2,"")</f>
         <v/>
@@ -16308,15 +16266,15 @@
       <c r="DN98" s="21"/>
     </row>
     <row r="99" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A99" s="64"/>
-      <c r="B99" s="64"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="68"/>
+      <c r="A99" s="68"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="66"/>
       <c r="J99" s="55" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DN99)/データ!$D$2,"")</f>
         <v/>
@@ -16431,15 +16389,15 @@
       <c r="DN99" s="19"/>
     </row>
     <row r="100" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A100" s="65"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="67"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="69"/>
+      <c r="A100" s="69"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="67"/>
       <c r="J100" s="56" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DN100)/データ!$D$2,"")</f>
         <v/>
@@ -16554,15 +16512,15 @@
       <c r="DN100" s="21"/>
     </row>
     <row r="101" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="64"/>
-      <c r="B101" s="64"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="68"/>
+      <c r="A101" s="68"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="66"/>
       <c r="J101" s="55" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DN101)/データ!$D$2,"")</f>
         <v/>
@@ -16677,15 +16635,15 @@
       <c r="DN101" s="19"/>
     </row>
     <row r="102" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A102" s="65"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
-      <c r="I102" s="69"/>
+      <c r="A102" s="69"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="71"/>
+      <c r="I102" s="67"/>
       <c r="J102" s="56" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DN102)/データ!$D$2,"")</f>
         <v/>
@@ -16800,15 +16758,15 @@
       <c r="DN102" s="21"/>
     </row>
     <row r="103" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A103" s="64"/>
-      <c r="B103" s="64"/>
-      <c r="C103" s="64"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="68"/>
+      <c r="A103" s="68"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="68"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="66"/>
       <c r="J103" s="55" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DN103)/データ!$D$2,"")</f>
         <v/>
@@ -16923,15 +16881,15 @@
       <c r="DN103" s="19"/>
     </row>
     <row r="104" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A104" s="65"/>
-      <c r="B104" s="65"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
-      <c r="I104" s="69"/>
+      <c r="A104" s="69"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="71"/>
+      <c r="H104" s="71"/>
+      <c r="I104" s="67"/>
       <c r="J104" s="56" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DN104)/データ!$D$2,"")</f>
         <v/>
@@ -17046,15 +17004,15 @@
       <c r="DN104" s="21"/>
     </row>
     <row r="105" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A105" s="70"/>
-      <c r="B105" s="70"/>
-      <c r="C105" s="70"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="71"/>
-      <c r="F105" s="71"/>
-      <c r="G105" s="71"/>
-      <c r="H105" s="71"/>
-      <c r="I105" s="68"/>
+      <c r="A105" s="64"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="66"/>
       <c r="J105" s="55" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DN105)/データ!$D$2,"")</f>
         <v/>
@@ -17169,15 +17127,15 @@
       <c r="DN105" s="19"/>
     </row>
     <row r="106" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A106" s="70"/>
-      <c r="B106" s="70"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="71"/>
-      <c r="F106" s="71"/>
-      <c r="G106" s="71"/>
-      <c r="H106" s="71"/>
-      <c r="I106" s="69"/>
+      <c r="A106" s="64"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="65"/>
+      <c r="H106" s="65"/>
+      <c r="I106" s="67"/>
       <c r="J106" s="56" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DN106)/データ!$D$2,"")</f>
         <v/>
@@ -17292,15 +17250,15 @@
       <c r="DN106" s="21"/>
     </row>
     <row r="107" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A107" s="70"/>
-      <c r="B107" s="70"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="71"/>
-      <c r="G107" s="71"/>
-      <c r="H107" s="71"/>
-      <c r="I107" s="68"/>
+      <c r="A107" s="64"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="66"/>
       <c r="J107" s="55" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DN107)/データ!$D$2,"")</f>
         <v/>
@@ -17415,15 +17373,15 @@
       <c r="DN107" s="19"/>
     </row>
     <row r="108" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A108" s="70"/>
-      <c r="B108" s="70"/>
-      <c r="C108" s="70"/>
-      <c r="D108" s="70"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="71"/>
-      <c r="G108" s="71"/>
-      <c r="H108" s="71"/>
-      <c r="I108" s="69"/>
+      <c r="A108" s="64"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="65"/>
+      <c r="H108" s="65"/>
+      <c r="I108" s="67"/>
       <c r="J108" s="56" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DN108)/データ!$D$2,"")</f>
         <v/>
@@ -17538,15 +17496,15 @@
       <c r="DN108" s="21"/>
     </row>
     <row r="109" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A109" s="70"/>
-      <c r="B109" s="70"/>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="71"/>
-      <c r="F109" s="71"/>
-      <c r="G109" s="71"/>
-      <c r="H109" s="71"/>
-      <c r="I109" s="68"/>
+      <c r="A109" s="64"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
+      <c r="G109" s="65"/>
+      <c r="H109" s="65"/>
+      <c r="I109" s="66"/>
       <c r="J109" s="55" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K109:DN109)/データ!$D$2,"")</f>
         <v/>
@@ -17661,15 +17619,15 @@
       <c r="DN109" s="19"/>
     </row>
     <row r="110" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A110" s="70"/>
-      <c r="B110" s="70"/>
-      <c r="C110" s="70"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="71"/>
-      <c r="H110" s="71"/>
-      <c r="I110" s="69"/>
+      <c r="A110" s="64"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="65"/>
+      <c r="F110" s="65"/>
+      <c r="G110" s="65"/>
+      <c r="H110" s="65"/>
+      <c r="I110" s="67"/>
       <c r="J110" s="56" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K110:DN110)/データ!$D$2,"")</f>
         <v/>
@@ -17784,15 +17742,15 @@
       <c r="DN110" s="21"/>
     </row>
     <row r="111" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A111" s="70"/>
-      <c r="B111" s="70"/>
-      <c r="C111" s="70"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="71"/>
-      <c r="F111" s="71"/>
-      <c r="G111" s="71"/>
-      <c r="H111" s="71"/>
-      <c r="I111" s="68"/>
+      <c r="A111" s="64"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="64"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="65"/>
+      <c r="I111" s="66"/>
       <c r="J111" s="55" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K111:DN111)/データ!$D$2,"")</f>
         <v/>
@@ -17907,15 +17865,15 @@
       <c r="DN111" s="19"/>
     </row>
     <row r="112" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A112" s="70"/>
-      <c r="B112" s="70"/>
-      <c r="C112" s="70"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="71"/>
-      <c r="F112" s="71"/>
-      <c r="G112" s="71"/>
-      <c r="H112" s="71"/>
-      <c r="I112" s="69"/>
+      <c r="A112" s="64"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="65"/>
+      <c r="H112" s="65"/>
+      <c r="I112" s="67"/>
       <c r="J112" s="56" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K112:DN112)/データ!$D$2,"")</f>
         <v/>
@@ -18030,15 +17988,15 @@
       <c r="DN112" s="21"/>
     </row>
     <row r="113" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A113" s="70"/>
-      <c r="B113" s="70"/>
-      <c r="C113" s="70"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="71"/>
-      <c r="F113" s="71"/>
-      <c r="G113" s="71"/>
-      <c r="H113" s="71"/>
-      <c r="I113" s="68"/>
+      <c r="A113" s="64"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="66"/>
       <c r="J113" s="55" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K113:DN113)/データ!$D$2,"")</f>
         <v/>
@@ -18153,15 +18111,15 @@
       <c r="DN113" s="19"/>
     </row>
     <row r="114" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A114" s="70"/>
-      <c r="B114" s="70"/>
-      <c r="C114" s="70"/>
-      <c r="D114" s="70"/>
-      <c r="E114" s="71"/>
-      <c r="F114" s="71"/>
-      <c r="G114" s="71"/>
-      <c r="H114" s="71"/>
-      <c r="I114" s="69"/>
+      <c r="A114" s="64"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="65"/>
+      <c r="F114" s="65"/>
+      <c r="G114" s="65"/>
+      <c r="H114" s="65"/>
+      <c r="I114" s="67"/>
       <c r="J114" s="56" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K114:DN114)/データ!$D$2,"")</f>
         <v/>
@@ -18276,15 +18234,15 @@
       <c r="DN114" s="21"/>
     </row>
     <row r="115" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A115" s="70"/>
-      <c r="B115" s="70"/>
-      <c r="C115" s="70"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="71"/>
-      <c r="F115" s="71"/>
-      <c r="G115" s="71"/>
-      <c r="H115" s="71"/>
-      <c r="I115" s="68"/>
+      <c r="A115" s="64"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="66"/>
       <c r="J115" s="55" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K115:DN115)/データ!$D$2,"")</f>
         <v/>
@@ -18399,15 +18357,15 @@
       <c r="DN115" s="19"/>
     </row>
     <row r="116" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A116" s="70"/>
-      <c r="B116" s="70"/>
-      <c r="C116" s="70"/>
-      <c r="D116" s="70"/>
-      <c r="E116" s="71"/>
-      <c r="F116" s="71"/>
-      <c r="G116" s="71"/>
-      <c r="H116" s="71"/>
-      <c r="I116" s="69"/>
+      <c r="A116" s="64"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="65"/>
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="67"/>
       <c r="J116" s="56" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K116:DN116)/データ!$D$2,"")</f>
         <v/>
@@ -18522,15 +18480,15 @@
       <c r="DN116" s="21"/>
     </row>
     <row r="117" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A117" s="70"/>
-      <c r="B117" s="70"/>
-      <c r="C117" s="70"/>
-      <c r="D117" s="70"/>
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="68"/>
+      <c r="A117" s="64"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="65"/>
+      <c r="F117" s="65"/>
+      <c r="G117" s="65"/>
+      <c r="H117" s="65"/>
+      <c r="I117" s="66"/>
       <c r="J117" s="55" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K117:DN117)/データ!$D$2,"")</f>
         <v/>
@@ -18645,15 +18603,15 @@
       <c r="DN117" s="19"/>
     </row>
     <row r="118" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A118" s="70"/>
-      <c r="B118" s="70"/>
-      <c r="C118" s="70"/>
-      <c r="D118" s="70"/>
-      <c r="E118" s="71"/>
-      <c r="F118" s="71"/>
-      <c r="G118" s="71"/>
-      <c r="H118" s="71"/>
-      <c r="I118" s="69"/>
+      <c r="A118" s="64"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="65"/>
+      <c r="F118" s="65"/>
+      <c r="G118" s="65"/>
+      <c r="H118" s="65"/>
+      <c r="I118" s="67"/>
       <c r="J118" s="56" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K118:DN118)/データ!$D$2,"")</f>
         <v/>
@@ -18768,15 +18726,15 @@
       <c r="DN118" s="21"/>
     </row>
     <row r="119" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A119" s="70"/>
-      <c r="B119" s="70"/>
-      <c r="C119" s="70"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="71"/>
-      <c r="F119" s="71"/>
-      <c r="G119" s="71"/>
-      <c r="H119" s="71"/>
-      <c r="I119" s="68"/>
+      <c r="A119" s="64"/>
+      <c r="B119" s="64"/>
+      <c r="C119" s="64"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="65"/>
+      <c r="F119" s="65"/>
+      <c r="G119" s="65"/>
+      <c r="H119" s="65"/>
+      <c r="I119" s="66"/>
       <c r="J119" s="55" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K119:DN119)/データ!$D$2,"")</f>
         <v/>
@@ -18891,15 +18849,15 @@
       <c r="DN119" s="19"/>
     </row>
     <row r="120" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A120" s="70"/>
-      <c r="B120" s="70"/>
-      <c r="C120" s="70"/>
-      <c r="D120" s="70"/>
-      <c r="E120" s="71"/>
-      <c r="F120" s="71"/>
-      <c r="G120" s="71"/>
-      <c r="H120" s="71"/>
-      <c r="I120" s="69"/>
+      <c r="A120" s="64"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="65"/>
+      <c r="F120" s="65"/>
+      <c r="G120" s="65"/>
+      <c r="H120" s="65"/>
+      <c r="I120" s="67"/>
       <c r="J120" s="56" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K120:DN120)/データ!$D$2,"")</f>
         <v/>
@@ -19014,15 +18972,15 @@
       <c r="DN120" s="21"/>
     </row>
     <row r="121" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A121" s="70"/>
-      <c r="B121" s="70"/>
-      <c r="C121" s="70"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="71"/>
-      <c r="F121" s="71"/>
-      <c r="G121" s="71"/>
-      <c r="H121" s="71"/>
-      <c r="I121" s="68"/>
+      <c r="A121" s="64"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="65"/>
+      <c r="F121" s="65"/>
+      <c r="G121" s="65"/>
+      <c r="H121" s="65"/>
+      <c r="I121" s="66"/>
       <c r="J121" s="55" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K121:DN121)/データ!$D$2,"")</f>
         <v/>
@@ -19137,15 +19095,15 @@
       <c r="DN121" s="19"/>
     </row>
     <row r="122" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A122" s="70"/>
-      <c r="B122" s="70"/>
-      <c r="C122" s="70"/>
-      <c r="D122" s="70"/>
-      <c r="E122" s="71"/>
-      <c r="F122" s="71"/>
-      <c r="G122" s="71"/>
-      <c r="H122" s="71"/>
-      <c r="I122" s="69"/>
+      <c r="A122" s="64"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="65"/>
+      <c r="F122" s="65"/>
+      <c r="G122" s="65"/>
+      <c r="H122" s="65"/>
+      <c r="I122" s="67"/>
       <c r="J122" s="56" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K122:DN122)/データ!$D$2,"")</f>
         <v/>
@@ -19260,15 +19218,15 @@
       <c r="DN122" s="21"/>
     </row>
     <row r="123" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A123" s="70"/>
-      <c r="B123" s="70"/>
-      <c r="C123" s="70"/>
-      <c r="D123" s="70"/>
-      <c r="E123" s="71"/>
-      <c r="F123" s="71"/>
-      <c r="G123" s="71"/>
-      <c r="H123" s="71"/>
-      <c r="I123" s="68"/>
+      <c r="A123" s="64"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="64"/>
+      <c r="D123" s="64"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="66"/>
       <c r="J123" s="55" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K123:DN123)/データ!$D$2,"")</f>
         <v/>
@@ -19383,15 +19341,15 @@
       <c r="DN123" s="19"/>
     </row>
     <row r="124" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A124" s="70"/>
-      <c r="B124" s="70"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="70"/>
-      <c r="E124" s="71"/>
-      <c r="F124" s="71"/>
-      <c r="G124" s="71"/>
-      <c r="H124" s="71"/>
-      <c r="I124" s="69"/>
+      <c r="A124" s="64"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="64"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="67"/>
       <c r="J124" s="56" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K124:DN124)/データ!$D$2,"")</f>
         <v/>
@@ -19506,15 +19464,15 @@
       <c r="DN124" s="21"/>
     </row>
     <row r="125" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A125" s="70"/>
-      <c r="B125" s="70"/>
-      <c r="C125" s="70"/>
-      <c r="D125" s="70"/>
-      <c r="E125" s="71"/>
-      <c r="F125" s="71"/>
-      <c r="G125" s="71"/>
-      <c r="H125" s="71"/>
-      <c r="I125" s="68"/>
+      <c r="A125" s="64"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="64"/>
+      <c r="D125" s="64"/>
+      <c r="E125" s="65"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="65"/>
+      <c r="H125" s="65"/>
+      <c r="I125" s="66"/>
       <c r="J125" s="55" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K125:DN125)/データ!$D$2,"")</f>
         <v/>
@@ -19629,15 +19587,15 @@
       <c r="DN125" s="19"/>
     </row>
     <row r="126" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A126" s="70"/>
-      <c r="B126" s="70"/>
-      <c r="C126" s="70"/>
-      <c r="D126" s="70"/>
-      <c r="E126" s="71"/>
-      <c r="F126" s="71"/>
-      <c r="G126" s="71"/>
-      <c r="H126" s="71"/>
-      <c r="I126" s="69"/>
+      <c r="A126" s="64"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="64"/>
+      <c r="E126" s="65"/>
+      <c r="F126" s="65"/>
+      <c r="G126" s="65"/>
+      <c r="H126" s="65"/>
+      <c r="I126" s="67"/>
       <c r="J126" s="56" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K126:DN126)/データ!$D$2,"")</f>
         <v/>
@@ -19752,15 +19710,15 @@
       <c r="DN126" s="21"/>
     </row>
     <row r="127" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A127" s="64"/>
-      <c r="B127" s="64"/>
-      <c r="C127" s="64"/>
-      <c r="D127" s="64"/>
-      <c r="E127" s="66"/>
-      <c r="F127" s="66"/>
-      <c r="G127" s="66"/>
-      <c r="H127" s="66"/>
-      <c r="I127" s="68"/>
+      <c r="A127" s="68"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="68"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="70"/>
+      <c r="F127" s="70"/>
+      <c r="G127" s="70"/>
+      <c r="H127" s="70"/>
+      <c r="I127" s="66"/>
       <c r="J127" s="55" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K127:DN127)/データ!$D$2,"")</f>
         <v/>
@@ -19875,15 +19833,15 @@
       <c r="DN127" s="19"/>
     </row>
     <row r="128" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A128" s="65"/>
-      <c r="B128" s="65"/>
-      <c r="C128" s="65"/>
-      <c r="D128" s="65"/>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="67"/>
-      <c r="H128" s="67"/>
-      <c r="I128" s="69"/>
+      <c r="A128" s="69"/>
+      <c r="B128" s="69"/>
+      <c r="C128" s="69"/>
+      <c r="D128" s="69"/>
+      <c r="E128" s="71"/>
+      <c r="F128" s="71"/>
+      <c r="G128" s="71"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="67"/>
       <c r="J128" s="56" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K128:DN128)/データ!$D$2,"")</f>
         <v/>
@@ -19998,15 +19956,15 @@
       <c r="DN128" s="21"/>
     </row>
     <row r="129" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A129" s="70"/>
-      <c r="B129" s="70"/>
-      <c r="C129" s="70"/>
-      <c r="D129" s="70"/>
-      <c r="E129" s="71"/>
-      <c r="F129" s="71"/>
-      <c r="G129" s="71"/>
-      <c r="H129" s="71"/>
-      <c r="I129" s="68"/>
+      <c r="A129" s="64"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="64"/>
+      <c r="E129" s="65"/>
+      <c r="F129" s="65"/>
+      <c r="G129" s="65"/>
+      <c r="H129" s="65"/>
+      <c r="I129" s="66"/>
       <c r="J129" s="55" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K129:DN129)/データ!$D$2,"")</f>
         <v/>
@@ -20121,15 +20079,15 @@
       <c r="DN129" s="19"/>
     </row>
     <row r="130" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A130" s="70"/>
-      <c r="B130" s="70"/>
-      <c r="C130" s="70"/>
-      <c r="D130" s="70"/>
-      <c r="E130" s="71"/>
-      <c r="F130" s="71"/>
-      <c r="G130" s="71"/>
-      <c r="H130" s="71"/>
-      <c r="I130" s="69"/>
+      <c r="A130" s="64"/>
+      <c r="B130" s="64"/>
+      <c r="C130" s="64"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="65"/>
+      <c r="H130" s="65"/>
+      <c r="I130" s="67"/>
       <c r="J130" s="56" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K130:DN130)/データ!$D$2,"")</f>
         <v/>
@@ -20244,15 +20202,15 @@
       <c r="DN130" s="21"/>
     </row>
     <row r="131" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A131" s="70"/>
-      <c r="B131" s="70"/>
-      <c r="C131" s="70"/>
-      <c r="D131" s="70"/>
-      <c r="E131" s="71"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="71"/>
-      <c r="H131" s="71"/>
-      <c r="I131" s="68"/>
+      <c r="A131" s="64"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="64"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="66"/>
       <c r="J131" s="55" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K131:DN131)/データ!$D$2,"")</f>
         <v/>
@@ -20367,15 +20325,15 @@
       <c r="DN131" s="19"/>
     </row>
     <row r="132" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A132" s="70"/>
-      <c r="B132" s="70"/>
-      <c r="C132" s="70"/>
-      <c r="D132" s="70"/>
-      <c r="E132" s="71"/>
-      <c r="F132" s="71"/>
-      <c r="G132" s="71"/>
-      <c r="H132" s="71"/>
-      <c r="I132" s="69"/>
+      <c r="A132" s="64"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="64"/>
+      <c r="E132" s="65"/>
+      <c r="F132" s="65"/>
+      <c r="G132" s="65"/>
+      <c r="H132" s="65"/>
+      <c r="I132" s="67"/>
       <c r="J132" s="56" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K132:DN132)/データ!$D$2,"")</f>
         <v/>
@@ -20490,15 +20448,15 @@
       <c r="DN132" s="21"/>
     </row>
     <row r="133" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A133" s="70"/>
-      <c r="B133" s="70"/>
-      <c r="C133" s="70"/>
-      <c r="D133" s="70"/>
-      <c r="E133" s="71"/>
-      <c r="F133" s="71"/>
-      <c r="G133" s="71"/>
-      <c r="H133" s="71"/>
-      <c r="I133" s="68"/>
+      <c r="A133" s="64"/>
+      <c r="B133" s="64"/>
+      <c r="C133" s="64"/>
+      <c r="D133" s="64"/>
+      <c r="E133" s="65"/>
+      <c r="F133" s="65"/>
+      <c r="G133" s="65"/>
+      <c r="H133" s="65"/>
+      <c r="I133" s="66"/>
       <c r="J133" s="55" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K133:DN133)/データ!$D$2,"")</f>
         <v/>
@@ -20613,15 +20571,15 @@
       <c r="DN133" s="19"/>
     </row>
     <row r="134" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A134" s="70"/>
-      <c r="B134" s="70"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="70"/>
-      <c r="E134" s="71"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="71"/>
-      <c r="H134" s="71"/>
-      <c r="I134" s="69"/>
+      <c r="A134" s="64"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="65"/>
+      <c r="F134" s="65"/>
+      <c r="G134" s="65"/>
+      <c r="H134" s="65"/>
+      <c r="I134" s="67"/>
       <c r="J134" s="56" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K134:DN134)/データ!$D$2,"")</f>
         <v/>
@@ -20736,15 +20694,15 @@
       <c r="DN134" s="21"/>
     </row>
     <row r="135" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A135" s="70"/>
-      <c r="B135" s="70"/>
-      <c r="C135" s="70"/>
-      <c r="D135" s="70"/>
-      <c r="E135" s="71"/>
-      <c r="F135" s="71"/>
-      <c r="G135" s="71"/>
-      <c r="H135" s="71"/>
-      <c r="I135" s="68"/>
+      <c r="A135" s="64"/>
+      <c r="B135" s="64"/>
+      <c r="C135" s="64"/>
+      <c r="D135" s="64"/>
+      <c r="E135" s="65"/>
+      <c r="F135" s="65"/>
+      <c r="G135" s="65"/>
+      <c r="H135" s="65"/>
+      <c r="I135" s="66"/>
       <c r="J135" s="55" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K135:DN135)/データ!$D$2,"")</f>
         <v/>
@@ -20859,15 +20817,15 @@
       <c r="DN135" s="19"/>
     </row>
     <row r="136" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A136" s="70"/>
-      <c r="B136" s="70"/>
-      <c r="C136" s="70"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="71"/>
-      <c r="F136" s="71"/>
-      <c r="G136" s="71"/>
-      <c r="H136" s="71"/>
-      <c r="I136" s="69"/>
+      <c r="A136" s="64"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="64"/>
+      <c r="E136" s="65"/>
+      <c r="F136" s="65"/>
+      <c r="G136" s="65"/>
+      <c r="H136" s="65"/>
+      <c r="I136" s="67"/>
       <c r="J136" s="56" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K136:DN136)/データ!$D$2,"")</f>
         <v/>
@@ -20982,15 +20940,15 @@
       <c r="DN136" s="21"/>
     </row>
     <row r="137" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A137" s="70"/>
-      <c r="B137" s="70"/>
-      <c r="C137" s="70"/>
-      <c r="D137" s="70"/>
-      <c r="E137" s="71"/>
-      <c r="F137" s="71"/>
-      <c r="G137" s="71"/>
-      <c r="H137" s="71"/>
-      <c r="I137" s="68"/>
+      <c r="A137" s="64"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="64"/>
+      <c r="D137" s="64"/>
+      <c r="E137" s="65"/>
+      <c r="F137" s="65"/>
+      <c r="G137" s="65"/>
+      <c r="H137" s="65"/>
+      <c r="I137" s="66"/>
       <c r="J137" s="55" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K137:DN137)/データ!$D$2,"")</f>
         <v/>
@@ -21105,15 +21063,15 @@
       <c r="DN137" s="19"/>
     </row>
     <row r="138" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A138" s="70"/>
-      <c r="B138" s="70"/>
-      <c r="C138" s="70"/>
-      <c r="D138" s="70"/>
-      <c r="E138" s="71"/>
-      <c r="F138" s="71"/>
-      <c r="G138" s="71"/>
-      <c r="H138" s="71"/>
-      <c r="I138" s="69"/>
+      <c r="A138" s="64"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="64"/>
+      <c r="D138" s="64"/>
+      <c r="E138" s="65"/>
+      <c r="F138" s="65"/>
+      <c r="G138" s="65"/>
+      <c r="H138" s="65"/>
+      <c r="I138" s="67"/>
       <c r="J138" s="56" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K138:DN138)/データ!$D$2,"")</f>
         <v/>
@@ -21228,15 +21186,15 @@
       <c r="DN138" s="21"/>
     </row>
     <row r="139" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A139" s="70"/>
-      <c r="B139" s="70"/>
-      <c r="C139" s="70"/>
-      <c r="D139" s="70"/>
-      <c r="E139" s="71"/>
-      <c r="F139" s="71"/>
-      <c r="G139" s="71"/>
-      <c r="H139" s="71"/>
-      <c r="I139" s="68"/>
+      <c r="A139" s="64"/>
+      <c r="B139" s="64"/>
+      <c r="C139" s="64"/>
+      <c r="D139" s="64"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="66"/>
       <c r="J139" s="55" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K139:DN139)/データ!$D$2,"")</f>
         <v/>
@@ -21351,15 +21309,15 @@
       <c r="DN139" s="19"/>
     </row>
     <row r="140" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A140" s="70"/>
-      <c r="B140" s="70"/>
-      <c r="C140" s="70"/>
-      <c r="D140" s="70"/>
-      <c r="E140" s="71"/>
-      <c r="F140" s="71"/>
-      <c r="G140" s="71"/>
-      <c r="H140" s="71"/>
-      <c r="I140" s="69"/>
+      <c r="A140" s="64"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="64"/>
+      <c r="D140" s="64"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="65"/>
+      <c r="I140" s="67"/>
       <c r="J140" s="56" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K140:DN140)/データ!$D$2,"")</f>
         <v/>
@@ -21474,15 +21432,15 @@
       <c r="DN140" s="21"/>
     </row>
     <row r="141" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A141" s="70"/>
-      <c r="B141" s="70"/>
-      <c r="C141" s="70"/>
-      <c r="D141" s="70"/>
-      <c r="E141" s="71"/>
-      <c r="F141" s="71"/>
-      <c r="G141" s="71"/>
-      <c r="H141" s="71"/>
-      <c r="I141" s="68"/>
+      <c r="A141" s="64"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="64"/>
+      <c r="D141" s="64"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="65"/>
+      <c r="G141" s="65"/>
+      <c r="H141" s="65"/>
+      <c r="I141" s="66"/>
       <c r="J141" s="55" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K141:DN141)/データ!$D$2,"")</f>
         <v/>
@@ -21597,15 +21555,15 @@
       <c r="DN141" s="19"/>
     </row>
     <row r="142" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A142" s="70"/>
-      <c r="B142" s="70"/>
-      <c r="C142" s="70"/>
-      <c r="D142" s="70"/>
-      <c r="E142" s="71"/>
-      <c r="F142" s="71"/>
-      <c r="G142" s="71"/>
-      <c r="H142" s="71"/>
-      <c r="I142" s="69"/>
+      <c r="A142" s="64"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="64"/>
+      <c r="E142" s="65"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="65"/>
+      <c r="H142" s="65"/>
+      <c r="I142" s="67"/>
       <c r="J142" s="56" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K142:DN142)/データ!$D$2,"")</f>
         <v/>
@@ -21720,15 +21678,15 @@
       <c r="DN142" s="21"/>
     </row>
     <row r="143" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A143" s="70"/>
-      <c r="B143" s="70"/>
-      <c r="C143" s="70"/>
-      <c r="D143" s="70"/>
-      <c r="E143" s="71"/>
-      <c r="F143" s="71"/>
-      <c r="G143" s="71"/>
-      <c r="H143" s="71"/>
-      <c r="I143" s="68"/>
+      <c r="A143" s="64"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="64"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="65"/>
+      <c r="G143" s="65"/>
+      <c r="H143" s="65"/>
+      <c r="I143" s="66"/>
       <c r="J143" s="55" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K143:DN143)/データ!$D$2,"")</f>
         <v/>
@@ -21843,15 +21801,15 @@
       <c r="DN143" s="19"/>
     </row>
     <row r="144" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A144" s="70"/>
-      <c r="B144" s="70"/>
-      <c r="C144" s="70"/>
-      <c r="D144" s="70"/>
-      <c r="E144" s="71"/>
-      <c r="F144" s="71"/>
-      <c r="G144" s="71"/>
-      <c r="H144" s="71"/>
-      <c r="I144" s="69"/>
+      <c r="A144" s="64"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="64"/>
+      <c r="D144" s="64"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="65"/>
+      <c r="G144" s="65"/>
+      <c r="H144" s="65"/>
+      <c r="I144" s="67"/>
       <c r="J144" s="56" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K144:DN144)/データ!$D$2,"")</f>
         <v/>
@@ -21966,15 +21924,15 @@
       <c r="DN144" s="21"/>
     </row>
     <row r="145" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A145" s="70"/>
-      <c r="B145" s="70"/>
-      <c r="C145" s="70"/>
-      <c r="D145" s="70"/>
-      <c r="E145" s="71"/>
-      <c r="F145" s="71"/>
-      <c r="G145" s="71"/>
-      <c r="H145" s="71"/>
-      <c r="I145" s="68"/>
+      <c r="A145" s="64"/>
+      <c r="B145" s="64"/>
+      <c r="C145" s="64"/>
+      <c r="D145" s="64"/>
+      <c r="E145" s="65"/>
+      <c r="F145" s="65"/>
+      <c r="G145" s="65"/>
+      <c r="H145" s="65"/>
+      <c r="I145" s="66"/>
       <c r="J145" s="55" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K145:DN145)/データ!$D$2,"")</f>
         <v/>
@@ -22089,15 +22047,15 @@
       <c r="DN145" s="19"/>
     </row>
     <row r="146" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A146" s="70"/>
-      <c r="B146" s="70"/>
-      <c r="C146" s="70"/>
-      <c r="D146" s="70"/>
-      <c r="E146" s="71"/>
-      <c r="F146" s="71"/>
-      <c r="G146" s="71"/>
-      <c r="H146" s="71"/>
-      <c r="I146" s="69"/>
+      <c r="A146" s="64"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="64"/>
+      <c r="D146" s="64"/>
+      <c r="E146" s="65"/>
+      <c r="F146" s="65"/>
+      <c r="G146" s="65"/>
+      <c r="H146" s="65"/>
+      <c r="I146" s="67"/>
       <c r="J146" s="56" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K146:DN146)/データ!$D$2,"")</f>
         <v/>
@@ -22212,15 +22170,15 @@
       <c r="DN146" s="21"/>
     </row>
     <row r="147" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A147" s="64"/>
-      <c r="B147" s="64"/>
-      <c r="C147" s="64"/>
-      <c r="D147" s="64"/>
-      <c r="E147" s="66"/>
-      <c r="F147" s="66"/>
-      <c r="G147" s="66"/>
-      <c r="H147" s="66"/>
-      <c r="I147" s="68"/>
+      <c r="A147" s="68"/>
+      <c r="B147" s="68"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="70"/>
+      <c r="F147" s="70"/>
+      <c r="G147" s="70"/>
+      <c r="H147" s="70"/>
+      <c r="I147" s="66"/>
       <c r="J147" s="55" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K147:DN147)/データ!$D$2,"")</f>
         <v/>
@@ -22335,15 +22293,15 @@
       <c r="DN147" s="19"/>
     </row>
     <row r="148" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A148" s="65"/>
-      <c r="B148" s="65"/>
-      <c r="C148" s="65"/>
-      <c r="D148" s="65"/>
-      <c r="E148" s="67"/>
-      <c r="F148" s="67"/>
-      <c r="G148" s="67"/>
-      <c r="H148" s="67"/>
-      <c r="I148" s="69"/>
+      <c r="A148" s="69"/>
+      <c r="B148" s="69"/>
+      <c r="C148" s="69"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="71"/>
+      <c r="F148" s="71"/>
+      <c r="G148" s="71"/>
+      <c r="H148" s="71"/>
+      <c r="I148" s="67"/>
       <c r="J148" s="56" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K148:DN148)/データ!$D$2,"")</f>
         <v/>
@@ -22458,15 +22416,15 @@
       <c r="DN148" s="21"/>
     </row>
     <row r="149" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A149" s="70"/>
-      <c r="B149" s="70"/>
-      <c r="C149" s="70"/>
-      <c r="D149" s="70"/>
-      <c r="E149" s="71"/>
-      <c r="F149" s="71"/>
-      <c r="G149" s="71"/>
-      <c r="H149" s="71"/>
-      <c r="I149" s="68"/>
+      <c r="A149" s="64"/>
+      <c r="B149" s="64"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="64"/>
+      <c r="E149" s="65"/>
+      <c r="F149" s="65"/>
+      <c r="G149" s="65"/>
+      <c r="H149" s="65"/>
+      <c r="I149" s="66"/>
       <c r="J149" s="55" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K149:DN149)/データ!$D$2,"")</f>
         <v/>
@@ -22581,15 +22539,15 @@
       <c r="DN149" s="19"/>
     </row>
     <row r="150" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A150" s="70"/>
-      <c r="B150" s="70"/>
-      <c r="C150" s="70"/>
-      <c r="D150" s="70"/>
-      <c r="E150" s="71"/>
-      <c r="F150" s="71"/>
-      <c r="G150" s="71"/>
-      <c r="H150" s="71"/>
-      <c r="I150" s="69"/>
+      <c r="A150" s="64"/>
+      <c r="B150" s="64"/>
+      <c r="C150" s="64"/>
+      <c r="D150" s="64"/>
+      <c r="E150" s="65"/>
+      <c r="F150" s="65"/>
+      <c r="G150" s="65"/>
+      <c r="H150" s="65"/>
+      <c r="I150" s="67"/>
       <c r="J150" s="56" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K150:DN150)/データ!$D$2,"")</f>
         <v/>
@@ -22704,15 +22662,15 @@
       <c r="DN150" s="21"/>
     </row>
     <row r="151" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A151" s="70"/>
-      <c r="B151" s="70"/>
-      <c r="C151" s="70"/>
-      <c r="D151" s="70"/>
-      <c r="E151" s="71"/>
-      <c r="F151" s="71"/>
-      <c r="G151" s="71"/>
-      <c r="H151" s="71"/>
-      <c r="I151" s="68"/>
+      <c r="A151" s="64"/>
+      <c r="B151" s="64"/>
+      <c r="C151" s="64"/>
+      <c r="D151" s="64"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="65"/>
+      <c r="G151" s="65"/>
+      <c r="H151" s="65"/>
+      <c r="I151" s="66"/>
       <c r="J151" s="55" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K151:DN151)/データ!$D$2,"")</f>
         <v/>
@@ -22827,15 +22785,15 @@
       <c r="DN151" s="19"/>
     </row>
     <row r="152" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A152" s="70"/>
-      <c r="B152" s="70"/>
-      <c r="C152" s="70"/>
-      <c r="D152" s="70"/>
-      <c r="E152" s="71"/>
-      <c r="F152" s="71"/>
-      <c r="G152" s="71"/>
-      <c r="H152" s="71"/>
-      <c r="I152" s="69"/>
+      <c r="A152" s="64"/>
+      <c r="B152" s="64"/>
+      <c r="C152" s="64"/>
+      <c r="D152" s="64"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="65"/>
+      <c r="G152" s="65"/>
+      <c r="H152" s="65"/>
+      <c r="I152" s="67"/>
       <c r="J152" s="56" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K152:DN152)/データ!$D$2,"")</f>
         <v/>
@@ -56894,114 +56852,554 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="680">
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G41:G42"/>
@@ -57026,984 +57424,544 @@
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="I61:I62"/>
     <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K157:DN157 K35:DN152 K4:DN28">
-    <cfRule type="expression" dxfId="107" priority="175">
+    <cfRule type="expression" dxfId="99" priority="175">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="176">
+    <cfRule type="expression" dxfId="98" priority="176">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="177">
+    <cfRule type="expression" dxfId="97" priority="177">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75 D9:D10 I9:I10 D17:H28 D35:H76">
-    <cfRule type="expression" dxfId="104" priority="174">
+    <cfRule type="expression" dxfId="96" priority="174">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74 J76">
-    <cfRule type="expression" dxfId="103" priority="173">
+    <cfRule type="expression" dxfId="95" priority="173">
       <formula>$C73=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5 J9 J13 J17 J21 J25 J29 J37 J41 J45 J49 J53 J57 J61 J65 J69 J73">
-    <cfRule type="expression" dxfId="102" priority="155">
+    <cfRule type="expression" dxfId="94" priority="155">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6 J10 J14 J18 J22 J26 J30 J38 J42 J46 J50 J54 J58 J62 J66 J70">
-    <cfRule type="expression" dxfId="101" priority="154">
+    <cfRule type="expression" dxfId="93" priority="154">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7 J11 J15 J19 J23 J27 J35 J39 J43 J47 J51 J55 J59 J63 J67 J71">
-    <cfRule type="expression" dxfId="100" priority="153">
+    <cfRule type="expression" dxfId="92" priority="153">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8 J12 J16 J20 J24 J28 J36 J40 J44 J48 J52 J56 J60 J64 J68 J72">
-    <cfRule type="expression" dxfId="99" priority="152">
+    <cfRule type="expression" dxfId="91" priority="152">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I8 D7:E8">
-    <cfRule type="expression" dxfId="98" priority="144">
+    <cfRule type="expression" dxfId="90" priority="144">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H16 D15:E16">
-    <cfRule type="expression" dxfId="97" priority="136">
+    <cfRule type="expression" dxfId="89" priority="136">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:DN75 K73:DN73 K71:DN71 K69:DN69 K67:DN67 K65:DN65 K63:DN63 K57:DN57 K51:DN51 K49:DN49 K47:DN47 K45:DN45 K35:DN35 K27:DN27 K9:DN9 K7:DN7 K43:DN43 K41:DN41 K39:DN39 K5:DN5 K19:DN19 K59:DN59 K61:DN61 K11:DN11 K17:DN17 K15:DN15 K13:DN13 K21:DN21 K23:DN23 K25:DN25 K37:DN37 K55:DN55 K53:DN53">
-    <cfRule type="expression" dxfId="96" priority="147">
+    <cfRule type="expression" dxfId="88" priority="147">
       <formula>K5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K76:DN76 K74:DN74 K72:DN72 K70:DN70 K68:DN68 K66:DN66 K64:DN64 K62:DN62 K60:DN60 K58:DN58 K56:DN56 K54:DN54 K52:DN52 K50:DN50 K48:DN48 K46:DN46 K40:DN40 K38:DN38 K36:DN36 K28:DN28 K26:DN26 K24:DN24 K8:DN8 K6:DN6 K44:DN44 K42:DN42 K20:DN20 K10:DN10 K12:DN12 K14:DN14 K16:DN16 K18:DN18 K22:DN22">
-    <cfRule type="expression" dxfId="95" priority="146">
+    <cfRule type="expression" dxfId="87" priority="146">
       <formula>K6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E12">
-    <cfRule type="expression" dxfId="94" priority="142">
+    <cfRule type="expression" dxfId="86" priority="142">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="expression" dxfId="93" priority="143">
+    <cfRule type="expression" dxfId="85" priority="143">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C12 C17:C28 C35:C76">
-    <cfRule type="expression" dxfId="92" priority="137">
+    <cfRule type="expression" dxfId="84" priority="137">
       <formula>$I7="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="139">
+    <cfRule type="expression" dxfId="83" priority="139">
       <formula>$I7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F12">
-    <cfRule type="expression" dxfId="90" priority="118">
+    <cfRule type="expression" dxfId="82" priority="118">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C16">
-    <cfRule type="expression" dxfId="89" priority="131">
+    <cfRule type="expression" dxfId="81" priority="131">
       <formula>$I15="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="132">
+    <cfRule type="expression" dxfId="80" priority="132">
       <formula>$I15="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="expression" dxfId="87" priority="130">
+    <cfRule type="expression" dxfId="79" priority="130">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="expression" dxfId="86" priority="125">
+    <cfRule type="expression" dxfId="78" priority="125">
       <formula>$I13="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="126">
+    <cfRule type="expression" dxfId="77" priority="126">
       <formula>$I13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10 G9:H10">
-    <cfRule type="expression" dxfId="84" priority="117">
+    <cfRule type="expression" dxfId="76" priority="117">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="expression" dxfId="83" priority="116">
+    <cfRule type="expression" dxfId="75" priority="116">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="82" priority="115">
+    <cfRule type="expression" dxfId="74" priority="115">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:I6">
-    <cfRule type="expression" dxfId="81" priority="88">
+    <cfRule type="expression" dxfId="73" priority="88">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="expression" dxfId="80" priority="86">
+    <cfRule type="expression" dxfId="72" priority="86">
       <formula>$I5="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="87">
+    <cfRule type="expression" dxfId="71" priority="87">
       <formula>$I5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="expression" dxfId="78" priority="84">
+    <cfRule type="expression" dxfId="70" priority="84">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H12">
-    <cfRule type="expression" dxfId="77" priority="83">
+    <cfRule type="expression" dxfId="69" priority="83">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="expression" dxfId="76" priority="82">
+    <cfRule type="expression" dxfId="68" priority="82">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F14">
-    <cfRule type="expression" dxfId="75" priority="81">
+    <cfRule type="expression" dxfId="67" priority="81">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G14">
-    <cfRule type="expression" dxfId="74" priority="80">
+    <cfRule type="expression" dxfId="66" priority="80">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14">
-    <cfRule type="expression" dxfId="73" priority="79">
+    <cfRule type="expression" dxfId="65" priority="79">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79 J81 J85 J87 J89 J91 J93 J105 J107 J109 J111 J113 J115 J117 J119 J121 J123 J125 J127 J129 J131 J103 J97 J99 J95 J83 D79:H132">
-    <cfRule type="expression" dxfId="72" priority="72">
+    <cfRule type="expression" dxfId="64" priority="72">
       <formula>$C79=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80 J82 J86 J88 J90 J92 J94 J106 J108 J110 J112 J114 J116 J118 J120 J122 J124 J126 J128 J130 J132 J104 J98 J100 J96 J84">
-    <cfRule type="expression" dxfId="71" priority="71">
+    <cfRule type="expression" dxfId="63" priority="71">
       <formula>$C79=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77:H78 D77:E78">
-    <cfRule type="expression" dxfId="70" priority="66">
+    <cfRule type="expression" dxfId="62" priority="66">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K131:DN131 K129:DN129 K127:DN127 K125:DN125 K123:DN123 K121:DN121 K119:DN119 K113:DN113 K111:DN111 K109:DN109 K107:DN107 K105:DN105 K103:DN103 K101:DN101 K93:DN93 K91:DN91 K89:DN89 K87:DN87 K85:DN85 K99:DN99 K97:DN97 K95:DN95 K81:DN81 K79:DN79 K77:DN77 K83:DN83 K115:DN115 K117:DN117">
-    <cfRule type="expression" dxfId="69" priority="70">
+    <cfRule type="expression" dxfId="61" priority="70">
       <formula>K77&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K132:DN132 K130:DN130 K128:DN128 K126:DN126 K124:DN124 K122:DN122 K120:DN120 K118:DN118 K116:DN116 K114:DN114 K112:DN112 K110:DN110 K108:DN108 K106:DN106 K104:DN104 K102:DN102 K96:DN96 K94:DN94 K92:DN92 K90:DN90 K88:DN88 K86:DN86 K100:DN100 K98:DN98 K84:DN84 K82:DN82 K80:DN80 K78:DN78">
-    <cfRule type="expression" dxfId="68" priority="69">
+    <cfRule type="expression" dxfId="60" priority="69">
       <formula>K78&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C132">
-    <cfRule type="expression" dxfId="67" priority="67">
+    <cfRule type="expression" dxfId="59" priority="67">
       <formula>$I79="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="68">
+    <cfRule type="expression" dxfId="58" priority="68">
       <formula>$I79="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77">
-    <cfRule type="expression" dxfId="65" priority="65">
+    <cfRule type="expression" dxfId="57" priority="65">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J78">
-    <cfRule type="expression" dxfId="64" priority="64">
+    <cfRule type="expression" dxfId="56" priority="64">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C78">
-    <cfRule type="expression" dxfId="63" priority="62">
+    <cfRule type="expression" dxfId="55" priority="62">
       <formula>$I77="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="63">
+    <cfRule type="expression" dxfId="54" priority="63">
       <formula>$I77="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77:F78">
-    <cfRule type="expression" dxfId="61" priority="61">
+    <cfRule type="expression" dxfId="53" priority="61">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J101">
-    <cfRule type="expression" dxfId="60" priority="60">
+    <cfRule type="expression" dxfId="52" priority="60">
       <formula>$C101=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J102">
-    <cfRule type="expression" dxfId="59" priority="59">
+    <cfRule type="expression" dxfId="51" priority="59">
       <formula>$C101=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J133 J135 J137 J139 J141 J143 J145 J147 J149 J151 D133:H152">
-    <cfRule type="expression" dxfId="58" priority="55">
+    <cfRule type="expression" dxfId="50" priority="55">
       <formula>$C133=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134 J136 J138 J140 J142 J144 J146 J148 J150 J152">
-    <cfRule type="expression" dxfId="57" priority="54">
+    <cfRule type="expression" dxfId="49" priority="54">
       <formula>$C133=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K151:DN151 K149:DN149 K147:DN147 K145:DN145 K143:DN143 K141:DN141 K139:DN139 K133:DN133 K135:DN135 K137:DN137">
-    <cfRule type="expression" dxfId="56" priority="53">
+    <cfRule type="expression" dxfId="48" priority="53">
       <formula>K133&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K152:DN152 K150:DN150 K148:DN148 K146:DN146 K144:DN144 K142:DN142 K140:DN140 K138:DN138 K136:DN136 K134:DN134">
-    <cfRule type="expression" dxfId="55" priority="52">
+    <cfRule type="expression" dxfId="47" priority="52">
       <formula>K134&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C133:C152">
-    <cfRule type="expression" dxfId="54" priority="50">
+    <cfRule type="expression" dxfId="46" priority="50">
       <formula>$I133="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="51">
+    <cfRule type="expression" dxfId="45" priority="51">
       <formula>$I133="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I28 I35:I152">
-    <cfRule type="expression" dxfId="52" priority="49">
+    <cfRule type="expression" dxfId="44" priority="49">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:DN30">
-    <cfRule type="expression" dxfId="51" priority="46">
+    <cfRule type="expression" dxfId="43" priority="46">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="47">
+    <cfRule type="expression" dxfId="42" priority="47">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="48">
+    <cfRule type="expression" dxfId="41" priority="48">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:H30">
-    <cfRule type="expression" dxfId="48" priority="45">
+    <cfRule type="expression" dxfId="40" priority="45">
       <formula>$C29=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:DN29">
-    <cfRule type="expression" dxfId="47" priority="43">
+    <cfRule type="expression" dxfId="39" priority="43">
       <formula>K29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:DN30">
-    <cfRule type="expression" dxfId="46" priority="42">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>K30&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C30">
-    <cfRule type="expression" dxfId="45" priority="40">
+    <cfRule type="expression" dxfId="37" priority="40">
       <formula>$I29="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="41">
+    <cfRule type="expression" dxfId="36" priority="41">
       <formula>$I29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I30">
-    <cfRule type="expression" dxfId="43" priority="39">
+    <cfRule type="expression" dxfId="35" priority="39">
       <formula>$C29=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="41" priority="37">
+    <cfRule type="expression" dxfId="33" priority="37">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:DN32 K31:BN31 BU31:DN31">
-    <cfRule type="expression" dxfId="40" priority="34">
+    <cfRule type="expression" dxfId="32" priority="34">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="35">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="36">
+    <cfRule type="expression" dxfId="30" priority="36">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:H32">
-    <cfRule type="expression" dxfId="37" priority="33">
+    <cfRule type="expression" dxfId="29" priority="33">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN31 BU31:DN31">
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>K31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:DN32">
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="27" priority="31">
       <formula>K32&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C32">
-    <cfRule type="expression" dxfId="34" priority="29">
+    <cfRule type="expression" dxfId="26" priority="29">
       <formula>$I31="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="30">
+    <cfRule type="expression" dxfId="25" priority="30">
       <formula>$I31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I32">
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="expression" dxfId="31" priority="27">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:DN34 K33:BP33 BW33:DN33">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="25">
+    <cfRule type="expression" dxfId="19" priority="25">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:H34">
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BP33 BW33:DN33">
-    <cfRule type="expression" dxfId="25" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>K33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:DN34">
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>K34&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C34">
-    <cfRule type="expression" dxfId="23" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>$I33="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="19">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>$I33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I34">
-    <cfRule type="expression" dxfId="21" priority="17">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO31:BT31">
-    <cfRule type="expression" dxfId="20" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>ISERROR(MATCH(BO$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>WEEKDAY(BO$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>WEEKDAY(BO$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO31:BT31">
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>BO31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ33:BZ33">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>ISERROR(MATCH(BQ$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>WEEKDAY(BQ$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>WEEKDAY(BQ$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ33:BZ33">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>BQ33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61681,13 +61639,13 @@
   </customSheetViews>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B27:DH27">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>ISERROR(MATCH(B$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>WEEKDAY(B$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>WEEKDAY(B$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62114,12 +62072,12 @@
   </customSheetViews>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:B29 D4:H29">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$E4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C29">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$E4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62188,7 +62146,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="8">
         <v>42489</v>
@@ -62202,7 +62160,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="8">
         <v>42493</v>
@@ -62213,7 +62171,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="8">
         <v>42494</v>
@@ -62224,7 +62182,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="8">
         <v>42495</v>

--- a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/PM演習_管理ツール_矢吹研A班.xlsx
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ガント!$A$4:$DN$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">懸案!$A$3:$H$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">EVM!$A$1:$DC$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ガント!$A$1:$DN$152</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ガント!$A$1:$DE$60</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ガント!$A:$J,ガント!$1:$4</definedName>
     <definedName name="Z_D7C84124_F7F5_40C3_93A3_6E183C55719E_.wvu.Cols" localSheetId="1" hidden="1">EVM!$C:$H,EVM!$J:$O,EVM!$Q:$V,EVM!$X:$AC,EVM!$AE:$AJ,EVM!$AL:$AQ,EVM!$AS:$AX,EVM!$AZ:$BE,EVM!$BG:$BL,EVM!$BN:$BS,EVM!$BU:$BZ,EVM!$CB:$CG,EVM!$CI:$CN,EVM!$CP:$CU,EVM!$CW:$DB,EVM!$DD:$DH</definedName>
     <definedName name="Z_D7C84124_F7F5_40C3_93A3_6E183C55719E_.wvu.FilterData" localSheetId="0" hidden="1">ガント!$A$4:$DN$76</definedName>
@@ -1734,22 +1734,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1766,29 +1750,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1806,29 +1812,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2972,11 +2972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="237513208"/>
-        <c:axId val="237512032"/>
+        <c:axId val="83572760"/>
+        <c:axId val="83269744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="237513208"/>
+        <c:axId val="83572760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,14 +2986,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237512032"/>
+        <c:crossAx val="83269744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="237512032"/>
+        <c:axId val="83269744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3014,7 +3014,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237513208"/>
+        <c:crossAx val="83572760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3511,7 +3511,7 @@
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="AL1" sqref="AL1:AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3530,65 +3530,65 @@
       <c r="A1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="86"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="83">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="84">
         <v>11.4</v>
       </c>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="80" t="s">
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="83" t="s">
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="77" t="s">
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="72">
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="87">
         <v>42522</v>
       </c>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="74"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="86"/>
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A2" s="45"/>
@@ -3617,25 +3617,25 @@
       <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:118" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="80" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="49" t="s">
@@ -3759,10 +3759,10 @@
       <c r="DN3" s="51"/>
     </row>
     <row r="4" spans="1:118" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="76"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="53" t="str">
         <f>データ!A2</f>
         <v>川崎</v>
@@ -3779,7 +3779,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>小山</v>
       </c>
-      <c r="I4" s="79"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="54" t="s">
         <v>21</v>
       </c>
@@ -4109,20 +4109,20 @@
       </c>
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A5" s="64">
-        <v>0</v>
-      </c>
-      <c r="B5" s="68" t="str">
+      <c r="A5" s="70">
+        <v>0</v>
+      </c>
+      <c r="B5" s="64" t="str">
         <f>B1</f>
         <v>コンビニ弁当情報サイト開発</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="84"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="55" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K5:DN5)/データ!$D$2,"")</f>
         <v/>
@@ -4237,15 +4237,15 @@
       <c r="DN5" s="19"/>
     </row>
     <row r="6" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A6" s="64"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="84"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="56" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K6:DN6)/データ!$D$2,"")</f>
         <v/>
@@ -4360,19 +4360,19 @@
       <c r="DN6" s="21"/>
     </row>
     <row r="7" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A7" s="64">
+      <c r="A7" s="70">
         <v>1</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="84"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="55" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DN7)/データ!$D$2,"")</f>
         <v/>
@@ -4487,15 +4487,15 @@
       <c r="DN7" s="19"/>
     </row>
     <row r="8" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="84"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="56" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DN8)/データ!$D$2,"")</f>
         <v/>
@@ -4610,23 +4610,23 @@
       <c r="DN8" s="21"/>
     </row>
     <row r="9" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A9" s="64">
+      <c r="A9" s="70">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="68" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="66">
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="68">
         <v>1</v>
       </c>
       <c r="J9" s="55">
@@ -4753,15 +4753,15 @@
       <c r="DN9" s="19"/>
     </row>
     <row r="10" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="67"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="69"/>
       <c r="J10" s="56">
         <f>IF(C9&lt;&gt;"",SUM(K10:DN10)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -4886,25 +4886,25 @@
       <c r="DN10" s="21"/>
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A11" s="64">
+      <c r="A11" s="70">
         <v>1.2</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="66">
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="68">
         <v>1</v>
       </c>
       <c r="J11" s="55">
@@ -5031,15 +5031,15 @@
       <c r="DN11" s="19"/>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="67"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="69"/>
       <c r="J12" s="56">
         <f>IF(C11&lt;&gt;"",SUM(K12:DN12)/データ!$D$2,"")</f>
         <v>4.875</v>
@@ -5170,25 +5170,25 @@
       <c r="DN12" s="21"/>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A13" s="64">
+      <c r="A13" s="70">
         <v>1.3</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="66">
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="68">
         <v>1</v>
       </c>
       <c r="J13" s="55">
@@ -5307,15 +5307,15 @@
       <c r="DN13" s="19"/>
     </row>
     <row r="14" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="67"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="69"/>
       <c r="J14" s="56">
         <f>IF(C13&lt;&gt;"",SUM(K14:DN14)/データ!$D$2,"")</f>
         <v>0.25</v>
@@ -5434,25 +5434,25 @@
       <c r="DN14" s="21"/>
     </row>
     <row r="15" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A15" s="68">
+      <c r="A15" s="64">
         <v>1.4</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="66">
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="68">
         <v>1</v>
       </c>
       <c r="J15" s="55">
@@ -5579,15 +5579,15 @@
       <c r="DN15" s="19"/>
     </row>
     <row r="16" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="67"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="69"/>
       <c r="J16" s="56">
         <f>IF(C15&lt;&gt;"",SUM(K16:DN16)/データ!$D$2,"")</f>
         <v>1</v>
@@ -5712,31 +5712,31 @@
       <c r="DN16" s="21"/>
     </row>
     <row r="17" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A17" s="68">
+      <c r="A17" s="64">
         <v>2</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="70" t="s">
+      <c r="G17" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="66">
+      <c r="I17" s="68">
         <v>1</v>
       </c>
       <c r="J17" s="55">
@@ -5867,15 +5867,15 @@
       <c r="DN17" s="19"/>
     </row>
     <row r="18" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="67"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="69"/>
       <c r="J18" s="56">
         <f>IF(C17&lt;&gt;"",SUM(K18:DN18)/データ!$D$2,"")</f>
         <v>9</v>
@@ -6028,19 +6028,19 @@
       <c r="DN18" s="21"/>
     </row>
     <row r="19" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A19" s="68">
+      <c r="A19" s="64">
         <v>3</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="66"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="68"/>
       <c r="J19" s="55" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K19:DN19)/データ!$D$2,"")</f>
         <v/>
@@ -6155,15 +6155,15 @@
       <c r="DN19" s="19"/>
     </row>
     <row r="20" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="67"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="69"/>
       <c r="J20" s="56" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K20:DN20)/データ!$D$2,"")</f>
         <v/>
@@ -6278,27 +6278,27 @@
       <c r="DN20" s="21"/>
     </row>
     <row r="21" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="68">
+      <c r="A21" s="64">
         <v>3.1</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70" t="s">
+      <c r="F21" s="66"/>
+      <c r="G21" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="70" t="s">
+      <c r="H21" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="66">
+      <c r="I21" s="68">
         <v>0.8</v>
       </c>
       <c r="J21" s="55">
@@ -6427,15 +6427,15 @@
       <c r="DN21" s="19"/>
     </row>
     <row r="22" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="67"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="69"/>
       <c r="J22" s="56">
         <f>IF(C21&lt;&gt;"",SUM(K22:DN22)/データ!$D$2,"")</f>
         <v>4</v>
@@ -6574,25 +6574,25 @@
       <c r="DN22" s="21"/>
     </row>
     <row r="23" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A23" s="68">
+      <c r="A23" s="64">
         <v>3.2</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68" t="s">
+      <c r="B23" s="64"/>
+      <c r="C23" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70" t="s">
+      <c r="F23" s="66"/>
+      <c r="G23" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="70"/>
-      <c r="I23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="68"/>
       <c r="J23" s="55">
         <f>IF(C23&lt;&gt;"",SUM(K23:DN23)/データ!$D$2,"")</f>
         <v>4</v>
@@ -6717,15 +6717,15 @@
       <c r="DN23" s="19"/>
     </row>
     <row r="24" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="67"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="69"/>
       <c r="J24" s="56">
         <f>IF(C23&lt;&gt;"",SUM(K24:DN24)/データ!$D$2,"")</f>
         <v>0.125</v>
@@ -6842,25 +6842,25 @@
       <c r="DN24" s="21"/>
     </row>
     <row r="25" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="68">
+      <c r="A25" s="64">
         <v>4</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="68"/>
       <c r="J25" s="55">
         <f>IF(C25&lt;&gt;"",SUM(K25:DN25)/データ!$D$2,"")</f>
         <v>5</v>
@@ -6983,15 +6983,15 @@
       <c r="DN25" s="19"/>
     </row>
     <row r="26" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="67"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="69"/>
       <c r="J26" s="56">
         <f>IF(C25&lt;&gt;"",SUM(K26:DN26)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7106,19 +7106,19 @@
       <c r="DN26" s="21"/>
     </row>
     <row r="27" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="68">
+      <c r="A27" s="64">
         <v>5</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="66"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="68"/>
       <c r="J27" s="55" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K27:DN27)/データ!$D$2,"")</f>
         <v/>
@@ -7233,15 +7233,15 @@
       <c r="DN27" s="19"/>
     </row>
     <row r="28" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="67"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="69"/>
       <c r="J28" s="56" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K28:DN28)/データ!$D$2,"")</f>
         <v/>
@@ -7356,27 +7356,27 @@
       <c r="DN28" s="21"/>
     </row>
     <row r="29" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="68">
+      <c r="A29" s="64">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68" t="s">
+      <c r="B29" s="64"/>
+      <c r="C29" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70" t="s">
+      <c r="G29" s="66"/>
+      <c r="H29" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="I29" s="66"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="55">
         <f>IF(C29&lt;&gt;"",SUM(K29:DN29)/データ!$D$2,"")</f>
         <v>4.5</v>
@@ -7503,15 +7503,15 @@
       <c r="DN29" s="19"/>
     </row>
     <row r="30" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A30" s="69"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="67"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="69"/>
       <c r="J30" s="56">
         <f>IF(C29&lt;&gt;"",SUM(K30:DN30)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7626,27 +7626,27 @@
       <c r="DN30" s="21"/>
     </row>
     <row r="31" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="68">
+      <c r="A31" s="64">
         <v>5.2</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70" t="s">
+      <c r="F31" s="66"/>
+      <c r="G31" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="70" t="s">
+      <c r="H31" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="I31" s="66"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="55">
         <f>IF(C31&lt;&gt;"",SUM(K31:DN31)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -7773,15 +7773,15 @@
       <c r="DN31" s="19"/>
     </row>
     <row r="32" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A32" s="69"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="67"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="69"/>
       <c r="J32" s="56">
         <f>IF(C31&lt;&gt;"",SUM(K32:DN32)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7896,29 +7896,29 @@
       <c r="DN32" s="21"/>
     </row>
     <row r="33" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="68">
+      <c r="A33" s="64">
         <v>6</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="70" t="s">
+      <c r="G33" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="70"/>
-      <c r="I33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="68"/>
       <c r="J33" s="55">
         <f>IF(C33&lt;&gt;"",SUM(K33:DN33)/データ!$D$2,"")</f>
         <v>3.75</v>
@@ -8045,15 +8045,15 @@
       <c r="DN33" s="19"/>
     </row>
     <row r="34" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A34" s="69"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="67"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="69"/>
       <c r="J34" s="56">
         <f>IF(C33&lt;&gt;"",SUM(K34:DN34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8168,29 +8168,29 @@
       <c r="DN34" s="21"/>
     </row>
     <row r="35" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A35" s="68">
+      <c r="A35" s="64">
         <v>7</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="68"/>
-      <c r="E35" s="70" t="s">
+      <c r="D35" s="64"/>
+      <c r="E35" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="F35" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="70" t="s">
+      <c r="G35" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="70" t="s">
+      <c r="H35" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="66"/>
+      <c r="I35" s="68"/>
       <c r="J35" s="55">
         <f>IF(C35&lt;&gt;"",SUM(K35:DN35)/データ!$D$2,"")</f>
         <v>10</v>
@@ -8333,15 +8333,15 @@
       <c r="DN35" s="19"/>
     </row>
     <row r="36" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A36" s="69"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="67"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="69"/>
       <c r="J36" s="56">
         <f>IF(C35&lt;&gt;"",SUM(K36:DN36)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8456,23 +8456,23 @@
       <c r="DN36" s="21"/>
     </row>
     <row r="37" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A37" s="68">
+      <c r="A37" s="64">
         <v>8</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="68"/>
       <c r="J37" s="55">
         <f>IF(C37&lt;&gt;"",SUM(K37:DN37)/データ!$D$2,"")</f>
         <v>5</v>
@@ -8607,15 +8607,15 @@
       <c r="DN37" s="19"/>
     </row>
     <row r="38" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A38" s="69"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="67"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="69"/>
       <c r="J38" s="56">
         <f>IF(C37&lt;&gt;"",SUM(K38:DN38)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8730,19 +8730,19 @@
       <c r="DN38" s="21"/>
     </row>
     <row r="39" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="68">
+      <c r="A39" s="64">
         <v>9</v>
       </c>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="66"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="68"/>
       <c r="J39" s="55" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K39:DN39)/データ!$D$2,"")</f>
         <v/>
@@ -8857,15 +8857,15 @@
       <c r="DN39" s="19"/>
     </row>
     <row r="40" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A40" s="69"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="67"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="69"/>
       <c r="J40" s="56" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K40:DN40)/データ!$D$2,"")</f>
         <v/>
@@ -8980,25 +8980,25 @@
       <c r="DN40" s="21"/>
     </row>
     <row r="41" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A41" s="68">
+      <c r="A41" s="64">
         <v>9.1</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68" t="s">
+      <c r="B41" s="64"/>
+      <c r="C41" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="F41" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="68"/>
       <c r="J41" s="55">
         <f>IF(C41&lt;&gt;"",SUM(K41:DN41)/データ!$D$2,"")</f>
         <v>1.5</v>
@@ -9119,15 +9119,15 @@
       <c r="DN41" s="19"/>
     </row>
     <row r="42" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A42" s="69"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="67"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="69"/>
       <c r="J42" s="56">
         <f>IF(C41&lt;&gt;"",SUM(K42:DN42)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9242,25 +9242,25 @@
       <c r="DN42" s="21"/>
     </row>
     <row r="43" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A43" s="68">
+      <c r="A43" s="64">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68" t="s">
+      <c r="B43" s="64"/>
+      <c r="C43" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70" t="s">
+      <c r="F43" s="66"/>
+      <c r="G43" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H43" s="70"/>
-      <c r="I43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="68"/>
       <c r="J43" s="55">
         <f>IF(C43&lt;&gt;"",SUM(K43:DN43)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -9381,15 +9381,15 @@
       <c r="DN43" s="19"/>
     </row>
     <row r="44" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A44" s="69"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="67"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="69"/>
       <c r="J44" s="56">
         <f>IF(C43&lt;&gt;"",SUM(K44:DN44)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9504,19 +9504,19 @@
       <c r="DN44" s="21"/>
     </row>
     <row r="45" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="68">
+      <c r="A45" s="64">
         <v>10</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="66"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="68"/>
       <c r="J45" s="55" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K45:DN45)/データ!$D$2,"")</f>
         <v/>
@@ -9631,15 +9631,15 @@
       <c r="DN45" s="19"/>
     </row>
     <row r="46" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A46" s="69"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="67"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="69"/>
       <c r="J46" s="56" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K46:DN46)/データ!$D$2,"")</f>
         <v/>
@@ -9754,23 +9754,23 @@
       <c r="DN46" s="21"/>
     </row>
     <row r="47" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A47" s="68">
+      <c r="A47" s="64">
         <v>10.1</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68" t="s">
+      <c r="B47" s="64"/>
+      <c r="C47" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="70" t="s">
+      <c r="E47" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="55">
         <f>IF(C47&lt;&gt;"",SUM(K47:DN47)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -9891,15 +9891,15 @@
       <c r="DN47" s="19"/>
     </row>
     <row r="48" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A48" s="69"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="67"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="69"/>
       <c r="J48" s="56">
         <f>IF(C47&lt;&gt;"",SUM(K48:DN48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10014,23 +10014,23 @@
       <c r="DN48" s="21"/>
     </row>
     <row r="49" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A49" s="64">
+      <c r="A49" s="70">
         <v>10.199999999999999</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64" t="s">
+      <c r="B49" s="70"/>
+      <c r="C49" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="64" t="s">
+      <c r="D49" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="65" t="s">
+      <c r="E49" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="66"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="68"/>
       <c r="J49" s="55">
         <f>IF(C49&lt;&gt;"",SUM(K49:DN49)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10145,15 +10145,15 @@
       <c r="DN49" s="19"/>
     </row>
     <row r="50" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="67"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="69"/>
       <c r="J50" s="56">
         <f>IF(C49&lt;&gt;"",SUM(K50:DN50)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10268,19 +10268,19 @@
       <c r="DN50" s="21"/>
     </row>
     <row r="51" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A51" s="64">
+      <c r="A51" s="70">
         <v>11</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="66"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="68"/>
       <c r="J51" s="55" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K51:DN51)/データ!$D$2,"")</f>
         <v/>
@@ -10395,15 +10395,15 @@
       <c r="DN51" s="19"/>
     </row>
     <row r="52" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="67"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="69"/>
       <c r="J52" s="56" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K52:DN52)/データ!$D$2,"")</f>
         <v/>
@@ -10518,25 +10518,25 @@
       <c r="DN52" s="21"/>
     </row>
     <row r="53" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A53" s="64">
+      <c r="A53" s="70">
         <v>11.1</v>
       </c>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64" t="s">
+      <c r="B53" s="70"/>
+      <c r="C53" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="64" t="s">
+      <c r="D53" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="65" t="s">
+      <c r="E53" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="65" t="s">
+      <c r="F53" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="66"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="68"/>
       <c r="J53" s="55">
         <f>IF(C53&lt;&gt;"",SUM(K53:DN53)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -10677,15 +10677,15 @@
       <c r="DN53" s="19"/>
     </row>
     <row r="54" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A54" s="64"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="67"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="69"/>
       <c r="J54" s="56">
         <f>IF(C53&lt;&gt;"",SUM(K54:DN54)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10800,23 +10800,23 @@
       <c r="DN54" s="21"/>
     </row>
     <row r="55" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A55" s="64">
+      <c r="A55" s="70">
         <v>11.2</v>
       </c>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64" t="s">
+      <c r="B55" s="70"/>
+      <c r="C55" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="64" t="s">
+      <c r="D55" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="E55" s="65" t="s">
+      <c r="E55" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="66"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="68"/>
       <c r="J55" s="55">
         <f>IF(C55&lt;&gt;"",SUM(K55:DN55)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -10957,15 +10957,15 @@
       <c r="DN55" s="19"/>
     </row>
     <row r="56" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A56" s="64"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="67"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="69"/>
       <c r="J56" s="56">
         <f>IF(C55&lt;&gt;"",SUM(K56:DN56)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11080,23 +11080,23 @@
       <c r="DN56" s="21"/>
     </row>
     <row r="57" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A57" s="64">
+      <c r="A57" s="70">
         <v>11.3</v>
       </c>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64" t="s">
+      <c r="B57" s="70"/>
+      <c r="C57" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="64" t="s">
+      <c r="D57" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="65" t="s">
+      <c r="E57" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="66"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="68"/>
       <c r="J57" s="55">
         <f>IF(C57&lt;&gt;"",SUM(K57:DN57)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11213,15 +11213,15 @@
       <c r="DN57" s="19"/>
     </row>
     <row r="58" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A58" s="64"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="67"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="69"/>
       <c r="J58" s="56">
         <f>IF(C57&lt;&gt;"",SUM(K58:DN58)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11336,23 +11336,23 @@
       <c r="DN58" s="21"/>
     </row>
     <row r="59" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A59" s="64">
+      <c r="A59" s="70">
         <v>11.4</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64" t="s">
+      <c r="B59" s="70"/>
+      <c r="C59" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="64" t="s">
+      <c r="D59" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="E59" s="65" t="s">
+      <c r="E59" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="66"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="68"/>
       <c r="J59" s="55">
         <f>IF(C59&lt;&gt;"",SUM(K59:DN59)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11469,15 +11469,15 @@
       <c r="DN59" s="19"/>
     </row>
     <row r="60" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A60" s="64"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="67"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="69"/>
       <c r="J60" s="56">
         <f>IF(C59&lt;&gt;"",SUM(K60:DN60)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11592,15 +11592,15 @@
       <c r="DN60" s="21"/>
     </row>
     <row r="61" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A61" s="64"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="66"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="68"/>
       <c r="J61" s="55" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DN61)/データ!$D$2,"")</f>
         <v/>
@@ -11715,15 +11715,15 @@
       <c r="DN61" s="19"/>
     </row>
     <row r="62" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A62" s="64"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="67"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="69"/>
       <c r="J62" s="56" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DN62)/データ!$D$2,"")</f>
         <v/>
@@ -11838,15 +11838,15 @@
       <c r="DN62" s="21"/>
     </row>
     <row r="63" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A63" s="64"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="66"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="68"/>
       <c r="J63" s="55" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K63:DN63)/データ!$D$2,"")</f>
         <v/>
@@ -11961,15 +11961,15 @@
       <c r="DN63" s="19"/>
     </row>
     <row r="64" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A64" s="64"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="67"/>
+      <c r="A64" s="70"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="69"/>
       <c r="J64" s="56" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K64:DN64)/データ!$D$2,"")</f>
         <v/>
@@ -12084,15 +12084,15 @@
       <c r="DN64" s="21"/>
     </row>
     <row r="65" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A65" s="64"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="66"/>
+      <c r="A65" s="70"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="68"/>
       <c r="J65" s="55" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K65:DN65)/データ!$D$2,"")</f>
         <v/>
@@ -12207,15 +12207,15 @@
       <c r="DN65" s="19"/>
     </row>
     <row r="66" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A66" s="64"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="67"/>
+      <c r="A66" s="70"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="69"/>
       <c r="J66" s="56" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K66:DN66)/データ!$D$2,"")</f>
         <v/>
@@ -12330,15 +12330,15 @@
       <c r="DN66" s="21"/>
     </row>
     <row r="67" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A67" s="64"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="66"/>
+      <c r="A67" s="70"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="68"/>
       <c r="J67" s="55" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DN67)/データ!$D$2,"")</f>
         <v/>
@@ -12453,15 +12453,15 @@
       <c r="DN67" s="19"/>
     </row>
     <row r="68" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A68" s="64"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="67"/>
+      <c r="A68" s="70"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="69"/>
       <c r="J68" s="56" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DN68)/データ!$D$2,"")</f>
         <v/>
@@ -12576,15 +12576,15 @@
       <c r="DN68" s="21"/>
     </row>
     <row r="69" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A69" s="64"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="66"/>
+      <c r="A69" s="70"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="68"/>
       <c r="J69" s="55" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DN69)/データ!$D$2,"")</f>
         <v/>
@@ -12699,15 +12699,15 @@
       <c r="DN69" s="19"/>
     </row>
     <row r="70" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A70" s="64"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="67"/>
+      <c r="A70" s="70"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="69"/>
       <c r="J70" s="56" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DN70)/データ!$D$2,"")</f>
         <v/>
@@ -12822,15 +12822,15 @@
       <c r="DN70" s="21"/>
     </row>
     <row r="71" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A71" s="68"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="66"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="68"/>
       <c r="J71" s="55" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K71:DN71)/データ!$D$2,"")</f>
         <v/>
@@ -12945,15 +12945,15 @@
       <c r="DN71" s="19"/>
     </row>
     <row r="72" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A72" s="69"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="67"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="69"/>
       <c r="J72" s="56" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K72:DN72)/データ!$D$2,"")</f>
         <v/>
@@ -13068,15 +13068,15 @@
       <c r="DN72" s="21"/>
     </row>
     <row r="73" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A73" s="64"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="66"/>
+      <c r="A73" s="70"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="68"/>
       <c r="J73" s="55" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K73:DN73)/データ!$D$2,"")</f>
         <v/>
@@ -13191,15 +13191,15 @@
       <c r="DN73" s="19"/>
     </row>
     <row r="74" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A74" s="64"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="67"/>
+      <c r="A74" s="70"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="69"/>
       <c r="J74" s="56" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K74:DN74)/データ!$D$2,"")</f>
         <v/>
@@ -13314,15 +13314,15 @@
       <c r="DN74" s="21"/>
     </row>
     <row r="75" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A75" s="64"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="66"/>
+      <c r="A75" s="70"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="68"/>
       <c r="J75" s="55" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K75:DN75)/データ!$D$2,"")</f>
         <v/>
@@ -13437,15 +13437,15 @@
       <c r="DN75" s="19"/>
     </row>
     <row r="76" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A76" s="64"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="67"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="69"/>
       <c r="J76" s="56" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K76:DN76)/データ!$D$2,"")</f>
         <v/>
@@ -13560,15 +13560,15 @@
       <c r="DN76" s="21"/>
     </row>
     <row r="77" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A77" s="68"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="70"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="66"/>
+      <c r="A77" s="64"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="68"/>
       <c r="J77" s="55" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DN77)/データ!$D$2,"")</f>
         <v/>
@@ -13683,15 +13683,15 @@
       <c r="DN77" s="19"/>
     </row>
     <row r="78" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A78" s="69"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="67"/>
+      <c r="A78" s="65"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="69"/>
       <c r="J78" s="56" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DN78)/データ!$D$2,"")</f>
         <v/>
@@ -13806,15 +13806,15 @@
       <c r="DN78" s="21"/>
     </row>
     <row r="79" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A79" s="68"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="70"/>
-      <c r="H79" s="70"/>
-      <c r="I79" s="66"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="68"/>
       <c r="J79" s="55" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K79:DN79)/データ!$D$2,"")</f>
         <v/>
@@ -13929,15 +13929,15 @@
       <c r="DN79" s="19"/>
     </row>
     <row r="80" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A80" s="69"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="67"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="69"/>
       <c r="J80" s="56" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K80:DN80)/データ!$D$2,"")</f>
         <v/>
@@ -14052,15 +14052,15 @@
       <c r="DN80" s="21"/>
     </row>
     <row r="81" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A81" s="68"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="70"/>
-      <c r="H81" s="70"/>
-      <c r="I81" s="66"/>
+      <c r="A81" s="64"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="68"/>
       <c r="J81" s="55" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K81:DN81)/データ!$D$2,"")</f>
         <v/>
@@ -14175,15 +14175,15 @@
       <c r="DN81" s="19"/>
     </row>
     <row r="82" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A82" s="69"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="67"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="69"/>
       <c r="J82" s="56" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K82:DN82)/データ!$D$2,"")</f>
         <v/>
@@ -14298,15 +14298,15 @@
       <c r="DN82" s="21"/>
     </row>
     <row r="83" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="68"/>
-      <c r="B83" s="68"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="70"/>
-      <c r="H83" s="70"/>
-      <c r="I83" s="66"/>
+      <c r="A83" s="64"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="68"/>
       <c r="J83" s="55" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K83:DN83)/データ!$D$2,"")</f>
         <v/>
@@ -14421,15 +14421,15 @@
       <c r="DN83" s="19"/>
     </row>
     <row r="84" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A84" s="69"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="67"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="69"/>
       <c r="J84" s="56" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K84:DN84)/データ!$D$2,"")</f>
         <v/>
@@ -14544,15 +14544,15 @@
       <c r="DN84" s="21"/>
     </row>
     <row r="85" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A85" s="68"/>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="70"/>
-      <c r="I85" s="66"/>
+      <c r="A85" s="64"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="68"/>
       <c r="J85" s="55" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DN85)/データ!$D$2,"")</f>
         <v/>
@@ -14667,15 +14667,15 @@
       <c r="DN85" s="19"/>
     </row>
     <row r="86" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A86" s="69"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="67"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="69"/>
       <c r="J86" s="56" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DN86)/データ!$D$2,"")</f>
         <v/>
@@ -14790,15 +14790,15 @@
       <c r="DN86" s="21"/>
     </row>
     <row r="87" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="68"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70"/>
-      <c r="I87" s="66"/>
+      <c r="A87" s="64"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="68"/>
       <c r="J87" s="55" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K87:DN87)/データ!$D$2,"")</f>
         <v/>
@@ -14913,15 +14913,15 @@
       <c r="DN87" s="19"/>
     </row>
     <row r="88" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A88" s="69"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="67"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="69"/>
       <c r="J88" s="56" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K88:DN88)/データ!$D$2,"")</f>
         <v/>
@@ -15036,15 +15036,15 @@
       <c r="DN88" s="21"/>
     </row>
     <row r="89" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="68"/>
-      <c r="B89" s="68"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="66"/>
+      <c r="A89" s="64"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="68"/>
       <c r="J89" s="55" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K89:DN89)/データ!$D$2,"")</f>
         <v/>
@@ -15159,15 +15159,15 @@
       <c r="DN89" s="19"/>
     </row>
     <row r="90" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A90" s="69"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="67"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="69"/>
       <c r="J90" s="56" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K90:DN90)/データ!$D$2,"")</f>
         <v/>
@@ -15282,15 +15282,15 @@
       <c r="DN90" s="21"/>
     </row>
     <row r="91" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A91" s="68"/>
-      <c r="B91" s="68"/>
-      <c r="C91" s="68"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="66"/>
+      <c r="A91" s="64"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="68"/>
       <c r="J91" s="55" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K91:DN91)/データ!$D$2,"")</f>
         <v/>
@@ -15405,15 +15405,15 @@
       <c r="DN91" s="19"/>
     </row>
     <row r="92" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A92" s="69"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="71"/>
-      <c r="I92" s="67"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="69"/>
       <c r="J92" s="56" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K92:DN92)/データ!$D$2,"")</f>
         <v/>
@@ -15528,15 +15528,15 @@
       <c r="DN92" s="21"/>
     </row>
     <row r="93" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A93" s="68"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="70"/>
-      <c r="G93" s="70"/>
-      <c r="H93" s="70"/>
-      <c r="I93" s="66"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="64"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="68"/>
       <c r="J93" s="55" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K93:DN93)/データ!$D$2,"")</f>
         <v/>
@@ -15651,15 +15651,15 @@
       <c r="DN93" s="19"/>
     </row>
     <row r="94" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A94" s="69"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="71"/>
-      <c r="H94" s="71"/>
-      <c r="I94" s="67"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="69"/>
       <c r="J94" s="56" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K94:DN94)/データ!$D$2,"")</f>
         <v/>
@@ -15774,15 +15774,15 @@
       <c r="DN94" s="21"/>
     </row>
     <row r="95" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="68"/>
-      <c r="B95" s="68"/>
-      <c r="C95" s="68"/>
-      <c r="D95" s="68"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="70"/>
-      <c r="I95" s="66"/>
+      <c r="A95" s="64"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="68"/>
       <c r="J95" s="55" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DN95)/データ!$D$2,"")</f>
         <v/>
@@ -15897,15 +15897,15 @@
       <c r="DN95" s="19"/>
     </row>
     <row r="96" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A96" s="69"/>
-      <c r="B96" s="69"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="71"/>
-      <c r="F96" s="71"/>
-      <c r="G96" s="71"/>
-      <c r="H96" s="71"/>
-      <c r="I96" s="67"/>
+      <c r="A96" s="65"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="69"/>
       <c r="J96" s="56" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DN96)/データ!$D$2,"")</f>
         <v/>
@@ -16020,15 +16020,15 @@
       <c r="DN96" s="21"/>
     </row>
     <row r="97" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A97" s="68"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="68"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="70"/>
-      <c r="H97" s="70"/>
-      <c r="I97" s="66"/>
+      <c r="A97" s="64"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="68"/>
       <c r="J97" s="55" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DN97)/データ!$D$2,"")</f>
         <v/>
@@ -16143,15 +16143,15 @@
       <c r="DN97" s="19"/>
     </row>
     <row r="98" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A98" s="69"/>
-      <c r="B98" s="69"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="71"/>
-      <c r="G98" s="71"/>
-      <c r="H98" s="71"/>
-      <c r="I98" s="67"/>
+      <c r="A98" s="65"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="69"/>
       <c r="J98" s="56" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DN98)/データ!$D$2,"")</f>
         <v/>
@@ -16266,15 +16266,15 @@
       <c r="DN98" s="21"/>
     </row>
     <row r="99" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A99" s="68"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="70"/>
-      <c r="I99" s="66"/>
+      <c r="A99" s="64"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="64"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="68"/>
       <c r="J99" s="55" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DN99)/データ!$D$2,"")</f>
         <v/>
@@ -16389,15 +16389,15 @@
       <c r="DN99" s="19"/>
     </row>
     <row r="100" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A100" s="69"/>
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="71"/>
-      <c r="F100" s="71"/>
-      <c r="G100" s="71"/>
-      <c r="H100" s="71"/>
-      <c r="I100" s="67"/>
+      <c r="A100" s="65"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="69"/>
       <c r="J100" s="56" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DN100)/データ!$D$2,"")</f>
         <v/>
@@ -16512,15 +16512,15 @@
       <c r="DN100" s="21"/>
     </row>
     <row r="101" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="68"/>
-      <c r="B101" s="68"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="70"/>
-      <c r="I101" s="66"/>
+      <c r="A101" s="64"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="66"/>
+      <c r="I101" s="68"/>
       <c r="J101" s="55" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DN101)/データ!$D$2,"")</f>
         <v/>
@@ -16635,15 +16635,15 @@
       <c r="DN101" s="19"/>
     </row>
     <row r="102" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A102" s="69"/>
-      <c r="B102" s="69"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="71"/>
-      <c r="F102" s="71"/>
-      <c r="G102" s="71"/>
-      <c r="H102" s="71"/>
-      <c r="I102" s="67"/>
+      <c r="A102" s="65"/>
+      <c r="B102" s="65"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="69"/>
       <c r="J102" s="56" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DN102)/データ!$D$2,"")</f>
         <v/>
@@ -16758,15 +16758,15 @@
       <c r="DN102" s="21"/>
     </row>
     <row r="103" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A103" s="68"/>
-      <c r="B103" s="68"/>
-      <c r="C103" s="68"/>
-      <c r="D103" s="68"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="66"/>
+      <c r="A103" s="64"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="66"/>
+      <c r="I103" s="68"/>
       <c r="J103" s="55" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DN103)/データ!$D$2,"")</f>
         <v/>
@@ -16881,15 +16881,15 @@
       <c r="DN103" s="19"/>
     </row>
     <row r="104" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A104" s="69"/>
-      <c r="B104" s="69"/>
-      <c r="C104" s="69"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="71"/>
-      <c r="H104" s="71"/>
-      <c r="I104" s="67"/>
+      <c r="A104" s="65"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="69"/>
       <c r="J104" s="56" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DN104)/データ!$D$2,"")</f>
         <v/>
@@ -17004,15 +17004,15 @@
       <c r="DN104" s="21"/>
     </row>
     <row r="105" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A105" s="64"/>
-      <c r="B105" s="64"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="65"/>
-      <c r="F105" s="65"/>
-      <c r="G105" s="65"/>
-      <c r="H105" s="65"/>
-      <c r="I105" s="66"/>
+      <c r="A105" s="70"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="71"/>
+      <c r="I105" s="68"/>
       <c r="J105" s="55" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DN105)/データ!$D$2,"")</f>
         <v/>
@@ -17127,15 +17127,15 @@
       <c r="DN105" s="19"/>
     </row>
     <row r="106" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A106" s="64"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="65"/>
-      <c r="H106" s="65"/>
-      <c r="I106" s="67"/>
+      <c r="A106" s="70"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="69"/>
       <c r="J106" s="56" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DN106)/データ!$D$2,"")</f>
         <v/>
@@ -17250,15 +17250,15 @@
       <c r="DN106" s="21"/>
     </row>
     <row r="107" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A107" s="64"/>
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="65"/>
-      <c r="H107" s="65"/>
-      <c r="I107" s="66"/>
+      <c r="A107" s="70"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="68"/>
       <c r="J107" s="55" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DN107)/データ!$D$2,"")</f>
         <v/>
@@ -17373,15 +17373,15 @@
       <c r="DN107" s="19"/>
     </row>
     <row r="108" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A108" s="64"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="65"/>
-      <c r="H108" s="65"/>
-      <c r="I108" s="67"/>
+      <c r="A108" s="70"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="69"/>
       <c r="J108" s="56" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DN108)/データ!$D$2,"")</f>
         <v/>
@@ -17496,15 +17496,15 @@
       <c r="DN108" s="21"/>
     </row>
     <row r="109" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A109" s="64"/>
-      <c r="B109" s="64"/>
-      <c r="C109" s="64"/>
-      <c r="D109" s="64"/>
-      <c r="E109" s="65"/>
-      <c r="F109" s="65"/>
-      <c r="G109" s="65"/>
-      <c r="H109" s="65"/>
-      <c r="I109" s="66"/>
+      <c r="A109" s="70"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="71"/>
+      <c r="F109" s="71"/>
+      <c r="G109" s="71"/>
+      <c r="H109" s="71"/>
+      <c r="I109" s="68"/>
       <c r="J109" s="55" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K109:DN109)/データ!$D$2,"")</f>
         <v/>
@@ -17619,15 +17619,15 @@
       <c r="DN109" s="19"/>
     </row>
     <row r="110" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A110" s="64"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="65"/>
-      <c r="F110" s="65"/>
-      <c r="G110" s="65"/>
-      <c r="H110" s="65"/>
-      <c r="I110" s="67"/>
+      <c r="A110" s="70"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="70"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="71"/>
+      <c r="I110" s="69"/>
       <c r="J110" s="56" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K110:DN110)/データ!$D$2,"")</f>
         <v/>
@@ -17742,15 +17742,15 @@
       <c r="DN110" s="21"/>
     </row>
     <row r="111" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A111" s="64"/>
-      <c r="B111" s="64"/>
-      <c r="C111" s="64"/>
-      <c r="D111" s="64"/>
-      <c r="E111" s="65"/>
-      <c r="F111" s="65"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="65"/>
-      <c r="I111" s="66"/>
+      <c r="A111" s="70"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="71"/>
+      <c r="F111" s="71"/>
+      <c r="G111" s="71"/>
+      <c r="H111" s="71"/>
+      <c r="I111" s="68"/>
       <c r="J111" s="55" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K111:DN111)/データ!$D$2,"")</f>
         <v/>
@@ -17865,15 +17865,15 @@
       <c r="DN111" s="19"/>
     </row>
     <row r="112" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A112" s="64"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="64"/>
-      <c r="E112" s="65"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="65"/>
-      <c r="H112" s="65"/>
-      <c r="I112" s="67"/>
+      <c r="A112" s="70"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="71"/>
+      <c r="F112" s="71"/>
+      <c r="G112" s="71"/>
+      <c r="H112" s="71"/>
+      <c r="I112" s="69"/>
       <c r="J112" s="56" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K112:DN112)/データ!$D$2,"")</f>
         <v/>
@@ -17988,15 +17988,15 @@
       <c r="DN112" s="21"/>
     </row>
     <row r="113" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A113" s="64"/>
-      <c r="B113" s="64"/>
-      <c r="C113" s="64"/>
-      <c r="D113" s="64"/>
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
-      <c r="I113" s="66"/>
+      <c r="A113" s="70"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="70"/>
+      <c r="E113" s="71"/>
+      <c r="F113" s="71"/>
+      <c r="G113" s="71"/>
+      <c r="H113" s="71"/>
+      <c r="I113" s="68"/>
       <c r="J113" s="55" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K113:DN113)/データ!$D$2,"")</f>
         <v/>
@@ -18111,15 +18111,15 @@
       <c r="DN113" s="19"/>
     </row>
     <row r="114" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A114" s="64"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="64"/>
-      <c r="E114" s="65"/>
-      <c r="F114" s="65"/>
-      <c r="G114" s="65"/>
-      <c r="H114" s="65"/>
-      <c r="I114" s="67"/>
+      <c r="A114" s="70"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="70"/>
+      <c r="E114" s="71"/>
+      <c r="F114" s="71"/>
+      <c r="G114" s="71"/>
+      <c r="H114" s="71"/>
+      <c r="I114" s="69"/>
       <c r="J114" s="56" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K114:DN114)/データ!$D$2,"")</f>
         <v/>
@@ -18234,15 +18234,15 @@
       <c r="DN114" s="21"/>
     </row>
     <row r="115" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A115" s="64"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="64"/>
-      <c r="D115" s="64"/>
-      <c r="E115" s="65"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="65"/>
-      <c r="I115" s="66"/>
+      <c r="A115" s="70"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="70"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="71"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="71"/>
+      <c r="H115" s="71"/>
+      <c r="I115" s="68"/>
       <c r="J115" s="55" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K115:DN115)/データ!$D$2,"")</f>
         <v/>
@@ -18357,15 +18357,15 @@
       <c r="DN115" s="19"/>
     </row>
     <row r="116" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A116" s="64"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="64"/>
-      <c r="D116" s="64"/>
-      <c r="E116" s="65"/>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="67"/>
+      <c r="A116" s="70"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="70"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="71"/>
+      <c r="F116" s="71"/>
+      <c r="G116" s="71"/>
+      <c r="H116" s="71"/>
+      <c r="I116" s="69"/>
       <c r="J116" s="56" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K116:DN116)/データ!$D$2,"")</f>
         <v/>
@@ -18480,15 +18480,15 @@
       <c r="DN116" s="21"/>
     </row>
     <row r="117" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A117" s="64"/>
-      <c r="B117" s="64"/>
-      <c r="C117" s="64"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="65"/>
-      <c r="F117" s="65"/>
-      <c r="G117" s="65"/>
-      <c r="H117" s="65"/>
-      <c r="I117" s="66"/>
+      <c r="A117" s="70"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="70"/>
+      <c r="D117" s="70"/>
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="68"/>
       <c r="J117" s="55" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K117:DN117)/データ!$D$2,"")</f>
         <v/>
@@ -18603,15 +18603,15 @@
       <c r="DN117" s="19"/>
     </row>
     <row r="118" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A118" s="64"/>
-      <c r="B118" s="64"/>
-      <c r="C118" s="64"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="65"/>
-      <c r="F118" s="65"/>
-      <c r="G118" s="65"/>
-      <c r="H118" s="65"/>
-      <c r="I118" s="67"/>
+      <c r="A118" s="70"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="71"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="71"/>
+      <c r="I118" s="69"/>
       <c r="J118" s="56" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K118:DN118)/データ!$D$2,"")</f>
         <v/>
@@ -18726,15 +18726,15 @@
       <c r="DN118" s="21"/>
     </row>
     <row r="119" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A119" s="64"/>
-      <c r="B119" s="64"/>
-      <c r="C119" s="64"/>
-      <c r="D119" s="64"/>
-      <c r="E119" s="65"/>
-      <c r="F119" s="65"/>
-      <c r="G119" s="65"/>
-      <c r="H119" s="65"/>
-      <c r="I119" s="66"/>
+      <c r="A119" s="70"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="70"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="71"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="68"/>
       <c r="J119" s="55" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K119:DN119)/データ!$D$2,"")</f>
         <v/>
@@ -18849,15 +18849,15 @@
       <c r="DN119" s="19"/>
     </row>
     <row r="120" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A120" s="64"/>
-      <c r="B120" s="64"/>
-      <c r="C120" s="64"/>
-      <c r="D120" s="64"/>
-      <c r="E120" s="65"/>
-      <c r="F120" s="65"/>
-      <c r="G120" s="65"/>
-      <c r="H120" s="65"/>
-      <c r="I120" s="67"/>
+      <c r="A120" s="70"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="70"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="71"/>
+      <c r="F120" s="71"/>
+      <c r="G120" s="71"/>
+      <c r="H120" s="71"/>
+      <c r="I120" s="69"/>
       <c r="J120" s="56" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K120:DN120)/データ!$D$2,"")</f>
         <v/>
@@ -18972,15 +18972,15 @@
       <c r="DN120" s="21"/>
     </row>
     <row r="121" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A121" s="64"/>
-      <c r="B121" s="64"/>
-      <c r="C121" s="64"/>
-      <c r="D121" s="64"/>
-      <c r="E121" s="65"/>
-      <c r="F121" s="65"/>
-      <c r="G121" s="65"/>
-      <c r="H121" s="65"/>
-      <c r="I121" s="66"/>
+      <c r="A121" s="70"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="70"/>
+      <c r="E121" s="71"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="71"/>
+      <c r="H121" s="71"/>
+      <c r="I121" s="68"/>
       <c r="J121" s="55" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K121:DN121)/データ!$D$2,"")</f>
         <v/>
@@ -19095,15 +19095,15 @@
       <c r="DN121" s="19"/>
     </row>
     <row r="122" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A122" s="64"/>
-      <c r="B122" s="64"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="64"/>
-      <c r="E122" s="65"/>
-      <c r="F122" s="65"/>
-      <c r="G122" s="65"/>
-      <c r="H122" s="65"/>
-      <c r="I122" s="67"/>
+      <c r="A122" s="70"/>
+      <c r="B122" s="70"/>
+      <c r="C122" s="70"/>
+      <c r="D122" s="70"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="71"/>
+      <c r="H122" s="71"/>
+      <c r="I122" s="69"/>
       <c r="J122" s="56" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K122:DN122)/データ!$D$2,"")</f>
         <v/>
@@ -19218,15 +19218,15 @@
       <c r="DN122" s="21"/>
     </row>
     <row r="123" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A123" s="64"/>
-      <c r="B123" s="64"/>
-      <c r="C123" s="64"/>
-      <c r="D123" s="64"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="65"/>
-      <c r="G123" s="65"/>
-      <c r="H123" s="65"/>
-      <c r="I123" s="66"/>
+      <c r="A123" s="70"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="71"/>
+      <c r="F123" s="71"/>
+      <c r="G123" s="71"/>
+      <c r="H123" s="71"/>
+      <c r="I123" s="68"/>
       <c r="J123" s="55" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K123:DN123)/データ!$D$2,"")</f>
         <v/>
@@ -19341,15 +19341,15 @@
       <c r="DN123" s="19"/>
     </row>
     <row r="124" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A124" s="64"/>
-      <c r="B124" s="64"/>
-      <c r="C124" s="64"/>
-      <c r="D124" s="64"/>
-      <c r="E124" s="65"/>
-      <c r="F124" s="65"/>
-      <c r="G124" s="65"/>
-      <c r="H124" s="65"/>
-      <c r="I124" s="67"/>
+      <c r="A124" s="70"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="71"/>
+      <c r="F124" s="71"/>
+      <c r="G124" s="71"/>
+      <c r="H124" s="71"/>
+      <c r="I124" s="69"/>
       <c r="J124" s="56" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K124:DN124)/データ!$D$2,"")</f>
         <v/>
@@ -19464,15 +19464,15 @@
       <c r="DN124" s="21"/>
     </row>
     <row r="125" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A125" s="64"/>
-      <c r="B125" s="64"/>
-      <c r="C125" s="64"/>
-      <c r="D125" s="64"/>
-      <c r="E125" s="65"/>
-      <c r="F125" s="65"/>
-      <c r="G125" s="65"/>
-      <c r="H125" s="65"/>
-      <c r="I125" s="66"/>
+      <c r="A125" s="70"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="70"/>
+      <c r="D125" s="70"/>
+      <c r="E125" s="71"/>
+      <c r="F125" s="71"/>
+      <c r="G125" s="71"/>
+      <c r="H125" s="71"/>
+      <c r="I125" s="68"/>
       <c r="J125" s="55" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K125:DN125)/データ!$D$2,"")</f>
         <v/>
@@ -19587,15 +19587,15 @@
       <c r="DN125" s="19"/>
     </row>
     <row r="126" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A126" s="64"/>
-      <c r="B126" s="64"/>
-      <c r="C126" s="64"/>
-      <c r="D126" s="64"/>
-      <c r="E126" s="65"/>
-      <c r="F126" s="65"/>
-      <c r="G126" s="65"/>
-      <c r="H126" s="65"/>
-      <c r="I126" s="67"/>
+      <c r="A126" s="70"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="70"/>
+      <c r="D126" s="70"/>
+      <c r="E126" s="71"/>
+      <c r="F126" s="71"/>
+      <c r="G126" s="71"/>
+      <c r="H126" s="71"/>
+      <c r="I126" s="69"/>
       <c r="J126" s="56" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K126:DN126)/データ!$D$2,"")</f>
         <v/>
@@ -19710,15 +19710,15 @@
       <c r="DN126" s="21"/>
     </row>
     <row r="127" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A127" s="68"/>
-      <c r="B127" s="68"/>
-      <c r="C127" s="68"/>
-      <c r="D127" s="68"/>
-      <c r="E127" s="70"/>
-      <c r="F127" s="70"/>
-      <c r="G127" s="70"/>
-      <c r="H127" s="70"/>
-      <c r="I127" s="66"/>
+      <c r="A127" s="64"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="64"/>
+      <c r="D127" s="64"/>
+      <c r="E127" s="66"/>
+      <c r="F127" s="66"/>
+      <c r="G127" s="66"/>
+      <c r="H127" s="66"/>
+      <c r="I127" s="68"/>
       <c r="J127" s="55" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K127:DN127)/データ!$D$2,"")</f>
         <v/>
@@ -19833,15 +19833,15 @@
       <c r="DN127" s="19"/>
     </row>
     <row r="128" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A128" s="69"/>
-      <c r="B128" s="69"/>
-      <c r="C128" s="69"/>
-      <c r="D128" s="69"/>
-      <c r="E128" s="71"/>
-      <c r="F128" s="71"/>
-      <c r="G128" s="71"/>
-      <c r="H128" s="71"/>
-      <c r="I128" s="67"/>
+      <c r="A128" s="65"/>
+      <c r="B128" s="65"/>
+      <c r="C128" s="65"/>
+      <c r="D128" s="65"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="69"/>
       <c r="J128" s="56" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K128:DN128)/データ!$D$2,"")</f>
         <v/>
@@ -19956,15 +19956,15 @@
       <c r="DN128" s="21"/>
     </row>
     <row r="129" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A129" s="64"/>
-      <c r="B129" s="64"/>
-      <c r="C129" s="64"/>
-      <c r="D129" s="64"/>
-      <c r="E129" s="65"/>
-      <c r="F129" s="65"/>
-      <c r="G129" s="65"/>
-      <c r="H129" s="65"/>
-      <c r="I129" s="66"/>
+      <c r="A129" s="70"/>
+      <c r="B129" s="70"/>
+      <c r="C129" s="70"/>
+      <c r="D129" s="70"/>
+      <c r="E129" s="71"/>
+      <c r="F129" s="71"/>
+      <c r="G129" s="71"/>
+      <c r="H129" s="71"/>
+      <c r="I129" s="68"/>
       <c r="J129" s="55" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K129:DN129)/データ!$D$2,"")</f>
         <v/>
@@ -20079,15 +20079,15 @@
       <c r="DN129" s="19"/>
     </row>
     <row r="130" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A130" s="64"/>
-      <c r="B130" s="64"/>
-      <c r="C130" s="64"/>
-      <c r="D130" s="64"/>
-      <c r="E130" s="65"/>
-      <c r="F130" s="65"/>
-      <c r="G130" s="65"/>
-      <c r="H130" s="65"/>
-      <c r="I130" s="67"/>
+      <c r="A130" s="70"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="70"/>
+      <c r="D130" s="70"/>
+      <c r="E130" s="71"/>
+      <c r="F130" s="71"/>
+      <c r="G130" s="71"/>
+      <c r="H130" s="71"/>
+      <c r="I130" s="69"/>
       <c r="J130" s="56" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K130:DN130)/データ!$D$2,"")</f>
         <v/>
@@ -20202,15 +20202,15 @@
       <c r="DN130" s="21"/>
     </row>
     <row r="131" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A131" s="64"/>
-      <c r="B131" s="64"/>
-      <c r="C131" s="64"/>
-      <c r="D131" s="64"/>
-      <c r="E131" s="65"/>
-      <c r="F131" s="65"/>
-      <c r="G131" s="65"/>
-      <c r="H131" s="65"/>
-      <c r="I131" s="66"/>
+      <c r="A131" s="70"/>
+      <c r="B131" s="70"/>
+      <c r="C131" s="70"/>
+      <c r="D131" s="70"/>
+      <c r="E131" s="71"/>
+      <c r="F131" s="71"/>
+      <c r="G131" s="71"/>
+      <c r="H131" s="71"/>
+      <c r="I131" s="68"/>
       <c r="J131" s="55" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K131:DN131)/データ!$D$2,"")</f>
         <v/>
@@ -20325,15 +20325,15 @@
       <c r="DN131" s="19"/>
     </row>
     <row r="132" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A132" s="64"/>
-      <c r="B132" s="64"/>
-      <c r="C132" s="64"/>
-      <c r="D132" s="64"/>
-      <c r="E132" s="65"/>
-      <c r="F132" s="65"/>
-      <c r="G132" s="65"/>
-      <c r="H132" s="65"/>
-      <c r="I132" s="67"/>
+      <c r="A132" s="70"/>
+      <c r="B132" s="70"/>
+      <c r="C132" s="70"/>
+      <c r="D132" s="70"/>
+      <c r="E132" s="71"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="71"/>
+      <c r="H132" s="71"/>
+      <c r="I132" s="69"/>
       <c r="J132" s="56" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K132:DN132)/データ!$D$2,"")</f>
         <v/>
@@ -20448,15 +20448,15 @@
       <c r="DN132" s="21"/>
     </row>
     <row r="133" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A133" s="64"/>
-      <c r="B133" s="64"/>
-      <c r="C133" s="64"/>
-      <c r="D133" s="64"/>
-      <c r="E133" s="65"/>
-      <c r="F133" s="65"/>
-      <c r="G133" s="65"/>
-      <c r="H133" s="65"/>
-      <c r="I133" s="66"/>
+      <c r="A133" s="70"/>
+      <c r="B133" s="70"/>
+      <c r="C133" s="70"/>
+      <c r="D133" s="70"/>
+      <c r="E133" s="71"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="71"/>
+      <c r="H133" s="71"/>
+      <c r="I133" s="68"/>
       <c r="J133" s="55" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K133:DN133)/データ!$D$2,"")</f>
         <v/>
@@ -20571,15 +20571,15 @@
       <c r="DN133" s="19"/>
     </row>
     <row r="134" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A134" s="64"/>
-      <c r="B134" s="64"/>
-      <c r="C134" s="64"/>
-      <c r="D134" s="64"/>
-      <c r="E134" s="65"/>
-      <c r="F134" s="65"/>
-      <c r="G134" s="65"/>
-      <c r="H134" s="65"/>
-      <c r="I134" s="67"/>
+      <c r="A134" s="70"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="70"/>
+      <c r="D134" s="70"/>
+      <c r="E134" s="71"/>
+      <c r="F134" s="71"/>
+      <c r="G134" s="71"/>
+      <c r="H134" s="71"/>
+      <c r="I134" s="69"/>
       <c r="J134" s="56" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K134:DN134)/データ!$D$2,"")</f>
         <v/>
@@ -20694,15 +20694,15 @@
       <c r="DN134" s="21"/>
     </row>
     <row r="135" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A135" s="64"/>
-      <c r="B135" s="64"/>
-      <c r="C135" s="64"/>
-      <c r="D135" s="64"/>
-      <c r="E135" s="65"/>
-      <c r="F135" s="65"/>
-      <c r="G135" s="65"/>
-      <c r="H135" s="65"/>
-      <c r="I135" s="66"/>
+      <c r="A135" s="70"/>
+      <c r="B135" s="70"/>
+      <c r="C135" s="70"/>
+      <c r="D135" s="70"/>
+      <c r="E135" s="71"/>
+      <c r="F135" s="71"/>
+      <c r="G135" s="71"/>
+      <c r="H135" s="71"/>
+      <c r="I135" s="68"/>
       <c r="J135" s="55" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K135:DN135)/データ!$D$2,"")</f>
         <v/>
@@ -20817,15 +20817,15 @@
       <c r="DN135" s="19"/>
     </row>
     <row r="136" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A136" s="64"/>
-      <c r="B136" s="64"/>
-      <c r="C136" s="64"/>
-      <c r="D136" s="64"/>
-      <c r="E136" s="65"/>
-      <c r="F136" s="65"/>
-      <c r="G136" s="65"/>
-      <c r="H136" s="65"/>
-      <c r="I136" s="67"/>
+      <c r="A136" s="70"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="70"/>
+      <c r="D136" s="70"/>
+      <c r="E136" s="71"/>
+      <c r="F136" s="71"/>
+      <c r="G136" s="71"/>
+      <c r="H136" s="71"/>
+      <c r="I136" s="69"/>
       <c r="J136" s="56" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K136:DN136)/データ!$D$2,"")</f>
         <v/>
@@ -20940,15 +20940,15 @@
       <c r="DN136" s="21"/>
     </row>
     <row r="137" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A137" s="64"/>
-      <c r="B137" s="64"/>
-      <c r="C137" s="64"/>
-      <c r="D137" s="64"/>
-      <c r="E137" s="65"/>
-      <c r="F137" s="65"/>
-      <c r="G137" s="65"/>
-      <c r="H137" s="65"/>
-      <c r="I137" s="66"/>
+      <c r="A137" s="70"/>
+      <c r="B137" s="70"/>
+      <c r="C137" s="70"/>
+      <c r="D137" s="70"/>
+      <c r="E137" s="71"/>
+      <c r="F137" s="71"/>
+      <c r="G137" s="71"/>
+      <c r="H137" s="71"/>
+      <c r="I137" s="68"/>
       <c r="J137" s="55" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K137:DN137)/データ!$D$2,"")</f>
         <v/>
@@ -21063,15 +21063,15 @@
       <c r="DN137" s="19"/>
     </row>
     <row r="138" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A138" s="64"/>
-      <c r="B138" s="64"/>
-      <c r="C138" s="64"/>
-      <c r="D138" s="64"/>
-      <c r="E138" s="65"/>
-      <c r="F138" s="65"/>
-      <c r="G138" s="65"/>
-      <c r="H138" s="65"/>
-      <c r="I138" s="67"/>
+      <c r="A138" s="70"/>
+      <c r="B138" s="70"/>
+      <c r="C138" s="70"/>
+      <c r="D138" s="70"/>
+      <c r="E138" s="71"/>
+      <c r="F138" s="71"/>
+      <c r="G138" s="71"/>
+      <c r="H138" s="71"/>
+      <c r="I138" s="69"/>
       <c r="J138" s="56" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K138:DN138)/データ!$D$2,"")</f>
         <v/>
@@ -21186,15 +21186,15 @@
       <c r="DN138" s="21"/>
     </row>
     <row r="139" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A139" s="64"/>
-      <c r="B139" s="64"/>
-      <c r="C139" s="64"/>
-      <c r="D139" s="64"/>
-      <c r="E139" s="65"/>
-      <c r="F139" s="65"/>
-      <c r="G139" s="65"/>
-      <c r="H139" s="65"/>
-      <c r="I139" s="66"/>
+      <c r="A139" s="70"/>
+      <c r="B139" s="70"/>
+      <c r="C139" s="70"/>
+      <c r="D139" s="70"/>
+      <c r="E139" s="71"/>
+      <c r="F139" s="71"/>
+      <c r="G139" s="71"/>
+      <c r="H139" s="71"/>
+      <c r="I139" s="68"/>
       <c r="J139" s="55" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K139:DN139)/データ!$D$2,"")</f>
         <v/>
@@ -21309,15 +21309,15 @@
       <c r="DN139" s="19"/>
     </row>
     <row r="140" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A140" s="64"/>
-      <c r="B140" s="64"/>
-      <c r="C140" s="64"/>
-      <c r="D140" s="64"/>
-      <c r="E140" s="65"/>
-      <c r="F140" s="65"/>
-      <c r="G140" s="65"/>
-      <c r="H140" s="65"/>
-      <c r="I140" s="67"/>
+      <c r="A140" s="70"/>
+      <c r="B140" s="70"/>
+      <c r="C140" s="70"/>
+      <c r="D140" s="70"/>
+      <c r="E140" s="71"/>
+      <c r="F140" s="71"/>
+      <c r="G140" s="71"/>
+      <c r="H140" s="71"/>
+      <c r="I140" s="69"/>
       <c r="J140" s="56" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K140:DN140)/データ!$D$2,"")</f>
         <v/>
@@ -21432,15 +21432,15 @@
       <c r="DN140" s="21"/>
     </row>
     <row r="141" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A141" s="64"/>
-      <c r="B141" s="64"/>
-      <c r="C141" s="64"/>
-      <c r="D141" s="64"/>
-      <c r="E141" s="65"/>
-      <c r="F141" s="65"/>
-      <c r="G141" s="65"/>
-      <c r="H141" s="65"/>
-      <c r="I141" s="66"/>
+      <c r="A141" s="70"/>
+      <c r="B141" s="70"/>
+      <c r="C141" s="70"/>
+      <c r="D141" s="70"/>
+      <c r="E141" s="71"/>
+      <c r="F141" s="71"/>
+      <c r="G141" s="71"/>
+      <c r="H141" s="71"/>
+      <c r="I141" s="68"/>
       <c r="J141" s="55" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K141:DN141)/データ!$D$2,"")</f>
         <v/>
@@ -21555,15 +21555,15 @@
       <c r="DN141" s="19"/>
     </row>
     <row r="142" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A142" s="64"/>
-      <c r="B142" s="64"/>
-      <c r="C142" s="64"/>
-      <c r="D142" s="64"/>
-      <c r="E142" s="65"/>
-      <c r="F142" s="65"/>
-      <c r="G142" s="65"/>
-      <c r="H142" s="65"/>
-      <c r="I142" s="67"/>
+      <c r="A142" s="70"/>
+      <c r="B142" s="70"/>
+      <c r="C142" s="70"/>
+      <c r="D142" s="70"/>
+      <c r="E142" s="71"/>
+      <c r="F142" s="71"/>
+      <c r="G142" s="71"/>
+      <c r="H142" s="71"/>
+      <c r="I142" s="69"/>
       <c r="J142" s="56" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K142:DN142)/データ!$D$2,"")</f>
         <v/>
@@ -21678,15 +21678,15 @@
       <c r="DN142" s="21"/>
     </row>
     <row r="143" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A143" s="64"/>
-      <c r="B143" s="64"/>
-      <c r="C143" s="64"/>
-      <c r="D143" s="64"/>
-      <c r="E143" s="65"/>
-      <c r="F143" s="65"/>
-      <c r="G143" s="65"/>
-      <c r="H143" s="65"/>
-      <c r="I143" s="66"/>
+      <c r="A143" s="70"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="70"/>
+      <c r="D143" s="70"/>
+      <c r="E143" s="71"/>
+      <c r="F143" s="71"/>
+      <c r="G143" s="71"/>
+      <c r="H143" s="71"/>
+      <c r="I143" s="68"/>
       <c r="J143" s="55" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K143:DN143)/データ!$D$2,"")</f>
         <v/>
@@ -21801,15 +21801,15 @@
       <c r="DN143" s="19"/>
     </row>
     <row r="144" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A144" s="64"/>
-      <c r="B144" s="64"/>
-      <c r="C144" s="64"/>
-      <c r="D144" s="64"/>
-      <c r="E144" s="65"/>
-      <c r="F144" s="65"/>
-      <c r="G144" s="65"/>
-      <c r="H144" s="65"/>
-      <c r="I144" s="67"/>
+      <c r="A144" s="70"/>
+      <c r="B144" s="70"/>
+      <c r="C144" s="70"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="71"/>
+      <c r="F144" s="71"/>
+      <c r="G144" s="71"/>
+      <c r="H144" s="71"/>
+      <c r="I144" s="69"/>
       <c r="J144" s="56" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K144:DN144)/データ!$D$2,"")</f>
         <v/>
@@ -21924,15 +21924,15 @@
       <c r="DN144" s="21"/>
     </row>
     <row r="145" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A145" s="64"/>
-      <c r="B145" s="64"/>
-      <c r="C145" s="64"/>
-      <c r="D145" s="64"/>
-      <c r="E145" s="65"/>
-      <c r="F145" s="65"/>
-      <c r="G145" s="65"/>
-      <c r="H145" s="65"/>
-      <c r="I145" s="66"/>
+      <c r="A145" s="70"/>
+      <c r="B145" s="70"/>
+      <c r="C145" s="70"/>
+      <c r="D145" s="70"/>
+      <c r="E145" s="71"/>
+      <c r="F145" s="71"/>
+      <c r="G145" s="71"/>
+      <c r="H145" s="71"/>
+      <c r="I145" s="68"/>
       <c r="J145" s="55" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K145:DN145)/データ!$D$2,"")</f>
         <v/>
@@ -22047,15 +22047,15 @@
       <c r="DN145" s="19"/>
     </row>
     <row r="146" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A146" s="64"/>
-      <c r="B146" s="64"/>
-      <c r="C146" s="64"/>
-      <c r="D146" s="64"/>
-      <c r="E146" s="65"/>
-      <c r="F146" s="65"/>
-      <c r="G146" s="65"/>
-      <c r="H146" s="65"/>
-      <c r="I146" s="67"/>
+      <c r="A146" s="70"/>
+      <c r="B146" s="70"/>
+      <c r="C146" s="70"/>
+      <c r="D146" s="70"/>
+      <c r="E146" s="71"/>
+      <c r="F146" s="71"/>
+      <c r="G146" s="71"/>
+      <c r="H146" s="71"/>
+      <c r="I146" s="69"/>
       <c r="J146" s="56" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K146:DN146)/データ!$D$2,"")</f>
         <v/>
@@ -22170,15 +22170,15 @@
       <c r="DN146" s="21"/>
     </row>
     <row r="147" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A147" s="68"/>
-      <c r="B147" s="68"/>
-      <c r="C147" s="68"/>
-      <c r="D147" s="68"/>
-      <c r="E147" s="70"/>
-      <c r="F147" s="70"/>
-      <c r="G147" s="70"/>
-      <c r="H147" s="70"/>
-      <c r="I147" s="66"/>
+      <c r="A147" s="64"/>
+      <c r="B147" s="64"/>
+      <c r="C147" s="64"/>
+      <c r="D147" s="64"/>
+      <c r="E147" s="66"/>
+      <c r="F147" s="66"/>
+      <c r="G147" s="66"/>
+      <c r="H147" s="66"/>
+      <c r="I147" s="68"/>
       <c r="J147" s="55" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K147:DN147)/データ!$D$2,"")</f>
         <v/>
@@ -22293,15 +22293,15 @@
       <c r="DN147" s="19"/>
     </row>
     <row r="148" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A148" s="69"/>
-      <c r="B148" s="69"/>
-      <c r="C148" s="69"/>
-      <c r="D148" s="69"/>
-      <c r="E148" s="71"/>
-      <c r="F148" s="71"/>
-      <c r="G148" s="71"/>
-      <c r="H148" s="71"/>
-      <c r="I148" s="67"/>
+      <c r="A148" s="65"/>
+      <c r="B148" s="65"/>
+      <c r="C148" s="65"/>
+      <c r="D148" s="65"/>
+      <c r="E148" s="67"/>
+      <c r="F148" s="67"/>
+      <c r="G148" s="67"/>
+      <c r="H148" s="67"/>
+      <c r="I148" s="69"/>
       <c r="J148" s="56" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K148:DN148)/データ!$D$2,"")</f>
         <v/>
@@ -22416,15 +22416,15 @@
       <c r="DN148" s="21"/>
     </row>
     <row r="149" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A149" s="64"/>
-      <c r="B149" s="64"/>
-      <c r="C149" s="64"/>
-      <c r="D149" s="64"/>
-      <c r="E149" s="65"/>
-      <c r="F149" s="65"/>
-      <c r="G149" s="65"/>
-      <c r="H149" s="65"/>
-      <c r="I149" s="66"/>
+      <c r="A149" s="70"/>
+      <c r="B149" s="70"/>
+      <c r="C149" s="70"/>
+      <c r="D149" s="70"/>
+      <c r="E149" s="71"/>
+      <c r="F149" s="71"/>
+      <c r="G149" s="71"/>
+      <c r="H149" s="71"/>
+      <c r="I149" s="68"/>
       <c r="J149" s="55" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K149:DN149)/データ!$D$2,"")</f>
         <v/>
@@ -22539,15 +22539,15 @@
       <c r="DN149" s="19"/>
     </row>
     <row r="150" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A150" s="64"/>
-      <c r="B150" s="64"/>
-      <c r="C150" s="64"/>
-      <c r="D150" s="64"/>
-      <c r="E150" s="65"/>
-      <c r="F150" s="65"/>
-      <c r="G150" s="65"/>
-      <c r="H150" s="65"/>
-      <c r="I150" s="67"/>
+      <c r="A150" s="70"/>
+      <c r="B150" s="70"/>
+      <c r="C150" s="70"/>
+      <c r="D150" s="70"/>
+      <c r="E150" s="71"/>
+      <c r="F150" s="71"/>
+      <c r="G150" s="71"/>
+      <c r="H150" s="71"/>
+      <c r="I150" s="69"/>
       <c r="J150" s="56" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K150:DN150)/データ!$D$2,"")</f>
         <v/>
@@ -22662,15 +22662,15 @@
       <c r="DN150" s="21"/>
     </row>
     <row r="151" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A151" s="64"/>
-      <c r="B151" s="64"/>
-      <c r="C151" s="64"/>
-      <c r="D151" s="64"/>
-      <c r="E151" s="65"/>
-      <c r="F151" s="65"/>
-      <c r="G151" s="65"/>
-      <c r="H151" s="65"/>
-      <c r="I151" s="66"/>
+      <c r="A151" s="70"/>
+      <c r="B151" s="70"/>
+      <c r="C151" s="70"/>
+      <c r="D151" s="70"/>
+      <c r="E151" s="71"/>
+      <c r="F151" s="71"/>
+      <c r="G151" s="71"/>
+      <c r="H151" s="71"/>
+      <c r="I151" s="68"/>
       <c r="J151" s="55" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K151:DN151)/データ!$D$2,"")</f>
         <v/>
@@ -22785,15 +22785,15 @@
       <c r="DN151" s="19"/>
     </row>
     <row r="152" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A152" s="64"/>
-      <c r="B152" s="64"/>
-      <c r="C152" s="64"/>
-      <c r="D152" s="64"/>
-      <c r="E152" s="65"/>
-      <c r="F152" s="65"/>
-      <c r="G152" s="65"/>
-      <c r="H152" s="65"/>
-      <c r="I152" s="67"/>
+      <c r="A152" s="70"/>
+      <c r="B152" s="70"/>
+      <c r="C152" s="70"/>
+      <c r="D152" s="70"/>
+      <c r="E152" s="71"/>
+      <c r="F152" s="71"/>
+      <c r="G152" s="71"/>
+      <c r="H152" s="71"/>
+      <c r="I152" s="69"/>
       <c r="J152" s="56" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K152:DN152)/データ!$D$2,"")</f>
         <v/>
@@ -56852,366 +56852,302 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="680">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G37:G38"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -57236,302 +57172,366 @@
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K157:DN157 K35:DN152 K4:DN28">
@@ -57975,14 +57975,11 @@
       <formula2>999</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.15748031496062992" bottom="0.19685039370078741" header="0.11811023622047245" footer="7.874015748031496E-2"/>
-  <pageSetup paperSize="8" scale="60" fitToWidth="2" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="63" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="57" max="145" man="1"/>
-  </colBreaks>
 </worksheet>
 </file>
 

--- a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/PM演習_管理ツール_矢吹研A班.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kawasaki\Desktop\PM演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kawasaki\Documents\GitHub\-A-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1827,63 +1827,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="100">
     <dxf>
       <fill>
         <patternFill>
@@ -2830,19 +2774,19 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>107</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>141</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -3018,11 +2962,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="152058880"/>
-        <c:axId val="152059272"/>
+        <c:axId val="128261608"/>
+        <c:axId val="128263176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="152058880"/>
+        <c:axId val="128261608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3032,14 +2976,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152059272"/>
+        <c:crossAx val="128263176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="152059272"/>
+        <c:axId val="128263176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3060,7 +3004,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152058880"/>
+        <c:crossAx val="128261608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3111,7 +3055,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>112</xdr:col>
+      <xdr:col>107</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
@@ -3554,10 +3498,10 @@
   <dimension ref="A1:DO233"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="BK41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BF26" sqref="BF26"/>
+      <selection pane="bottomRight" activeCell="DA43" sqref="DA43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3650,7 +3594,7 @@
       </c>
       <c r="I2" s="47">
         <f t="array" ref="I2">SUM(IF(MOD(ROW(J5:J152),2)=0,J5:J152,0))/20</f>
-        <v>1.0874999999999999</v>
+        <v>1.3812500000000001</v>
       </c>
       <c r="J2" s="48" t="s">
         <v>28</v>
@@ -5632,7 +5576,7 @@
       <c r="I16" s="69"/>
       <c r="J16" s="56">
         <f>IF(C15&lt;&gt;"",SUM(K16:DN16)/データ!$D$2,"")</f>
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
@@ -5663,7 +5607,7 @@
       <c r="AK16" s="20"/>
       <c r="AL16" s="20"/>
       <c r="AM16" s="20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AN16" s="20">
         <v>2</v>
@@ -5920,7 +5864,7 @@
       <c r="I18" s="69"/>
       <c r="J18" s="56">
         <f>IF(C17&lt;&gt;"",SUM(K18:DN18)/データ!$D$2,"")</f>
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
@@ -5951,7 +5895,7 @@
       <c r="AK18" s="20"/>
       <c r="AL18" s="20"/>
       <c r="AM18" s="20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN18" s="20">
         <v>2</v>
@@ -5972,7 +5916,7 @@
         <v>2</v>
       </c>
       <c r="AT18" s="20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AU18" s="20">
         <v>2</v>
@@ -5993,7 +5937,7 @@
         <v>2</v>
       </c>
       <c r="BA18" s="20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB18" s="20">
         <v>2</v>
@@ -6480,7 +6424,7 @@
       <c r="I22" s="69"/>
       <c r="J22" s="56">
         <f>IF(C21&lt;&gt;"",SUM(K22:DN22)/データ!$D$2,"")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -6518,7 +6462,7 @@
       <c r="AR22" s="20"/>
       <c r="AS22" s="20"/>
       <c r="AT22" s="20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AU22" s="20">
         <v>2</v>
@@ -6539,13 +6483,13 @@
         <v>2</v>
       </c>
       <c r="BA22" s="20">
+        <v>6</v>
+      </c>
+      <c r="BB22" s="20">
         <v>2</v>
       </c>
-      <c r="BB22" s="20">
-        <v>1</v>
-      </c>
       <c r="BC22" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD22" s="20">
         <v>4</v>
@@ -6634,7 +6578,9 @@
         <v>70</v>
       </c>
       <c r="H23" s="66"/>
-      <c r="I23" s="68"/>
+      <c r="I23" s="68">
+        <v>0.3</v>
+      </c>
       <c r="J23" s="55">
         <f>IF(C23&lt;&gt;"",SUM(K23:DN23)/データ!$D$2,"")</f>
         <v>4</v>
@@ -6770,7 +6716,7 @@
       <c r="I24" s="69"/>
       <c r="J24" s="56">
         <f>IF(C23&lt;&gt;"",SUM(K24:DN24)/データ!$D$2,"")</f>
-        <v>0.125</v>
+        <v>1.5</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -6820,9 +6766,11 @@
       <c r="BD24" s="20"/>
       <c r="BE24" s="41"/>
       <c r="BF24" s="63">
-        <v>1</v>
-      </c>
-      <c r="BG24" s="20"/>
+        <v>8</v>
+      </c>
+      <c r="BG24" s="20">
+        <v>4</v>
+      </c>
       <c r="BH24" s="20"/>
       <c r="BI24" s="41"/>
       <c r="BJ24" s="20"/>
@@ -10730,7 +10678,7 @@
       <c r="I54" s="69"/>
       <c r="J54" s="56">
         <f>IF(C53&lt;&gt;"",SUM(K54:DN54)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
@@ -10753,28 +10701,36 @@
       <c r="AC54" s="20"/>
       <c r="AD54" s="41"/>
       <c r="AE54" s="20"/>
-      <c r="AF54" s="41"/>
+      <c r="AF54" s="41">
+        <v>1</v>
+      </c>
       <c r="AG54" s="20"/>
       <c r="AH54" s="41"/>
       <c r="AI54" s="20"/>
       <c r="AJ54" s="20"/>
       <c r="AK54" s="20"/>
       <c r="AL54" s="20"/>
-      <c r="AM54" s="20"/>
+      <c r="AM54" s="20">
+        <v>1</v>
+      </c>
       <c r="AN54" s="20"/>
       <c r="AO54" s="20"/>
       <c r="AP54" s="20"/>
       <c r="AQ54" s="20"/>
       <c r="AR54" s="20"/>
       <c r="AS54" s="20"/>
-      <c r="AT54" s="20"/>
+      <c r="AT54" s="20">
+        <v>1</v>
+      </c>
       <c r="AU54" s="20"/>
       <c r="AV54" s="20"/>
       <c r="AW54" s="20"/>
       <c r="AX54" s="20"/>
       <c r="AY54" s="20"/>
       <c r="AZ54" s="20"/>
-      <c r="BA54" s="20"/>
+      <c r="BA54" s="20">
+        <v>1</v>
+      </c>
       <c r="BB54" s="20"/>
       <c r="BC54" s="20"/>
       <c r="BD54" s="20"/>
@@ -11010,7 +10966,7 @@
       <c r="I56" s="69"/>
       <c r="J56" s="56">
         <f>IF(C55&lt;&gt;"",SUM(K56:DN56)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K56" s="20"/>
       <c r="L56" s="20"/>
@@ -11033,28 +10989,36 @@
       <c r="AC56" s="20"/>
       <c r="AD56" s="41"/>
       <c r="AE56" s="20"/>
-      <c r="AF56" s="41"/>
+      <c r="AF56" s="41">
+        <v>1</v>
+      </c>
       <c r="AG56" s="20"/>
       <c r="AH56" s="41"/>
       <c r="AI56" s="20"/>
       <c r="AJ56" s="20"/>
       <c r="AK56" s="20"/>
       <c r="AL56" s="20"/>
-      <c r="AM56" s="20"/>
+      <c r="AM56" s="20">
+        <v>1</v>
+      </c>
       <c r="AN56" s="20"/>
       <c r="AO56" s="20"/>
       <c r="AP56" s="20"/>
       <c r="AQ56" s="20"/>
       <c r="AR56" s="20"/>
       <c r="AS56" s="20"/>
-      <c r="AT56" s="20"/>
+      <c r="AT56" s="20">
+        <v>1</v>
+      </c>
       <c r="AU56" s="20"/>
       <c r="AV56" s="20"/>
       <c r="AW56" s="20"/>
       <c r="AX56" s="20"/>
       <c r="AY56" s="20"/>
       <c r="AZ56" s="20"/>
-      <c r="BA56" s="20"/>
+      <c r="BA56" s="20">
+        <v>1</v>
+      </c>
       <c r="BB56" s="20"/>
       <c r="BC56" s="20"/>
       <c r="BD56" s="20"/>
@@ -11266,7 +11230,7 @@
       <c r="I58" s="69"/>
       <c r="J58" s="56">
         <f>IF(C57&lt;&gt;"",SUM(K58:DN58)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K58" s="20"/>
       <c r="L58" s="20"/>
@@ -11281,7 +11245,9 @@
       <c r="U58" s="20"/>
       <c r="V58" s="20"/>
       <c r="W58" s="20"/>
-      <c r="X58" s="20"/>
+      <c r="X58" s="20">
+        <v>4</v>
+      </c>
       <c r="Y58" s="20"/>
       <c r="Z58" s="41"/>
       <c r="AA58" s="63"/>
@@ -11522,7 +11488,7 @@
       <c r="I60" s="69"/>
       <c r="J60" s="56">
         <f>IF(C59&lt;&gt;"",SUM(K60:DN60)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
@@ -11537,7 +11503,9 @@
       <c r="U60" s="20"/>
       <c r="V60" s="20"/>
       <c r="W60" s="20"/>
-      <c r="X60" s="20"/>
+      <c r="X60" s="20">
+        <v>4</v>
+      </c>
       <c r="Y60" s="20"/>
       <c r="Z60" s="41"/>
       <c r="AA60" s="63"/>
@@ -23446,7 +23414,7 @@
       </c>
       <c r="X155" s="13">
         <f t="array" ref="X155">SUM(IF(MOD(ROW(X$5:X$152),2)=0,X$5:X$152,0))</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Y155" s="13">
         <f t="array" ref="Y155">SUM(IF(MOD(ROW(Y$5:Y$152),2)=0,Y$5:Y$152,0))</f>
@@ -23478,7 +23446,7 @@
       </c>
       <c r="AF155" s="13">
         <f t="array" ref="AF155">SUM(IF(MOD(ROW(AF$5:AF$152),2)=0,AF$5:AF$152,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG155" s="13">
         <f t="array" ref="AG155">SUM(IF(MOD(ROW(AG$5:AG$152),2)=0,AG$5:AG$152,0))</f>
@@ -23506,7 +23474,7 @@
       </c>
       <c r="AM155" s="13">
         <f t="array" ref="AM155">SUM(IF(MOD(ROW(AM$5:AM$152),2)=0,AM$5:AM$152,0))</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AN155" s="13">
         <f t="array" ref="AN155">SUM(IF(MOD(ROW(AN$5:AN$152),2)=0,AN$5:AN$152,0))</f>
@@ -23534,7 +23502,7 @@
       </c>
       <c r="AT155" s="13">
         <f t="array" ref="AT155">SUM(IF(MOD(ROW(AT$5:AT$152),2)=0,AT$5:AT$152,0))</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AU155" s="13">
         <f t="array" ref="AU155">SUM(IF(MOD(ROW(AU$5:AU$152),2)=0,AU$5:AU$152,0))</f>
@@ -23562,15 +23530,15 @@
       </c>
       <c r="BA155" s="13">
         <f t="array" ref="BA155">SUM(IF(MOD(ROW(BA$5:BA$152),2)=0,BA$5:BA$152,0))</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BB155" s="13">
         <f t="array" ref="BB155">SUM(IF(MOD(ROW(BB$5:BB$152),2)=0,BB$5:BB$152,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC155" s="13">
         <f t="array" ref="BC155">SUM(IF(MOD(ROW(BC$5:BC$152),2)=0,BC$5:BC$152,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD155" s="13">
         <f t="array" ref="BD155">SUM(IF(MOD(ROW(BD$5:BD$152),2)=0,BD$5:BD$152,0))</f>
@@ -23582,11 +23550,11 @@
       </c>
       <c r="BF155" s="13">
         <f t="array" ref="BF155">SUM(IF(MOD(ROW(BF$5:BF$152),2)=0,BF$5:BF$152,0))</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BG155" s="13">
         <f t="array" ref="BG155">SUM(IF(MOD(ROW(BG$5:BG$152),2)=0,BG$5:BG$152,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH155" s="13">
         <f t="array" ref="BH155">SUM(IF(MOD(ROW(BH$5:BH$152),2)=0,BH$5:BH$152,0))</f>
@@ -24024,239 +23992,239 @@
       </c>
       <c r="BG156" s="13">
         <f t="shared" si="1"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BH156" s="13">
         <f t="shared" si="1"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BI156" s="13">
         <f t="shared" si="1"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BJ156" s="13">
         <f t="shared" si="1"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BK156" s="13">
         <f t="shared" si="1"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BL156" s="13">
         <f t="shared" si="1"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BM156" s="13">
         <f t="shared" si="1"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BN156" s="13">
         <f t="shared" si="1"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BO156" s="13">
         <f t="shared" si="1"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BP156" s="13">
         <f t="shared" si="1"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BQ156" s="13">
         <f t="shared" si="1"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BR156" s="13">
         <f t="shared" si="1"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BS156" s="13">
         <f t="shared" si="1"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BT156" s="13">
         <f t="shared" si="1"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BU156" s="13">
         <f t="shared" si="1"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BV156" s="13">
         <f t="shared" si="1"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BW156" s="13">
         <f t="shared" ref="BW156:DB156" si="2">SUM(BW163:BW198)</f>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BX156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BY156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="BZ156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CA156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CB156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CC156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CD156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CE156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CF156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CG156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CH156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CI156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CJ156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CK156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CL156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CM156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CN156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CO156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CP156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CQ156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CR156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CS156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CT156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CU156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CV156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CW156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CX156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CY156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="CZ156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="DA156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="DB156" s="13">
         <f t="shared" si="2"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="DC156" s="13">
         <f t="shared" ref="DC156:DN156" si="3">SUM(DC163:DC198)</f>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="DD156" s="13">
         <f t="shared" si="3"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="DE156" s="13">
         <f t="shared" si="3"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="DF156" s="13">
         <f t="shared" si="3"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="DG156" s="13">
         <f t="shared" si="3"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="DH156" s="13">
         <f t="shared" si="3"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="DI156" s="13">
         <f t="shared" si="3"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="DJ156" s="13">
         <f t="shared" si="3"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="DK156" s="13">
         <f t="shared" si="3"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="DL156" s="13">
         <f t="shared" si="3"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="DM156" s="13">
         <f t="shared" si="3"/>
-        <v>20.824999999999999</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="DN156" s="13">
         <f t="shared" si="3"/>
@@ -25200,383 +25168,383 @@
       </c>
       <c r="X159" s="15">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="Y159" s="15">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="Z159" s="15">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AA159" s="15">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AB159" s="15">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AC159" s="15">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AD159" s="15">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AE159" s="15">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AF159" s="15">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG159" s="15">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AH159" s="15">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI159" s="15">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ159" s="15">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK159" s="15">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL159" s="15">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM159" s="15">
         <f t="shared" si="10"/>
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AN159" s="15">
         <f t="shared" si="10"/>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AO159" s="15">
         <f t="shared" si="10"/>
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP159" s="15">
         <f t="shared" si="10"/>
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="AQ159" s="15">
         <f t="shared" si="10"/>
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="AR159" s="15">
         <f t="shared" si="10"/>
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="AS159" s="15">
         <f t="shared" si="10"/>
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="AT159" s="15">
         <f t="shared" si="10"/>
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="AU159" s="15">
         <f t="shared" si="10"/>
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="AV159" s="15">
         <f t="shared" si="10"/>
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="AW159" s="15">
         <f t="shared" si="10"/>
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="AX159" s="15">
         <f t="shared" si="10"/>
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="AY159" s="15">
         <f t="shared" si="10"/>
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="AZ159" s="15">
         <f t="shared" si="10"/>
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="BA159" s="15">
         <f t="shared" si="10"/>
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="BB159" s="15">
         <f t="shared" si="10"/>
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="BC159" s="15">
         <f t="shared" si="10"/>
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="BD159" s="15">
         <f t="shared" si="10"/>
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="BE159" s="15">
         <f t="shared" si="10"/>
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="BF159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="BG159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BH159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BI159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BJ159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BK159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BL159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BM159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BN159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BO159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BP159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BQ159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BR159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BS159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BT159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BU159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BV159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BW159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BX159" s="15">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BY159" s="15">
         <f t="shared" ref="BY159:DN159" si="11">BY155+BX159</f>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="BZ159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CA159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CB159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CC159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CD159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CE159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CF159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CG159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CH159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CI159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CJ159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CK159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CL159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CM159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CN159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CO159" s="15">
         <f>CO155+CN159</f>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CP159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CQ159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CR159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CS159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CT159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CU159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CV159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CW159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CX159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CY159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="CZ159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="DA159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="DB159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="DC159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="DD159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="DE159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="DF159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="DG159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="DH159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="DI159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="DJ159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="DK159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="DL159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="DM159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="DN159" s="15">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>221</v>
       </c>
     </row>
     <row r="160" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -25778,239 +25746,239 @@
       </c>
       <c r="BG160" s="15">
         <f>SUM(BG163:BG233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BH160" s="15">
         <f>SUM(BH163:BH233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BI160" s="15">
         <f>SUM(BI163:BI233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BJ160" s="15">
         <f>SUM(BJ163:BJ233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BK160" s="15">
         <f>SUM(BK163:BK233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BL160" s="15">
         <f>SUM(BL163:BL233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BM160" s="15">
         <f>SUM(BM163:BM233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BN160" s="15">
         <f>SUM(BN163:BN233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BO160" s="15">
         <f>SUM(BO163:BO233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BP160" s="15">
         <f>SUM(BP163:BP233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BQ160" s="15">
         <f>SUM(BQ163:BQ233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BR160" s="15">
         <f>SUM(BR163:BR233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BS160" s="15">
         <f>SUM(BS163:BS233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BT160" s="15">
         <f>SUM(BT163:BT233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BU160" s="15">
         <f>SUM(BU163:BU233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BV160" s="15">
         <f>SUM(BV163:BV233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BW160" s="15">
         <f>SUM(BW163:BW233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BX160" s="15">
         <f>SUM(BX163:BX233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BY160" s="15">
         <f>SUM(BY163:BY233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="BZ160" s="15">
         <f>SUM(BZ163:BZ233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CA160" s="15">
         <f>SUM(CA163:CA233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CB160" s="15">
         <f>SUM(CB163:CB233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CC160" s="15">
         <f>SUM(CC163:CC233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CD160" s="15">
         <f>SUM(CD163:CD233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CE160" s="15">
         <f>SUM(CE163:CE233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CF160" s="15">
         <f>SUM(CF163:CF233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CG160" s="15">
         <f>SUM(CG163:CG233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CH160" s="15">
         <f>SUM(CH163:CH233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CI160" s="15">
         <f>SUM(CI163:CI233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CJ160" s="15">
         <f>SUM(CJ163:CJ233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CK160" s="15">
         <f>SUM(CK163:CK233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CL160" s="15">
         <f>SUM(CL163:CL233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CM160" s="15">
         <f>SUM(CM163:CM233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CN160" s="15">
         <f>SUM(CN163:CN233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CO160" s="15">
         <f>SUM(CO163:CO233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CP160" s="15">
         <f>SUM(CP163:CP233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CQ160" s="15">
         <f>SUM(CQ163:CQ233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CR160" s="15">
         <f>SUM(CR163:CR233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CS160" s="15">
         <f>SUM(CS163:CS233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CT160" s="15">
         <f>SUM(CT163:CT233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CU160" s="15">
         <f>SUM(CU163:CU233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CV160" s="15">
         <f>SUM(CV163:CV233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CW160" s="15">
         <f>SUM(CW163:CW233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CX160" s="15">
         <f>SUM(CX163:CX233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CY160" s="15">
         <f>SUM(CY163:CY233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="CZ160" s="15">
         <f>SUM(CZ163:CZ233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="DA160" s="15">
         <f>SUM(DA163:DA233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="DB160" s="15">
         <f>SUM(DB163:DB233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="DC160" s="15">
         <f>SUM(DC163:DC233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="DD160" s="15">
         <f>SUM(DD163:DD233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="DE160" s="15">
         <f>SUM(DE163:DE233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="DF160" s="15">
         <f>SUM(DF163:DF233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="DG160" s="15">
         <f>SUM(DG163:DG233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="DH160" s="15">
         <f>SUM(DH163:DH233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="DI160" s="15">
         <f>SUM(DI163:DI233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="DJ160" s="15">
         <f>SUM(DJ163:DJ233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="DK160" s="15">
         <f>SUM(DK163:DK233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="DL160" s="15">
         <f>SUM(DL163:DL233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="DM160" s="15">
         <f>SUM(DM163:DM233)*データ!$D$2</f>
-        <v>166.6</v>
+        <v>176.2</v>
       </c>
       <c r="DN160" s="15">
         <f>SUM(DN163:DN233)*データ!$D$2</f>
@@ -30150,239 +30118,239 @@
       </c>
       <c r="BG172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BH24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BH172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BI24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BI172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BJ24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BJ172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BK24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BK172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BL24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BL172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BM24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BM172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BN24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BN172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BO24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BO172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BP24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BP172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BQ24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BQ172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BR24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BR172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BS24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BS172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BT24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BT172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BU24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BU172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BV24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BV172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BW24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BW172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BX24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BX172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BY24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BY172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BZ24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BZ172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CA24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CA172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CB24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CB172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CC24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CC172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CD24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CD172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CE24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CE172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CF24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CF172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CG24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CG172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CH24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CH172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CI24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CI172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CJ24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CJ172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CK24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CK172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CL24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CL172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CM24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CM172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CN24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CN172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CO24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CO172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CP24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CP172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CQ24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CQ172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CR24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CR172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CS24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CS172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CT24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CT172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CU24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CU172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CV24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CV172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CW24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CW172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CX24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CX172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CY24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CY172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CZ24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CZ172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DA24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DA172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DB24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DB172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DC24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DC172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DD24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DD172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DE24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DE172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DF24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DF172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DG24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DG172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DH24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DH172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DI24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DI172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DJ24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DJ172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DK24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DK172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DL24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DL172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DM24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DM172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DN24:$DN24)=0,$J23,0),0)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DN172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(#REF!)=0,$J23,0),0)</f>
@@ -57577,433 +57545,433 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K157:DN157 K35:DN152 K4:DN28">
-    <cfRule type="expression" dxfId="107" priority="175">
+    <cfRule type="expression" dxfId="99" priority="175">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="176">
+    <cfRule type="expression" dxfId="98" priority="176">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="177">
+    <cfRule type="expression" dxfId="97" priority="177">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75 D9:D10 I9:I10 D17:H28 D35:H76">
-    <cfRule type="expression" dxfId="104" priority="174">
+    <cfRule type="expression" dxfId="96" priority="174">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74 J76">
-    <cfRule type="expression" dxfId="103" priority="173">
+    <cfRule type="expression" dxfId="95" priority="173">
       <formula>$C73=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5 J9 J13 J17 J21 J25 J29 J37 J41 J45 J49 J53 J57 J61 J65 J69 J73">
-    <cfRule type="expression" dxfId="102" priority="155">
+    <cfRule type="expression" dxfId="94" priority="155">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6 J10 J14 J18 J22 J26 J30 J38 J42 J46 J50 J54 J58 J62 J66 J70">
-    <cfRule type="expression" dxfId="101" priority="154">
+    <cfRule type="expression" dxfId="93" priority="154">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7 J11 J15 J19 J23 J27 J35 J39 J43 J47 J51 J55 J59 J63 J67 J71">
-    <cfRule type="expression" dxfId="100" priority="153">
+    <cfRule type="expression" dxfId="92" priority="153">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8 J12 J16 J20 J24 J28 J36 J40 J44 J48 J52 J56 J60 J64 J68 J72">
-    <cfRule type="expression" dxfId="99" priority="152">
+    <cfRule type="expression" dxfId="91" priority="152">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I8 D7:E8">
-    <cfRule type="expression" dxfId="98" priority="144">
+    <cfRule type="expression" dxfId="90" priority="144">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H16 D15:E16">
-    <cfRule type="expression" dxfId="97" priority="136">
+    <cfRule type="expression" dxfId="89" priority="136">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:DN75 K73:DN73 K71:DN71 K69:DN69 K67:DN67 K65:DN65 K63:DN63 K57:DN57 K51:DN51 K49:DN49 K47:DN47 K45:DN45 K35:DN35 K27:DN27 K9:DN9 K7:DN7 K43:DN43 K41:DN41 K39:DN39 K5:DN5 K19:DN19 K59:DN59 K61:DN61 K11:DN11 K17:DN17 K15:DN15 K13:DN13 K21:DN21 K23:DN23 K25:DN25 K37:DN37 K55:DN55 K53:DN53">
-    <cfRule type="expression" dxfId="96" priority="147">
+    <cfRule type="expression" dxfId="88" priority="147">
       <formula>K5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K76:DN76 K74:DN74 K72:DN72 K70:DN70 K68:DN68 K66:DN66 K64:DN64 K62:DN62 K60:DN60 K58:DN58 K56:DN56 K54:DN54 K52:DN52 K50:DN50 K48:DN48 K46:DN46 K40:DN40 K38:DN38 K36:DN36 K28:DN28 K26:DN26 K24:DN24 K8:DN8 K6:DN6 K44:DN44 K42:DN42 K20:DN20 K10:DN10 K12:DN12 K14:DN14 K16:DN16 K18:DN18 K22:DN22">
-    <cfRule type="expression" dxfId="95" priority="146">
+    <cfRule type="expression" dxfId="87" priority="146">
       <formula>K6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E12">
-    <cfRule type="expression" dxfId="94" priority="142">
+    <cfRule type="expression" dxfId="86" priority="142">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="expression" dxfId="93" priority="143">
+    <cfRule type="expression" dxfId="85" priority="143">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C12 C17:C28 C35:C76">
-    <cfRule type="expression" dxfId="92" priority="137">
+    <cfRule type="expression" dxfId="84" priority="137">
       <formula>$I7="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="139">
+    <cfRule type="expression" dxfId="83" priority="139">
       <formula>$I7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F12">
-    <cfRule type="expression" dxfId="90" priority="118">
+    <cfRule type="expression" dxfId="82" priority="118">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C16">
-    <cfRule type="expression" dxfId="89" priority="131">
+    <cfRule type="expression" dxfId="81" priority="131">
       <formula>$I15="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="132">
+    <cfRule type="expression" dxfId="80" priority="132">
       <formula>$I15="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="expression" dxfId="87" priority="130">
+    <cfRule type="expression" dxfId="79" priority="130">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="expression" dxfId="86" priority="125">
+    <cfRule type="expression" dxfId="78" priority="125">
       <formula>$I13="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="126">
+    <cfRule type="expression" dxfId="77" priority="126">
       <formula>$I13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10 G9:H10">
-    <cfRule type="expression" dxfId="84" priority="117">
+    <cfRule type="expression" dxfId="76" priority="117">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="expression" dxfId="83" priority="116">
+    <cfRule type="expression" dxfId="75" priority="116">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="82" priority="115">
+    <cfRule type="expression" dxfId="74" priority="115">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:I6">
-    <cfRule type="expression" dxfId="81" priority="88">
+    <cfRule type="expression" dxfId="73" priority="88">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="expression" dxfId="80" priority="86">
+    <cfRule type="expression" dxfId="72" priority="86">
       <formula>$I5="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="87">
+    <cfRule type="expression" dxfId="71" priority="87">
       <formula>$I5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="expression" dxfId="78" priority="84">
+    <cfRule type="expression" dxfId="70" priority="84">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H12">
-    <cfRule type="expression" dxfId="77" priority="83">
+    <cfRule type="expression" dxfId="69" priority="83">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="expression" dxfId="76" priority="82">
+    <cfRule type="expression" dxfId="68" priority="82">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F14">
-    <cfRule type="expression" dxfId="75" priority="81">
+    <cfRule type="expression" dxfId="67" priority="81">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G14">
-    <cfRule type="expression" dxfId="74" priority="80">
+    <cfRule type="expression" dxfId="66" priority="80">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14">
-    <cfRule type="expression" dxfId="73" priority="79">
+    <cfRule type="expression" dxfId="65" priority="79">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79 J81 J85 J87 J89 J91 J93 J105 J107 J109 J111 J113 J115 J117 J119 J121 J123 J125 J127 J129 J131 J103 J97 J99 J95 J83 D79:H132">
-    <cfRule type="expression" dxfId="72" priority="72">
+    <cfRule type="expression" dxfId="64" priority="72">
       <formula>$C79=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80 J82 J86 J88 J90 J92 J94 J106 J108 J110 J112 J114 J116 J118 J120 J122 J124 J126 J128 J130 J132 J104 J98 J100 J96 J84">
-    <cfRule type="expression" dxfId="71" priority="71">
+    <cfRule type="expression" dxfId="63" priority="71">
       <formula>$C79=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77:H78 D77:E78">
-    <cfRule type="expression" dxfId="70" priority="66">
+    <cfRule type="expression" dxfId="62" priority="66">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K131:DN131 K129:DN129 K127:DN127 K125:DN125 K123:DN123 K121:DN121 K119:DN119 K113:DN113 K111:DN111 K109:DN109 K107:DN107 K105:DN105 K103:DN103 K101:DN101 K93:DN93 K91:DN91 K89:DN89 K87:DN87 K85:DN85 K99:DN99 K97:DN97 K95:DN95 K81:DN81 K79:DN79 K77:DN77 K83:DN83 K115:DN115 K117:DN117">
-    <cfRule type="expression" dxfId="69" priority="70">
+    <cfRule type="expression" dxfId="61" priority="70">
       <formula>K77&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K132:DN132 K130:DN130 K128:DN128 K126:DN126 K124:DN124 K122:DN122 K120:DN120 K118:DN118 K116:DN116 K114:DN114 K112:DN112 K110:DN110 K108:DN108 K106:DN106 K104:DN104 K102:DN102 K96:DN96 K94:DN94 K92:DN92 K90:DN90 K88:DN88 K86:DN86 K100:DN100 K98:DN98 K84:DN84 K82:DN82 K80:DN80 K78:DN78">
-    <cfRule type="expression" dxfId="68" priority="69">
+    <cfRule type="expression" dxfId="60" priority="69">
       <formula>K78&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C132">
-    <cfRule type="expression" dxfId="67" priority="67">
+    <cfRule type="expression" dxfId="59" priority="67">
       <formula>$I79="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="68">
+    <cfRule type="expression" dxfId="58" priority="68">
       <formula>$I79="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77">
-    <cfRule type="expression" dxfId="65" priority="65">
+    <cfRule type="expression" dxfId="57" priority="65">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J78">
-    <cfRule type="expression" dxfId="64" priority="64">
+    <cfRule type="expression" dxfId="56" priority="64">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C78">
-    <cfRule type="expression" dxfId="63" priority="62">
+    <cfRule type="expression" dxfId="55" priority="62">
       <formula>$I77="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="63">
+    <cfRule type="expression" dxfId="54" priority="63">
       <formula>$I77="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77:F78">
-    <cfRule type="expression" dxfId="61" priority="61">
+    <cfRule type="expression" dxfId="53" priority="61">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J101">
-    <cfRule type="expression" dxfId="60" priority="60">
+    <cfRule type="expression" dxfId="52" priority="60">
       <formula>$C101=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J102">
-    <cfRule type="expression" dxfId="59" priority="59">
+    <cfRule type="expression" dxfId="51" priority="59">
       <formula>$C101=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J133 J135 J137 J139 J141 J143 J145 J147 J149 J151 D133:H152">
-    <cfRule type="expression" dxfId="58" priority="55">
+    <cfRule type="expression" dxfId="50" priority="55">
       <formula>$C133=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134 J136 J138 J140 J142 J144 J146 J148 J150 J152">
-    <cfRule type="expression" dxfId="57" priority="54">
+    <cfRule type="expression" dxfId="49" priority="54">
       <formula>$C133=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K151:DN151 K149:DN149 K147:DN147 K145:DN145 K143:DN143 K141:DN141 K139:DN139 K133:DN133 K135:DN135 K137:DN137">
-    <cfRule type="expression" dxfId="56" priority="53">
+    <cfRule type="expression" dxfId="48" priority="53">
       <formula>K133&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K152:DN152 K150:DN150 K148:DN148 K146:DN146 K144:DN144 K142:DN142 K140:DN140 K138:DN138 K136:DN136 K134:DN134">
-    <cfRule type="expression" dxfId="55" priority="52">
+    <cfRule type="expression" dxfId="47" priority="52">
       <formula>K134&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C133:C152">
-    <cfRule type="expression" dxfId="54" priority="50">
+    <cfRule type="expression" dxfId="46" priority="50">
       <formula>$I133="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="51">
+    <cfRule type="expression" dxfId="45" priority="51">
       <formula>$I133="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I28 I35:I152">
-    <cfRule type="expression" dxfId="52" priority="49">
+    <cfRule type="expression" dxfId="44" priority="49">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:DN30">
-    <cfRule type="expression" dxfId="51" priority="46">
+    <cfRule type="expression" dxfId="43" priority="46">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="47">
+    <cfRule type="expression" dxfId="42" priority="47">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="48">
+    <cfRule type="expression" dxfId="41" priority="48">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:H30">
-    <cfRule type="expression" dxfId="48" priority="45">
+    <cfRule type="expression" dxfId="40" priority="45">
       <formula>$C29=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:DN29">
-    <cfRule type="expression" dxfId="47" priority="43">
+    <cfRule type="expression" dxfId="39" priority="43">
       <formula>K29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:DN30">
-    <cfRule type="expression" dxfId="46" priority="42">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>K30&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C30">
-    <cfRule type="expression" dxfId="45" priority="40">
+    <cfRule type="expression" dxfId="37" priority="40">
       <formula>$I29="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="41">
+    <cfRule type="expression" dxfId="36" priority="41">
       <formula>$I29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I30">
-    <cfRule type="expression" dxfId="43" priority="39">
+    <cfRule type="expression" dxfId="35" priority="39">
       <formula>$C29=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="41" priority="37">
+    <cfRule type="expression" dxfId="33" priority="37">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:DN32 K31:BN31 BU31:DN31">
-    <cfRule type="expression" dxfId="40" priority="34">
+    <cfRule type="expression" dxfId="32" priority="34">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="35">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="36">
+    <cfRule type="expression" dxfId="30" priority="36">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:H32">
-    <cfRule type="expression" dxfId="37" priority="33">
+    <cfRule type="expression" dxfId="29" priority="33">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN31 BU31:DN31">
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>K31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:DN32">
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="27" priority="31">
       <formula>K32&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C32">
-    <cfRule type="expression" dxfId="34" priority="29">
+    <cfRule type="expression" dxfId="26" priority="29">
       <formula>$I31="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="30">
+    <cfRule type="expression" dxfId="25" priority="30">
       <formula>$I31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I32">
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="expression" dxfId="31" priority="27">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:DN34 K33:BP33 BW33:DN33">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="25">
+    <cfRule type="expression" dxfId="19" priority="25">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:H34">
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BP33 BW33:DN33">
-    <cfRule type="expression" dxfId="25" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>K33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:DN34">
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>K34&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C34">
-    <cfRule type="expression" dxfId="23" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>$I33="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="19">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>$I33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I34">
-    <cfRule type="expression" dxfId="21" priority="17">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO31:BT31">
-    <cfRule type="expression" dxfId="20" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>ISERROR(MATCH(BO$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>WEEKDAY(BO$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>WEEKDAY(BO$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO31:BT31">
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>BO31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ33:BZ33">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>ISERROR(MATCH(BQ$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>WEEKDAY(BQ$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>WEEKDAY(BQ$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ33:BZ33">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>BQ33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58033,7 +58001,7 @@
   <dimension ref="A27:DH34"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD29" sqref="AD29"/>
+      <selection activeCell="AR29" sqref="AR29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -59034,147 +59002,147 @@
       </c>
       <c r="O29" s="30">
         <f ca="1">IF(TODAY()&gt;=O$27,ガント!X159,NA())</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="P29" s="30">
         <f ca="1">IF(TODAY()&gt;=P$27,ガント!Y159,NA())</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="Q29" s="30">
         <f ca="1">IF(TODAY()&gt;=Q$27,ガント!Z159,NA())</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="R29" s="30">
         <f ca="1">IF(TODAY()&gt;=R$27,ガント!AA159,NA())</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="S29" s="30">
         <f ca="1">IF(TODAY()&gt;=S$27,ガント!AB159,NA())</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="T29" s="30">
         <f ca="1">IF(TODAY()&gt;=T$27,ガント!AC159,NA())</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="U29" s="30">
         <f ca="1">IF(TODAY()&gt;=U$27,ガント!AD159,NA())</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="V29" s="30">
         <f ca="1">IF(TODAY()&gt;=V$27,ガント!AE159,NA())</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="W29" s="30">
         <f ca="1">IF(TODAY()&gt;=W$27,ガント!AF159,NA())</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X29" s="30">
         <f ca="1">IF(TODAY()&gt;=X$27,ガント!AG159,NA())</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Y29" s="30">
         <f ca="1">IF(TODAY()&gt;=Y$27,ガント!AH159,NA())</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Z29" s="30">
         <f ca="1">IF(TODAY()&gt;=Z$27,ガント!AI159,NA())</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AA29" s="30">
         <f ca="1">IF(TODAY()&gt;=AA$27,ガント!AJ159,NA())</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB29" s="30">
         <f ca="1">IF(TODAY()&gt;=AB$27,ガント!AK159,NA())</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AC29" s="30">
         <f ca="1">IF(TODAY()&gt;=AC$27,ガント!AL159,NA())</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AD29" s="30">
         <f ca="1">IF(TODAY()&gt;=AD$27,ガント!AM159,NA())</f>
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AE29" s="30">
         <f ca="1">IF(TODAY()&gt;=AE$27,ガント!AN159,NA())</f>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AF29" s="30">
         <f ca="1">IF(TODAY()&gt;=AF$27,ガント!AO159,NA())</f>
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG29" s="30">
         <f ca="1">IF(TODAY()&gt;=AG$27,ガント!AP159,NA())</f>
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="AH29" s="30">
         <f ca="1">IF(TODAY()&gt;=AH$27,ガント!AQ159,NA())</f>
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="AI29" s="30">
         <f ca="1">IF(TODAY()&gt;=AI$27,ガント!AR159,NA())</f>
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="AJ29" s="30">
         <f ca="1">IF(TODAY()&gt;=AJ$27,ガント!AS159,NA())</f>
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="AK29" s="30">
         <f ca="1">IF(TODAY()&gt;=AK$27,ガント!AT159,NA())</f>
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="AL29" s="30">
         <f ca="1">IF(TODAY()&gt;=AL$27,ガント!AU159,NA())</f>
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="AM29" s="30">
         <f ca="1">IF(TODAY()&gt;=AM$27,ガント!AV159,NA())</f>
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="AN29" s="30">
         <f ca="1">IF(TODAY()&gt;=AN$27,ガント!AW159,NA())</f>
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="AO29" s="30">
         <f ca="1">IF(TODAY()&gt;=AO$27,ガント!AX159,NA())</f>
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="AP29" s="30">
         <f ca="1">IF(TODAY()&gt;=AP$27,ガント!AY159,NA())</f>
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="AQ29" s="30">
         <f ca="1">IF(TODAY()&gt;=AQ$27,ガント!AZ159,NA())</f>
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="AR29" s="30">
         <f ca="1">IF(TODAY()&gt;=AR$27,ガント!BA159,NA())</f>
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="AS29" s="30">
         <f ca="1">IF(TODAY()&gt;=AS$27,ガント!BB159,NA())</f>
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="AT29" s="30">
         <f ca="1">IF(TODAY()&gt;=AT$27,ガント!BC159,NA())</f>
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="AU29" s="30">
         <f ca="1">IF(TODAY()&gt;=AU$27,ガント!BD159,NA())</f>
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="AV29" s="30">
         <f ca="1">IF(TODAY()&gt;=AV$27,ガント!BE159,NA())</f>
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="AW29" s="30">
         <f ca="1">IF(TODAY()&gt;=AW$27,ガント!BF159,NA())</f>
-        <v>174</v>
-      </c>
-      <c r="AX29" s="30" t="e">
+        <v>217</v>
+      </c>
+      <c r="AX29" s="30">
         <f ca="1">IF(TODAY()&gt;=AX$27,ガント!BG159,NA())</f>
-        <v>#N/A</v>
+        <v>221</v>
       </c>
       <c r="AY29" s="30" t="e">
         <f ca="1">IF(TODAY()&gt;=AY$27,ガント!BH159,NA())</f>
@@ -59622,9 +59590,9 @@
         <f ca="1">IF(TODAY()&gt;=AW$27,ガント!BF160,NA())</f>
         <v>166.6</v>
       </c>
-      <c r="AX30" s="27" t="e">
+      <c r="AX30" s="27">
         <f ca="1">IF(TODAY()&gt;=AX$27,ガント!BG160,NA())</f>
-        <v>#N/A</v>
+        <v>176.2</v>
       </c>
       <c r="AY30" s="27" t="e">
         <f ca="1">IF(TODAY()&gt;=AY$27,ガント!BH160,NA())</f>
@@ -60071,9 +60039,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>-78.400000000000006</v>
       </c>
-      <c r="AX31" s="25" t="e">
+      <c r="AX31" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>-78.800000000000011</v>
       </c>
       <c r="AY31" s="25" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -60382,147 +60350,147 @@
       </c>
       <c r="O32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-28</v>
+        <v>-36</v>
       </c>
       <c r="P32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-28</v>
+        <v>-36</v>
       </c>
       <c r="Q32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-28</v>
+        <v>-36</v>
       </c>
       <c r="R32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-28</v>
+        <v>-36</v>
       </c>
       <c r="S32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="T32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="U32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="V32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="W32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-8</v>
+        <v>-18</v>
       </c>
       <c r="X32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-8</v>
+        <v>-18</v>
       </c>
       <c r="Y32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-8</v>
+        <v>-18</v>
       </c>
       <c r="Z32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-8</v>
+        <v>-18</v>
       </c>
       <c r="AA32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-8</v>
+        <v>-18</v>
       </c>
       <c r="AB32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-8</v>
+        <v>-18</v>
       </c>
       <c r="AC32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-8</v>
+        <v>-18</v>
       </c>
       <c r="AD32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="AE32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-24</v>
+        <v>-44</v>
       </c>
       <c r="AF32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-28</v>
+        <v>-48</v>
       </c>
       <c r="AG32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>-31</v>
+        <v>-51</v>
       </c>
       <c r="AH32" s="23">
         <f t="shared" ref="AH32:BM32" ca="1" si="5">IF(ISERR(AH30-AH29),NA(),AH30-AH29)</f>
-        <v>-26</v>
+        <v>-46</v>
       </c>
       <c r="AI32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-28</v>
+        <v>-48</v>
       </c>
       <c r="AJ32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-30</v>
+        <v>-50</v>
       </c>
       <c r="AK32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-46</v>
+        <v>-72</v>
       </c>
       <c r="AL32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-50</v>
+        <v>-76</v>
       </c>
       <c r="AM32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-54</v>
+        <v>-80</v>
       </c>
       <c r="AN32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-58</v>
+        <v>-84</v>
       </c>
       <c r="AO32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-62</v>
+        <v>-88</v>
       </c>
       <c r="AP32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-66</v>
+        <v>-92</v>
       </c>
       <c r="AQ32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-70</v>
+        <v>-96</v>
       </c>
       <c r="AR32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-80</v>
+        <v>-114</v>
       </c>
       <c r="AS32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-83</v>
+        <v>-118</v>
       </c>
       <c r="AT32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-92</v>
+        <v>-128</v>
       </c>
       <c r="AU32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-102</v>
+        <v>-138</v>
       </c>
       <c r="AV32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-6.4000000000000057</v>
+        <v>-42.400000000000006</v>
       </c>
       <c r="AW32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-7.4000000000000057</v>
-      </c>
-      <c r="AX32" s="23" t="e">
+        <v>-50.400000000000006</v>
+      </c>
+      <c r="AX32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>-44.800000000000011</v>
       </c>
       <c r="AY32" s="23" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -60969,9 +60937,9 @@
         <f t="shared" ca="1" si="9"/>
         <v>0.67999999999999994</v>
       </c>
-      <c r="AX33" s="28" t="e">
+      <c r="AX33" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>0.69098039215686269</v>
       </c>
       <c r="AY33" s="28" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -61280,147 +61248,147 @@
       </c>
       <c r="O34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.41666666666666669</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="P34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.41666666666666669</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="Q34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.41666666666666669</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="R34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.41666666666666669</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="S34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.8666666666666667</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="T34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.8666666666666667</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="U34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.8666666666666667</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="V34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.8666666666666667</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="W34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.8666666666666667</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="X34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.8666666666666667</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="Y34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.8666666666666667</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="Z34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.8666666666666667</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="AA34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.8666666666666667</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="AB34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.8666666666666667</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="AC34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.8666666666666667</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="AD34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.72602739726027399</v>
+        <v>0.56989247311827962</v>
       </c>
       <c r="AE34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.68831168831168832</v>
+        <v>0.54639175257731953</v>
       </c>
       <c r="AF34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.65432098765432101</v>
+        <v>0.52475247524752477</v>
       </c>
       <c r="AG34" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.63095238095238093</v>
+        <v>0.50961538461538458</v>
       </c>
       <c r="AH34" s="28">
         <f t="shared" ref="AH34:BM34" ca="1" si="13">IF(ISERR(AH30/AH29),NA(),AH30/AH29)</f>
-        <v>0.70114942528735635</v>
+        <v>0.57009345794392519</v>
       </c>
       <c r="AI34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.6853932584269663</v>
+        <v>0.55963302752293576</v>
       </c>
       <c r="AJ34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.67032967032967028</v>
+        <v>0.5495495495495496</v>
       </c>
       <c r="AK34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.57009345794392519</v>
+        <v>0.45864661654135336</v>
       </c>
       <c r="AL34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.5495495495495496</v>
+        <v>0.44525547445255476</v>
       </c>
       <c r="AM34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.5304347826086957</v>
+        <v>0.43262411347517732</v>
       </c>
       <c r="AN34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.51260504201680668</v>
+        <v>0.4206896551724138</v>
       </c>
       <c r="AO34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.49593495934959347</v>
+        <v>0.40939597315436244</v>
       </c>
       <c r="AP34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.48031496062992124</v>
+        <v>0.39869281045751637</v>
       </c>
       <c r="AQ34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.46564885496183206</v>
+        <v>0.38853503184713378</v>
       </c>
       <c r="AR34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.43262411347517732</v>
+        <v>0.34857142857142859</v>
       </c>
       <c r="AS34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.4236111111111111</v>
+        <v>0.34078212290502791</v>
       </c>
       <c r="AT34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.39869281045751637</v>
+        <v>0.32275132275132273</v>
       </c>
       <c r="AU34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.37423312883435583</v>
+        <v>0.30653266331658291</v>
       </c>
       <c r="AV34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.96300578034682083</v>
+        <v>0.7971291866028708</v>
       </c>
       <c r="AW34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.95747126436781604</v>
-      </c>
-      <c r="AX34" s="28" t="e">
+        <v>0.76774193548387093</v>
+      </c>
+      <c r="AX34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
+        <v>0.79728506787330311</v>
       </c>
       <c r="AY34" s="28" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -61681,13 +61649,13 @@
   </customSheetViews>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B27:DH27">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>ISERROR(MATCH(B$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>WEEKDAY(B$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>WEEKDAY(B$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62114,12 +62082,12 @@
   </customSheetViews>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:B29 D4:H29">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$E4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C29">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$E4="完了"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/PM演習_管理ツール_矢吹研A班.xlsx
@@ -1724,6 +1724,22 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1740,51 +1756,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1802,23 +1796,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2962,11 +2962,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="343927912"/>
-        <c:axId val="345208936"/>
+        <c:axId val="154601872"/>
+        <c:axId val="154602264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="343927912"/>
+        <c:axId val="154601872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2976,14 +2976,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345208936"/>
+        <c:crossAx val="154602264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="345208936"/>
+        <c:axId val="154602264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3004,7 +3004,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343927912"/>
+        <c:crossAx val="154601872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3498,7 +3498,7 @@
   <dimension ref="A1:DO233"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="AG5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="BH26" sqref="BH26"/>
@@ -3520,61 +3520,61 @@
       <c r="A1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="74"/>
+      <c r="C1" s="86"/>
       <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="83">
         <v>11.4</v>
       </c>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="81" t="s">
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="79" t="s">
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="86"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="74"/>
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A2" s="45"/>
@@ -3603,25 +3603,25 @@
       <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:118" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="80" t="s">
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="49" t="s">
@@ -3745,10 +3745,10 @@
       <c r="DN3" s="51"/>
     </row>
     <row r="4" spans="1:118" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="89"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="53" t="str">
         <f>データ!A2</f>
         <v>川崎</v>
@@ -3765,7 +3765,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>小山</v>
       </c>
-      <c r="I4" s="80"/>
+      <c r="I4" s="79"/>
       <c r="J4" s="54" t="s">
         <v>21</v>
       </c>
@@ -4095,20 +4095,20 @@
       </c>
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A5" s="70">
-        <v>0</v>
-      </c>
-      <c r="B5" s="64" t="str">
+      <c r="A5" s="64">
+        <v>0</v>
+      </c>
+      <c r="B5" s="68" t="str">
         <f>B1</f>
         <v>コンビニ弁当データベース開発</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="84"/>
       <c r="J5" s="55" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K5:DN5)/データ!$D$2,"")</f>
         <v/>
@@ -4223,15 +4223,15 @@
       <c r="DN5" s="19"/>
     </row>
     <row r="6" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="72"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="56" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K6:DN6)/データ!$D$2,"")</f>
         <v/>
@@ -4346,19 +4346,19 @@
       <c r="DN6" s="21"/>
     </row>
     <row r="7" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A7" s="70">
+      <c r="A7" s="64">
         <v>1</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="72"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="84"/>
       <c r="J7" s="55" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DN7)/データ!$D$2,"")</f>
         <v/>
@@ -4473,15 +4473,15 @@
       <c r="DN7" s="19"/>
     </row>
     <row r="8" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="56" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DN8)/データ!$D$2,"")</f>
         <v/>
@@ -4596,23 +4596,23 @@
       <c r="DN8" s="21"/>
     </row>
     <row r="9" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A9" s="70">
+      <c r="A9" s="64">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="64" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="68">
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="66">
         <v>1</v>
       </c>
       <c r="J9" s="55">
@@ -4739,15 +4739,15 @@
       <c r="DN9" s="19"/>
     </row>
     <row r="10" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="69"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="56">
         <f>IF(C9&lt;&gt;"",SUM(K10:DN10)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -4872,25 +4872,25 @@
       <c r="DN10" s="21"/>
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A11" s="70">
+      <c r="A11" s="64">
         <v>1.2</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="68">
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="66">
         <v>1</v>
       </c>
       <c r="J11" s="55">
@@ -5017,15 +5017,15 @@
       <c r="DN11" s="19"/>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="69"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="56">
         <f>IF(C11&lt;&gt;"",SUM(K12:DN12)/データ!$D$2,"")</f>
         <v>4.875</v>
@@ -5156,25 +5156,25 @@
       <c r="DN12" s="21"/>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A13" s="70">
+      <c r="A13" s="64">
         <v>1.3</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="64" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="68">
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="66">
         <v>1</v>
       </c>
       <c r="J13" s="55">
@@ -5293,15 +5293,15 @@
       <c r="DN13" s="19"/>
     </row>
     <row r="14" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="69"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="67"/>
       <c r="J14" s="56">
         <f>IF(C13&lt;&gt;"",SUM(K14:DN14)/データ!$D$2,"")</f>
         <v>0.25</v>
@@ -5420,25 +5420,25 @@
       <c r="DN14" s="21"/>
     </row>
     <row r="15" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A15" s="64">
+      <c r="A15" s="68">
         <v>1.4</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="68">
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="66">
         <v>1</v>
       </c>
       <c r="J15" s="55">
@@ -5565,15 +5565,15 @@
       <c r="DN15" s="19"/>
     </row>
     <row r="16" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="69"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="56">
         <f>IF(C15&lt;&gt;"",SUM(K16:DN16)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -5698,31 +5698,31 @@
       <c r="DN16" s="21"/>
     </row>
     <row r="17" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A17" s="64">
+      <c r="A17" s="68">
         <v>2</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="66" t="s">
+      <c r="H17" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="66">
         <v>1</v>
       </c>
       <c r="J17" s="55">
@@ -5853,15 +5853,15 @@
       <c r="DN17" s="19"/>
     </row>
     <row r="18" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="69"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="56">
         <f>IF(C17&lt;&gt;"",SUM(K18:DN18)/データ!$D$2,"")</f>
         <v>9.75</v>
@@ -6014,19 +6014,19 @@
       <c r="DN18" s="21"/>
     </row>
     <row r="19" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A19" s="64">
+      <c r="A19" s="68">
         <v>3</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="55" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K19:DN19)/データ!$D$2,"")</f>
         <v/>
@@ -6141,15 +6141,15 @@
       <c r="DN19" s="19"/>
     </row>
     <row r="20" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="69"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="67"/>
       <c r="J20" s="56" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K20:DN20)/データ!$D$2,"")</f>
         <v/>
@@ -6264,27 +6264,27 @@
       <c r="DN20" s="21"/>
     </row>
     <row r="21" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64">
+      <c r="A21" s="68">
         <v>3.1</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66" t="s">
+      <c r="F21" s="70"/>
+      <c r="G21" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="66" t="s">
+      <c r="H21" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="68">
+      <c r="I21" s="66">
         <v>0.8</v>
       </c>
       <c r="J21" s="55">
@@ -6413,15 +6413,15 @@
       <c r="DN21" s="19"/>
     </row>
     <row r="22" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="69"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="67"/>
       <c r="J22" s="56">
         <f>IF(C21&lt;&gt;"",SUM(K22:DN22)/データ!$D$2,"")</f>
         <v>7</v>
@@ -6564,25 +6564,25 @@
       <c r="DN22" s="21"/>
     </row>
     <row r="23" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A23" s="64">
+      <c r="A23" s="68">
         <v>3.2</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66" t="s">
+      <c r="F23" s="70"/>
+      <c r="G23" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="68">
+      <c r="H23" s="70"/>
+      <c r="I23" s="66">
         <v>0.3</v>
       </c>
       <c r="J23" s="55">
@@ -6709,15 +6709,15 @@
       <c r="DN23" s="19"/>
     </row>
     <row r="24" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="69"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="56">
         <f>IF(C23&lt;&gt;"",SUM(K24:DN24)/データ!$D$2,"")</f>
         <v>4</v>
@@ -6836,25 +6836,25 @@
       <c r="DN24" s="21"/>
     </row>
     <row r="25" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="64">
+      <c r="A25" s="68">
         <v>4</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="68"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="55">
         <f>IF(C25&lt;&gt;"",SUM(K25:DN25)/データ!$D$2,"")</f>
         <v>5</v>
@@ -6977,15 +6977,15 @@
       <c r="DN25" s="19"/>
     </row>
     <row r="26" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="69"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="56">
         <f>IF(C25&lt;&gt;"",SUM(K26:DN26)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7100,19 +7100,19 @@
       <c r="DN26" s="21"/>
     </row>
     <row r="27" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="64">
+      <c r="A27" s="68">
         <v>5</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="55" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K27:DN27)/データ!$D$2,"")</f>
         <v/>
@@ -7227,15 +7227,15 @@
       <c r="DN27" s="19"/>
     </row>
     <row r="28" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="69"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="67"/>
       <c r="J28" s="56" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K28:DN28)/データ!$D$2,"")</f>
         <v/>
@@ -7350,27 +7350,27 @@
       <c r="DN28" s="21"/>
     </row>
     <row r="29" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="64">
+      <c r="A29" s="68">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64" t="s">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66" t="s">
+      <c r="G29" s="70"/>
+      <c r="H29" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="I29" s="68"/>
+      <c r="I29" s="66"/>
       <c r="J29" s="55">
         <f>IF(C29&lt;&gt;"",SUM(K29:DN29)/データ!$D$2,"")</f>
         <v>4.5</v>
@@ -7497,15 +7497,15 @@
       <c r="DN29" s="19"/>
     </row>
     <row r="30" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="69"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="56">
         <f>IF(C29&lt;&gt;"",SUM(K30:DN30)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7620,27 +7620,27 @@
       <c r="DN30" s="21"/>
     </row>
     <row r="31" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="64">
+      <c r="A31" s="68">
         <v>5.2</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64" t="s">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66" t="s">
+      <c r="F31" s="70"/>
+      <c r="G31" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="I31" s="68"/>
+      <c r="I31" s="66"/>
       <c r="J31" s="55">
         <f>IF(C31&lt;&gt;"",SUM(K31:DN31)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -7767,15 +7767,15 @@
       <c r="DN31" s="19"/>
     </row>
     <row r="32" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="69"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="56">
         <f>IF(C31&lt;&gt;"",SUM(K32:DN32)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7890,29 +7890,29 @@
       <c r="DN32" s="21"/>
     </row>
     <row r="33" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="64">
+      <c r="A33" s="68">
         <v>6</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="66"/>
-      <c r="I33" s="68"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="66"/>
       <c r="J33" s="55">
         <f>IF(C33&lt;&gt;"",SUM(K33:DN33)/データ!$D$2,"")</f>
         <v>3.75</v>
@@ -8039,15 +8039,15 @@
       <c r="DN33" s="19"/>
     </row>
     <row r="34" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="69"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="67"/>
       <c r="J34" s="56">
         <f>IF(C33&lt;&gt;"",SUM(K34:DN34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8162,29 +8162,29 @@
       <c r="DN34" s="21"/>
     </row>
     <row r="35" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A35" s="64">
+      <c r="A35" s="68">
         <v>7</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="66" t="s">
+      <c r="D35" s="68"/>
+      <c r="E35" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="66" t="s">
+      <c r="F35" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G35" s="66" t="s">
+      <c r="G35" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="66" t="s">
+      <c r="H35" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="I35" s="68"/>
+      <c r="I35" s="66"/>
       <c r="J35" s="55">
         <f>IF(C35&lt;&gt;"",SUM(K35:DN35)/データ!$D$2,"")</f>
         <v>10</v>
@@ -8327,15 +8327,15 @@
       <c r="DN35" s="19"/>
     </row>
     <row r="36" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="69"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="56">
         <f>IF(C35&lt;&gt;"",SUM(K36:DN36)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8450,23 +8450,23 @@
       <c r="DN36" s="21"/>
     </row>
     <row r="37" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A37" s="64">
+      <c r="A37" s="68">
         <v>8</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="68"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="66"/>
       <c r="J37" s="55">
         <f>IF(C37&lt;&gt;"",SUM(K37:DN37)/データ!$D$2,"")</f>
         <v>5</v>
@@ -8601,15 +8601,15 @@
       <c r="DN37" s="19"/>
     </row>
     <row r="38" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="69"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="67"/>
       <c r="J38" s="56">
         <f>IF(C37&lt;&gt;"",SUM(K38:DN38)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8724,19 +8724,19 @@
       <c r="DN38" s="21"/>
     </row>
     <row r="39" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="64">
+      <c r="A39" s="68">
         <v>9</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="66"/>
       <c r="J39" s="55" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K39:DN39)/データ!$D$2,"")</f>
         <v/>
@@ -8851,15 +8851,15 @@
       <c r="DN39" s="19"/>
     </row>
     <row r="40" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="69"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="67"/>
       <c r="J40" s="56" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K40:DN40)/データ!$D$2,"")</f>
         <v/>
@@ -8974,25 +8974,25 @@
       <c r="DN40" s="21"/>
     </row>
     <row r="41" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A41" s="64">
+      <c r="A41" s="68">
         <v>9.1</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64" t="s">
+      <c r="B41" s="68"/>
+      <c r="C41" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="64" t="s">
+      <c r="D41" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="66" t="s">
+      <c r="E41" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="68"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="66"/>
       <c r="J41" s="55">
         <f>IF(C41&lt;&gt;"",SUM(K41:DN41)/データ!$D$2,"")</f>
         <v>1.5</v>
@@ -9113,15 +9113,15 @@
       <c r="DN41" s="19"/>
     </row>
     <row r="42" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="69"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="67"/>
       <c r="J42" s="56">
         <f>IF(C41&lt;&gt;"",SUM(K42:DN42)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9236,25 +9236,25 @@
       <c r="DN42" s="21"/>
     </row>
     <row r="43" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A43" s="64">
+      <c r="A43" s="68">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64" t="s">
+      <c r="B43" s="68"/>
+      <c r="C43" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="64" t="s">
+      <c r="D43" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="66" t="s">
+      <c r="E43" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66" t="s">
+      <c r="F43" s="70"/>
+      <c r="G43" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="66"/>
-      <c r="I43" s="68"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="66"/>
       <c r="J43" s="55">
         <f>IF(C43&lt;&gt;"",SUM(K43:DN43)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -9375,15 +9375,15 @@
       <c r="DN43" s="19"/>
     </row>
     <row r="44" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="69"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="67"/>
       <c r="J44" s="56">
         <f>IF(C43&lt;&gt;"",SUM(K44:DN44)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9498,19 +9498,19 @@
       <c r="DN44" s="21"/>
     </row>
     <row r="45" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="64">
+      <c r="A45" s="68">
         <v>10</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="66"/>
       <c r="J45" s="55" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K45:DN45)/データ!$D$2,"")</f>
         <v/>
@@ -9625,15 +9625,15 @@
       <c r="DN45" s="19"/>
     </row>
     <row r="46" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="69"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="67"/>
       <c r="J46" s="56" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K46:DN46)/データ!$D$2,"")</f>
         <v/>
@@ -9748,23 +9748,23 @@
       <c r="DN46" s="21"/>
     </row>
     <row r="47" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A47" s="64">
+      <c r="A47" s="68">
         <v>10.1</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64" t="s">
+      <c r="B47" s="68"/>
+      <c r="C47" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="64" t="s">
+      <c r="D47" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="66" t="s">
+      <c r="E47" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="68"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="66"/>
       <c r="J47" s="55">
         <f>IF(C47&lt;&gt;"",SUM(K47:DN47)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -9885,15 +9885,15 @@
       <c r="DN47" s="19"/>
     </row>
     <row r="48" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="69"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="67"/>
       <c r="J48" s="56">
         <f>IF(C47&lt;&gt;"",SUM(K48:DN48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10008,23 +10008,23 @@
       <c r="DN48" s="21"/>
     </row>
     <row r="49" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A49" s="70">
+      <c r="A49" s="64">
         <v>10.199999999999999</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70" t="s">
+      <c r="B49" s="64"/>
+      <c r="C49" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="70" t="s">
+      <c r="D49" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="71" t="s">
+      <c r="E49" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="68"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="66"/>
       <c r="J49" s="55">
         <f>IF(C49&lt;&gt;"",SUM(K49:DN49)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10139,15 +10139,15 @@
       <c r="DN49" s="19"/>
     </row>
     <row r="50" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="69"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="67"/>
       <c r="J50" s="56">
         <f>IF(C49&lt;&gt;"",SUM(K50:DN50)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10262,19 +10262,19 @@
       <c r="DN50" s="21"/>
     </row>
     <row r="51" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A51" s="70">
+      <c r="A51" s="64">
         <v>11</v>
       </c>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="68"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="66"/>
       <c r="J51" s="55" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K51:DN51)/データ!$D$2,"")</f>
         <v/>
@@ -10389,15 +10389,15 @@
       <c r="DN51" s="19"/>
     </row>
     <row r="52" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="69"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="67"/>
       <c r="J52" s="56" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K52:DN52)/データ!$D$2,"")</f>
         <v/>
@@ -10512,25 +10512,25 @@
       <c r="DN52" s="21"/>
     </row>
     <row r="53" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A53" s="70">
+      <c r="A53" s="64">
         <v>11.1</v>
       </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70" t="s">
+      <c r="B53" s="64"/>
+      <c r="C53" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="70" t="s">
+      <c r="D53" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="71" t="s">
+      <c r="E53" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="71" t="s">
+      <c r="F53" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="68"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="66"/>
       <c r="J53" s="55">
         <f>IF(C53&lt;&gt;"",SUM(K53:DN53)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -10671,15 +10671,15 @@
       <c r="DN53" s="19"/>
     </row>
     <row r="54" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A54" s="70"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="69"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="67"/>
       <c r="J54" s="56">
         <f>IF(C53&lt;&gt;"",SUM(K54:DN54)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -10802,23 +10802,23 @@
       <c r="DN54" s="21"/>
     </row>
     <row r="55" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A55" s="70">
+      <c r="A55" s="64">
         <v>11.2</v>
       </c>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70" t="s">
+      <c r="B55" s="64"/>
+      <c r="C55" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="70" t="s">
+      <c r="D55" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="71" t="s">
+      <c r="E55" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="68"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="66"/>
       <c r="J55" s="55">
         <f>IF(C55&lt;&gt;"",SUM(K55:DN55)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -10959,15 +10959,15 @@
       <c r="DN55" s="19"/>
     </row>
     <row r="56" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="69"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="67"/>
       <c r="J56" s="56">
         <f>IF(C55&lt;&gt;"",SUM(K56:DN56)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11090,23 +11090,23 @@
       <c r="DN56" s="21"/>
     </row>
     <row r="57" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A57" s="70">
+      <c r="A57" s="64">
         <v>11.3</v>
       </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70" t="s">
+      <c r="B57" s="64"/>
+      <c r="C57" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="70" t="s">
+      <c r="D57" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E57" s="71" t="s">
+      <c r="E57" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="68"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="66"/>
       <c r="J57" s="55">
         <f>IF(C57&lt;&gt;"",SUM(K57:DN57)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11223,15 +11223,15 @@
       <c r="DN57" s="19"/>
     </row>
     <row r="58" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="69"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="67"/>
       <c r="J58" s="56">
         <f>IF(C57&lt;&gt;"",SUM(K58:DN58)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11348,23 +11348,23 @@
       <c r="DN58" s="21"/>
     </row>
     <row r="59" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A59" s="70">
+      <c r="A59" s="64">
         <v>11.4</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70" t="s">
+      <c r="B59" s="64"/>
+      <c r="C59" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="70" t="s">
+      <c r="D59" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="71" t="s">
+      <c r="E59" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="68"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="66"/>
       <c r="J59" s="55">
         <f>IF(C59&lt;&gt;"",SUM(K59:DN59)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11481,15 +11481,15 @@
       <c r="DN59" s="19"/>
     </row>
     <row r="60" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="69"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="67"/>
       <c r="J60" s="56">
         <f>IF(C59&lt;&gt;"",SUM(K60:DN60)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11606,15 +11606,15 @@
       <c r="DN60" s="21"/>
     </row>
     <row r="61" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="68"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="66"/>
       <c r="J61" s="55" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DN61)/データ!$D$2,"")</f>
         <v/>
@@ -11729,15 +11729,15 @@
       <c r="DN61" s="19"/>
     </row>
     <row r="62" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A62" s="70"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="69"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="67"/>
       <c r="J62" s="56" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DN62)/データ!$D$2,"")</f>
         <v/>
@@ -11852,15 +11852,15 @@
       <c r="DN62" s="21"/>
     </row>
     <row r="63" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A63" s="70"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="68"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="66"/>
       <c r="J63" s="55" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K63:DN63)/データ!$D$2,"")</f>
         <v/>
@@ -11975,15 +11975,15 @@
       <c r="DN63" s="19"/>
     </row>
     <row r="64" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A64" s="70"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="69"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="67"/>
       <c r="J64" s="56" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K64:DN64)/データ!$D$2,"")</f>
         <v/>
@@ -12098,15 +12098,15 @@
       <c r="DN64" s="21"/>
     </row>
     <row r="65" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A65" s="70"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="68"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="66"/>
       <c r="J65" s="55" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K65:DN65)/データ!$D$2,"")</f>
         <v/>
@@ -12221,15 +12221,15 @@
       <c r="DN65" s="19"/>
     </row>
     <row r="66" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A66" s="70"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="69"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="67"/>
       <c r="J66" s="56" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K66:DN66)/データ!$D$2,"")</f>
         <v/>
@@ -12344,15 +12344,15 @@
       <c r="DN66" s="21"/>
     </row>
     <row r="67" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A67" s="70"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="68"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="66"/>
       <c r="J67" s="55" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DN67)/データ!$D$2,"")</f>
         <v/>
@@ -12467,15 +12467,15 @@
       <c r="DN67" s="19"/>
     </row>
     <row r="68" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A68" s="70"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="69"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="67"/>
       <c r="J68" s="56" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DN68)/データ!$D$2,"")</f>
         <v/>
@@ -12590,15 +12590,15 @@
       <c r="DN68" s="21"/>
     </row>
     <row r="69" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A69" s="70"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="68"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="66"/>
       <c r="J69" s="55" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DN69)/データ!$D$2,"")</f>
         <v/>
@@ -12713,15 +12713,15 @@
       <c r="DN69" s="19"/>
     </row>
     <row r="70" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="69"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="67"/>
       <c r="J70" s="56" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DN70)/データ!$D$2,"")</f>
         <v/>
@@ -12836,15 +12836,15 @@
       <c r="DN70" s="21"/>
     </row>
     <row r="71" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A71" s="64"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="68"/>
+      <c r="A71" s="68"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="66"/>
       <c r="J71" s="55" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K71:DN71)/データ!$D$2,"")</f>
         <v/>
@@ -12959,15 +12959,15 @@
       <c r="DN71" s="19"/>
     </row>
     <row r="72" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="69"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="67"/>
       <c r="J72" s="56" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K72:DN72)/データ!$D$2,"")</f>
         <v/>
@@ -13082,15 +13082,15 @@
       <c r="DN72" s="21"/>
     </row>
     <row r="73" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="68"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="66"/>
       <c r="J73" s="55" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K73:DN73)/データ!$D$2,"")</f>
         <v/>
@@ -13205,15 +13205,15 @@
       <c r="DN73" s="19"/>
     </row>
     <row r="74" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A74" s="70"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="69"/>
+      <c r="A74" s="64"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="67"/>
       <c r="J74" s="56" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K74:DN74)/データ!$D$2,"")</f>
         <v/>
@@ -13328,15 +13328,15 @@
       <c r="DN74" s="21"/>
     </row>
     <row r="75" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A75" s="70"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="68"/>
+      <c r="A75" s="64"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="66"/>
       <c r="J75" s="55" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K75:DN75)/データ!$D$2,"")</f>
         <v/>
@@ -13451,15 +13451,15 @@
       <c r="DN75" s="19"/>
     </row>
     <row r="76" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A76" s="70"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="69"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="67"/>
       <c r="J76" s="56" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K76:DN76)/データ!$D$2,"")</f>
         <v/>
@@ -13574,15 +13574,15 @@
       <c r="DN76" s="21"/>
     </row>
     <row r="77" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A77" s="64"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="68"/>
+      <c r="A77" s="68"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="70"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="66"/>
       <c r="J77" s="55" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DN77)/データ!$D$2,"")</f>
         <v/>
@@ -13697,15 +13697,15 @@
       <c r="DN77" s="19"/>
     </row>
     <row r="78" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A78" s="65"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="69"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="67"/>
       <c r="J78" s="56" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DN78)/データ!$D$2,"")</f>
         <v/>
@@ -13820,15 +13820,15 @@
       <c r="DN78" s="21"/>
     </row>
     <row r="79" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A79" s="64"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="68"/>
+      <c r="A79" s="68"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="70"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="66"/>
       <c r="J79" s="55" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K79:DN79)/データ!$D$2,"")</f>
         <v/>
@@ -13943,15 +13943,15 @@
       <c r="DN79" s="19"/>
     </row>
     <row r="80" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A80" s="65"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="69"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="67"/>
       <c r="J80" s="56" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K80:DN80)/データ!$D$2,"")</f>
         <v/>
@@ -14066,15 +14066,15 @@
       <c r="DN80" s="21"/>
     </row>
     <row r="81" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A81" s="64"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="68"/>
+      <c r="A81" s="68"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="70"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="66"/>
       <c r="J81" s="55" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K81:DN81)/データ!$D$2,"")</f>
         <v/>
@@ -14189,15 +14189,15 @@
       <c r="DN81" s="19"/>
     </row>
     <row r="82" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="69"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="67"/>
       <c r="J82" s="56" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K82:DN82)/データ!$D$2,"")</f>
         <v/>
@@ -14312,15 +14312,15 @@
       <c r="DN82" s="21"/>
     </row>
     <row r="83" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="64"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="68"/>
+      <c r="A83" s="68"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="70"/>
+      <c r="H83" s="70"/>
+      <c r="I83" s="66"/>
       <c r="J83" s="55" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K83:DN83)/データ!$D$2,"")</f>
         <v/>
@@ -14435,15 +14435,15 @@
       <c r="DN83" s="19"/>
     </row>
     <row r="84" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A84" s="65"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="69"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="71"/>
+      <c r="I84" s="67"/>
       <c r="J84" s="56" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K84:DN84)/データ!$D$2,"")</f>
         <v/>
@@ -14558,15 +14558,15 @@
       <c r="DN84" s="21"/>
     </row>
     <row r="85" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A85" s="64"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="68"/>
+      <c r="A85" s="68"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="66"/>
       <c r="J85" s="55" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DN85)/データ!$D$2,"")</f>
         <v/>
@@ -14681,15 +14681,15 @@
       <c r="DN85" s="19"/>
     </row>
     <row r="86" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A86" s="65"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="69"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="67"/>
       <c r="J86" s="56" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DN86)/データ!$D$2,"")</f>
         <v/>
@@ -14804,15 +14804,15 @@
       <c r="DN86" s="21"/>
     </row>
     <row r="87" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="64"/>
-      <c r="B87" s="64"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="68"/>
+      <c r="A87" s="68"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="66"/>
       <c r="J87" s="55" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K87:DN87)/データ!$D$2,"")</f>
         <v/>
@@ -14927,15 +14927,15 @@
       <c r="DN87" s="19"/>
     </row>
     <row r="88" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A88" s="65"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="69"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="71"/>
+      <c r="I88" s="67"/>
       <c r="J88" s="56" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K88:DN88)/データ!$D$2,"")</f>
         <v/>
@@ -15050,15 +15050,15 @@
       <c r="DN88" s="21"/>
     </row>
     <row r="89" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="64"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="68"/>
+      <c r="A89" s="68"/>
+      <c r="B89" s="68"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="66"/>
       <c r="J89" s="55" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K89:DN89)/データ!$D$2,"")</f>
         <v/>
@@ -15173,15 +15173,15 @@
       <c r="DN89" s="19"/>
     </row>
     <row r="90" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A90" s="65"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="69"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="71"/>
+      <c r="I90" s="67"/>
       <c r="J90" s="56" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K90:DN90)/データ!$D$2,"")</f>
         <v/>
@@ -15296,15 +15296,15 @@
       <c r="DN90" s="21"/>
     </row>
     <row r="91" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A91" s="64"/>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="68"/>
+      <c r="A91" s="68"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="68"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="66"/>
       <c r="J91" s="55" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K91:DN91)/データ!$D$2,"")</f>
         <v/>
@@ -15419,15 +15419,15 @@
       <c r="DN91" s="19"/>
     </row>
     <row r="92" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A92" s="65"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="69"/>
+      <c r="A92" s="69"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="67"/>
       <c r="J92" s="56" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K92:DN92)/データ!$D$2,"")</f>
         <v/>
@@ -15542,15 +15542,15 @@
       <c r="DN92" s="21"/>
     </row>
     <row r="93" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A93" s="64"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="68"/>
+      <c r="A93" s="68"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="70"/>
+      <c r="H93" s="70"/>
+      <c r="I93" s="66"/>
       <c r="J93" s="55" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K93:DN93)/データ!$D$2,"")</f>
         <v/>
@@ -15665,15 +15665,15 @@
       <c r="DN93" s="19"/>
     </row>
     <row r="94" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A94" s="65"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="69"/>
+      <c r="A94" s="69"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="67"/>
       <c r="J94" s="56" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K94:DN94)/データ!$D$2,"")</f>
         <v/>
@@ -15788,15 +15788,15 @@
       <c r="DN94" s="21"/>
     </row>
     <row r="95" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="64"/>
-      <c r="B95" s="64"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="68"/>
+      <c r="A95" s="68"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="70"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="66"/>
       <c r="J95" s="55" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DN95)/データ!$D$2,"")</f>
         <v/>
@@ -15911,15 +15911,15 @@
       <c r="DN95" s="19"/>
     </row>
     <row r="96" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A96" s="65"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="69"/>
+      <c r="A96" s="69"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="71"/>
+      <c r="I96" s="67"/>
       <c r="J96" s="56" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DN96)/データ!$D$2,"")</f>
         <v/>
@@ -16034,15 +16034,15 @@
       <c r="DN96" s="21"/>
     </row>
     <row r="97" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A97" s="64"/>
-      <c r="B97" s="64"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="68"/>
+      <c r="A97" s="68"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="68"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="70"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="66"/>
       <c r="J97" s="55" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DN97)/データ!$D$2,"")</f>
         <v/>
@@ -16157,15 +16157,15 @@
       <c r="DN97" s="19"/>
     </row>
     <row r="98" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A98" s="65"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="69"/>
+      <c r="A98" s="69"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="71"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="67"/>
       <c r="J98" s="56" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DN98)/データ!$D$2,"")</f>
         <v/>
@@ -16280,15 +16280,15 @@
       <c r="DN98" s="21"/>
     </row>
     <row r="99" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A99" s="64"/>
-      <c r="B99" s="64"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="68"/>
+      <c r="A99" s="68"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="66"/>
       <c r="J99" s="55" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DN99)/データ!$D$2,"")</f>
         <v/>
@@ -16403,15 +16403,15 @@
       <c r="DN99" s="19"/>
     </row>
     <row r="100" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A100" s="65"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="67"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="69"/>
+      <c r="A100" s="69"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="67"/>
       <c r="J100" s="56" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DN100)/データ!$D$2,"")</f>
         <v/>
@@ -16526,15 +16526,15 @@
       <c r="DN100" s="21"/>
     </row>
     <row r="101" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="64"/>
-      <c r="B101" s="64"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="68"/>
+      <c r="A101" s="68"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="66"/>
       <c r="J101" s="55" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DN101)/データ!$D$2,"")</f>
         <v/>
@@ -16649,15 +16649,15 @@
       <c r="DN101" s="19"/>
     </row>
     <row r="102" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A102" s="65"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
-      <c r="I102" s="69"/>
+      <c r="A102" s="69"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="71"/>
+      <c r="I102" s="67"/>
       <c r="J102" s="56" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DN102)/データ!$D$2,"")</f>
         <v/>
@@ -16772,15 +16772,15 @@
       <c r="DN102" s="21"/>
     </row>
     <row r="103" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A103" s="64"/>
-      <c r="B103" s="64"/>
-      <c r="C103" s="64"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="68"/>
+      <c r="A103" s="68"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="68"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="66"/>
       <c r="J103" s="55" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DN103)/データ!$D$2,"")</f>
         <v/>
@@ -16895,15 +16895,15 @@
       <c r="DN103" s="19"/>
     </row>
     <row r="104" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A104" s="65"/>
-      <c r="B104" s="65"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
-      <c r="I104" s="69"/>
+      <c r="A104" s="69"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="71"/>
+      <c r="H104" s="71"/>
+      <c r="I104" s="67"/>
       <c r="J104" s="56" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DN104)/データ!$D$2,"")</f>
         <v/>
@@ -17018,15 +17018,15 @@
       <c r="DN104" s="21"/>
     </row>
     <row r="105" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A105" s="70"/>
-      <c r="B105" s="70"/>
-      <c r="C105" s="70"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="71"/>
-      <c r="F105" s="71"/>
-      <c r="G105" s="71"/>
-      <c r="H105" s="71"/>
-      <c r="I105" s="68"/>
+      <c r="A105" s="64"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="66"/>
       <c r="J105" s="55" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DN105)/データ!$D$2,"")</f>
         <v/>
@@ -17141,15 +17141,15 @@
       <c r="DN105" s="19"/>
     </row>
     <row r="106" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A106" s="70"/>
-      <c r="B106" s="70"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="71"/>
-      <c r="F106" s="71"/>
-      <c r="G106" s="71"/>
-      <c r="H106" s="71"/>
-      <c r="I106" s="69"/>
+      <c r="A106" s="64"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="65"/>
+      <c r="H106" s="65"/>
+      <c r="I106" s="67"/>
       <c r="J106" s="56" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DN106)/データ!$D$2,"")</f>
         <v/>
@@ -17264,15 +17264,15 @@
       <c r="DN106" s="21"/>
     </row>
     <row r="107" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A107" s="70"/>
-      <c r="B107" s="70"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="71"/>
-      <c r="G107" s="71"/>
-      <c r="H107" s="71"/>
-      <c r="I107" s="68"/>
+      <c r="A107" s="64"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="66"/>
       <c r="J107" s="55" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DN107)/データ!$D$2,"")</f>
         <v/>
@@ -17387,15 +17387,15 @@
       <c r="DN107" s="19"/>
     </row>
     <row r="108" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A108" s="70"/>
-      <c r="B108" s="70"/>
-      <c r="C108" s="70"/>
-      <c r="D108" s="70"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="71"/>
-      <c r="G108" s="71"/>
-      <c r="H108" s="71"/>
-      <c r="I108" s="69"/>
+      <c r="A108" s="64"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="65"/>
+      <c r="H108" s="65"/>
+      <c r="I108" s="67"/>
       <c r="J108" s="56" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DN108)/データ!$D$2,"")</f>
         <v/>
@@ -17510,15 +17510,15 @@
       <c r="DN108" s="21"/>
     </row>
     <row r="109" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A109" s="70"/>
-      <c r="B109" s="70"/>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="71"/>
-      <c r="F109" s="71"/>
-      <c r="G109" s="71"/>
-      <c r="H109" s="71"/>
-      <c r="I109" s="68"/>
+      <c r="A109" s="64"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
+      <c r="G109" s="65"/>
+      <c r="H109" s="65"/>
+      <c r="I109" s="66"/>
       <c r="J109" s="55" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K109:DN109)/データ!$D$2,"")</f>
         <v/>
@@ -17633,15 +17633,15 @@
       <c r="DN109" s="19"/>
     </row>
     <row r="110" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A110" s="70"/>
-      <c r="B110" s="70"/>
-      <c r="C110" s="70"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="71"/>
-      <c r="H110" s="71"/>
-      <c r="I110" s="69"/>
+      <c r="A110" s="64"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="65"/>
+      <c r="F110" s="65"/>
+      <c r="G110" s="65"/>
+      <c r="H110" s="65"/>
+      <c r="I110" s="67"/>
       <c r="J110" s="56" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K110:DN110)/データ!$D$2,"")</f>
         <v/>
@@ -17756,15 +17756,15 @@
       <c r="DN110" s="21"/>
     </row>
     <row r="111" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A111" s="70"/>
-      <c r="B111" s="70"/>
-      <c r="C111" s="70"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="71"/>
-      <c r="F111" s="71"/>
-      <c r="G111" s="71"/>
-      <c r="H111" s="71"/>
-      <c r="I111" s="68"/>
+      <c r="A111" s="64"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="64"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="65"/>
+      <c r="I111" s="66"/>
       <c r="J111" s="55" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K111:DN111)/データ!$D$2,"")</f>
         <v/>
@@ -17879,15 +17879,15 @@
       <c r="DN111" s="19"/>
     </row>
     <row r="112" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A112" s="70"/>
-      <c r="B112" s="70"/>
-      <c r="C112" s="70"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="71"/>
-      <c r="F112" s="71"/>
-      <c r="G112" s="71"/>
-      <c r="H112" s="71"/>
-      <c r="I112" s="69"/>
+      <c r="A112" s="64"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="65"/>
+      <c r="H112" s="65"/>
+      <c r="I112" s="67"/>
       <c r="J112" s="56" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K112:DN112)/データ!$D$2,"")</f>
         <v/>
@@ -18002,15 +18002,15 @@
       <c r="DN112" s="21"/>
     </row>
     <row r="113" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A113" s="70"/>
-      <c r="B113" s="70"/>
-      <c r="C113" s="70"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="71"/>
-      <c r="F113" s="71"/>
-      <c r="G113" s="71"/>
-      <c r="H113" s="71"/>
-      <c r="I113" s="68"/>
+      <c r="A113" s="64"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="66"/>
       <c r="J113" s="55" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K113:DN113)/データ!$D$2,"")</f>
         <v/>
@@ -18125,15 +18125,15 @@
       <c r="DN113" s="19"/>
     </row>
     <row r="114" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A114" s="70"/>
-      <c r="B114" s="70"/>
-      <c r="C114" s="70"/>
-      <c r="D114" s="70"/>
-      <c r="E114" s="71"/>
-      <c r="F114" s="71"/>
-      <c r="G114" s="71"/>
-      <c r="H114" s="71"/>
-      <c r="I114" s="69"/>
+      <c r="A114" s="64"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="65"/>
+      <c r="F114" s="65"/>
+      <c r="G114" s="65"/>
+      <c r="H114" s="65"/>
+      <c r="I114" s="67"/>
       <c r="J114" s="56" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K114:DN114)/データ!$D$2,"")</f>
         <v/>
@@ -18248,15 +18248,15 @@
       <c r="DN114" s="21"/>
     </row>
     <row r="115" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A115" s="70"/>
-      <c r="B115" s="70"/>
-      <c r="C115" s="70"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="71"/>
-      <c r="F115" s="71"/>
-      <c r="G115" s="71"/>
-      <c r="H115" s="71"/>
-      <c r="I115" s="68"/>
+      <c r="A115" s="64"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="66"/>
       <c r="J115" s="55" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K115:DN115)/データ!$D$2,"")</f>
         <v/>
@@ -18371,15 +18371,15 @@
       <c r="DN115" s="19"/>
     </row>
     <row r="116" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A116" s="70"/>
-      <c r="B116" s="70"/>
-      <c r="C116" s="70"/>
-      <c r="D116" s="70"/>
-      <c r="E116" s="71"/>
-      <c r="F116" s="71"/>
-      <c r="G116" s="71"/>
-      <c r="H116" s="71"/>
-      <c r="I116" s="69"/>
+      <c r="A116" s="64"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="65"/>
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="67"/>
       <c r="J116" s="56" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K116:DN116)/データ!$D$2,"")</f>
         <v/>
@@ -18494,15 +18494,15 @@
       <c r="DN116" s="21"/>
     </row>
     <row r="117" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A117" s="70"/>
-      <c r="B117" s="70"/>
-      <c r="C117" s="70"/>
-      <c r="D117" s="70"/>
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="68"/>
+      <c r="A117" s="64"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="65"/>
+      <c r="F117" s="65"/>
+      <c r="G117" s="65"/>
+      <c r="H117" s="65"/>
+      <c r="I117" s="66"/>
       <c r="J117" s="55" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K117:DN117)/データ!$D$2,"")</f>
         <v/>
@@ -18617,15 +18617,15 @@
       <c r="DN117" s="19"/>
     </row>
     <row r="118" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A118" s="70"/>
-      <c r="B118" s="70"/>
-      <c r="C118" s="70"/>
-      <c r="D118" s="70"/>
-      <c r="E118" s="71"/>
-      <c r="F118" s="71"/>
-      <c r="G118" s="71"/>
-      <c r="H118" s="71"/>
-      <c r="I118" s="69"/>
+      <c r="A118" s="64"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="65"/>
+      <c r="F118" s="65"/>
+      <c r="G118" s="65"/>
+      <c r="H118" s="65"/>
+      <c r="I118" s="67"/>
       <c r="J118" s="56" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K118:DN118)/データ!$D$2,"")</f>
         <v/>
@@ -18740,15 +18740,15 @@
       <c r="DN118" s="21"/>
     </row>
     <row r="119" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A119" s="70"/>
-      <c r="B119" s="70"/>
-      <c r="C119" s="70"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="71"/>
-      <c r="F119" s="71"/>
-      <c r="G119" s="71"/>
-      <c r="H119" s="71"/>
-      <c r="I119" s="68"/>
+      <c r="A119" s="64"/>
+      <c r="B119" s="64"/>
+      <c r="C119" s="64"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="65"/>
+      <c r="F119" s="65"/>
+      <c r="G119" s="65"/>
+      <c r="H119" s="65"/>
+      <c r="I119" s="66"/>
       <c r="J119" s="55" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K119:DN119)/データ!$D$2,"")</f>
         <v/>
@@ -18863,15 +18863,15 @@
       <c r="DN119" s="19"/>
     </row>
     <row r="120" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A120" s="70"/>
-      <c r="B120" s="70"/>
-      <c r="C120" s="70"/>
-      <c r="D120" s="70"/>
-      <c r="E120" s="71"/>
-      <c r="F120" s="71"/>
-      <c r="G120" s="71"/>
-      <c r="H120" s="71"/>
-      <c r="I120" s="69"/>
+      <c r="A120" s="64"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="65"/>
+      <c r="F120" s="65"/>
+      <c r="G120" s="65"/>
+      <c r="H120" s="65"/>
+      <c r="I120" s="67"/>
       <c r="J120" s="56" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K120:DN120)/データ!$D$2,"")</f>
         <v/>
@@ -18986,15 +18986,15 @@
       <c r="DN120" s="21"/>
     </row>
     <row r="121" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A121" s="70"/>
-      <c r="B121" s="70"/>
-      <c r="C121" s="70"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="71"/>
-      <c r="F121" s="71"/>
-      <c r="G121" s="71"/>
-      <c r="H121" s="71"/>
-      <c r="I121" s="68"/>
+      <c r="A121" s="64"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="65"/>
+      <c r="F121" s="65"/>
+      <c r="G121" s="65"/>
+      <c r="H121" s="65"/>
+      <c r="I121" s="66"/>
       <c r="J121" s="55" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K121:DN121)/データ!$D$2,"")</f>
         <v/>
@@ -19109,15 +19109,15 @@
       <c r="DN121" s="19"/>
     </row>
     <row r="122" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A122" s="70"/>
-      <c r="B122" s="70"/>
-      <c r="C122" s="70"/>
-      <c r="D122" s="70"/>
-      <c r="E122" s="71"/>
-      <c r="F122" s="71"/>
-      <c r="G122" s="71"/>
-      <c r="H122" s="71"/>
-      <c r="I122" s="69"/>
+      <c r="A122" s="64"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="65"/>
+      <c r="F122" s="65"/>
+      <c r="G122" s="65"/>
+      <c r="H122" s="65"/>
+      <c r="I122" s="67"/>
       <c r="J122" s="56" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K122:DN122)/データ!$D$2,"")</f>
         <v/>
@@ -19232,15 +19232,15 @@
       <c r="DN122" s="21"/>
     </row>
     <row r="123" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A123" s="70"/>
-      <c r="B123" s="70"/>
-      <c r="C123" s="70"/>
-      <c r="D123" s="70"/>
-      <c r="E123" s="71"/>
-      <c r="F123" s="71"/>
-      <c r="G123" s="71"/>
-      <c r="H123" s="71"/>
-      <c r="I123" s="68"/>
+      <c r="A123" s="64"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="64"/>
+      <c r="D123" s="64"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="66"/>
       <c r="J123" s="55" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K123:DN123)/データ!$D$2,"")</f>
         <v/>
@@ -19355,15 +19355,15 @@
       <c r="DN123" s="19"/>
     </row>
     <row r="124" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A124" s="70"/>
-      <c r="B124" s="70"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="70"/>
-      <c r="E124" s="71"/>
-      <c r="F124" s="71"/>
-      <c r="G124" s="71"/>
-      <c r="H124" s="71"/>
-      <c r="I124" s="69"/>
+      <c r="A124" s="64"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="64"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="67"/>
       <c r="J124" s="56" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K124:DN124)/データ!$D$2,"")</f>
         <v/>
@@ -19478,15 +19478,15 @@
       <c r="DN124" s="21"/>
     </row>
     <row r="125" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A125" s="70"/>
-      <c r="B125" s="70"/>
-      <c r="C125" s="70"/>
-      <c r="D125" s="70"/>
-      <c r="E125" s="71"/>
-      <c r="F125" s="71"/>
-      <c r="G125" s="71"/>
-      <c r="H125" s="71"/>
-      <c r="I125" s="68"/>
+      <c r="A125" s="64"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="64"/>
+      <c r="D125" s="64"/>
+      <c r="E125" s="65"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="65"/>
+      <c r="H125" s="65"/>
+      <c r="I125" s="66"/>
       <c r="J125" s="55" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K125:DN125)/データ!$D$2,"")</f>
         <v/>
@@ -19601,15 +19601,15 @@
       <c r="DN125" s="19"/>
     </row>
     <row r="126" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A126" s="70"/>
-      <c r="B126" s="70"/>
-      <c r="C126" s="70"/>
-      <c r="D126" s="70"/>
-      <c r="E126" s="71"/>
-      <c r="F126" s="71"/>
-      <c r="G126" s="71"/>
-      <c r="H126" s="71"/>
-      <c r="I126" s="69"/>
+      <c r="A126" s="64"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="64"/>
+      <c r="E126" s="65"/>
+      <c r="F126" s="65"/>
+      <c r="G126" s="65"/>
+      <c r="H126" s="65"/>
+      <c r="I126" s="67"/>
       <c r="J126" s="56" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K126:DN126)/データ!$D$2,"")</f>
         <v/>
@@ -19724,15 +19724,15 @@
       <c r="DN126" s="21"/>
     </row>
     <row r="127" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A127" s="64"/>
-      <c r="B127" s="64"/>
-      <c r="C127" s="64"/>
-      <c r="D127" s="64"/>
-      <c r="E127" s="66"/>
-      <c r="F127" s="66"/>
-      <c r="G127" s="66"/>
-      <c r="H127" s="66"/>
-      <c r="I127" s="68"/>
+      <c r="A127" s="68"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="68"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="70"/>
+      <c r="F127" s="70"/>
+      <c r="G127" s="70"/>
+      <c r="H127" s="70"/>
+      <c r="I127" s="66"/>
       <c r="J127" s="55" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K127:DN127)/データ!$D$2,"")</f>
         <v/>
@@ -19847,15 +19847,15 @@
       <c r="DN127" s="19"/>
     </row>
     <row r="128" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A128" s="65"/>
-      <c r="B128" s="65"/>
-      <c r="C128" s="65"/>
-      <c r="D128" s="65"/>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="67"/>
-      <c r="H128" s="67"/>
-      <c r="I128" s="69"/>
+      <c r="A128" s="69"/>
+      <c r="B128" s="69"/>
+      <c r="C128" s="69"/>
+      <c r="D128" s="69"/>
+      <c r="E128" s="71"/>
+      <c r="F128" s="71"/>
+      <c r="G128" s="71"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="67"/>
       <c r="J128" s="56" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K128:DN128)/データ!$D$2,"")</f>
         <v/>
@@ -19970,15 +19970,15 @@
       <c r="DN128" s="21"/>
     </row>
     <row r="129" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A129" s="70"/>
-      <c r="B129" s="70"/>
-      <c r="C129" s="70"/>
-      <c r="D129" s="70"/>
-      <c r="E129" s="71"/>
-      <c r="F129" s="71"/>
-      <c r="G129" s="71"/>
-      <c r="H129" s="71"/>
-      <c r="I129" s="68"/>
+      <c r="A129" s="64"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="64"/>
+      <c r="E129" s="65"/>
+      <c r="F129" s="65"/>
+      <c r="G129" s="65"/>
+      <c r="H129" s="65"/>
+      <c r="I129" s="66"/>
       <c r="J129" s="55" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K129:DN129)/データ!$D$2,"")</f>
         <v/>
@@ -20093,15 +20093,15 @@
       <c r="DN129" s="19"/>
     </row>
     <row r="130" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A130" s="70"/>
-      <c r="B130" s="70"/>
-      <c r="C130" s="70"/>
-      <c r="D130" s="70"/>
-      <c r="E130" s="71"/>
-      <c r="F130" s="71"/>
-      <c r="G130" s="71"/>
-      <c r="H130" s="71"/>
-      <c r="I130" s="69"/>
+      <c r="A130" s="64"/>
+      <c r="B130" s="64"/>
+      <c r="C130" s="64"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="65"/>
+      <c r="H130" s="65"/>
+      <c r="I130" s="67"/>
       <c r="J130" s="56" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K130:DN130)/データ!$D$2,"")</f>
         <v/>
@@ -20216,15 +20216,15 @@
       <c r="DN130" s="21"/>
     </row>
     <row r="131" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A131" s="70"/>
-      <c r="B131" s="70"/>
-      <c r="C131" s="70"/>
-      <c r="D131" s="70"/>
-      <c r="E131" s="71"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="71"/>
-      <c r="H131" s="71"/>
-      <c r="I131" s="68"/>
+      <c r="A131" s="64"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="64"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="66"/>
       <c r="J131" s="55" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K131:DN131)/データ!$D$2,"")</f>
         <v/>
@@ -20339,15 +20339,15 @@
       <c r="DN131" s="19"/>
     </row>
     <row r="132" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A132" s="70"/>
-      <c r="B132" s="70"/>
-      <c r="C132" s="70"/>
-      <c r="D132" s="70"/>
-      <c r="E132" s="71"/>
-      <c r="F132" s="71"/>
-      <c r="G132" s="71"/>
-      <c r="H132" s="71"/>
-      <c r="I132" s="69"/>
+      <c r="A132" s="64"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="64"/>
+      <c r="E132" s="65"/>
+      <c r="F132" s="65"/>
+      <c r="G132" s="65"/>
+      <c r="H132" s="65"/>
+      <c r="I132" s="67"/>
       <c r="J132" s="56" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K132:DN132)/データ!$D$2,"")</f>
         <v/>
@@ -20462,15 +20462,15 @@
       <c r="DN132" s="21"/>
     </row>
     <row r="133" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A133" s="70"/>
-      <c r="B133" s="70"/>
-      <c r="C133" s="70"/>
-      <c r="D133" s="70"/>
-      <c r="E133" s="71"/>
-      <c r="F133" s="71"/>
-      <c r="G133" s="71"/>
-      <c r="H133" s="71"/>
-      <c r="I133" s="68"/>
+      <c r="A133" s="64"/>
+      <c r="B133" s="64"/>
+      <c r="C133" s="64"/>
+      <c r="D133" s="64"/>
+      <c r="E133" s="65"/>
+      <c r="F133" s="65"/>
+      <c r="G133" s="65"/>
+      <c r="H133" s="65"/>
+      <c r="I133" s="66"/>
       <c r="J133" s="55" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K133:DN133)/データ!$D$2,"")</f>
         <v/>
@@ -20585,15 +20585,15 @@
       <c r="DN133" s="19"/>
     </row>
     <row r="134" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A134" s="70"/>
-      <c r="B134" s="70"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="70"/>
-      <c r="E134" s="71"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="71"/>
-      <c r="H134" s="71"/>
-      <c r="I134" s="69"/>
+      <c r="A134" s="64"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="65"/>
+      <c r="F134" s="65"/>
+      <c r="G134" s="65"/>
+      <c r="H134" s="65"/>
+      <c r="I134" s="67"/>
       <c r="J134" s="56" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K134:DN134)/データ!$D$2,"")</f>
         <v/>
@@ -20708,15 +20708,15 @@
       <c r="DN134" s="21"/>
     </row>
     <row r="135" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A135" s="70"/>
-      <c r="B135" s="70"/>
-      <c r="C135" s="70"/>
-      <c r="D135" s="70"/>
-      <c r="E135" s="71"/>
-      <c r="F135" s="71"/>
-      <c r="G135" s="71"/>
-      <c r="H135" s="71"/>
-      <c r="I135" s="68"/>
+      <c r="A135" s="64"/>
+      <c r="B135" s="64"/>
+      <c r="C135" s="64"/>
+      <c r="D135" s="64"/>
+      <c r="E135" s="65"/>
+      <c r="F135" s="65"/>
+      <c r="G135" s="65"/>
+      <c r="H135" s="65"/>
+      <c r="I135" s="66"/>
       <c r="J135" s="55" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K135:DN135)/データ!$D$2,"")</f>
         <v/>
@@ -20831,15 +20831,15 @@
       <c r="DN135" s="19"/>
     </row>
     <row r="136" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A136" s="70"/>
-      <c r="B136" s="70"/>
-      <c r="C136" s="70"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="71"/>
-      <c r="F136" s="71"/>
-      <c r="G136" s="71"/>
-      <c r="H136" s="71"/>
-      <c r="I136" s="69"/>
+      <c r="A136" s="64"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="64"/>
+      <c r="E136" s="65"/>
+      <c r="F136" s="65"/>
+      <c r="G136" s="65"/>
+      <c r="H136" s="65"/>
+      <c r="I136" s="67"/>
       <c r="J136" s="56" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K136:DN136)/データ!$D$2,"")</f>
         <v/>
@@ -20954,15 +20954,15 @@
       <c r="DN136" s="21"/>
     </row>
     <row r="137" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A137" s="70"/>
-      <c r="B137" s="70"/>
-      <c r="C137" s="70"/>
-      <c r="D137" s="70"/>
-      <c r="E137" s="71"/>
-      <c r="F137" s="71"/>
-      <c r="G137" s="71"/>
-      <c r="H137" s="71"/>
-      <c r="I137" s="68"/>
+      <c r="A137" s="64"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="64"/>
+      <c r="D137" s="64"/>
+      <c r="E137" s="65"/>
+      <c r="F137" s="65"/>
+      <c r="G137" s="65"/>
+      <c r="H137" s="65"/>
+      <c r="I137" s="66"/>
       <c r="J137" s="55" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K137:DN137)/データ!$D$2,"")</f>
         <v/>
@@ -21077,15 +21077,15 @@
       <c r="DN137" s="19"/>
     </row>
     <row r="138" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A138" s="70"/>
-      <c r="B138" s="70"/>
-      <c r="C138" s="70"/>
-      <c r="D138" s="70"/>
-      <c r="E138" s="71"/>
-      <c r="F138" s="71"/>
-      <c r="G138" s="71"/>
-      <c r="H138" s="71"/>
-      <c r="I138" s="69"/>
+      <c r="A138" s="64"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="64"/>
+      <c r="D138" s="64"/>
+      <c r="E138" s="65"/>
+      <c r="F138" s="65"/>
+      <c r="G138" s="65"/>
+      <c r="H138" s="65"/>
+      <c r="I138" s="67"/>
       <c r="J138" s="56" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K138:DN138)/データ!$D$2,"")</f>
         <v/>
@@ -21200,15 +21200,15 @@
       <c r="DN138" s="21"/>
     </row>
     <row r="139" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A139" s="70"/>
-      <c r="B139" s="70"/>
-      <c r="C139" s="70"/>
-      <c r="D139" s="70"/>
-      <c r="E139" s="71"/>
-      <c r="F139" s="71"/>
-      <c r="G139" s="71"/>
-      <c r="H139" s="71"/>
-      <c r="I139" s="68"/>
+      <c r="A139" s="64"/>
+      <c r="B139" s="64"/>
+      <c r="C139" s="64"/>
+      <c r="D139" s="64"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="66"/>
       <c r="J139" s="55" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K139:DN139)/データ!$D$2,"")</f>
         <v/>
@@ -21323,15 +21323,15 @@
       <c r="DN139" s="19"/>
     </row>
     <row r="140" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A140" s="70"/>
-      <c r="B140" s="70"/>
-      <c r="C140" s="70"/>
-      <c r="D140" s="70"/>
-      <c r="E140" s="71"/>
-      <c r="F140" s="71"/>
-      <c r="G140" s="71"/>
-      <c r="H140" s="71"/>
-      <c r="I140" s="69"/>
+      <c r="A140" s="64"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="64"/>
+      <c r="D140" s="64"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="65"/>
+      <c r="I140" s="67"/>
       <c r="J140" s="56" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K140:DN140)/データ!$D$2,"")</f>
         <v/>
@@ -21446,15 +21446,15 @@
       <c r="DN140" s="21"/>
     </row>
     <row r="141" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A141" s="70"/>
-      <c r="B141" s="70"/>
-      <c r="C141" s="70"/>
-      <c r="D141" s="70"/>
-      <c r="E141" s="71"/>
-      <c r="F141" s="71"/>
-      <c r="G141" s="71"/>
-      <c r="H141" s="71"/>
-      <c r="I141" s="68"/>
+      <c r="A141" s="64"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="64"/>
+      <c r="D141" s="64"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="65"/>
+      <c r="G141" s="65"/>
+      <c r="H141" s="65"/>
+      <c r="I141" s="66"/>
       <c r="J141" s="55" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K141:DN141)/データ!$D$2,"")</f>
         <v/>
@@ -21569,15 +21569,15 @@
       <c r="DN141" s="19"/>
     </row>
     <row r="142" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A142" s="70"/>
-      <c r="B142" s="70"/>
-      <c r="C142" s="70"/>
-      <c r="D142" s="70"/>
-      <c r="E142" s="71"/>
-      <c r="F142" s="71"/>
-      <c r="G142" s="71"/>
-      <c r="H142" s="71"/>
-      <c r="I142" s="69"/>
+      <c r="A142" s="64"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="64"/>
+      <c r="E142" s="65"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="65"/>
+      <c r="H142" s="65"/>
+      <c r="I142" s="67"/>
       <c r="J142" s="56" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K142:DN142)/データ!$D$2,"")</f>
         <v/>
@@ -21692,15 +21692,15 @@
       <c r="DN142" s="21"/>
     </row>
     <row r="143" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A143" s="70"/>
-      <c r="B143" s="70"/>
-      <c r="C143" s="70"/>
-      <c r="D143" s="70"/>
-      <c r="E143" s="71"/>
-      <c r="F143" s="71"/>
-      <c r="G143" s="71"/>
-      <c r="H143" s="71"/>
-      <c r="I143" s="68"/>
+      <c r="A143" s="64"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="64"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="65"/>
+      <c r="G143" s="65"/>
+      <c r="H143" s="65"/>
+      <c r="I143" s="66"/>
       <c r="J143" s="55" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K143:DN143)/データ!$D$2,"")</f>
         <v/>
@@ -21815,15 +21815,15 @@
       <c r="DN143" s="19"/>
     </row>
     <row r="144" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A144" s="70"/>
-      <c r="B144" s="70"/>
-      <c r="C144" s="70"/>
-      <c r="D144" s="70"/>
-      <c r="E144" s="71"/>
-      <c r="F144" s="71"/>
-      <c r="G144" s="71"/>
-      <c r="H144" s="71"/>
-      <c r="I144" s="69"/>
+      <c r="A144" s="64"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="64"/>
+      <c r="D144" s="64"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="65"/>
+      <c r="G144" s="65"/>
+      <c r="H144" s="65"/>
+      <c r="I144" s="67"/>
       <c r="J144" s="56" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K144:DN144)/データ!$D$2,"")</f>
         <v/>
@@ -21938,15 +21938,15 @@
       <c r="DN144" s="21"/>
     </row>
     <row r="145" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A145" s="70"/>
-      <c r="B145" s="70"/>
-      <c r="C145" s="70"/>
-      <c r="D145" s="70"/>
-      <c r="E145" s="71"/>
-      <c r="F145" s="71"/>
-      <c r="G145" s="71"/>
-      <c r="H145" s="71"/>
-      <c r="I145" s="68"/>
+      <c r="A145" s="64"/>
+      <c r="B145" s="64"/>
+      <c r="C145" s="64"/>
+      <c r="D145" s="64"/>
+      <c r="E145" s="65"/>
+      <c r="F145" s="65"/>
+      <c r="G145" s="65"/>
+      <c r="H145" s="65"/>
+      <c r="I145" s="66"/>
       <c r="J145" s="55" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K145:DN145)/データ!$D$2,"")</f>
         <v/>
@@ -22061,15 +22061,15 @@
       <c r="DN145" s="19"/>
     </row>
     <row r="146" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A146" s="70"/>
-      <c r="B146" s="70"/>
-      <c r="C146" s="70"/>
-      <c r="D146" s="70"/>
-      <c r="E146" s="71"/>
-      <c r="F146" s="71"/>
-      <c r="G146" s="71"/>
-      <c r="H146" s="71"/>
-      <c r="I146" s="69"/>
+      <c r="A146" s="64"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="64"/>
+      <c r="D146" s="64"/>
+      <c r="E146" s="65"/>
+      <c r="F146" s="65"/>
+      <c r="G146" s="65"/>
+      <c r="H146" s="65"/>
+      <c r="I146" s="67"/>
       <c r="J146" s="56" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K146:DN146)/データ!$D$2,"")</f>
         <v/>
@@ -22184,15 +22184,15 @@
       <c r="DN146" s="21"/>
     </row>
     <row r="147" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A147" s="64"/>
-      <c r="B147" s="64"/>
-      <c r="C147" s="64"/>
-      <c r="D147" s="64"/>
-      <c r="E147" s="66"/>
-      <c r="F147" s="66"/>
-      <c r="G147" s="66"/>
-      <c r="H147" s="66"/>
-      <c r="I147" s="68"/>
+      <c r="A147" s="68"/>
+      <c r="B147" s="68"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="70"/>
+      <c r="F147" s="70"/>
+      <c r="G147" s="70"/>
+      <c r="H147" s="70"/>
+      <c r="I147" s="66"/>
       <c r="J147" s="55" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K147:DN147)/データ!$D$2,"")</f>
         <v/>
@@ -22307,15 +22307,15 @@
       <c r="DN147" s="19"/>
     </row>
     <row r="148" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A148" s="65"/>
-      <c r="B148" s="65"/>
-      <c r="C148" s="65"/>
-      <c r="D148" s="65"/>
-      <c r="E148" s="67"/>
-      <c r="F148" s="67"/>
-      <c r="G148" s="67"/>
-      <c r="H148" s="67"/>
-      <c r="I148" s="69"/>
+      <c r="A148" s="69"/>
+      <c r="B148" s="69"/>
+      <c r="C148" s="69"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="71"/>
+      <c r="F148" s="71"/>
+      <c r="G148" s="71"/>
+      <c r="H148" s="71"/>
+      <c r="I148" s="67"/>
       <c r="J148" s="56" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K148:DN148)/データ!$D$2,"")</f>
         <v/>
@@ -22430,15 +22430,15 @@
       <c r="DN148" s="21"/>
     </row>
     <row r="149" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A149" s="70"/>
-      <c r="B149" s="70"/>
-      <c r="C149" s="70"/>
-      <c r="D149" s="70"/>
-      <c r="E149" s="71"/>
-      <c r="F149" s="71"/>
-      <c r="G149" s="71"/>
-      <c r="H149" s="71"/>
-      <c r="I149" s="68"/>
+      <c r="A149" s="64"/>
+      <c r="B149" s="64"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="64"/>
+      <c r="E149" s="65"/>
+      <c r="F149" s="65"/>
+      <c r="G149" s="65"/>
+      <c r="H149" s="65"/>
+      <c r="I149" s="66"/>
       <c r="J149" s="55" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K149:DN149)/データ!$D$2,"")</f>
         <v/>
@@ -22553,15 +22553,15 @@
       <c r="DN149" s="19"/>
     </row>
     <row r="150" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A150" s="70"/>
-      <c r="B150" s="70"/>
-      <c r="C150" s="70"/>
-      <c r="D150" s="70"/>
-      <c r="E150" s="71"/>
-      <c r="F150" s="71"/>
-      <c r="G150" s="71"/>
-      <c r="H150" s="71"/>
-      <c r="I150" s="69"/>
+      <c r="A150" s="64"/>
+      <c r="B150" s="64"/>
+      <c r="C150" s="64"/>
+      <c r="D150" s="64"/>
+      <c r="E150" s="65"/>
+      <c r="F150" s="65"/>
+      <c r="G150" s="65"/>
+      <c r="H150" s="65"/>
+      <c r="I150" s="67"/>
       <c r="J150" s="56" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K150:DN150)/データ!$D$2,"")</f>
         <v/>
@@ -22676,15 +22676,15 @@
       <c r="DN150" s="21"/>
     </row>
     <row r="151" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A151" s="70"/>
-      <c r="B151" s="70"/>
-      <c r="C151" s="70"/>
-      <c r="D151" s="70"/>
-      <c r="E151" s="71"/>
-      <c r="F151" s="71"/>
-      <c r="G151" s="71"/>
-      <c r="H151" s="71"/>
-      <c r="I151" s="68"/>
+      <c r="A151" s="64"/>
+      <c r="B151" s="64"/>
+      <c r="C151" s="64"/>
+      <c r="D151" s="64"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="65"/>
+      <c r="G151" s="65"/>
+      <c r="H151" s="65"/>
+      <c r="I151" s="66"/>
       <c r="J151" s="55" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K151:DN151)/データ!$D$2,"")</f>
         <v/>
@@ -22799,15 +22799,15 @@
       <c r="DN151" s="19"/>
     </row>
     <row r="152" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A152" s="70"/>
-      <c r="B152" s="70"/>
-      <c r="C152" s="70"/>
-      <c r="D152" s="70"/>
-      <c r="E152" s="71"/>
-      <c r="F152" s="71"/>
-      <c r="G152" s="71"/>
-      <c r="H152" s="71"/>
-      <c r="I152" s="69"/>
+      <c r="A152" s="64"/>
+      <c r="B152" s="64"/>
+      <c r="C152" s="64"/>
+      <c r="D152" s="64"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="65"/>
+      <c r="G152" s="65"/>
+      <c r="H152" s="65"/>
+      <c r="I152" s="67"/>
       <c r="J152" s="56" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K152:DN152)/データ!$D$2,"")</f>
         <v/>
@@ -56866,114 +56866,554 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="680">
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G41:G42"/>
@@ -56998,554 +57438,114 @@
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="I61:I62"/>
     <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K157:DN157 K35:DN152 K4:DN28">

--- a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/PM演習_管理ツール_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kawasaki\Documents\GitHub\-A-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\iwase\Documents\GitHub\-A-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ガント" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
   <si>
     <t>WBS番号</t>
     <rPh sb="3" eb="5">
@@ -1091,6 +1091,13 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>川崎</t>
+    <rPh sb="0" eb="2">
+      <t>カワサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1724,22 +1731,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1756,29 +1747,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1796,29 +1809,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2789,7 +2796,7 @@
                   <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -2922,7 +2929,7 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -2962,11 +2969,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="154601872"/>
-        <c:axId val="154602264"/>
+        <c:axId val="324378768"/>
+        <c:axId val="324375632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="154601872"/>
+        <c:axId val="324378768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2976,14 +2983,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154602264"/>
+        <c:crossAx val="324375632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="154602264"/>
+        <c:axId val="324375632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3004,7 +3011,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154601872"/>
+        <c:crossAx val="324378768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3497,11 +3504,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO233"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="10" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BH26" sqref="BH26"/>
+      <selection pane="bottomRight" activeCell="BI22" sqref="BI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3520,61 +3527,65 @@
       <c r="A1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="86"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="83">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="84">
         <v>11.4</v>
       </c>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="80" t="s">
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="77" t="s">
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="74"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="87">
+        <v>42524</v>
+      </c>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="86"/>
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A2" s="45"/>
@@ -3594,7 +3605,7 @@
       </c>
       <c r="I2" s="47">
         <f t="array" ref="I2">SUM(IF(MOD(ROW(J5:J152),2)=0,J5:J152,0))/20</f>
-        <v>1.60625</v>
+        <v>1.48125</v>
       </c>
       <c r="J2" s="48" t="s">
         <v>28</v>
@@ -3603,25 +3614,25 @@
       <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:118" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="80" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="49" t="s">
@@ -3745,10 +3756,10 @@
       <c r="DN3" s="51"/>
     </row>
     <row r="4" spans="1:118" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="76"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="53" t="str">
         <f>データ!A2</f>
         <v>川崎</v>
@@ -3765,7 +3776,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>小山</v>
       </c>
-      <c r="I4" s="79"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="54" t="s">
         <v>21</v>
       </c>
@@ -4095,20 +4106,20 @@
       </c>
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A5" s="64">
-        <v>0</v>
-      </c>
-      <c r="B5" s="68" t="str">
+      <c r="A5" s="70">
+        <v>0</v>
+      </c>
+      <c r="B5" s="64" t="str">
         <f>B1</f>
         <v>コンビニ弁当データベース開発</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="84"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="55" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K5:DN5)/データ!$D$2,"")</f>
         <v/>
@@ -4223,15 +4234,15 @@
       <c r="DN5" s="19"/>
     </row>
     <row r="6" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A6" s="64"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="84"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="56" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K6:DN6)/データ!$D$2,"")</f>
         <v/>
@@ -4346,19 +4357,19 @@
       <c r="DN6" s="21"/>
     </row>
     <row r="7" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A7" s="64">
+      <c r="A7" s="70">
         <v>1</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="84"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="55" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DN7)/データ!$D$2,"")</f>
         <v/>
@@ -4473,15 +4484,15 @@
       <c r="DN7" s="19"/>
     </row>
     <row r="8" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="84"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="56" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DN8)/データ!$D$2,"")</f>
         <v/>
@@ -4596,23 +4607,23 @@
       <c r="DN8" s="21"/>
     </row>
     <row r="9" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A9" s="64">
+      <c r="A9" s="70">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="68" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="66">
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="68">
         <v>1</v>
       </c>
       <c r="J9" s="55">
@@ -4739,15 +4750,15 @@
       <c r="DN9" s="19"/>
     </row>
     <row r="10" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="67"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="69"/>
       <c r="J10" s="56">
         <f>IF(C9&lt;&gt;"",SUM(K10:DN10)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -4872,25 +4883,25 @@
       <c r="DN10" s="21"/>
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A11" s="64">
+      <c r="A11" s="70">
         <v>1.2</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="66">
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="68">
         <v>1</v>
       </c>
       <c r="J11" s="55">
@@ -5017,15 +5028,15 @@
       <c r="DN11" s="19"/>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="67"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="69"/>
       <c r="J12" s="56">
         <f>IF(C11&lt;&gt;"",SUM(K12:DN12)/データ!$D$2,"")</f>
         <v>4.875</v>
@@ -5156,25 +5167,25 @@
       <c r="DN12" s="21"/>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A13" s="64">
+      <c r="A13" s="70">
         <v>1.3</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="66">
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="68">
         <v>1</v>
       </c>
       <c r="J13" s="55">
@@ -5293,15 +5304,15 @@
       <c r="DN13" s="19"/>
     </row>
     <row r="14" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="67"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="69"/>
       <c r="J14" s="56">
         <f>IF(C13&lt;&gt;"",SUM(K14:DN14)/データ!$D$2,"")</f>
         <v>0.25</v>
@@ -5420,25 +5431,25 @@
       <c r="DN14" s="21"/>
     </row>
     <row r="15" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A15" s="68">
+      <c r="A15" s="64">
         <v>1.4</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="66">
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="68">
         <v>1</v>
       </c>
       <c r="J15" s="55">
@@ -5565,15 +5576,15 @@
       <c r="DN15" s="19"/>
     </row>
     <row r="16" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="67"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="69"/>
       <c r="J16" s="56">
         <f>IF(C15&lt;&gt;"",SUM(K16:DN16)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -5698,31 +5709,31 @@
       <c r="DN16" s="21"/>
     </row>
     <row r="17" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A17" s="68">
+      <c r="A17" s="64">
         <v>2</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="70" t="s">
+      <c r="G17" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="66">
+      <c r="I17" s="68">
         <v>1</v>
       </c>
       <c r="J17" s="55">
@@ -5853,18 +5864,18 @@
       <c r="DN17" s="19"/>
     </row>
     <row r="18" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="67"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="69"/>
       <c r="J18" s="56">
         <f>IF(C17&lt;&gt;"",SUM(K18:DN18)/データ!$D$2,"")</f>
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
@@ -5951,8 +5962,12 @@
       <c r="BE18" s="41">
         <v>6</v>
       </c>
-      <c r="BF18" s="63"/>
-      <c r="BG18" s="20"/>
+      <c r="BF18" s="63">
+        <v>2</v>
+      </c>
+      <c r="BG18" s="20">
+        <v>2</v>
+      </c>
       <c r="BH18" s="20"/>
       <c r="BI18" s="41"/>
       <c r="BJ18" s="20"/>
@@ -6014,19 +6029,19 @@
       <c r="DN18" s="21"/>
     </row>
     <row r="19" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A19" s="68">
+      <c r="A19" s="64">
         <v>3</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="66"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="68"/>
       <c r="J19" s="55" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K19:DN19)/データ!$D$2,"")</f>
         <v/>
@@ -6141,15 +6156,15 @@
       <c r="DN19" s="19"/>
     </row>
     <row r="20" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="67"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="69"/>
       <c r="J20" s="56" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K20:DN20)/データ!$D$2,"")</f>
         <v/>
@@ -6264,28 +6279,28 @@
       <c r="DN20" s="21"/>
     </row>
     <row r="21" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="68">
+      <c r="A21" s="64">
         <v>3.1</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70" t="s">
+      <c r="F21" s="66"/>
+      <c r="G21" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="70" t="s">
+      <c r="H21" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="66">
-        <v>0.8</v>
+      <c r="I21" s="68">
+        <v>1</v>
       </c>
       <c r="J21" s="55">
         <f>IF(C21&lt;&gt;"",SUM(K21:DN21)/データ!$D$2,"")</f>
@@ -6413,18 +6428,18 @@
       <c r="DN21" s="19"/>
     </row>
     <row r="22" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="67"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="69"/>
       <c r="J22" s="56">
         <f>IF(C21&lt;&gt;"",SUM(K22:DN22)/データ!$D$2,"")</f>
-        <v>7</v>
+        <v>7.25</v>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -6498,10 +6513,10 @@
         <v>4</v>
       </c>
       <c r="BF22" s="63">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BG22" s="20">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BH22" s="20"/>
       <c r="BI22" s="41"/>
@@ -6564,26 +6579,26 @@
       <c r="DN22" s="21"/>
     </row>
     <row r="23" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A23" s="68">
+      <c r="A23" s="64">
         <v>3.2</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68" t="s">
+      <c r="B23" s="64"/>
+      <c r="C23" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70" t="s">
+      <c r="F23" s="66"/>
+      <c r="G23" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="70"/>
-      <c r="I23" s="66">
-        <v>0.3</v>
+      <c r="H23" s="66"/>
+      <c r="I23" s="68">
+        <v>1</v>
       </c>
       <c r="J23" s="55">
         <f>IF(C23&lt;&gt;"",SUM(K23:DN23)/データ!$D$2,"")</f>
@@ -6709,18 +6724,18 @@
       <c r="DN23" s="19"/>
     </row>
     <row r="24" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="67"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="69"/>
       <c r="J24" s="56">
         <f>IF(C23&lt;&gt;"",SUM(K24:DN24)/データ!$D$2,"")</f>
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -6770,10 +6785,10 @@
       <c r="BD24" s="20"/>
       <c r="BE24" s="41"/>
       <c r="BF24" s="63">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="BG24" s="20">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="BH24" s="20"/>
       <c r="BI24" s="41"/>
@@ -6836,25 +6851,25 @@
       <c r="DN24" s="21"/>
     </row>
     <row r="25" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="68">
+      <c r="A25" s="64">
         <v>4</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="68"/>
       <c r="J25" s="55">
         <f>IF(C25&lt;&gt;"",SUM(K25:DN25)/データ!$D$2,"")</f>
         <v>5</v>
@@ -6977,15 +6992,15 @@
       <c r="DN25" s="19"/>
     </row>
     <row r="26" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="67"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="69"/>
       <c r="J26" s="56">
         <f>IF(C25&lt;&gt;"",SUM(K26:DN26)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7100,19 +7115,19 @@
       <c r="DN26" s="21"/>
     </row>
     <row r="27" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="68">
+      <c r="A27" s="64">
         <v>5</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="66"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="68"/>
       <c r="J27" s="55" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K27:DN27)/データ!$D$2,"")</f>
         <v/>
@@ -7227,15 +7242,15 @@
       <c r="DN27" s="19"/>
     </row>
     <row r="28" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="67"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="69"/>
       <c r="J28" s="56" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K28:DN28)/データ!$D$2,"")</f>
         <v/>
@@ -7350,27 +7365,27 @@
       <c r="DN28" s="21"/>
     </row>
     <row r="29" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="68">
+      <c r="A29" s="64">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68" t="s">
+      <c r="B29" s="64"/>
+      <c r="C29" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70" t="s">
+      <c r="G29" s="66"/>
+      <c r="H29" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="I29" s="66"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="55">
         <f>IF(C29&lt;&gt;"",SUM(K29:DN29)/データ!$D$2,"")</f>
         <v>4.5</v>
@@ -7497,15 +7512,15 @@
       <c r="DN29" s="19"/>
     </row>
     <row r="30" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A30" s="69"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="67"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="69"/>
       <c r="J30" s="56">
         <f>IF(C29&lt;&gt;"",SUM(K30:DN30)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7620,27 +7635,27 @@
       <c r="DN30" s="21"/>
     </row>
     <row r="31" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="68">
+      <c r="A31" s="64">
         <v>5.2</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70" t="s">
+      <c r="F31" s="66"/>
+      <c r="G31" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="70" t="s">
+      <c r="H31" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="I31" s="66"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="55">
         <f>IF(C31&lt;&gt;"",SUM(K31:DN31)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -7767,15 +7782,15 @@
       <c r="DN31" s="19"/>
     </row>
     <row r="32" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A32" s="69"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="67"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="69"/>
       <c r="J32" s="56">
         <f>IF(C31&lt;&gt;"",SUM(K32:DN32)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7890,29 +7905,29 @@
       <c r="DN32" s="21"/>
     </row>
     <row r="33" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="68">
+      <c r="A33" s="64">
         <v>6</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="70" t="s">
+      <c r="G33" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="70"/>
-      <c r="I33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="68"/>
       <c r="J33" s="55">
         <f>IF(C33&lt;&gt;"",SUM(K33:DN33)/データ!$D$2,"")</f>
         <v>3.75</v>
@@ -8039,15 +8054,15 @@
       <c r="DN33" s="19"/>
     </row>
     <row r="34" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A34" s="69"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="67"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="69"/>
       <c r="J34" s="56">
         <f>IF(C33&lt;&gt;"",SUM(K34:DN34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8162,29 +8177,29 @@
       <c r="DN34" s="21"/>
     </row>
     <row r="35" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A35" s="68">
+      <c r="A35" s="64">
         <v>7</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="68"/>
-      <c r="E35" s="70" t="s">
+      <c r="D35" s="64"/>
+      <c r="E35" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="F35" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G35" s="70" t="s">
+      <c r="G35" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="70" t="s">
+      <c r="H35" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="I35" s="66"/>
+      <c r="I35" s="68"/>
       <c r="J35" s="55">
         <f>IF(C35&lt;&gt;"",SUM(K35:DN35)/データ!$D$2,"")</f>
         <v>10</v>
@@ -8327,15 +8342,15 @@
       <c r="DN35" s="19"/>
     </row>
     <row r="36" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A36" s="69"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="67"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="69"/>
       <c r="J36" s="56">
         <f>IF(C35&lt;&gt;"",SUM(K36:DN36)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8450,23 +8465,23 @@
       <c r="DN36" s="21"/>
     </row>
     <row r="37" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A37" s="68">
+      <c r="A37" s="64">
         <v>8</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="68"/>
       <c r="J37" s="55">
         <f>IF(C37&lt;&gt;"",SUM(K37:DN37)/データ!$D$2,"")</f>
         <v>5</v>
@@ -8601,15 +8616,15 @@
       <c r="DN37" s="19"/>
     </row>
     <row r="38" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A38" s="69"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="67"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="69"/>
       <c r="J38" s="56">
         <f>IF(C37&lt;&gt;"",SUM(K38:DN38)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8724,19 +8739,19 @@
       <c r="DN38" s="21"/>
     </row>
     <row r="39" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="68">
+      <c r="A39" s="64">
         <v>9</v>
       </c>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="66"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="68"/>
       <c r="J39" s="55" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K39:DN39)/データ!$D$2,"")</f>
         <v/>
@@ -8851,15 +8866,15 @@
       <c r="DN39" s="19"/>
     </row>
     <row r="40" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A40" s="69"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="67"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="69"/>
       <c r="J40" s="56" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K40:DN40)/データ!$D$2,"")</f>
         <v/>
@@ -8974,25 +8989,25 @@
       <c r="DN40" s="21"/>
     </row>
     <row r="41" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A41" s="68">
+      <c r="A41" s="64">
         <v>9.1</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68" t="s">
+      <c r="B41" s="64"/>
+      <c r="C41" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="F41" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="68"/>
       <c r="J41" s="55">
         <f>IF(C41&lt;&gt;"",SUM(K41:DN41)/データ!$D$2,"")</f>
         <v>1.5</v>
@@ -9113,15 +9128,15 @@
       <c r="DN41" s="19"/>
     </row>
     <row r="42" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A42" s="69"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="67"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="69"/>
       <c r="J42" s="56">
         <f>IF(C41&lt;&gt;"",SUM(K42:DN42)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9236,25 +9251,25 @@
       <c r="DN42" s="21"/>
     </row>
     <row r="43" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A43" s="68">
+      <c r="A43" s="64">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68" t="s">
+      <c r="B43" s="64"/>
+      <c r="C43" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70" t="s">
+      <c r="F43" s="66"/>
+      <c r="G43" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="70"/>
-      <c r="I43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="68"/>
       <c r="J43" s="55">
         <f>IF(C43&lt;&gt;"",SUM(K43:DN43)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -9375,15 +9390,15 @@
       <c r="DN43" s="19"/>
     </row>
     <row r="44" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A44" s="69"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="67"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="69"/>
       <c r="J44" s="56">
         <f>IF(C43&lt;&gt;"",SUM(K44:DN44)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9498,19 +9513,19 @@
       <c r="DN44" s="21"/>
     </row>
     <row r="45" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="68">
+      <c r="A45" s="64">
         <v>10</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="66"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="68"/>
       <c r="J45" s="55" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K45:DN45)/データ!$D$2,"")</f>
         <v/>
@@ -9625,15 +9640,15 @@
       <c r="DN45" s="19"/>
     </row>
     <row r="46" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A46" s="69"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="67"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="69"/>
       <c r="J46" s="56" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K46:DN46)/データ!$D$2,"")</f>
         <v/>
@@ -9748,23 +9763,23 @@
       <c r="DN46" s="21"/>
     </row>
     <row r="47" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A47" s="68">
+      <c r="A47" s="64">
         <v>10.1</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68" t="s">
+      <c r="B47" s="64"/>
+      <c r="C47" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="70" t="s">
+      <c r="E47" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="55">
         <f>IF(C47&lt;&gt;"",SUM(K47:DN47)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -9885,15 +9900,15 @@
       <c r="DN47" s="19"/>
     </row>
     <row r="48" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A48" s="69"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="67"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="69"/>
       <c r="J48" s="56">
         <f>IF(C47&lt;&gt;"",SUM(K48:DN48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10008,23 +10023,23 @@
       <c r="DN48" s="21"/>
     </row>
     <row r="49" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A49" s="64">
+      <c r="A49" s="70">
         <v>10.199999999999999</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64" t="s">
+      <c r="B49" s="70"/>
+      <c r="C49" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="64" t="s">
+      <c r="D49" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="65" t="s">
+      <c r="E49" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="66"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="68"/>
       <c r="J49" s="55">
         <f>IF(C49&lt;&gt;"",SUM(K49:DN49)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10139,15 +10154,15 @@
       <c r="DN49" s="19"/>
     </row>
     <row r="50" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="67"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="69"/>
       <c r="J50" s="56">
         <f>IF(C49&lt;&gt;"",SUM(K50:DN50)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10262,19 +10277,19 @@
       <c r="DN50" s="21"/>
     </row>
     <row r="51" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A51" s="64">
+      <c r="A51" s="70">
         <v>11</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="66"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="68"/>
       <c r="J51" s="55" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K51:DN51)/データ!$D$2,"")</f>
         <v/>
@@ -10389,15 +10404,15 @@
       <c r="DN51" s="19"/>
     </row>
     <row r="52" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="67"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="69"/>
       <c r="J52" s="56" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K52:DN52)/データ!$D$2,"")</f>
         <v/>
@@ -10512,25 +10527,25 @@
       <c r="DN52" s="21"/>
     </row>
     <row r="53" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A53" s="64">
+      <c r="A53" s="70">
         <v>11.1</v>
       </c>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64" t="s">
+      <c r="B53" s="70"/>
+      <c r="C53" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="64" t="s">
+      <c r="D53" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="65" t="s">
+      <c r="E53" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="65" t="s">
+      <c r="F53" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="66"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="68"/>
       <c r="J53" s="55">
         <f>IF(C53&lt;&gt;"",SUM(K53:DN53)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -10671,15 +10686,15 @@
       <c r="DN53" s="19"/>
     </row>
     <row r="54" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A54" s="64"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="67"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="69"/>
       <c r="J54" s="56">
         <f>IF(C53&lt;&gt;"",SUM(K54:DN54)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -10802,23 +10817,23 @@
       <c r="DN54" s="21"/>
     </row>
     <row r="55" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A55" s="64">
+      <c r="A55" s="70">
         <v>11.2</v>
       </c>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64" t="s">
+      <c r="B55" s="70"/>
+      <c r="C55" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="64" t="s">
+      <c r="D55" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="65" t="s">
+      <c r="E55" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="66"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="68"/>
       <c r="J55" s="55">
         <f>IF(C55&lt;&gt;"",SUM(K55:DN55)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -10959,15 +10974,15 @@
       <c r="DN55" s="19"/>
     </row>
     <row r="56" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A56" s="64"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="67"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="69"/>
       <c r="J56" s="56">
         <f>IF(C55&lt;&gt;"",SUM(K56:DN56)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11090,23 +11105,23 @@
       <c r="DN56" s="21"/>
     </row>
     <row r="57" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A57" s="64">
+      <c r="A57" s="70">
         <v>11.3</v>
       </c>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64" t="s">
+      <c r="B57" s="70"/>
+      <c r="C57" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="64" t="s">
+      <c r="D57" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="E57" s="65" t="s">
+      <c r="E57" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="66"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="68"/>
       <c r="J57" s="55">
         <f>IF(C57&lt;&gt;"",SUM(K57:DN57)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11223,15 +11238,15 @@
       <c r="DN57" s="19"/>
     </row>
     <row r="58" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A58" s="64"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="67"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="69"/>
       <c r="J58" s="56">
         <f>IF(C57&lt;&gt;"",SUM(K58:DN58)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11348,23 +11363,23 @@
       <c r="DN58" s="21"/>
     </row>
     <row r="59" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A59" s="64">
+      <c r="A59" s="70">
         <v>11.4</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64" t="s">
+      <c r="B59" s="70"/>
+      <c r="C59" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="64" t="s">
+      <c r="D59" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="65" t="s">
+      <c r="E59" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="66"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="68"/>
       <c r="J59" s="55">
         <f>IF(C59&lt;&gt;"",SUM(K59:DN59)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11481,15 +11496,15 @@
       <c r="DN59" s="19"/>
     </row>
     <row r="60" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A60" s="64"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="67"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="69"/>
       <c r="J60" s="56">
         <f>IF(C59&lt;&gt;"",SUM(K60:DN60)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11606,15 +11621,15 @@
       <c r="DN60" s="21"/>
     </row>
     <row r="61" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A61" s="64"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="66"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="68"/>
       <c r="J61" s="55" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DN61)/データ!$D$2,"")</f>
         <v/>
@@ -11729,15 +11744,15 @@
       <c r="DN61" s="19"/>
     </row>
     <row r="62" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A62" s="64"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="67"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="69"/>
       <c r="J62" s="56" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DN62)/データ!$D$2,"")</f>
         <v/>
@@ -11852,15 +11867,15 @@
       <c r="DN62" s="21"/>
     </row>
     <row r="63" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A63" s="64"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="66"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="68"/>
       <c r="J63" s="55" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K63:DN63)/データ!$D$2,"")</f>
         <v/>
@@ -11975,15 +11990,15 @@
       <c r="DN63" s="19"/>
     </row>
     <row r="64" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A64" s="64"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="67"/>
+      <c r="A64" s="70"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="69"/>
       <c r="J64" s="56" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K64:DN64)/データ!$D$2,"")</f>
         <v/>
@@ -12098,15 +12113,15 @@
       <c r="DN64" s="21"/>
     </row>
     <row r="65" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A65" s="64"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="66"/>
+      <c r="A65" s="70"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="68"/>
       <c r="J65" s="55" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K65:DN65)/データ!$D$2,"")</f>
         <v/>
@@ -12221,15 +12236,15 @@
       <c r="DN65" s="19"/>
     </row>
     <row r="66" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A66" s="64"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="67"/>
+      <c r="A66" s="70"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="69"/>
       <c r="J66" s="56" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K66:DN66)/データ!$D$2,"")</f>
         <v/>
@@ -12344,15 +12359,15 @@
       <c r="DN66" s="21"/>
     </row>
     <row r="67" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A67" s="64"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="66"/>
+      <c r="A67" s="70"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="68"/>
       <c r="J67" s="55" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DN67)/データ!$D$2,"")</f>
         <v/>
@@ -12467,15 +12482,15 @@
       <c r="DN67" s="19"/>
     </row>
     <row r="68" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A68" s="64"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="67"/>
+      <c r="A68" s="70"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="69"/>
       <c r="J68" s="56" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DN68)/データ!$D$2,"")</f>
         <v/>
@@ -12590,15 +12605,15 @@
       <c r="DN68" s="21"/>
     </row>
     <row r="69" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A69" s="64"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="66"/>
+      <c r="A69" s="70"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="68"/>
       <c r="J69" s="55" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DN69)/データ!$D$2,"")</f>
         <v/>
@@ -12713,15 +12728,15 @@
       <c r="DN69" s="19"/>
     </row>
     <row r="70" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A70" s="64"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="67"/>
+      <c r="A70" s="70"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="69"/>
       <c r="J70" s="56" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DN70)/データ!$D$2,"")</f>
         <v/>
@@ -12836,15 +12851,15 @@
       <c r="DN70" s="21"/>
     </row>
     <row r="71" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A71" s="68"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="66"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="68"/>
       <c r="J71" s="55" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K71:DN71)/データ!$D$2,"")</f>
         <v/>
@@ -12959,15 +12974,15 @@
       <c r="DN71" s="19"/>
     </row>
     <row r="72" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A72" s="69"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="67"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="69"/>
       <c r="J72" s="56" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K72:DN72)/データ!$D$2,"")</f>
         <v/>
@@ -13082,15 +13097,15 @@
       <c r="DN72" s="21"/>
     </row>
     <row r="73" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A73" s="64"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="66"/>
+      <c r="A73" s="70"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="68"/>
       <c r="J73" s="55" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K73:DN73)/データ!$D$2,"")</f>
         <v/>
@@ -13205,15 +13220,15 @@
       <c r="DN73" s="19"/>
     </row>
     <row r="74" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A74" s="64"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="67"/>
+      <c r="A74" s="70"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="69"/>
       <c r="J74" s="56" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K74:DN74)/データ!$D$2,"")</f>
         <v/>
@@ -13328,15 +13343,15 @@
       <c r="DN74" s="21"/>
     </row>
     <row r="75" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A75" s="64"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="66"/>
+      <c r="A75" s="70"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="68"/>
       <c r="J75" s="55" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K75:DN75)/データ!$D$2,"")</f>
         <v/>
@@ -13451,15 +13466,15 @@
       <c r="DN75" s="19"/>
     </row>
     <row r="76" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A76" s="64"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="67"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="69"/>
       <c r="J76" s="56" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K76:DN76)/データ!$D$2,"")</f>
         <v/>
@@ -13574,15 +13589,15 @@
       <c r="DN76" s="21"/>
     </row>
     <row r="77" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A77" s="68"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="70"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="66"/>
+      <c r="A77" s="64"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="68"/>
       <c r="J77" s="55" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DN77)/データ!$D$2,"")</f>
         <v/>
@@ -13697,15 +13712,15 @@
       <c r="DN77" s="19"/>
     </row>
     <row r="78" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A78" s="69"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="67"/>
+      <c r="A78" s="65"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="69"/>
       <c r="J78" s="56" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DN78)/データ!$D$2,"")</f>
         <v/>
@@ -13820,15 +13835,15 @@
       <c r="DN78" s="21"/>
     </row>
     <row r="79" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A79" s="68"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="70"/>
-      <c r="H79" s="70"/>
-      <c r="I79" s="66"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="68"/>
       <c r="J79" s="55" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K79:DN79)/データ!$D$2,"")</f>
         <v/>
@@ -13943,15 +13958,15 @@
       <c r="DN79" s="19"/>
     </row>
     <row r="80" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A80" s="69"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="67"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="69"/>
       <c r="J80" s="56" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K80:DN80)/データ!$D$2,"")</f>
         <v/>
@@ -14066,15 +14081,15 @@
       <c r="DN80" s="21"/>
     </row>
     <row r="81" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A81" s="68"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="70"/>
-      <c r="H81" s="70"/>
-      <c r="I81" s="66"/>
+      <c r="A81" s="64"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="68"/>
       <c r="J81" s="55" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K81:DN81)/データ!$D$2,"")</f>
         <v/>
@@ -14189,15 +14204,15 @@
       <c r="DN81" s="19"/>
     </row>
     <row r="82" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A82" s="69"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="67"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="69"/>
       <c r="J82" s="56" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K82:DN82)/データ!$D$2,"")</f>
         <v/>
@@ -14312,15 +14327,15 @@
       <c r="DN82" s="21"/>
     </row>
     <row r="83" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="68"/>
-      <c r="B83" s="68"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="70"/>
-      <c r="H83" s="70"/>
-      <c r="I83" s="66"/>
+      <c r="A83" s="64"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="68"/>
       <c r="J83" s="55" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K83:DN83)/データ!$D$2,"")</f>
         <v/>
@@ -14435,15 +14450,15 @@
       <c r="DN83" s="19"/>
     </row>
     <row r="84" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A84" s="69"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="67"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="69"/>
       <c r="J84" s="56" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K84:DN84)/データ!$D$2,"")</f>
         <v/>
@@ -14558,15 +14573,15 @@
       <c r="DN84" s="21"/>
     </row>
     <row r="85" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A85" s="68"/>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="70"/>
-      <c r="I85" s="66"/>
+      <c r="A85" s="64"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="68"/>
       <c r="J85" s="55" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DN85)/データ!$D$2,"")</f>
         <v/>
@@ -14681,15 +14696,15 @@
       <c r="DN85" s="19"/>
     </row>
     <row r="86" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A86" s="69"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="67"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="69"/>
       <c r="J86" s="56" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DN86)/データ!$D$2,"")</f>
         <v/>
@@ -14804,15 +14819,15 @@
       <c r="DN86" s="21"/>
     </row>
     <row r="87" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="68"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70"/>
-      <c r="I87" s="66"/>
+      <c r="A87" s="64"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="68"/>
       <c r="J87" s="55" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K87:DN87)/データ!$D$2,"")</f>
         <v/>
@@ -14927,15 +14942,15 @@
       <c r="DN87" s="19"/>
     </row>
     <row r="88" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A88" s="69"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="67"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="69"/>
       <c r="J88" s="56" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K88:DN88)/データ!$D$2,"")</f>
         <v/>
@@ -15050,15 +15065,15 @@
       <c r="DN88" s="21"/>
     </row>
     <row r="89" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="68"/>
-      <c r="B89" s="68"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="66"/>
+      <c r="A89" s="64"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="68"/>
       <c r="J89" s="55" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K89:DN89)/データ!$D$2,"")</f>
         <v/>
@@ -15173,15 +15188,15 @@
       <c r="DN89" s="19"/>
     </row>
     <row r="90" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A90" s="69"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="67"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="69"/>
       <c r="J90" s="56" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K90:DN90)/データ!$D$2,"")</f>
         <v/>
@@ -15296,15 +15311,15 @@
       <c r="DN90" s="21"/>
     </row>
     <row r="91" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A91" s="68"/>
-      <c r="B91" s="68"/>
-      <c r="C91" s="68"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="66"/>
+      <c r="A91" s="64"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="68"/>
       <c r="J91" s="55" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K91:DN91)/データ!$D$2,"")</f>
         <v/>
@@ -15419,15 +15434,15 @@
       <c r="DN91" s="19"/>
     </row>
     <row r="92" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A92" s="69"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="71"/>
-      <c r="I92" s="67"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="69"/>
       <c r="J92" s="56" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K92:DN92)/データ!$D$2,"")</f>
         <v/>
@@ -15542,15 +15557,15 @@
       <c r="DN92" s="21"/>
     </row>
     <row r="93" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A93" s="68"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="70"/>
-      <c r="G93" s="70"/>
-      <c r="H93" s="70"/>
-      <c r="I93" s="66"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="64"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="68"/>
       <c r="J93" s="55" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K93:DN93)/データ!$D$2,"")</f>
         <v/>
@@ -15665,15 +15680,15 @@
       <c r="DN93" s="19"/>
     </row>
     <row r="94" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A94" s="69"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="71"/>
-      <c r="H94" s="71"/>
-      <c r="I94" s="67"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="69"/>
       <c r="J94" s="56" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K94:DN94)/データ!$D$2,"")</f>
         <v/>
@@ -15788,15 +15803,15 @@
       <c r="DN94" s="21"/>
     </row>
     <row r="95" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="68"/>
-      <c r="B95" s="68"/>
-      <c r="C95" s="68"/>
-      <c r="D95" s="68"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="70"/>
-      <c r="I95" s="66"/>
+      <c r="A95" s="64"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="68"/>
       <c r="J95" s="55" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DN95)/データ!$D$2,"")</f>
         <v/>
@@ -15911,15 +15926,15 @@
       <c r="DN95" s="19"/>
     </row>
     <row r="96" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A96" s="69"/>
-      <c r="B96" s="69"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="71"/>
-      <c r="F96" s="71"/>
-      <c r="G96" s="71"/>
-      <c r="H96" s="71"/>
-      <c r="I96" s="67"/>
+      <c r="A96" s="65"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="69"/>
       <c r="J96" s="56" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DN96)/データ!$D$2,"")</f>
         <v/>
@@ -16034,15 +16049,15 @@
       <c r="DN96" s="21"/>
     </row>
     <row r="97" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A97" s="68"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="68"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="70"/>
-      <c r="H97" s="70"/>
-      <c r="I97" s="66"/>
+      <c r="A97" s="64"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="68"/>
       <c r="J97" s="55" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DN97)/データ!$D$2,"")</f>
         <v/>
@@ -16157,15 +16172,15 @@
       <c r="DN97" s="19"/>
     </row>
     <row r="98" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A98" s="69"/>
-      <c r="B98" s="69"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="71"/>
-      <c r="G98" s="71"/>
-      <c r="H98" s="71"/>
-      <c r="I98" s="67"/>
+      <c r="A98" s="65"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="69"/>
       <c r="J98" s="56" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DN98)/データ!$D$2,"")</f>
         <v/>
@@ -16280,15 +16295,15 @@
       <c r="DN98" s="21"/>
     </row>
     <row r="99" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A99" s="68"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="70"/>
-      <c r="I99" s="66"/>
+      <c r="A99" s="64"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="64"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="68"/>
       <c r="J99" s="55" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DN99)/データ!$D$2,"")</f>
         <v/>
@@ -16403,15 +16418,15 @@
       <c r="DN99" s="19"/>
     </row>
     <row r="100" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A100" s="69"/>
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="71"/>
-      <c r="F100" s="71"/>
-      <c r="G100" s="71"/>
-      <c r="H100" s="71"/>
-      <c r="I100" s="67"/>
+      <c r="A100" s="65"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="69"/>
       <c r="J100" s="56" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DN100)/データ!$D$2,"")</f>
         <v/>
@@ -16526,15 +16541,15 @@
       <c r="DN100" s="21"/>
     </row>
     <row r="101" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="68"/>
-      <c r="B101" s="68"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="70"/>
-      <c r="I101" s="66"/>
+      <c r="A101" s="64"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="66"/>
+      <c r="I101" s="68"/>
       <c r="J101" s="55" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DN101)/データ!$D$2,"")</f>
         <v/>
@@ -16649,15 +16664,15 @@
       <c r="DN101" s="19"/>
     </row>
     <row r="102" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A102" s="69"/>
-      <c r="B102" s="69"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="71"/>
-      <c r="F102" s="71"/>
-      <c r="G102" s="71"/>
-      <c r="H102" s="71"/>
-      <c r="I102" s="67"/>
+      <c r="A102" s="65"/>
+      <c r="B102" s="65"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="69"/>
       <c r="J102" s="56" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DN102)/データ!$D$2,"")</f>
         <v/>
@@ -16772,15 +16787,15 @@
       <c r="DN102" s="21"/>
     </row>
     <row r="103" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A103" s="68"/>
-      <c r="B103" s="68"/>
-      <c r="C103" s="68"/>
-      <c r="D103" s="68"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="66"/>
+      <c r="A103" s="64"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="66"/>
+      <c r="I103" s="68"/>
       <c r="J103" s="55" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DN103)/データ!$D$2,"")</f>
         <v/>
@@ -16895,15 +16910,15 @@
       <c r="DN103" s="19"/>
     </row>
     <row r="104" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A104" s="69"/>
-      <c r="B104" s="69"/>
-      <c r="C104" s="69"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="71"/>
-      <c r="H104" s="71"/>
-      <c r="I104" s="67"/>
+      <c r="A104" s="65"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="69"/>
       <c r="J104" s="56" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DN104)/データ!$D$2,"")</f>
         <v/>
@@ -17018,15 +17033,15 @@
       <c r="DN104" s="21"/>
     </row>
     <row r="105" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A105" s="64"/>
-      <c r="B105" s="64"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="65"/>
-      <c r="F105" s="65"/>
-      <c r="G105" s="65"/>
-      <c r="H105" s="65"/>
-      <c r="I105" s="66"/>
+      <c r="A105" s="70"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="71"/>
+      <c r="I105" s="68"/>
       <c r="J105" s="55" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DN105)/データ!$D$2,"")</f>
         <v/>
@@ -17141,15 +17156,15 @@
       <c r="DN105" s="19"/>
     </row>
     <row r="106" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A106" s="64"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="65"/>
-      <c r="H106" s="65"/>
-      <c r="I106" s="67"/>
+      <c r="A106" s="70"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="69"/>
       <c r="J106" s="56" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DN106)/データ!$D$2,"")</f>
         <v/>
@@ -17264,15 +17279,15 @@
       <c r="DN106" s="21"/>
     </row>
     <row r="107" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A107" s="64"/>
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="65"/>
-      <c r="H107" s="65"/>
-      <c r="I107" s="66"/>
+      <c r="A107" s="70"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="68"/>
       <c r="J107" s="55" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DN107)/データ!$D$2,"")</f>
         <v/>
@@ -17387,15 +17402,15 @@
       <c r="DN107" s="19"/>
     </row>
     <row r="108" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A108" s="64"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="65"/>
-      <c r="H108" s="65"/>
-      <c r="I108" s="67"/>
+      <c r="A108" s="70"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="69"/>
       <c r="J108" s="56" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DN108)/データ!$D$2,"")</f>
         <v/>
@@ -17510,15 +17525,15 @@
       <c r="DN108" s="21"/>
     </row>
     <row r="109" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A109" s="64"/>
-      <c r="B109" s="64"/>
-      <c r="C109" s="64"/>
-      <c r="D109" s="64"/>
-      <c r="E109" s="65"/>
-      <c r="F109" s="65"/>
-      <c r="G109" s="65"/>
-      <c r="H109" s="65"/>
-      <c r="I109" s="66"/>
+      <c r="A109" s="70"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="71"/>
+      <c r="F109" s="71"/>
+      <c r="G109" s="71"/>
+      <c r="H109" s="71"/>
+      <c r="I109" s="68"/>
       <c r="J109" s="55" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K109:DN109)/データ!$D$2,"")</f>
         <v/>
@@ -17633,15 +17648,15 @@
       <c r="DN109" s="19"/>
     </row>
     <row r="110" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A110" s="64"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="65"/>
-      <c r="F110" s="65"/>
-      <c r="G110" s="65"/>
-      <c r="H110" s="65"/>
-      <c r="I110" s="67"/>
+      <c r="A110" s="70"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="70"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="71"/>
+      <c r="I110" s="69"/>
       <c r="J110" s="56" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K110:DN110)/データ!$D$2,"")</f>
         <v/>
@@ -17756,15 +17771,15 @@
       <c r="DN110" s="21"/>
     </row>
     <row r="111" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A111" s="64"/>
-      <c r="B111" s="64"/>
-      <c r="C111" s="64"/>
-      <c r="D111" s="64"/>
-      <c r="E111" s="65"/>
-      <c r="F111" s="65"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="65"/>
-      <c r="I111" s="66"/>
+      <c r="A111" s="70"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="71"/>
+      <c r="F111" s="71"/>
+      <c r="G111" s="71"/>
+      <c r="H111" s="71"/>
+      <c r="I111" s="68"/>
       <c r="J111" s="55" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K111:DN111)/データ!$D$2,"")</f>
         <v/>
@@ -17879,15 +17894,15 @@
       <c r="DN111" s="19"/>
     </row>
     <row r="112" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A112" s="64"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="64"/>
-      <c r="E112" s="65"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="65"/>
-      <c r="H112" s="65"/>
-      <c r="I112" s="67"/>
+      <c r="A112" s="70"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="71"/>
+      <c r="F112" s="71"/>
+      <c r="G112" s="71"/>
+      <c r="H112" s="71"/>
+      <c r="I112" s="69"/>
       <c r="J112" s="56" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K112:DN112)/データ!$D$2,"")</f>
         <v/>
@@ -18002,15 +18017,15 @@
       <c r="DN112" s="21"/>
     </row>
     <row r="113" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A113" s="64"/>
-      <c r="B113" s="64"/>
-      <c r="C113" s="64"/>
-      <c r="D113" s="64"/>
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
-      <c r="I113" s="66"/>
+      <c r="A113" s="70"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="70"/>
+      <c r="E113" s="71"/>
+      <c r="F113" s="71"/>
+      <c r="G113" s="71"/>
+      <c r="H113" s="71"/>
+      <c r="I113" s="68"/>
       <c r="J113" s="55" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K113:DN113)/データ!$D$2,"")</f>
         <v/>
@@ -18125,15 +18140,15 @@
       <c r="DN113" s="19"/>
     </row>
     <row r="114" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A114" s="64"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="64"/>
-      <c r="E114" s="65"/>
-      <c r="F114" s="65"/>
-      <c r="G114" s="65"/>
-      <c r="H114" s="65"/>
-      <c r="I114" s="67"/>
+      <c r="A114" s="70"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="70"/>
+      <c r="E114" s="71"/>
+      <c r="F114" s="71"/>
+      <c r="G114" s="71"/>
+      <c r="H114" s="71"/>
+      <c r="I114" s="69"/>
       <c r="J114" s="56" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K114:DN114)/データ!$D$2,"")</f>
         <v/>
@@ -18248,15 +18263,15 @@
       <c r="DN114" s="21"/>
     </row>
     <row r="115" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A115" s="64"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="64"/>
-      <c r="D115" s="64"/>
-      <c r="E115" s="65"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="65"/>
-      <c r="I115" s="66"/>
+      <c r="A115" s="70"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="70"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="71"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="71"/>
+      <c r="H115" s="71"/>
+      <c r="I115" s="68"/>
       <c r="J115" s="55" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K115:DN115)/データ!$D$2,"")</f>
         <v/>
@@ -18371,15 +18386,15 @@
       <c r="DN115" s="19"/>
     </row>
     <row r="116" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A116" s="64"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="64"/>
-      <c r="D116" s="64"/>
-      <c r="E116" s="65"/>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="67"/>
+      <c r="A116" s="70"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="70"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="71"/>
+      <c r="F116" s="71"/>
+      <c r="G116" s="71"/>
+      <c r="H116" s="71"/>
+      <c r="I116" s="69"/>
       <c r="J116" s="56" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K116:DN116)/データ!$D$2,"")</f>
         <v/>
@@ -18494,15 +18509,15 @@
       <c r="DN116" s="21"/>
     </row>
     <row r="117" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A117" s="64"/>
-      <c r="B117" s="64"/>
-      <c r="C117" s="64"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="65"/>
-      <c r="F117" s="65"/>
-      <c r="G117" s="65"/>
-      <c r="H117" s="65"/>
-      <c r="I117" s="66"/>
+      <c r="A117" s="70"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="70"/>
+      <c r="D117" s="70"/>
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="68"/>
       <c r="J117" s="55" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K117:DN117)/データ!$D$2,"")</f>
         <v/>
@@ -18617,15 +18632,15 @@
       <c r="DN117" s="19"/>
     </row>
     <row r="118" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A118" s="64"/>
-      <c r="B118" s="64"/>
-      <c r="C118" s="64"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="65"/>
-      <c r="F118" s="65"/>
-      <c r="G118" s="65"/>
-      <c r="H118" s="65"/>
-      <c r="I118" s="67"/>
+      <c r="A118" s="70"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="71"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="71"/>
+      <c r="I118" s="69"/>
       <c r="J118" s="56" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K118:DN118)/データ!$D$2,"")</f>
         <v/>
@@ -18740,15 +18755,15 @@
       <c r="DN118" s="21"/>
     </row>
     <row r="119" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A119" s="64"/>
-      <c r="B119" s="64"/>
-      <c r="C119" s="64"/>
-      <c r="D119" s="64"/>
-      <c r="E119" s="65"/>
-      <c r="F119" s="65"/>
-      <c r="G119" s="65"/>
-      <c r="H119" s="65"/>
-      <c r="I119" s="66"/>
+      <c r="A119" s="70"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="70"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="71"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="68"/>
       <c r="J119" s="55" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K119:DN119)/データ!$D$2,"")</f>
         <v/>
@@ -18863,15 +18878,15 @@
       <c r="DN119" s="19"/>
     </row>
     <row r="120" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A120" s="64"/>
-      <c r="B120" s="64"/>
-      <c r="C120" s="64"/>
-      <c r="D120" s="64"/>
-      <c r="E120" s="65"/>
-      <c r="F120" s="65"/>
-      <c r="G120" s="65"/>
-      <c r="H120" s="65"/>
-      <c r="I120" s="67"/>
+      <c r="A120" s="70"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="70"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="71"/>
+      <c r="F120" s="71"/>
+      <c r="G120" s="71"/>
+      <c r="H120" s="71"/>
+      <c r="I120" s="69"/>
       <c r="J120" s="56" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K120:DN120)/データ!$D$2,"")</f>
         <v/>
@@ -18986,15 +19001,15 @@
       <c r="DN120" s="21"/>
     </row>
     <row r="121" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A121" s="64"/>
-      <c r="B121" s="64"/>
-      <c r="C121" s="64"/>
-      <c r="D121" s="64"/>
-      <c r="E121" s="65"/>
-      <c r="F121" s="65"/>
-      <c r="G121" s="65"/>
-      <c r="H121" s="65"/>
-      <c r="I121" s="66"/>
+      <c r="A121" s="70"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="70"/>
+      <c r="E121" s="71"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="71"/>
+      <c r="H121" s="71"/>
+      <c r="I121" s="68"/>
       <c r="J121" s="55" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K121:DN121)/データ!$D$2,"")</f>
         <v/>
@@ -19109,15 +19124,15 @@
       <c r="DN121" s="19"/>
     </row>
     <row r="122" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A122" s="64"/>
-      <c r="B122" s="64"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="64"/>
-      <c r="E122" s="65"/>
-      <c r="F122" s="65"/>
-      <c r="G122" s="65"/>
-      <c r="H122" s="65"/>
-      <c r="I122" s="67"/>
+      <c r="A122" s="70"/>
+      <c r="B122" s="70"/>
+      <c r="C122" s="70"/>
+      <c r="D122" s="70"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="71"/>
+      <c r="H122" s="71"/>
+      <c r="I122" s="69"/>
       <c r="J122" s="56" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K122:DN122)/データ!$D$2,"")</f>
         <v/>
@@ -19232,15 +19247,15 @@
       <c r="DN122" s="21"/>
     </row>
     <row r="123" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A123" s="64"/>
-      <c r="B123" s="64"/>
-      <c r="C123" s="64"/>
-      <c r="D123" s="64"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="65"/>
-      <c r="G123" s="65"/>
-      <c r="H123" s="65"/>
-      <c r="I123" s="66"/>
+      <c r="A123" s="70"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="71"/>
+      <c r="F123" s="71"/>
+      <c r="G123" s="71"/>
+      <c r="H123" s="71"/>
+      <c r="I123" s="68"/>
       <c r="J123" s="55" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K123:DN123)/データ!$D$2,"")</f>
         <v/>
@@ -19355,15 +19370,15 @@
       <c r="DN123" s="19"/>
     </row>
     <row r="124" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A124" s="64"/>
-      <c r="B124" s="64"/>
-      <c r="C124" s="64"/>
-      <c r="D124" s="64"/>
-      <c r="E124" s="65"/>
-      <c r="F124" s="65"/>
-      <c r="G124" s="65"/>
-      <c r="H124" s="65"/>
-      <c r="I124" s="67"/>
+      <c r="A124" s="70"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="71"/>
+      <c r="F124" s="71"/>
+      <c r="G124" s="71"/>
+      <c r="H124" s="71"/>
+      <c r="I124" s="69"/>
       <c r="J124" s="56" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K124:DN124)/データ!$D$2,"")</f>
         <v/>
@@ -19478,15 +19493,15 @@
       <c r="DN124" s="21"/>
     </row>
     <row r="125" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A125" s="64"/>
-      <c r="B125" s="64"/>
-      <c r="C125" s="64"/>
-      <c r="D125" s="64"/>
-      <c r="E125" s="65"/>
-      <c r="F125" s="65"/>
-      <c r="G125" s="65"/>
-      <c r="H125" s="65"/>
-      <c r="I125" s="66"/>
+      <c r="A125" s="70"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="70"/>
+      <c r="D125" s="70"/>
+      <c r="E125" s="71"/>
+      <c r="F125" s="71"/>
+      <c r="G125" s="71"/>
+      <c r="H125" s="71"/>
+      <c r="I125" s="68"/>
       <c r="J125" s="55" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K125:DN125)/データ!$D$2,"")</f>
         <v/>
@@ -19601,15 +19616,15 @@
       <c r="DN125" s="19"/>
     </row>
     <row r="126" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A126" s="64"/>
-      <c r="B126" s="64"/>
-      <c r="C126" s="64"/>
-      <c r="D126" s="64"/>
-      <c r="E126" s="65"/>
-      <c r="F126" s="65"/>
-      <c r="G126" s="65"/>
-      <c r="H126" s="65"/>
-      <c r="I126" s="67"/>
+      <c r="A126" s="70"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="70"/>
+      <c r="D126" s="70"/>
+      <c r="E126" s="71"/>
+      <c r="F126" s="71"/>
+      <c r="G126" s="71"/>
+      <c r="H126" s="71"/>
+      <c r="I126" s="69"/>
       <c r="J126" s="56" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K126:DN126)/データ!$D$2,"")</f>
         <v/>
@@ -19724,15 +19739,15 @@
       <c r="DN126" s="21"/>
     </row>
     <row r="127" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A127" s="68"/>
-      <c r="B127" s="68"/>
-      <c r="C127" s="68"/>
-      <c r="D127" s="68"/>
-      <c r="E127" s="70"/>
-      <c r="F127" s="70"/>
-      <c r="G127" s="70"/>
-      <c r="H127" s="70"/>
-      <c r="I127" s="66"/>
+      <c r="A127" s="64"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="64"/>
+      <c r="D127" s="64"/>
+      <c r="E127" s="66"/>
+      <c r="F127" s="66"/>
+      <c r="G127" s="66"/>
+      <c r="H127" s="66"/>
+      <c r="I127" s="68"/>
       <c r="J127" s="55" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K127:DN127)/データ!$D$2,"")</f>
         <v/>
@@ -19847,15 +19862,15 @@
       <c r="DN127" s="19"/>
     </row>
     <row r="128" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A128" s="69"/>
-      <c r="B128" s="69"/>
-      <c r="C128" s="69"/>
-      <c r="D128" s="69"/>
-      <c r="E128" s="71"/>
-      <c r="F128" s="71"/>
-      <c r="G128" s="71"/>
-      <c r="H128" s="71"/>
-      <c r="I128" s="67"/>
+      <c r="A128" s="65"/>
+      <c r="B128" s="65"/>
+      <c r="C128" s="65"/>
+      <c r="D128" s="65"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="69"/>
       <c r="J128" s="56" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K128:DN128)/データ!$D$2,"")</f>
         <v/>
@@ -19970,15 +19985,15 @@
       <c r="DN128" s="21"/>
     </row>
     <row r="129" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A129" s="64"/>
-      <c r="B129" s="64"/>
-      <c r="C129" s="64"/>
-      <c r="D129" s="64"/>
-      <c r="E129" s="65"/>
-      <c r="F129" s="65"/>
-      <c r="G129" s="65"/>
-      <c r="H129" s="65"/>
-      <c r="I129" s="66"/>
+      <c r="A129" s="70"/>
+      <c r="B129" s="70"/>
+      <c r="C129" s="70"/>
+      <c r="D129" s="70"/>
+      <c r="E129" s="71"/>
+      <c r="F129" s="71"/>
+      <c r="G129" s="71"/>
+      <c r="H129" s="71"/>
+      <c r="I129" s="68"/>
       <c r="J129" s="55" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K129:DN129)/データ!$D$2,"")</f>
         <v/>
@@ -20093,15 +20108,15 @@
       <c r="DN129" s="19"/>
     </row>
     <row r="130" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A130" s="64"/>
-      <c r="B130" s="64"/>
-      <c r="C130" s="64"/>
-      <c r="D130" s="64"/>
-      <c r="E130" s="65"/>
-      <c r="F130" s="65"/>
-      <c r="G130" s="65"/>
-      <c r="H130" s="65"/>
-      <c r="I130" s="67"/>
+      <c r="A130" s="70"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="70"/>
+      <c r="D130" s="70"/>
+      <c r="E130" s="71"/>
+      <c r="F130" s="71"/>
+      <c r="G130" s="71"/>
+      <c r="H130" s="71"/>
+      <c r="I130" s="69"/>
       <c r="J130" s="56" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K130:DN130)/データ!$D$2,"")</f>
         <v/>
@@ -20216,15 +20231,15 @@
       <c r="DN130" s="21"/>
     </row>
     <row r="131" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A131" s="64"/>
-      <c r="B131" s="64"/>
-      <c r="C131" s="64"/>
-      <c r="D131" s="64"/>
-      <c r="E131" s="65"/>
-      <c r="F131" s="65"/>
-      <c r="G131" s="65"/>
-      <c r="H131" s="65"/>
-      <c r="I131" s="66"/>
+      <c r="A131" s="70"/>
+      <c r="B131" s="70"/>
+      <c r="C131" s="70"/>
+      <c r="D131" s="70"/>
+      <c r="E131" s="71"/>
+      <c r="F131" s="71"/>
+      <c r="G131" s="71"/>
+      <c r="H131" s="71"/>
+      <c r="I131" s="68"/>
       <c r="J131" s="55" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K131:DN131)/データ!$D$2,"")</f>
         <v/>
@@ -20339,15 +20354,15 @@
       <c r="DN131" s="19"/>
     </row>
     <row r="132" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A132" s="64"/>
-      <c r="B132" s="64"/>
-      <c r="C132" s="64"/>
-      <c r="D132" s="64"/>
-      <c r="E132" s="65"/>
-      <c r="F132" s="65"/>
-      <c r="G132" s="65"/>
-      <c r="H132" s="65"/>
-      <c r="I132" s="67"/>
+      <c r="A132" s="70"/>
+      <c r="B132" s="70"/>
+      <c r="C132" s="70"/>
+      <c r="D132" s="70"/>
+      <c r="E132" s="71"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="71"/>
+      <c r="H132" s="71"/>
+      <c r="I132" s="69"/>
       <c r="J132" s="56" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K132:DN132)/データ!$D$2,"")</f>
         <v/>
@@ -20462,15 +20477,15 @@
       <c r="DN132" s="21"/>
     </row>
     <row r="133" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A133" s="64"/>
-      <c r="B133" s="64"/>
-      <c r="C133" s="64"/>
-      <c r="D133" s="64"/>
-      <c r="E133" s="65"/>
-      <c r="F133" s="65"/>
-      <c r="G133" s="65"/>
-      <c r="H133" s="65"/>
-      <c r="I133" s="66"/>
+      <c r="A133" s="70"/>
+      <c r="B133" s="70"/>
+      <c r="C133" s="70"/>
+      <c r="D133" s="70"/>
+      <c r="E133" s="71"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="71"/>
+      <c r="H133" s="71"/>
+      <c r="I133" s="68"/>
       <c r="J133" s="55" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K133:DN133)/データ!$D$2,"")</f>
         <v/>
@@ -20585,15 +20600,15 @@
       <c r="DN133" s="19"/>
     </row>
     <row r="134" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A134" s="64"/>
-      <c r="B134" s="64"/>
-      <c r="C134" s="64"/>
-      <c r="D134" s="64"/>
-      <c r="E134" s="65"/>
-      <c r="F134" s="65"/>
-      <c r="G134" s="65"/>
-      <c r="H134" s="65"/>
-      <c r="I134" s="67"/>
+      <c r="A134" s="70"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="70"/>
+      <c r="D134" s="70"/>
+      <c r="E134" s="71"/>
+      <c r="F134" s="71"/>
+      <c r="G134" s="71"/>
+      <c r="H134" s="71"/>
+      <c r="I134" s="69"/>
       <c r="J134" s="56" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K134:DN134)/データ!$D$2,"")</f>
         <v/>
@@ -20708,15 +20723,15 @@
       <c r="DN134" s="21"/>
     </row>
     <row r="135" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A135" s="64"/>
-      <c r="B135" s="64"/>
-      <c r="C135" s="64"/>
-      <c r="D135" s="64"/>
-      <c r="E135" s="65"/>
-      <c r="F135" s="65"/>
-      <c r="G135" s="65"/>
-      <c r="H135" s="65"/>
-      <c r="I135" s="66"/>
+      <c r="A135" s="70"/>
+      <c r="B135" s="70"/>
+      <c r="C135" s="70"/>
+      <c r="D135" s="70"/>
+      <c r="E135" s="71"/>
+      <c r="F135" s="71"/>
+      <c r="G135" s="71"/>
+      <c r="H135" s="71"/>
+      <c r="I135" s="68"/>
       <c r="J135" s="55" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K135:DN135)/データ!$D$2,"")</f>
         <v/>
@@ -20831,15 +20846,15 @@
       <c r="DN135" s="19"/>
     </row>
     <row r="136" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A136" s="64"/>
-      <c r="B136" s="64"/>
-      <c r="C136" s="64"/>
-      <c r="D136" s="64"/>
-      <c r="E136" s="65"/>
-      <c r="F136" s="65"/>
-      <c r="G136" s="65"/>
-      <c r="H136" s="65"/>
-      <c r="I136" s="67"/>
+      <c r="A136" s="70"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="70"/>
+      <c r="D136" s="70"/>
+      <c r="E136" s="71"/>
+      <c r="F136" s="71"/>
+      <c r="G136" s="71"/>
+      <c r="H136" s="71"/>
+      <c r="I136" s="69"/>
       <c r="J136" s="56" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K136:DN136)/データ!$D$2,"")</f>
         <v/>
@@ -20954,15 +20969,15 @@
       <c r="DN136" s="21"/>
     </row>
     <row r="137" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A137" s="64"/>
-      <c r="B137" s="64"/>
-      <c r="C137" s="64"/>
-      <c r="D137" s="64"/>
-      <c r="E137" s="65"/>
-      <c r="F137" s="65"/>
-      <c r="G137" s="65"/>
-      <c r="H137" s="65"/>
-      <c r="I137" s="66"/>
+      <c r="A137" s="70"/>
+      <c r="B137" s="70"/>
+      <c r="C137" s="70"/>
+      <c r="D137" s="70"/>
+      <c r="E137" s="71"/>
+      <c r="F137" s="71"/>
+      <c r="G137" s="71"/>
+      <c r="H137" s="71"/>
+      <c r="I137" s="68"/>
       <c r="J137" s="55" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K137:DN137)/データ!$D$2,"")</f>
         <v/>
@@ -21077,15 +21092,15 @@
       <c r="DN137" s="19"/>
     </row>
     <row r="138" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A138" s="64"/>
-      <c r="B138" s="64"/>
-      <c r="C138" s="64"/>
-      <c r="D138" s="64"/>
-      <c r="E138" s="65"/>
-      <c r="F138" s="65"/>
-      <c r="G138" s="65"/>
-      <c r="H138" s="65"/>
-      <c r="I138" s="67"/>
+      <c r="A138" s="70"/>
+      <c r="B138" s="70"/>
+      <c r="C138" s="70"/>
+      <c r="D138" s="70"/>
+      <c r="E138" s="71"/>
+      <c r="F138" s="71"/>
+      <c r="G138" s="71"/>
+      <c r="H138" s="71"/>
+      <c r="I138" s="69"/>
       <c r="J138" s="56" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K138:DN138)/データ!$D$2,"")</f>
         <v/>
@@ -21200,15 +21215,15 @@
       <c r="DN138" s="21"/>
     </row>
     <row r="139" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A139" s="64"/>
-      <c r="B139" s="64"/>
-      <c r="C139" s="64"/>
-      <c r="D139" s="64"/>
-      <c r="E139" s="65"/>
-      <c r="F139" s="65"/>
-      <c r="G139" s="65"/>
-      <c r="H139" s="65"/>
-      <c r="I139" s="66"/>
+      <c r="A139" s="70"/>
+      <c r="B139" s="70"/>
+      <c r="C139" s="70"/>
+      <c r="D139" s="70"/>
+      <c r="E139" s="71"/>
+      <c r="F139" s="71"/>
+      <c r="G139" s="71"/>
+      <c r="H139" s="71"/>
+      <c r="I139" s="68"/>
       <c r="J139" s="55" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K139:DN139)/データ!$D$2,"")</f>
         <v/>
@@ -21323,15 +21338,15 @@
       <c r="DN139" s="19"/>
     </row>
     <row r="140" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A140" s="64"/>
-      <c r="B140" s="64"/>
-      <c r="C140" s="64"/>
-      <c r="D140" s="64"/>
-      <c r="E140" s="65"/>
-      <c r="F140" s="65"/>
-      <c r="G140" s="65"/>
-      <c r="H140" s="65"/>
-      <c r="I140" s="67"/>
+      <c r="A140" s="70"/>
+      <c r="B140" s="70"/>
+      <c r="C140" s="70"/>
+      <c r="D140" s="70"/>
+      <c r="E140" s="71"/>
+      <c r="F140" s="71"/>
+      <c r="G140" s="71"/>
+      <c r="H140" s="71"/>
+      <c r="I140" s="69"/>
       <c r="J140" s="56" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K140:DN140)/データ!$D$2,"")</f>
         <v/>
@@ -21446,15 +21461,15 @@
       <c r="DN140" s="21"/>
     </row>
     <row r="141" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A141" s="64"/>
-      <c r="B141" s="64"/>
-      <c r="C141" s="64"/>
-      <c r="D141" s="64"/>
-      <c r="E141" s="65"/>
-      <c r="F141" s="65"/>
-      <c r="G141" s="65"/>
-      <c r="H141" s="65"/>
-      <c r="I141" s="66"/>
+      <c r="A141" s="70"/>
+      <c r="B141" s="70"/>
+      <c r="C141" s="70"/>
+      <c r="D141" s="70"/>
+      <c r="E141" s="71"/>
+      <c r="F141" s="71"/>
+      <c r="G141" s="71"/>
+      <c r="H141" s="71"/>
+      <c r="I141" s="68"/>
       <c r="J141" s="55" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K141:DN141)/データ!$D$2,"")</f>
         <v/>
@@ -21569,15 +21584,15 @@
       <c r="DN141" s="19"/>
     </row>
     <row r="142" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A142" s="64"/>
-      <c r="B142" s="64"/>
-      <c r="C142" s="64"/>
-      <c r="D142" s="64"/>
-      <c r="E142" s="65"/>
-      <c r="F142" s="65"/>
-      <c r="G142" s="65"/>
-      <c r="H142" s="65"/>
-      <c r="I142" s="67"/>
+      <c r="A142" s="70"/>
+      <c r="B142" s="70"/>
+      <c r="C142" s="70"/>
+      <c r="D142" s="70"/>
+      <c r="E142" s="71"/>
+      <c r="F142" s="71"/>
+      <c r="G142" s="71"/>
+      <c r="H142" s="71"/>
+      <c r="I142" s="69"/>
       <c r="J142" s="56" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K142:DN142)/データ!$D$2,"")</f>
         <v/>
@@ -21692,15 +21707,15 @@
       <c r="DN142" s="21"/>
     </row>
     <row r="143" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A143" s="64"/>
-      <c r="B143" s="64"/>
-      <c r="C143" s="64"/>
-      <c r="D143" s="64"/>
-      <c r="E143" s="65"/>
-      <c r="F143" s="65"/>
-      <c r="G143" s="65"/>
-      <c r="H143" s="65"/>
-      <c r="I143" s="66"/>
+      <c r="A143" s="70"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="70"/>
+      <c r="D143" s="70"/>
+      <c r="E143" s="71"/>
+      <c r="F143" s="71"/>
+      <c r="G143" s="71"/>
+      <c r="H143" s="71"/>
+      <c r="I143" s="68"/>
       <c r="J143" s="55" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K143:DN143)/データ!$D$2,"")</f>
         <v/>
@@ -21815,15 +21830,15 @@
       <c r="DN143" s="19"/>
     </row>
     <row r="144" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A144" s="64"/>
-      <c r="B144" s="64"/>
-      <c r="C144" s="64"/>
-      <c r="D144" s="64"/>
-      <c r="E144" s="65"/>
-      <c r="F144" s="65"/>
-      <c r="G144" s="65"/>
-      <c r="H144" s="65"/>
-      <c r="I144" s="67"/>
+      <c r="A144" s="70"/>
+      <c r="B144" s="70"/>
+      <c r="C144" s="70"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="71"/>
+      <c r="F144" s="71"/>
+      <c r="G144" s="71"/>
+      <c r="H144" s="71"/>
+      <c r="I144" s="69"/>
       <c r="J144" s="56" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K144:DN144)/データ!$D$2,"")</f>
         <v/>
@@ -21938,15 +21953,15 @@
       <c r="DN144" s="21"/>
     </row>
     <row r="145" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A145" s="64"/>
-      <c r="B145" s="64"/>
-      <c r="C145" s="64"/>
-      <c r="D145" s="64"/>
-      <c r="E145" s="65"/>
-      <c r="F145" s="65"/>
-      <c r="G145" s="65"/>
-      <c r="H145" s="65"/>
-      <c r="I145" s="66"/>
+      <c r="A145" s="70"/>
+      <c r="B145" s="70"/>
+      <c r="C145" s="70"/>
+      <c r="D145" s="70"/>
+      <c r="E145" s="71"/>
+      <c r="F145" s="71"/>
+      <c r="G145" s="71"/>
+      <c r="H145" s="71"/>
+      <c r="I145" s="68"/>
       <c r="J145" s="55" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K145:DN145)/データ!$D$2,"")</f>
         <v/>
@@ -22061,15 +22076,15 @@
       <c r="DN145" s="19"/>
     </row>
     <row r="146" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A146" s="64"/>
-      <c r="B146" s="64"/>
-      <c r="C146" s="64"/>
-      <c r="D146" s="64"/>
-      <c r="E146" s="65"/>
-      <c r="F146" s="65"/>
-      <c r="G146" s="65"/>
-      <c r="H146" s="65"/>
-      <c r="I146" s="67"/>
+      <c r="A146" s="70"/>
+      <c r="B146" s="70"/>
+      <c r="C146" s="70"/>
+      <c r="D146" s="70"/>
+      <c r="E146" s="71"/>
+      <c r="F146" s="71"/>
+      <c r="G146" s="71"/>
+      <c r="H146" s="71"/>
+      <c r="I146" s="69"/>
       <c r="J146" s="56" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K146:DN146)/データ!$D$2,"")</f>
         <v/>
@@ -22184,15 +22199,15 @@
       <c r="DN146" s="21"/>
     </row>
     <row r="147" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A147" s="68"/>
-      <c r="B147" s="68"/>
-      <c r="C147" s="68"/>
-      <c r="D147" s="68"/>
-      <c r="E147" s="70"/>
-      <c r="F147" s="70"/>
-      <c r="G147" s="70"/>
-      <c r="H147" s="70"/>
-      <c r="I147" s="66"/>
+      <c r="A147" s="64"/>
+      <c r="B147" s="64"/>
+      <c r="C147" s="64"/>
+      <c r="D147" s="64"/>
+      <c r="E147" s="66"/>
+      <c r="F147" s="66"/>
+      <c r="G147" s="66"/>
+      <c r="H147" s="66"/>
+      <c r="I147" s="68"/>
       <c r="J147" s="55" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K147:DN147)/データ!$D$2,"")</f>
         <v/>
@@ -22307,15 +22322,15 @@
       <c r="DN147" s="19"/>
     </row>
     <row r="148" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A148" s="69"/>
-      <c r="B148" s="69"/>
-      <c r="C148" s="69"/>
-      <c r="D148" s="69"/>
-      <c r="E148" s="71"/>
-      <c r="F148" s="71"/>
-      <c r="G148" s="71"/>
-      <c r="H148" s="71"/>
-      <c r="I148" s="67"/>
+      <c r="A148" s="65"/>
+      <c r="B148" s="65"/>
+      <c r="C148" s="65"/>
+      <c r="D148" s="65"/>
+      <c r="E148" s="67"/>
+      <c r="F148" s="67"/>
+      <c r="G148" s="67"/>
+      <c r="H148" s="67"/>
+      <c r="I148" s="69"/>
       <c r="J148" s="56" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K148:DN148)/データ!$D$2,"")</f>
         <v/>
@@ -22430,15 +22445,15 @@
       <c r="DN148" s="21"/>
     </row>
     <row r="149" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A149" s="64"/>
-      <c r="B149" s="64"/>
-      <c r="C149" s="64"/>
-      <c r="D149" s="64"/>
-      <c r="E149" s="65"/>
-      <c r="F149" s="65"/>
-      <c r="G149" s="65"/>
-      <c r="H149" s="65"/>
-      <c r="I149" s="66"/>
+      <c r="A149" s="70"/>
+      <c r="B149" s="70"/>
+      <c r="C149" s="70"/>
+      <c r="D149" s="70"/>
+      <c r="E149" s="71"/>
+      <c r="F149" s="71"/>
+      <c r="G149" s="71"/>
+      <c r="H149" s="71"/>
+      <c r="I149" s="68"/>
       <c r="J149" s="55" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K149:DN149)/データ!$D$2,"")</f>
         <v/>
@@ -22553,15 +22568,15 @@
       <c r="DN149" s="19"/>
     </row>
     <row r="150" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A150" s="64"/>
-      <c r="B150" s="64"/>
-      <c r="C150" s="64"/>
-      <c r="D150" s="64"/>
-      <c r="E150" s="65"/>
-      <c r="F150" s="65"/>
-      <c r="G150" s="65"/>
-      <c r="H150" s="65"/>
-      <c r="I150" s="67"/>
+      <c r="A150" s="70"/>
+      <c r="B150" s="70"/>
+      <c r="C150" s="70"/>
+      <c r="D150" s="70"/>
+      <c r="E150" s="71"/>
+      <c r="F150" s="71"/>
+      <c r="G150" s="71"/>
+      <c r="H150" s="71"/>
+      <c r="I150" s="69"/>
       <c r="J150" s="56" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K150:DN150)/データ!$D$2,"")</f>
         <v/>
@@ -22676,15 +22691,15 @@
       <c r="DN150" s="21"/>
     </row>
     <row r="151" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A151" s="64"/>
-      <c r="B151" s="64"/>
-      <c r="C151" s="64"/>
-      <c r="D151" s="64"/>
-      <c r="E151" s="65"/>
-      <c r="F151" s="65"/>
-      <c r="G151" s="65"/>
-      <c r="H151" s="65"/>
-      <c r="I151" s="66"/>
+      <c r="A151" s="70"/>
+      <c r="B151" s="70"/>
+      <c r="C151" s="70"/>
+      <c r="D151" s="70"/>
+      <c r="E151" s="71"/>
+      <c r="F151" s="71"/>
+      <c r="G151" s="71"/>
+      <c r="H151" s="71"/>
+      <c r="I151" s="68"/>
       <c r="J151" s="55" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K151:DN151)/データ!$D$2,"")</f>
         <v/>
@@ -22799,15 +22814,15 @@
       <c r="DN151" s="19"/>
     </row>
     <row r="152" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A152" s="64"/>
-      <c r="B152" s="64"/>
-      <c r="C152" s="64"/>
-      <c r="D152" s="64"/>
-      <c r="E152" s="65"/>
-      <c r="F152" s="65"/>
-      <c r="G152" s="65"/>
-      <c r="H152" s="65"/>
-      <c r="I152" s="67"/>
+      <c r="A152" s="70"/>
+      <c r="B152" s="70"/>
+      <c r="C152" s="70"/>
+      <c r="D152" s="70"/>
+      <c r="E152" s="71"/>
+      <c r="F152" s="71"/>
+      <c r="G152" s="71"/>
+      <c r="H152" s="71"/>
+      <c r="I152" s="69"/>
       <c r="J152" s="56" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K152:DN152)/データ!$D$2,"")</f>
         <v/>
@@ -23554,11 +23569,11 @@
       </c>
       <c r="BF155" s="13">
         <f t="array" ref="BF155">SUM(IF(MOD(ROW(BF$5:BF$152),2)=0,BF$5:BF$152,0))</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BG155" s="13">
         <f t="array" ref="BG155">SUM(IF(MOD(ROW(BG$5:BG$152),2)=0,BG$5:BG$152,0))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="BH155" s="13">
         <f t="array" ref="BH155">SUM(IF(MOD(ROW(BH$5:BH$152),2)=0,BH$5:BH$152,0))</f>
@@ -23988,247 +24003,247 @@
       </c>
       <c r="BE156" s="13">
         <f t="shared" si="1"/>
-        <v>17.625</v>
+        <v>7.625</v>
       </c>
       <c r="BF156" s="13">
         <f t="shared" si="1"/>
-        <v>17.625</v>
+        <v>7.625</v>
       </c>
       <c r="BG156" s="13">
         <f t="shared" si="1"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BH156" s="13">
         <f t="shared" si="1"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BI156" s="13">
         <f t="shared" si="1"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BJ156" s="13">
         <f t="shared" si="1"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BK156" s="13">
         <f t="shared" si="1"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BL156" s="13">
         <f t="shared" si="1"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BM156" s="13">
         <f t="shared" si="1"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BN156" s="13">
         <f t="shared" si="1"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BO156" s="13">
         <f t="shared" si="1"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BP156" s="13">
         <f t="shared" si="1"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BQ156" s="13">
         <f t="shared" si="1"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BR156" s="13">
         <f t="shared" si="1"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BS156" s="13">
         <f t="shared" si="1"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BT156" s="13">
         <f t="shared" si="1"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BU156" s="13">
         <f t="shared" si="1"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BV156" s="13">
         <f t="shared" si="1"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BW156" s="13">
         <f t="shared" ref="BW156:DB156" si="2">SUM(BW163:BW198)</f>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BX156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BY156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="BZ156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CA156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CB156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CC156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CD156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CE156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CF156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CG156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CH156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CI156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CJ156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CK156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CL156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CM156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CN156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CO156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CP156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CQ156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CR156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CS156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CT156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CU156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CV156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CW156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CX156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CY156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="CZ156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="DA156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="DB156" s="13">
         <f t="shared" si="2"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="DC156" s="13">
         <f t="shared" ref="DC156:DN156" si="3">SUM(DC163:DC198)</f>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="DD156" s="13">
         <f t="shared" si="3"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="DE156" s="13">
         <f t="shared" si="3"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="DF156" s="13">
         <f t="shared" si="3"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="DG156" s="13">
         <f t="shared" si="3"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="DH156" s="13">
         <f t="shared" si="3"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="DI156" s="13">
         <f t="shared" si="3"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="DJ156" s="13">
         <f t="shared" si="3"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="DK156" s="13">
         <f t="shared" si="3"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="DL156" s="13">
         <f t="shared" si="3"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="DM156" s="13">
         <f t="shared" si="3"/>
-        <v>22.024999999999999</v>
+        <v>25.625</v>
       </c>
       <c r="DN156" s="13">
         <f t="shared" si="3"/>
@@ -25308,247 +25323,247 @@
       </c>
       <c r="BF159" s="15">
         <f t="shared" si="10"/>
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="BG159" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BH159" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BI159" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BJ159" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BK159" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BL159" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BM159" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BN159" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BO159" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BP159" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BQ159" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BR159" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BS159" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BT159" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BU159" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BV159" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BW159" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BX159" s="15">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BY159" s="15">
         <f t="shared" ref="BY159:DN159" si="11">BY155+BX159</f>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="BZ159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CA159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CB159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CC159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CD159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CE159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CF159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CG159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CH159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CI159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CJ159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CK159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CL159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CM159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CN159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CO159" s="15">
         <f>CO155+CN159</f>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CP159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CQ159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CR159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CS159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CT159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CU159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CV159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CW159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CX159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CY159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="CZ159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="DA159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="DB159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="DC159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="DD159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="DE159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="DF159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="DG159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="DH159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="DI159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="DJ159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="DK159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="DL159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="DM159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="DN159" s="15">
         <f t="shared" si="11"/>
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row r="160" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -25742,247 +25757,247 @@
       </c>
       <c r="BE160" s="15">
         <f>SUM(BE163:BE233)*データ!$D$2</f>
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="BF160" s="15">
         <f>SUM(BF163:BF233)*データ!$D$2</f>
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="BG160" s="15">
         <f>SUM(BG163:BG233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BH160" s="15">
         <f>SUM(BH163:BH233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BI160" s="15">
         <f>SUM(BI163:BI233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BJ160" s="15">
         <f>SUM(BJ163:BJ233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BK160" s="15">
         <f>SUM(BK163:BK233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BL160" s="15">
         <f>SUM(BL163:BL233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BM160" s="15">
         <f>SUM(BM163:BM233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BN160" s="15">
         <f>SUM(BN163:BN233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BO160" s="15">
         <f>SUM(BO163:BO233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BP160" s="15">
         <f>SUM(BP163:BP233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BQ160" s="15">
         <f>SUM(BQ163:BQ233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BR160" s="15">
         <f>SUM(BR163:BR233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BS160" s="15">
         <f>SUM(BS163:BS233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BT160" s="15">
         <f>SUM(BT163:BT233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BU160" s="15">
         <f>SUM(BU163:BU233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BV160" s="15">
         <f>SUM(BV163:BV233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BW160" s="15">
         <f>SUM(BW163:BW233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BX160" s="15">
         <f>SUM(BX163:BX233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BY160" s="15">
         <f>SUM(BY163:BY233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="BZ160" s="15">
         <f>SUM(BZ163:BZ233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CA160" s="15">
         <f>SUM(CA163:CA233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CB160" s="15">
         <f>SUM(CB163:CB233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CC160" s="15">
         <f>SUM(CC163:CC233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CD160" s="15">
         <f>SUM(CD163:CD233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CE160" s="15">
         <f>SUM(CE163:CE233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CF160" s="15">
         <f>SUM(CF163:CF233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CG160" s="15">
         <f>SUM(CG163:CG233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CH160" s="15">
         <f>SUM(CH163:CH233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CI160" s="15">
         <f>SUM(CI163:CI233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CJ160" s="15">
         <f>SUM(CJ163:CJ233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CK160" s="15">
         <f>SUM(CK163:CK233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CL160" s="15">
         <f>SUM(CL163:CL233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CM160" s="15">
         <f>SUM(CM163:CM233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CN160" s="15">
         <f>SUM(CN163:CN233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CO160" s="15">
         <f>SUM(CO163:CO233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CP160" s="15">
         <f>SUM(CP163:CP233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CQ160" s="15">
         <f>SUM(CQ163:CQ233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CR160" s="15">
         <f>SUM(CR163:CR233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CS160" s="15">
         <f>SUM(CS163:CS233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CT160" s="15">
         <f>SUM(CT163:CT233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CU160" s="15">
         <f>SUM(CU163:CU233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CV160" s="15">
         <f>SUM(CV163:CV233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CW160" s="15">
         <f>SUM(CW163:CW233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CX160" s="15">
         <f>SUM(CX163:CX233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CY160" s="15">
         <f>SUM(CY163:CY233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="CZ160" s="15">
         <f>SUM(CZ163:CZ233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="DA160" s="15">
         <f>SUM(DA163:DA233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="DB160" s="15">
         <f>SUM(DB163:DB233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="DC160" s="15">
         <f>SUM(DC163:DC233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="DD160" s="15">
         <f>SUM(DD163:DD233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="DE160" s="15">
         <f>SUM(DE163:DE233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="DF160" s="15">
         <f>SUM(DF163:DF233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="DG160" s="15">
         <f>SUM(DG163:DG233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="DH160" s="15">
         <f>SUM(DH163:DH233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="DI160" s="15">
         <f>SUM(DI163:DI233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="DJ160" s="15">
         <f>SUM(DJ163:DJ233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="DK160" s="15">
         <f>SUM(DK163:DK233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="DL160" s="15">
         <f>SUM(DL163:DL233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="DM160" s="15">
         <f>SUM(DM163:DM233)*データ!$D$2</f>
-        <v>176.2</v>
+        <v>205</v>
       </c>
       <c r="DN160" s="15">
         <f>SUM(DN163:DN233)*データ!$D$2</f>
@@ -28809,11 +28824,11 @@
       </c>
       <c r="BE169" s="14">
         <f>IF($J17&lt;&gt;"",$I17*IF(COUNTA(BF18:$DN18)=0,$J17,0),0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BF169" s="14">
         <f>IF($J17&lt;&gt;"",$I17*IF(COUNTA(BG18:$DN18)=0,$J17,0),0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BG169" s="14">
         <f>IF($J17&lt;&gt;"",$I17*IF(COUNTA(BH18:$DN18)=0,$J17,0),0)</f>
@@ -29687,239 +29702,239 @@
       </c>
       <c r="BG171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BH22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BH171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BI22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BI171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BJ22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BJ171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BK22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BK171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BL22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BL171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BM22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BM171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BN22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BN171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BO22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BO171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BP22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BP171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BQ22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BQ171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BR22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BR171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BS22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BS171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BT22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BT171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BU22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BU171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BV22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BV171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BW22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BW171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BX22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BX171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BY22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BY171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(BZ22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BZ171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CA22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CA171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CB22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CB171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CC22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CC171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CD22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CD171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CE22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CE171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CF22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CF171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CG22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CG171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CH22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CH171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CI22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CI171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CJ22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CJ171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CK22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CK171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CL22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CL171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CM22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CM171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CN22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CN171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CO22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CO171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CP22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CP171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CQ22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CQ171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CR22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CR171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CS22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CS171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CT22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CT171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CU22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CU171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CV22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CV171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CW22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CW171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CX22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CX171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CY22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CY171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(CZ22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="CZ171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(DA22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="DA171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(DB22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="DB171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(DC22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="DC171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(DD22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="DD171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(DE22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="DE171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(DF22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="DF171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(DG22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="DG171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(DH22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="DH171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(DI22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="DI171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(DJ22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="DJ171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(DK22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="DK171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(DL22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="DL171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(DM22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="DM171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(DN22:$DN22)=0,$J21,0),0)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="DN171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(#REF!)=0,$J21,0),0)</f>
@@ -30122,239 +30137,239 @@
       </c>
       <c r="BG172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BH24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BH172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BI24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BI172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BJ24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BJ172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BK24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BK172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BL24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BL172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BM24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BM172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BN24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BN172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BO24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BO172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BP24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BP172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BQ24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BQ172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BR24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BR172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BS24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BS172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BT24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BT172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BU24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BU172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BV24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BV172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BW24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BW172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BX24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BX172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BY24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BY172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(BZ24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="BZ172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CA24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CA172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CB24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CB172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CC24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CC172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CD24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CD172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CE24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CE172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CF24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CF172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CG24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CG172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CH24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CH172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CI24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CI172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CJ24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CJ172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CK24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CK172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CL24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CL172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CM24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CM172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CN24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CN172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CO24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CO172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CP24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CP172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CQ24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CQ172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CR24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CR172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CS24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CS172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CT24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CT172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CU24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CU172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CV24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CV172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CW24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CW172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CX24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CX172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CY24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CY172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(CZ24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="CZ172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DA24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="DA172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DB24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="DB172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DC24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="DC172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DD24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="DD172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DE24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="DE172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DF24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="DF172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DG24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="DG172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DH24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="DH172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DI24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="DI172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DJ24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="DJ172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DK24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="DK172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DL24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="DL172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DM24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="DM172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(DN24:$DN24)=0,$J23,0),0)</f>
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="DN172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(#REF!)=0,$J23,0),0)</f>
@@ -56866,366 +56881,302 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="680">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G37:G38"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -57250,302 +57201,366 @@
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K157:DN157 K35:DN152 K4:DN28">
@@ -58004,7 +58019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A27:DH34"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AR29" sqref="AR29"/>
     </sheetView>
   </sheetViews>
@@ -59142,15 +59157,15 @@
       </c>
       <c r="AW29" s="30">
         <f ca="1">IF(TODAY()&gt;=AW$27,ガント!BF159,NA())</f>
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="AX29" s="30">
         <f ca="1">IF(TODAY()&gt;=AX$27,ガント!BG159,NA())</f>
-        <v>257</v>
-      </c>
-      <c r="AY29" s="30" t="e">
+        <v>237</v>
+      </c>
+      <c r="AY29" s="30">
         <f ca="1">IF(TODAY()&gt;=AY$27,ガント!BH159,NA())</f>
-        <v>#N/A</v>
+        <v>237</v>
       </c>
       <c r="AZ29" s="30" t="e">
         <f ca="1">IF(TODAY()&gt;=AZ$27,ガント!BI159,NA())</f>
@@ -59588,19 +59603,19 @@
       </c>
       <c r="AV30" s="27">
         <f ca="1">IF(TODAY()&gt;=AV$27,ガント!BE160,NA())</f>
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="AW30" s="27">
         <f ca="1">IF(TODAY()&gt;=AW$27,ガント!BF160,NA())</f>
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="AX30" s="27">
         <f ca="1">IF(TODAY()&gt;=AX$27,ガント!BG160,NA())</f>
-        <v>176.2</v>
-      </c>
-      <c r="AY30" s="27" t="e">
+        <v>205</v>
+      </c>
+      <c r="AY30" s="27">
         <f ca="1">IF(TODAY()&gt;=AY$27,ガント!BH160,NA())</f>
-        <v>#N/A</v>
+        <v>205</v>
       </c>
       <c r="AZ30" s="27" t="e">
         <f ca="1">IF(TODAY()&gt;=AZ$27,ガント!BI160,NA())</f>
@@ -60037,19 +60052,19 @@
       </c>
       <c r="AV31" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>-94</v>
+        <v>-174</v>
       </c>
       <c r="AW31" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>-104</v>
+        <v>-184</v>
       </c>
       <c r="AX31" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>-78.800000000000011</v>
-      </c>
-      <c r="AY31" s="25" t="e">
+        <v>-50</v>
+      </c>
+      <c r="AY31" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>-62</v>
       </c>
       <c r="AZ31" s="25" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -60486,19 +60501,19 @@
       </c>
       <c r="AV32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-68</v>
+        <v>-148</v>
       </c>
       <c r="AW32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-92</v>
+        <v>-156</v>
       </c>
       <c r="AX32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-80.800000000000011</v>
-      </c>
-      <c r="AY32" s="23" t="e">
+        <v>-32</v>
+      </c>
+      <c r="AY32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>-32</v>
       </c>
       <c r="AZ32" s="23" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -60935,19 +60950,19 @@
       </c>
       <c r="AV33" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>0.6</v>
+        <v>0.25957446808510637</v>
       </c>
       <c r="AW33" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>0.57551020408163267</v>
+        <v>0.24897959183673468</v>
       </c>
       <c r="AX33" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>0.69098039215686269</v>
-      </c>
-      <c r="AY33" s="28" t="e">
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="AY33" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>0.76779026217228463</v>
       </c>
       <c r="AZ33" s="28" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -61384,19 +61399,19 @@
       </c>
       <c r="AV34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.67464114832535882</v>
+        <v>0.291866028708134</v>
       </c>
       <c r="AW34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.60515021459227469</v>
+        <v>0.28110599078341014</v>
       </c>
       <c r="AX34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.68560311284046693</v>
-      </c>
-      <c r="AY34" s="28" t="e">
+        <v>0.86497890295358648</v>
+      </c>
+      <c r="AY34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
+        <v>0.86497890295358648</v>
       </c>
       <c r="AZ34" s="28" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -61678,7 +61693,7 @@
       <selection activeCell="D3" sqref="D3"/>
       <selection pane="topRight" activeCell="D3" sqref="D3"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -62137,7 +62152,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/PM演習_管理ツール_矢吹研A班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="ガント" sheetId="1" r:id="rId1"/>
@@ -1731,6 +1731,22 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1747,51 +1763,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1809,23 +1803,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2796,7 +2796,7 @@
                   <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>237</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -2969,11 +2969,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="324378768"/>
-        <c:axId val="324375632"/>
+        <c:axId val="238378176"/>
+        <c:axId val="238374648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="324378768"/>
+        <c:axId val="238378176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2983,14 +2983,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324375632"/>
+        <c:crossAx val="238374648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="324375632"/>
+        <c:axId val="238374648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,7 +3011,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324378768"/>
+        <c:crossAx val="238378176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3504,11 +3504,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO233"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BI22" sqref="BI22"/>
+      <selection pane="bottomRight" activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3527,65 +3527,65 @@
       <c r="A1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="74"/>
+      <c r="C1" s="86"/>
       <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="83">
         <v>11.4</v>
       </c>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="81" t="s">
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="84" t="s">
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="79" t="s">
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="87">
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="72">
         <v>42524</v>
       </c>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="86"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="74"/>
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A2" s="45"/>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="I2" s="47">
         <f t="array" ref="I2">SUM(IF(MOD(ROW(J5:J152),2)=0,J5:J152,0))/20</f>
-        <v>1.48125</v>
+        <v>1.54375</v>
       </c>
       <c r="J2" s="48" t="s">
         <v>28</v>
@@ -3614,25 +3614,25 @@
       <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:118" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="80" t="s">
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="49" t="s">
@@ -3756,10 +3756,10 @@
       <c r="DN3" s="51"/>
     </row>
     <row r="4" spans="1:118" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="89"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="53" t="str">
         <f>データ!A2</f>
         <v>川崎</v>
@@ -3776,7 +3776,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>小山</v>
       </c>
-      <c r="I4" s="80"/>
+      <c r="I4" s="79"/>
       <c r="J4" s="54" t="s">
         <v>21</v>
       </c>
@@ -4106,20 +4106,20 @@
       </c>
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A5" s="70">
-        <v>0</v>
-      </c>
-      <c r="B5" s="64" t="str">
+      <c r="A5" s="64">
+        <v>0</v>
+      </c>
+      <c r="B5" s="68" t="str">
         <f>B1</f>
         <v>コンビニ弁当データベース開発</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="84"/>
       <c r="J5" s="55" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K5:DN5)/データ!$D$2,"")</f>
         <v/>
@@ -4234,15 +4234,15 @@
       <c r="DN5" s="19"/>
     </row>
     <row r="6" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="72"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="56" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K6:DN6)/データ!$D$2,"")</f>
         <v/>
@@ -4357,19 +4357,19 @@
       <c r="DN6" s="21"/>
     </row>
     <row r="7" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A7" s="70">
+      <c r="A7" s="64">
         <v>1</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="72"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="84"/>
       <c r="J7" s="55" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DN7)/データ!$D$2,"")</f>
         <v/>
@@ -4484,15 +4484,15 @@
       <c r="DN7" s="19"/>
     </row>
     <row r="8" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="56" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DN8)/データ!$D$2,"")</f>
         <v/>
@@ -4607,23 +4607,23 @@
       <c r="DN8" s="21"/>
     </row>
     <row r="9" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A9" s="70">
+      <c r="A9" s="64">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="64" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="68">
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="66">
         <v>1</v>
       </c>
       <c r="J9" s="55">
@@ -4750,15 +4750,15 @@
       <c r="DN9" s="19"/>
     </row>
     <row r="10" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="69"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="56">
         <f>IF(C9&lt;&gt;"",SUM(K10:DN10)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -4883,25 +4883,25 @@
       <c r="DN10" s="21"/>
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A11" s="70">
+      <c r="A11" s="64">
         <v>1.2</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="68">
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="66">
         <v>1</v>
       </c>
       <c r="J11" s="55">
@@ -5028,15 +5028,15 @@
       <c r="DN11" s="19"/>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="69"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="56">
         <f>IF(C11&lt;&gt;"",SUM(K12:DN12)/データ!$D$2,"")</f>
         <v>4.875</v>
@@ -5167,25 +5167,25 @@
       <c r="DN12" s="21"/>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A13" s="70">
+      <c r="A13" s="64">
         <v>1.3</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="64" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="68">
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="66">
         <v>1</v>
       </c>
       <c r="J13" s="55">
@@ -5304,15 +5304,15 @@
       <c r="DN13" s="19"/>
     </row>
     <row r="14" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="69"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="67"/>
       <c r="J14" s="56">
         <f>IF(C13&lt;&gt;"",SUM(K14:DN14)/データ!$D$2,"")</f>
         <v>0.25</v>
@@ -5431,25 +5431,25 @@
       <c r="DN14" s="21"/>
     </row>
     <row r="15" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A15" s="64">
+      <c r="A15" s="68">
         <v>1.4</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="68">
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="66">
         <v>1</v>
       </c>
       <c r="J15" s="55">
@@ -5576,15 +5576,15 @@
       <c r="DN15" s="19"/>
     </row>
     <row r="16" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="69"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="56">
         <f>IF(C15&lt;&gt;"",SUM(K16:DN16)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -5709,31 +5709,31 @@
       <c r="DN16" s="21"/>
     </row>
     <row r="17" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A17" s="64">
+      <c r="A17" s="68">
         <v>2</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="66" t="s">
+      <c r="H17" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="66">
         <v>1</v>
       </c>
       <c r="J17" s="55">
@@ -5864,15 +5864,15 @@
       <c r="DN17" s="19"/>
     </row>
     <row r="18" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="69"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="56">
         <f>IF(C17&lt;&gt;"",SUM(K18:DN18)/データ!$D$2,"")</f>
         <v>10.25</v>
@@ -6029,19 +6029,19 @@
       <c r="DN18" s="21"/>
     </row>
     <row r="19" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A19" s="64">
+      <c r="A19" s="68">
         <v>3</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="55" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K19:DN19)/データ!$D$2,"")</f>
         <v/>
@@ -6156,15 +6156,15 @@
       <c r="DN19" s="19"/>
     </row>
     <row r="20" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="69"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="67"/>
       <c r="J20" s="56" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K20:DN20)/データ!$D$2,"")</f>
         <v/>
@@ -6279,27 +6279,27 @@
       <c r="DN20" s="21"/>
     </row>
     <row r="21" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64">
+      <c r="A21" s="68">
         <v>3.1</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66" t="s">
+      <c r="F21" s="70"/>
+      <c r="G21" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="66" t="s">
+      <c r="H21" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="68">
+      <c r="I21" s="66">
         <v>1</v>
       </c>
       <c r="J21" s="55">
@@ -6428,15 +6428,15 @@
       <c r="DN21" s="19"/>
     </row>
     <row r="22" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="69"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="67"/>
       <c r="J22" s="56">
         <f>IF(C21&lt;&gt;"",SUM(K22:DN22)/データ!$D$2,"")</f>
         <v>7.25</v>
@@ -6579,25 +6579,25 @@
       <c r="DN22" s="21"/>
     </row>
     <row r="23" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A23" s="64">
+      <c r="A23" s="68">
         <v>3.2</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66" t="s">
+      <c r="F23" s="70"/>
+      <c r="G23" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="68">
+      <c r="H23" s="70"/>
+      <c r="I23" s="66">
         <v>1</v>
       </c>
       <c r="J23" s="55">
@@ -6724,15 +6724,15 @@
       <c r="DN23" s="19"/>
     </row>
     <row r="24" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="69"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="56">
         <f>IF(C23&lt;&gt;"",SUM(K24:DN24)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -6851,25 +6851,25 @@
       <c r="DN24" s="21"/>
     </row>
     <row r="25" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="64">
+      <c r="A25" s="68">
         <v>4</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="68"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="55">
         <f>IF(C25&lt;&gt;"",SUM(K25:DN25)/データ!$D$2,"")</f>
         <v>5</v>
@@ -6992,18 +6992,18 @@
       <c r="DN25" s="19"/>
     </row>
     <row r="26" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="69"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="56">
         <f>IF(C25&lt;&gt;"",SUM(K26:DN26)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -7052,8 +7052,12 @@
       <c r="BC26" s="20"/>
       <c r="BD26" s="20"/>
       <c r="BE26" s="41"/>
-      <c r="BF26" s="63"/>
-      <c r="BG26" s="20"/>
+      <c r="BF26" s="63">
+        <v>5</v>
+      </c>
+      <c r="BG26" s="20">
+        <v>5</v>
+      </c>
       <c r="BH26" s="20"/>
       <c r="BI26" s="41"/>
       <c r="BJ26" s="20"/>
@@ -7115,19 +7119,19 @@
       <c r="DN26" s="21"/>
     </row>
     <row r="27" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="64">
+      <c r="A27" s="68">
         <v>5</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="55" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K27:DN27)/データ!$D$2,"")</f>
         <v/>
@@ -7242,15 +7246,15 @@
       <c r="DN27" s="19"/>
     </row>
     <row r="28" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="69"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="67"/>
       <c r="J28" s="56" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K28:DN28)/データ!$D$2,"")</f>
         <v/>
@@ -7365,27 +7369,27 @@
       <c r="DN28" s="21"/>
     </row>
     <row r="29" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="64">
+      <c r="A29" s="68">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64" t="s">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66" t="s">
+      <c r="G29" s="70"/>
+      <c r="H29" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="I29" s="68"/>
+      <c r="I29" s="66"/>
       <c r="J29" s="55">
         <f>IF(C29&lt;&gt;"",SUM(K29:DN29)/データ!$D$2,"")</f>
         <v>4.5</v>
@@ -7512,15 +7516,15 @@
       <c r="DN29" s="19"/>
     </row>
     <row r="30" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="69"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="56">
         <f>IF(C29&lt;&gt;"",SUM(K30:DN30)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7635,27 +7639,27 @@
       <c r="DN30" s="21"/>
     </row>
     <row r="31" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="64">
+      <c r="A31" s="68">
         <v>5.2</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64" t="s">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66" t="s">
+      <c r="F31" s="70"/>
+      <c r="G31" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="I31" s="68"/>
+      <c r="I31" s="66"/>
       <c r="J31" s="55">
         <f>IF(C31&lt;&gt;"",SUM(K31:DN31)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -7782,15 +7786,15 @@
       <c r="DN31" s="19"/>
     </row>
     <row r="32" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="69"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="56">
         <f>IF(C31&lt;&gt;"",SUM(K32:DN32)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7905,29 +7909,29 @@
       <c r="DN32" s="21"/>
     </row>
     <row r="33" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="64">
+      <c r="A33" s="68">
         <v>6</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="66"/>
-      <c r="I33" s="68"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="66"/>
       <c r="J33" s="55">
         <f>IF(C33&lt;&gt;"",SUM(K33:DN33)/データ!$D$2,"")</f>
         <v>3.75</v>
@@ -8054,15 +8058,15 @@
       <c r="DN33" s="19"/>
     </row>
     <row r="34" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="69"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="67"/>
       <c r="J34" s="56">
         <f>IF(C33&lt;&gt;"",SUM(K34:DN34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8177,29 +8181,29 @@
       <c r="DN34" s="21"/>
     </row>
     <row r="35" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A35" s="64">
+      <c r="A35" s="68">
         <v>7</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="66" t="s">
+      <c r="D35" s="68"/>
+      <c r="E35" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="66" t="s">
+      <c r="F35" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G35" s="66" t="s">
+      <c r="G35" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="66" t="s">
+      <c r="H35" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="I35" s="68"/>
+      <c r="I35" s="66"/>
       <c r="J35" s="55">
         <f>IF(C35&lt;&gt;"",SUM(K35:DN35)/データ!$D$2,"")</f>
         <v>10</v>
@@ -8342,15 +8346,15 @@
       <c r="DN35" s="19"/>
     </row>
     <row r="36" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="69"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="56">
         <f>IF(C35&lt;&gt;"",SUM(K36:DN36)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8465,23 +8469,23 @@
       <c r="DN36" s="21"/>
     </row>
     <row r="37" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A37" s="64">
+      <c r="A37" s="68">
         <v>8</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="68"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="66"/>
       <c r="J37" s="55">
         <f>IF(C37&lt;&gt;"",SUM(K37:DN37)/データ!$D$2,"")</f>
         <v>5</v>
@@ -8616,15 +8620,15 @@
       <c r="DN37" s="19"/>
     </row>
     <row r="38" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="69"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="67"/>
       <c r="J38" s="56">
         <f>IF(C37&lt;&gt;"",SUM(K38:DN38)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8739,19 +8743,19 @@
       <c r="DN38" s="21"/>
     </row>
     <row r="39" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="64">
+      <c r="A39" s="68">
         <v>9</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="66"/>
       <c r="J39" s="55" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K39:DN39)/データ!$D$2,"")</f>
         <v/>
@@ -8866,15 +8870,15 @@
       <c r="DN39" s="19"/>
     </row>
     <row r="40" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="69"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="67"/>
       <c r="J40" s="56" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K40:DN40)/データ!$D$2,"")</f>
         <v/>
@@ -8989,25 +8993,25 @@
       <c r="DN40" s="21"/>
     </row>
     <row r="41" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A41" s="64">
+      <c r="A41" s="68">
         <v>9.1</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64" t="s">
+      <c r="B41" s="68"/>
+      <c r="C41" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="64" t="s">
+      <c r="D41" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="66" t="s">
+      <c r="E41" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="68"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="66"/>
       <c r="J41" s="55">
         <f>IF(C41&lt;&gt;"",SUM(K41:DN41)/データ!$D$2,"")</f>
         <v>1.5</v>
@@ -9128,15 +9132,15 @@
       <c r="DN41" s="19"/>
     </row>
     <row r="42" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="69"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="67"/>
       <c r="J42" s="56">
         <f>IF(C41&lt;&gt;"",SUM(K42:DN42)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9251,25 +9255,25 @@
       <c r="DN42" s="21"/>
     </row>
     <row r="43" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A43" s="64">
+      <c r="A43" s="68">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64" t="s">
+      <c r="B43" s="68"/>
+      <c r="C43" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="64" t="s">
+      <c r="D43" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="66" t="s">
+      <c r="E43" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66" t="s">
+      <c r="F43" s="70"/>
+      <c r="G43" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="66"/>
-      <c r="I43" s="68"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="66"/>
       <c r="J43" s="55">
         <f>IF(C43&lt;&gt;"",SUM(K43:DN43)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -9390,15 +9394,15 @@
       <c r="DN43" s="19"/>
     </row>
     <row r="44" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="69"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="67"/>
       <c r="J44" s="56">
         <f>IF(C43&lt;&gt;"",SUM(K44:DN44)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9513,19 +9517,19 @@
       <c r="DN44" s="21"/>
     </row>
     <row r="45" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="64">
+      <c r="A45" s="68">
         <v>10</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="66"/>
       <c r="J45" s="55" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K45:DN45)/データ!$D$2,"")</f>
         <v/>
@@ -9640,15 +9644,15 @@
       <c r="DN45" s="19"/>
     </row>
     <row r="46" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="69"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="67"/>
       <c r="J46" s="56" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K46:DN46)/データ!$D$2,"")</f>
         <v/>
@@ -9763,23 +9767,23 @@
       <c r="DN46" s="21"/>
     </row>
     <row r="47" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A47" s="64">
+      <c r="A47" s="68">
         <v>10.1</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64" t="s">
+      <c r="B47" s="68"/>
+      <c r="C47" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="64" t="s">
+      <c r="D47" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="66" t="s">
+      <c r="E47" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="68"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="66"/>
       <c r="J47" s="55">
         <f>IF(C47&lt;&gt;"",SUM(K47:DN47)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -9900,15 +9904,15 @@
       <c r="DN47" s="19"/>
     </row>
     <row r="48" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="69"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="67"/>
       <c r="J48" s="56">
         <f>IF(C47&lt;&gt;"",SUM(K48:DN48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10023,23 +10027,23 @@
       <c r="DN48" s="21"/>
     </row>
     <row r="49" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A49" s="70">
+      <c r="A49" s="64">
         <v>10.199999999999999</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70" t="s">
+      <c r="B49" s="64"/>
+      <c r="C49" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="70" t="s">
+      <c r="D49" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="71" t="s">
+      <c r="E49" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="68"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="66"/>
       <c r="J49" s="55">
         <f>IF(C49&lt;&gt;"",SUM(K49:DN49)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10154,15 +10158,15 @@
       <c r="DN49" s="19"/>
     </row>
     <row r="50" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="69"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="67"/>
       <c r="J50" s="56">
         <f>IF(C49&lt;&gt;"",SUM(K50:DN50)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10277,19 +10281,19 @@
       <c r="DN50" s="21"/>
     </row>
     <row r="51" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A51" s="70">
+      <c r="A51" s="64">
         <v>11</v>
       </c>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="68"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="66"/>
       <c r="J51" s="55" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K51:DN51)/データ!$D$2,"")</f>
         <v/>
@@ -10404,15 +10408,15 @@
       <c r="DN51" s="19"/>
     </row>
     <row r="52" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="69"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="67"/>
       <c r="J52" s="56" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K52:DN52)/データ!$D$2,"")</f>
         <v/>
@@ -10527,25 +10531,25 @@
       <c r="DN52" s="21"/>
     </row>
     <row r="53" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A53" s="70">
+      <c r="A53" s="64">
         <v>11.1</v>
       </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70" t="s">
+      <c r="B53" s="64"/>
+      <c r="C53" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="70" t="s">
+      <c r="D53" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="71" t="s">
+      <c r="E53" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="71" t="s">
+      <c r="F53" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="68"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="66"/>
       <c r="J53" s="55">
         <f>IF(C53&lt;&gt;"",SUM(K53:DN53)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -10686,15 +10690,15 @@
       <c r="DN53" s="19"/>
     </row>
     <row r="54" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A54" s="70"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="69"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="67"/>
       <c r="J54" s="56">
         <f>IF(C53&lt;&gt;"",SUM(K54:DN54)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -10817,23 +10821,23 @@
       <c r="DN54" s="21"/>
     </row>
     <row r="55" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A55" s="70">
+      <c r="A55" s="64">
         <v>11.2</v>
       </c>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70" t="s">
+      <c r="B55" s="64"/>
+      <c r="C55" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="70" t="s">
+      <c r="D55" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="71" t="s">
+      <c r="E55" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="68"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="66"/>
       <c r="J55" s="55">
         <f>IF(C55&lt;&gt;"",SUM(K55:DN55)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -10974,15 +10978,15 @@
       <c r="DN55" s="19"/>
     </row>
     <row r="56" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="69"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="67"/>
       <c r="J56" s="56">
         <f>IF(C55&lt;&gt;"",SUM(K56:DN56)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11105,23 +11109,23 @@
       <c r="DN56" s="21"/>
     </row>
     <row r="57" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A57" s="70">
+      <c r="A57" s="64">
         <v>11.3</v>
       </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70" t="s">
+      <c r="B57" s="64"/>
+      <c r="C57" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="70" t="s">
+      <c r="D57" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E57" s="71" t="s">
+      <c r="E57" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="68"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="66"/>
       <c r="J57" s="55">
         <f>IF(C57&lt;&gt;"",SUM(K57:DN57)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11238,15 +11242,15 @@
       <c r="DN57" s="19"/>
     </row>
     <row r="58" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="69"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="67"/>
       <c r="J58" s="56">
         <f>IF(C57&lt;&gt;"",SUM(K58:DN58)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11363,23 +11367,23 @@
       <c r="DN58" s="21"/>
     </row>
     <row r="59" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A59" s="70">
+      <c r="A59" s="64">
         <v>11.4</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70" t="s">
+      <c r="B59" s="64"/>
+      <c r="C59" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="70" t="s">
+      <c r="D59" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="71" t="s">
+      <c r="E59" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="68"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="66"/>
       <c r="J59" s="55">
         <f>IF(C59&lt;&gt;"",SUM(K59:DN59)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11496,15 +11500,15 @@
       <c r="DN59" s="19"/>
     </row>
     <row r="60" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="69"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="67"/>
       <c r="J60" s="56">
         <f>IF(C59&lt;&gt;"",SUM(K60:DN60)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11621,15 +11625,15 @@
       <c r="DN60" s="21"/>
     </row>
     <row r="61" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="68"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="66"/>
       <c r="J61" s="55" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DN61)/データ!$D$2,"")</f>
         <v/>
@@ -11744,15 +11748,15 @@
       <c r="DN61" s="19"/>
     </row>
     <row r="62" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A62" s="70"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="69"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="67"/>
       <c r="J62" s="56" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DN62)/データ!$D$2,"")</f>
         <v/>
@@ -11867,15 +11871,15 @@
       <c r="DN62" s="21"/>
     </row>
     <row r="63" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A63" s="70"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="68"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="66"/>
       <c r="J63" s="55" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K63:DN63)/データ!$D$2,"")</f>
         <v/>
@@ -11990,15 +11994,15 @@
       <c r="DN63" s="19"/>
     </row>
     <row r="64" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A64" s="70"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="69"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="67"/>
       <c r="J64" s="56" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K64:DN64)/データ!$D$2,"")</f>
         <v/>
@@ -12113,15 +12117,15 @@
       <c r="DN64" s="21"/>
     </row>
     <row r="65" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A65" s="70"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="68"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="66"/>
       <c r="J65" s="55" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K65:DN65)/データ!$D$2,"")</f>
         <v/>
@@ -12236,15 +12240,15 @@
       <c r="DN65" s="19"/>
     </row>
     <row r="66" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A66" s="70"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="69"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="67"/>
       <c r="J66" s="56" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K66:DN66)/データ!$D$2,"")</f>
         <v/>
@@ -12359,15 +12363,15 @@
       <c r="DN66" s="21"/>
     </row>
     <row r="67" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A67" s="70"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="68"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="66"/>
       <c r="J67" s="55" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DN67)/データ!$D$2,"")</f>
         <v/>
@@ -12482,15 +12486,15 @@
       <c r="DN67" s="19"/>
     </row>
     <row r="68" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A68" s="70"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="69"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="67"/>
       <c r="J68" s="56" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DN68)/データ!$D$2,"")</f>
         <v/>
@@ -12605,15 +12609,15 @@
       <c r="DN68" s="21"/>
     </row>
     <row r="69" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A69" s="70"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="68"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="66"/>
       <c r="J69" s="55" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DN69)/データ!$D$2,"")</f>
         <v/>
@@ -12728,15 +12732,15 @@
       <c r="DN69" s="19"/>
     </row>
     <row r="70" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="69"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="67"/>
       <c r="J70" s="56" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DN70)/データ!$D$2,"")</f>
         <v/>
@@ -12851,15 +12855,15 @@
       <c r="DN70" s="21"/>
     </row>
     <row r="71" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A71" s="64"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="68"/>
+      <c r="A71" s="68"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="66"/>
       <c r="J71" s="55" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K71:DN71)/データ!$D$2,"")</f>
         <v/>
@@ -12974,15 +12978,15 @@
       <c r="DN71" s="19"/>
     </row>
     <row r="72" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="69"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="67"/>
       <c r="J72" s="56" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K72:DN72)/データ!$D$2,"")</f>
         <v/>
@@ -13097,15 +13101,15 @@
       <c r="DN72" s="21"/>
     </row>
     <row r="73" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="68"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="66"/>
       <c r="J73" s="55" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K73:DN73)/データ!$D$2,"")</f>
         <v/>
@@ -13220,15 +13224,15 @@
       <c r="DN73" s="19"/>
     </row>
     <row r="74" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A74" s="70"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="69"/>
+      <c r="A74" s="64"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="67"/>
       <c r="J74" s="56" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K74:DN74)/データ!$D$2,"")</f>
         <v/>
@@ -13343,15 +13347,15 @@
       <c r="DN74" s="21"/>
     </row>
     <row r="75" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A75" s="70"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="68"/>
+      <c r="A75" s="64"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="66"/>
       <c r="J75" s="55" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K75:DN75)/データ!$D$2,"")</f>
         <v/>
@@ -13466,15 +13470,15 @@
       <c r="DN75" s="19"/>
     </row>
     <row r="76" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A76" s="70"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="69"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="67"/>
       <c r="J76" s="56" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K76:DN76)/データ!$D$2,"")</f>
         <v/>
@@ -13589,15 +13593,15 @@
       <c r="DN76" s="21"/>
     </row>
     <row r="77" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A77" s="64"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="68"/>
+      <c r="A77" s="68"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="70"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="66"/>
       <c r="J77" s="55" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DN77)/データ!$D$2,"")</f>
         <v/>
@@ -13712,15 +13716,15 @@
       <c r="DN77" s="19"/>
     </row>
     <row r="78" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A78" s="65"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="69"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="67"/>
       <c r="J78" s="56" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DN78)/データ!$D$2,"")</f>
         <v/>
@@ -13835,15 +13839,15 @@
       <c r="DN78" s="21"/>
     </row>
     <row r="79" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A79" s="64"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="68"/>
+      <c r="A79" s="68"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="70"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="66"/>
       <c r="J79" s="55" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K79:DN79)/データ!$D$2,"")</f>
         <v/>
@@ -13958,15 +13962,15 @@
       <c r="DN79" s="19"/>
     </row>
     <row r="80" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A80" s="65"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="69"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="67"/>
       <c r="J80" s="56" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K80:DN80)/データ!$D$2,"")</f>
         <v/>
@@ -14081,15 +14085,15 @@
       <c r="DN80" s="21"/>
     </row>
     <row r="81" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A81" s="64"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="68"/>
+      <c r="A81" s="68"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="70"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="66"/>
       <c r="J81" s="55" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K81:DN81)/データ!$D$2,"")</f>
         <v/>
@@ -14204,15 +14208,15 @@
       <c r="DN81" s="19"/>
     </row>
     <row r="82" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="69"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="67"/>
       <c r="J82" s="56" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K82:DN82)/データ!$D$2,"")</f>
         <v/>
@@ -14327,15 +14331,15 @@
       <c r="DN82" s="21"/>
     </row>
     <row r="83" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="64"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="68"/>
+      <c r="A83" s="68"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="70"/>
+      <c r="H83" s="70"/>
+      <c r="I83" s="66"/>
       <c r="J83" s="55" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K83:DN83)/データ!$D$2,"")</f>
         <v/>
@@ -14450,15 +14454,15 @@
       <c r="DN83" s="19"/>
     </row>
     <row r="84" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A84" s="65"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="69"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="71"/>
+      <c r="I84" s="67"/>
       <c r="J84" s="56" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K84:DN84)/データ!$D$2,"")</f>
         <v/>
@@ -14573,15 +14577,15 @@
       <c r="DN84" s="21"/>
     </row>
     <row r="85" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A85" s="64"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="68"/>
+      <c r="A85" s="68"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="66"/>
       <c r="J85" s="55" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DN85)/データ!$D$2,"")</f>
         <v/>
@@ -14696,15 +14700,15 @@
       <c r="DN85" s="19"/>
     </row>
     <row r="86" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A86" s="65"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="69"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="67"/>
       <c r="J86" s="56" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DN86)/データ!$D$2,"")</f>
         <v/>
@@ -14819,15 +14823,15 @@
       <c r="DN86" s="21"/>
     </row>
     <row r="87" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="64"/>
-      <c r="B87" s="64"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="68"/>
+      <c r="A87" s="68"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="66"/>
       <c r="J87" s="55" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K87:DN87)/データ!$D$2,"")</f>
         <v/>
@@ -14942,15 +14946,15 @@
       <c r="DN87" s="19"/>
     </row>
     <row r="88" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A88" s="65"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="69"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="71"/>
+      <c r="I88" s="67"/>
       <c r="J88" s="56" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K88:DN88)/データ!$D$2,"")</f>
         <v/>
@@ -15065,15 +15069,15 @@
       <c r="DN88" s="21"/>
     </row>
     <row r="89" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="64"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="68"/>
+      <c r="A89" s="68"/>
+      <c r="B89" s="68"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="66"/>
       <c r="J89" s="55" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K89:DN89)/データ!$D$2,"")</f>
         <v/>
@@ -15188,15 +15192,15 @@
       <c r="DN89" s="19"/>
     </row>
     <row r="90" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A90" s="65"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="69"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="71"/>
+      <c r="I90" s="67"/>
       <c r="J90" s="56" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K90:DN90)/データ!$D$2,"")</f>
         <v/>
@@ -15311,15 +15315,15 @@
       <c r="DN90" s="21"/>
     </row>
     <row r="91" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A91" s="64"/>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="68"/>
+      <c r="A91" s="68"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="68"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="66"/>
       <c r="J91" s="55" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K91:DN91)/データ!$D$2,"")</f>
         <v/>
@@ -15434,15 +15438,15 @@
       <c r="DN91" s="19"/>
     </row>
     <row r="92" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A92" s="65"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="69"/>
+      <c r="A92" s="69"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="67"/>
       <c r="J92" s="56" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K92:DN92)/データ!$D$2,"")</f>
         <v/>
@@ -15557,15 +15561,15 @@
       <c r="DN92" s="21"/>
     </row>
     <row r="93" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A93" s="64"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="68"/>
+      <c r="A93" s="68"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="70"/>
+      <c r="H93" s="70"/>
+      <c r="I93" s="66"/>
       <c r="J93" s="55" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K93:DN93)/データ!$D$2,"")</f>
         <v/>
@@ -15680,15 +15684,15 @@
       <c r="DN93" s="19"/>
     </row>
     <row r="94" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A94" s="65"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="69"/>
+      <c r="A94" s="69"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="67"/>
       <c r="J94" s="56" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K94:DN94)/データ!$D$2,"")</f>
         <v/>
@@ -15803,15 +15807,15 @@
       <c r="DN94" s="21"/>
     </row>
     <row r="95" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="64"/>
-      <c r="B95" s="64"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="68"/>
+      <c r="A95" s="68"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="70"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="66"/>
       <c r="J95" s="55" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DN95)/データ!$D$2,"")</f>
         <v/>
@@ -15926,15 +15930,15 @@
       <c r="DN95" s="19"/>
     </row>
     <row r="96" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A96" s="65"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="69"/>
+      <c r="A96" s="69"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="71"/>
+      <c r="I96" s="67"/>
       <c r="J96" s="56" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DN96)/データ!$D$2,"")</f>
         <v/>
@@ -16049,15 +16053,15 @@
       <c r="DN96" s="21"/>
     </row>
     <row r="97" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A97" s="64"/>
-      <c r="B97" s="64"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="68"/>
+      <c r="A97" s="68"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="68"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="70"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="66"/>
       <c r="J97" s="55" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DN97)/データ!$D$2,"")</f>
         <v/>
@@ -16172,15 +16176,15 @@
       <c r="DN97" s="19"/>
     </row>
     <row r="98" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A98" s="65"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="69"/>
+      <c r="A98" s="69"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="71"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="67"/>
       <c r="J98" s="56" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DN98)/データ!$D$2,"")</f>
         <v/>
@@ -16295,15 +16299,15 @@
       <c r="DN98" s="21"/>
     </row>
     <row r="99" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A99" s="64"/>
-      <c r="B99" s="64"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="68"/>
+      <c r="A99" s="68"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="66"/>
       <c r="J99" s="55" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DN99)/データ!$D$2,"")</f>
         <v/>
@@ -16418,15 +16422,15 @@
       <c r="DN99" s="19"/>
     </row>
     <row r="100" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A100" s="65"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="67"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="69"/>
+      <c r="A100" s="69"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="67"/>
       <c r="J100" s="56" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DN100)/データ!$D$2,"")</f>
         <v/>
@@ -16541,15 +16545,15 @@
       <c r="DN100" s="21"/>
     </row>
     <row r="101" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="64"/>
-      <c r="B101" s="64"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="68"/>
+      <c r="A101" s="68"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="66"/>
       <c r="J101" s="55" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DN101)/データ!$D$2,"")</f>
         <v/>
@@ -16664,15 +16668,15 @@
       <c r="DN101" s="19"/>
     </row>
     <row r="102" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A102" s="65"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
-      <c r="I102" s="69"/>
+      <c r="A102" s="69"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="71"/>
+      <c r="I102" s="67"/>
       <c r="J102" s="56" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DN102)/データ!$D$2,"")</f>
         <v/>
@@ -16787,15 +16791,15 @@
       <c r="DN102" s="21"/>
     </row>
     <row r="103" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A103" s="64"/>
-      <c r="B103" s="64"/>
-      <c r="C103" s="64"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="68"/>
+      <c r="A103" s="68"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="68"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="66"/>
       <c r="J103" s="55" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DN103)/データ!$D$2,"")</f>
         <v/>
@@ -16910,15 +16914,15 @@
       <c r="DN103" s="19"/>
     </row>
     <row r="104" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A104" s="65"/>
-      <c r="B104" s="65"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
-      <c r="I104" s="69"/>
+      <c r="A104" s="69"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="71"/>
+      <c r="H104" s="71"/>
+      <c r="I104" s="67"/>
       <c r="J104" s="56" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DN104)/データ!$D$2,"")</f>
         <v/>
@@ -17033,15 +17037,15 @@
       <c r="DN104" s="21"/>
     </row>
     <row r="105" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A105" s="70"/>
-      <c r="B105" s="70"/>
-      <c r="C105" s="70"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="71"/>
-      <c r="F105" s="71"/>
-      <c r="G105" s="71"/>
-      <c r="H105" s="71"/>
-      <c r="I105" s="68"/>
+      <c r="A105" s="64"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="66"/>
       <c r="J105" s="55" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DN105)/データ!$D$2,"")</f>
         <v/>
@@ -17156,15 +17160,15 @@
       <c r="DN105" s="19"/>
     </row>
     <row r="106" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A106" s="70"/>
-      <c r="B106" s="70"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="71"/>
-      <c r="F106" s="71"/>
-      <c r="G106" s="71"/>
-      <c r="H106" s="71"/>
-      <c r="I106" s="69"/>
+      <c r="A106" s="64"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="65"/>
+      <c r="H106" s="65"/>
+      <c r="I106" s="67"/>
       <c r="J106" s="56" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DN106)/データ!$D$2,"")</f>
         <v/>
@@ -17279,15 +17283,15 @@
       <c r="DN106" s="21"/>
     </row>
     <row r="107" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A107" s="70"/>
-      <c r="B107" s="70"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="71"/>
-      <c r="G107" s="71"/>
-      <c r="H107" s="71"/>
-      <c r="I107" s="68"/>
+      <c r="A107" s="64"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="66"/>
       <c r="J107" s="55" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DN107)/データ!$D$2,"")</f>
         <v/>
@@ -17402,15 +17406,15 @@
       <c r="DN107" s="19"/>
     </row>
     <row r="108" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A108" s="70"/>
-      <c r="B108" s="70"/>
-      <c r="C108" s="70"/>
-      <c r="D108" s="70"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="71"/>
-      <c r="G108" s="71"/>
-      <c r="H108" s="71"/>
-      <c r="I108" s="69"/>
+      <c r="A108" s="64"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="65"/>
+      <c r="H108" s="65"/>
+      <c r="I108" s="67"/>
       <c r="J108" s="56" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DN108)/データ!$D$2,"")</f>
         <v/>
@@ -17525,15 +17529,15 @@
       <c r="DN108" s="21"/>
     </row>
     <row r="109" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A109" s="70"/>
-      <c r="B109" s="70"/>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="71"/>
-      <c r="F109" s="71"/>
-      <c r="G109" s="71"/>
-      <c r="H109" s="71"/>
-      <c r="I109" s="68"/>
+      <c r="A109" s="64"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
+      <c r="G109" s="65"/>
+      <c r="H109" s="65"/>
+      <c r="I109" s="66"/>
       <c r="J109" s="55" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K109:DN109)/データ!$D$2,"")</f>
         <v/>
@@ -17648,15 +17652,15 @@
       <c r="DN109" s="19"/>
     </row>
     <row r="110" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A110" s="70"/>
-      <c r="B110" s="70"/>
-      <c r="C110" s="70"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="71"/>
-      <c r="H110" s="71"/>
-      <c r="I110" s="69"/>
+      <c r="A110" s="64"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="65"/>
+      <c r="F110" s="65"/>
+      <c r="G110" s="65"/>
+      <c r="H110" s="65"/>
+      <c r="I110" s="67"/>
       <c r="J110" s="56" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K110:DN110)/データ!$D$2,"")</f>
         <v/>
@@ -17771,15 +17775,15 @@
       <c r="DN110" s="21"/>
     </row>
     <row r="111" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A111" s="70"/>
-      <c r="B111" s="70"/>
-      <c r="C111" s="70"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="71"/>
-      <c r="F111" s="71"/>
-      <c r="G111" s="71"/>
-      <c r="H111" s="71"/>
-      <c r="I111" s="68"/>
+      <c r="A111" s="64"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="64"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="65"/>
+      <c r="I111" s="66"/>
       <c r="J111" s="55" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K111:DN111)/データ!$D$2,"")</f>
         <v/>
@@ -17894,15 +17898,15 @@
       <c r="DN111" s="19"/>
     </row>
     <row r="112" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A112" s="70"/>
-      <c r="B112" s="70"/>
-      <c r="C112" s="70"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="71"/>
-      <c r="F112" s="71"/>
-      <c r="G112" s="71"/>
-      <c r="H112" s="71"/>
-      <c r="I112" s="69"/>
+      <c r="A112" s="64"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="65"/>
+      <c r="H112" s="65"/>
+      <c r="I112" s="67"/>
       <c r="J112" s="56" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K112:DN112)/データ!$D$2,"")</f>
         <v/>
@@ -18017,15 +18021,15 @@
       <c r="DN112" s="21"/>
     </row>
     <row r="113" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A113" s="70"/>
-      <c r="B113" s="70"/>
-      <c r="C113" s="70"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="71"/>
-      <c r="F113" s="71"/>
-      <c r="G113" s="71"/>
-      <c r="H113" s="71"/>
-      <c r="I113" s="68"/>
+      <c r="A113" s="64"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="66"/>
       <c r="J113" s="55" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K113:DN113)/データ!$D$2,"")</f>
         <v/>
@@ -18140,15 +18144,15 @@
       <c r="DN113" s="19"/>
     </row>
     <row r="114" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A114" s="70"/>
-      <c r="B114" s="70"/>
-      <c r="C114" s="70"/>
-      <c r="D114" s="70"/>
-      <c r="E114" s="71"/>
-      <c r="F114" s="71"/>
-      <c r="G114" s="71"/>
-      <c r="H114" s="71"/>
-      <c r="I114" s="69"/>
+      <c r="A114" s="64"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="65"/>
+      <c r="F114" s="65"/>
+      <c r="G114" s="65"/>
+      <c r="H114" s="65"/>
+      <c r="I114" s="67"/>
       <c r="J114" s="56" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K114:DN114)/データ!$D$2,"")</f>
         <v/>
@@ -18263,15 +18267,15 @@
       <c r="DN114" s="21"/>
     </row>
     <row r="115" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A115" s="70"/>
-      <c r="B115" s="70"/>
-      <c r="C115" s="70"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="71"/>
-      <c r="F115" s="71"/>
-      <c r="G115" s="71"/>
-      <c r="H115" s="71"/>
-      <c r="I115" s="68"/>
+      <c r="A115" s="64"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="66"/>
       <c r="J115" s="55" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K115:DN115)/データ!$D$2,"")</f>
         <v/>
@@ -18386,15 +18390,15 @@
       <c r="DN115" s="19"/>
     </row>
     <row r="116" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A116" s="70"/>
-      <c r="B116" s="70"/>
-      <c r="C116" s="70"/>
-      <c r="D116" s="70"/>
-      <c r="E116" s="71"/>
-      <c r="F116" s="71"/>
-      <c r="G116" s="71"/>
-      <c r="H116" s="71"/>
-      <c r="I116" s="69"/>
+      <c r="A116" s="64"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="65"/>
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="67"/>
       <c r="J116" s="56" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K116:DN116)/データ!$D$2,"")</f>
         <v/>
@@ -18509,15 +18513,15 @@
       <c r="DN116" s="21"/>
     </row>
     <row r="117" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A117" s="70"/>
-      <c r="B117" s="70"/>
-      <c r="C117" s="70"/>
-      <c r="D117" s="70"/>
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="68"/>
+      <c r="A117" s="64"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="65"/>
+      <c r="F117" s="65"/>
+      <c r="G117" s="65"/>
+      <c r="H117" s="65"/>
+      <c r="I117" s="66"/>
       <c r="J117" s="55" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K117:DN117)/データ!$D$2,"")</f>
         <v/>
@@ -18632,15 +18636,15 @@
       <c r="DN117" s="19"/>
     </row>
     <row r="118" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A118" s="70"/>
-      <c r="B118" s="70"/>
-      <c r="C118" s="70"/>
-      <c r="D118" s="70"/>
-      <c r="E118" s="71"/>
-      <c r="F118" s="71"/>
-      <c r="G118" s="71"/>
-      <c r="H118" s="71"/>
-      <c r="I118" s="69"/>
+      <c r="A118" s="64"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="65"/>
+      <c r="F118" s="65"/>
+      <c r="G118" s="65"/>
+      <c r="H118" s="65"/>
+      <c r="I118" s="67"/>
       <c r="J118" s="56" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K118:DN118)/データ!$D$2,"")</f>
         <v/>
@@ -18755,15 +18759,15 @@
       <c r="DN118" s="21"/>
     </row>
     <row r="119" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A119" s="70"/>
-      <c r="B119" s="70"/>
-      <c r="C119" s="70"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="71"/>
-      <c r="F119" s="71"/>
-      <c r="G119" s="71"/>
-      <c r="H119" s="71"/>
-      <c r="I119" s="68"/>
+      <c r="A119" s="64"/>
+      <c r="B119" s="64"/>
+      <c r="C119" s="64"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="65"/>
+      <c r="F119" s="65"/>
+      <c r="G119" s="65"/>
+      <c r="H119" s="65"/>
+      <c r="I119" s="66"/>
       <c r="J119" s="55" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K119:DN119)/データ!$D$2,"")</f>
         <v/>
@@ -18878,15 +18882,15 @@
       <c r="DN119" s="19"/>
     </row>
     <row r="120" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A120" s="70"/>
-      <c r="B120" s="70"/>
-      <c r="C120" s="70"/>
-      <c r="D120" s="70"/>
-      <c r="E120" s="71"/>
-      <c r="F120" s="71"/>
-      <c r="G120" s="71"/>
-      <c r="H120" s="71"/>
-      <c r="I120" s="69"/>
+      <c r="A120" s="64"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="65"/>
+      <c r="F120" s="65"/>
+      <c r="G120" s="65"/>
+      <c r="H120" s="65"/>
+      <c r="I120" s="67"/>
       <c r="J120" s="56" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K120:DN120)/データ!$D$2,"")</f>
         <v/>
@@ -19001,15 +19005,15 @@
       <c r="DN120" s="21"/>
     </row>
     <row r="121" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A121" s="70"/>
-      <c r="B121" s="70"/>
-      <c r="C121" s="70"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="71"/>
-      <c r="F121" s="71"/>
-      <c r="G121" s="71"/>
-      <c r="H121" s="71"/>
-      <c r="I121" s="68"/>
+      <c r="A121" s="64"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="65"/>
+      <c r="F121" s="65"/>
+      <c r="G121" s="65"/>
+      <c r="H121" s="65"/>
+      <c r="I121" s="66"/>
       <c r="J121" s="55" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K121:DN121)/データ!$D$2,"")</f>
         <v/>
@@ -19124,15 +19128,15 @@
       <c r="DN121" s="19"/>
     </row>
     <row r="122" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A122" s="70"/>
-      <c r="B122" s="70"/>
-      <c r="C122" s="70"/>
-      <c r="D122" s="70"/>
-      <c r="E122" s="71"/>
-      <c r="F122" s="71"/>
-      <c r="G122" s="71"/>
-      <c r="H122" s="71"/>
-      <c r="I122" s="69"/>
+      <c r="A122" s="64"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="65"/>
+      <c r="F122" s="65"/>
+      <c r="G122" s="65"/>
+      <c r="H122" s="65"/>
+      <c r="I122" s="67"/>
       <c r="J122" s="56" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K122:DN122)/データ!$D$2,"")</f>
         <v/>
@@ -19247,15 +19251,15 @@
       <c r="DN122" s="21"/>
     </row>
     <row r="123" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A123" s="70"/>
-      <c r="B123" s="70"/>
-      <c r="C123" s="70"/>
-      <c r="D123" s="70"/>
-      <c r="E123" s="71"/>
-      <c r="F123" s="71"/>
-      <c r="G123" s="71"/>
-      <c r="H123" s="71"/>
-      <c r="I123" s="68"/>
+      <c r="A123" s="64"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="64"/>
+      <c r="D123" s="64"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="66"/>
       <c r="J123" s="55" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K123:DN123)/データ!$D$2,"")</f>
         <v/>
@@ -19370,15 +19374,15 @@
       <c r="DN123" s="19"/>
     </row>
     <row r="124" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A124" s="70"/>
-      <c r="B124" s="70"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="70"/>
-      <c r="E124" s="71"/>
-      <c r="F124" s="71"/>
-      <c r="G124" s="71"/>
-      <c r="H124" s="71"/>
-      <c r="I124" s="69"/>
+      <c r="A124" s="64"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="64"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="67"/>
       <c r="J124" s="56" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K124:DN124)/データ!$D$2,"")</f>
         <v/>
@@ -19493,15 +19497,15 @@
       <c r="DN124" s="21"/>
     </row>
     <row r="125" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A125" s="70"/>
-      <c r="B125" s="70"/>
-      <c r="C125" s="70"/>
-      <c r="D125" s="70"/>
-      <c r="E125" s="71"/>
-      <c r="F125" s="71"/>
-      <c r="G125" s="71"/>
-      <c r="H125" s="71"/>
-      <c r="I125" s="68"/>
+      <c r="A125" s="64"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="64"/>
+      <c r="D125" s="64"/>
+      <c r="E125" s="65"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="65"/>
+      <c r="H125" s="65"/>
+      <c r="I125" s="66"/>
       <c r="J125" s="55" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K125:DN125)/データ!$D$2,"")</f>
         <v/>
@@ -19616,15 +19620,15 @@
       <c r="DN125" s="19"/>
     </row>
     <row r="126" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A126" s="70"/>
-      <c r="B126" s="70"/>
-      <c r="C126" s="70"/>
-      <c r="D126" s="70"/>
-      <c r="E126" s="71"/>
-      <c r="F126" s="71"/>
-      <c r="G126" s="71"/>
-      <c r="H126" s="71"/>
-      <c r="I126" s="69"/>
+      <c r="A126" s="64"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="64"/>
+      <c r="E126" s="65"/>
+      <c r="F126" s="65"/>
+      <c r="G126" s="65"/>
+      <c r="H126" s="65"/>
+      <c r="I126" s="67"/>
       <c r="J126" s="56" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K126:DN126)/データ!$D$2,"")</f>
         <v/>
@@ -19739,15 +19743,15 @@
       <c r="DN126" s="21"/>
     </row>
     <row r="127" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A127" s="64"/>
-      <c r="B127" s="64"/>
-      <c r="C127" s="64"/>
-      <c r="D127" s="64"/>
-      <c r="E127" s="66"/>
-      <c r="F127" s="66"/>
-      <c r="G127" s="66"/>
-      <c r="H127" s="66"/>
-      <c r="I127" s="68"/>
+      <c r="A127" s="68"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="68"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="70"/>
+      <c r="F127" s="70"/>
+      <c r="G127" s="70"/>
+      <c r="H127" s="70"/>
+      <c r="I127" s="66"/>
       <c r="J127" s="55" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K127:DN127)/データ!$D$2,"")</f>
         <v/>
@@ -19862,15 +19866,15 @@
       <c r="DN127" s="19"/>
     </row>
     <row r="128" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A128" s="65"/>
-      <c r="B128" s="65"/>
-      <c r="C128" s="65"/>
-      <c r="D128" s="65"/>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="67"/>
-      <c r="H128" s="67"/>
-      <c r="I128" s="69"/>
+      <c r="A128" s="69"/>
+      <c r="B128" s="69"/>
+      <c r="C128" s="69"/>
+      <c r="D128" s="69"/>
+      <c r="E128" s="71"/>
+      <c r="F128" s="71"/>
+      <c r="G128" s="71"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="67"/>
       <c r="J128" s="56" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K128:DN128)/データ!$D$2,"")</f>
         <v/>
@@ -19985,15 +19989,15 @@
       <c r="DN128" s="21"/>
     </row>
     <row r="129" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A129" s="70"/>
-      <c r="B129" s="70"/>
-      <c r="C129" s="70"/>
-      <c r="D129" s="70"/>
-      <c r="E129" s="71"/>
-      <c r="F129" s="71"/>
-      <c r="G129" s="71"/>
-      <c r="H129" s="71"/>
-      <c r="I129" s="68"/>
+      <c r="A129" s="64"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="64"/>
+      <c r="E129" s="65"/>
+      <c r="F129" s="65"/>
+      <c r="G129" s="65"/>
+      <c r="H129" s="65"/>
+      <c r="I129" s="66"/>
       <c r="J129" s="55" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K129:DN129)/データ!$D$2,"")</f>
         <v/>
@@ -20108,15 +20112,15 @@
       <c r="DN129" s="19"/>
     </row>
     <row r="130" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A130" s="70"/>
-      <c r="B130" s="70"/>
-      <c r="C130" s="70"/>
-      <c r="D130" s="70"/>
-      <c r="E130" s="71"/>
-      <c r="F130" s="71"/>
-      <c r="G130" s="71"/>
-      <c r="H130" s="71"/>
-      <c r="I130" s="69"/>
+      <c r="A130" s="64"/>
+      <c r="B130" s="64"/>
+      <c r="C130" s="64"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="65"/>
+      <c r="H130" s="65"/>
+      <c r="I130" s="67"/>
       <c r="J130" s="56" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K130:DN130)/データ!$D$2,"")</f>
         <v/>
@@ -20231,15 +20235,15 @@
       <c r="DN130" s="21"/>
     </row>
     <row r="131" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A131" s="70"/>
-      <c r="B131" s="70"/>
-      <c r="C131" s="70"/>
-      <c r="D131" s="70"/>
-      <c r="E131" s="71"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="71"/>
-      <c r="H131" s="71"/>
-      <c r="I131" s="68"/>
+      <c r="A131" s="64"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="64"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="66"/>
       <c r="J131" s="55" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K131:DN131)/データ!$D$2,"")</f>
         <v/>
@@ -20354,15 +20358,15 @@
       <c r="DN131" s="19"/>
     </row>
     <row r="132" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A132" s="70"/>
-      <c r="B132" s="70"/>
-      <c r="C132" s="70"/>
-      <c r="D132" s="70"/>
-      <c r="E132" s="71"/>
-      <c r="F132" s="71"/>
-      <c r="G132" s="71"/>
-      <c r="H132" s="71"/>
-      <c r="I132" s="69"/>
+      <c r="A132" s="64"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="64"/>
+      <c r="E132" s="65"/>
+      <c r="F132" s="65"/>
+      <c r="G132" s="65"/>
+      <c r="H132" s="65"/>
+      <c r="I132" s="67"/>
       <c r="J132" s="56" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K132:DN132)/データ!$D$2,"")</f>
         <v/>
@@ -20477,15 +20481,15 @@
       <c r="DN132" s="21"/>
     </row>
     <row r="133" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A133" s="70"/>
-      <c r="B133" s="70"/>
-      <c r="C133" s="70"/>
-      <c r="D133" s="70"/>
-      <c r="E133" s="71"/>
-      <c r="F133" s="71"/>
-      <c r="G133" s="71"/>
-      <c r="H133" s="71"/>
-      <c r="I133" s="68"/>
+      <c r="A133" s="64"/>
+      <c r="B133" s="64"/>
+      <c r="C133" s="64"/>
+      <c r="D133" s="64"/>
+      <c r="E133" s="65"/>
+      <c r="F133" s="65"/>
+      <c r="G133" s="65"/>
+      <c r="H133" s="65"/>
+      <c r="I133" s="66"/>
       <c r="J133" s="55" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K133:DN133)/データ!$D$2,"")</f>
         <v/>
@@ -20600,15 +20604,15 @@
       <c r="DN133" s="19"/>
     </row>
     <row r="134" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A134" s="70"/>
-      <c r="B134" s="70"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="70"/>
-      <c r="E134" s="71"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="71"/>
-      <c r="H134" s="71"/>
-      <c r="I134" s="69"/>
+      <c r="A134" s="64"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="65"/>
+      <c r="F134" s="65"/>
+      <c r="G134" s="65"/>
+      <c r="H134" s="65"/>
+      <c r="I134" s="67"/>
       <c r="J134" s="56" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K134:DN134)/データ!$D$2,"")</f>
         <v/>
@@ -20723,15 +20727,15 @@
       <c r="DN134" s="21"/>
     </row>
     <row r="135" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A135" s="70"/>
-      <c r="B135" s="70"/>
-      <c r="C135" s="70"/>
-      <c r="D135" s="70"/>
-      <c r="E135" s="71"/>
-      <c r="F135" s="71"/>
-      <c r="G135" s="71"/>
-      <c r="H135" s="71"/>
-      <c r="I135" s="68"/>
+      <c r="A135" s="64"/>
+      <c r="B135" s="64"/>
+      <c r="C135" s="64"/>
+      <c r="D135" s="64"/>
+      <c r="E135" s="65"/>
+      <c r="F135" s="65"/>
+      <c r="G135" s="65"/>
+      <c r="H135" s="65"/>
+      <c r="I135" s="66"/>
       <c r="J135" s="55" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K135:DN135)/データ!$D$2,"")</f>
         <v/>
@@ -20846,15 +20850,15 @@
       <c r="DN135" s="19"/>
     </row>
     <row r="136" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A136" s="70"/>
-      <c r="B136" s="70"/>
-      <c r="C136" s="70"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="71"/>
-      <c r="F136" s="71"/>
-      <c r="G136" s="71"/>
-      <c r="H136" s="71"/>
-      <c r="I136" s="69"/>
+      <c r="A136" s="64"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="64"/>
+      <c r="E136" s="65"/>
+      <c r="F136" s="65"/>
+      <c r="G136" s="65"/>
+      <c r="H136" s="65"/>
+      <c r="I136" s="67"/>
       <c r="J136" s="56" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K136:DN136)/データ!$D$2,"")</f>
         <v/>
@@ -20969,15 +20973,15 @@
       <c r="DN136" s="21"/>
     </row>
     <row r="137" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A137" s="70"/>
-      <c r="B137" s="70"/>
-      <c r="C137" s="70"/>
-      <c r="D137" s="70"/>
-      <c r="E137" s="71"/>
-      <c r="F137" s="71"/>
-      <c r="G137" s="71"/>
-      <c r="H137" s="71"/>
-      <c r="I137" s="68"/>
+      <c r="A137" s="64"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="64"/>
+      <c r="D137" s="64"/>
+      <c r="E137" s="65"/>
+      <c r="F137" s="65"/>
+      <c r="G137" s="65"/>
+      <c r="H137" s="65"/>
+      <c r="I137" s="66"/>
       <c r="J137" s="55" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K137:DN137)/データ!$D$2,"")</f>
         <v/>
@@ -21092,15 +21096,15 @@
       <c r="DN137" s="19"/>
     </row>
     <row r="138" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A138" s="70"/>
-      <c r="B138" s="70"/>
-      <c r="C138" s="70"/>
-      <c r="D138" s="70"/>
-      <c r="E138" s="71"/>
-      <c r="F138" s="71"/>
-      <c r="G138" s="71"/>
-      <c r="H138" s="71"/>
-      <c r="I138" s="69"/>
+      <c r="A138" s="64"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="64"/>
+      <c r="D138" s="64"/>
+      <c r="E138" s="65"/>
+      <c r="F138" s="65"/>
+      <c r="G138" s="65"/>
+      <c r="H138" s="65"/>
+      <c r="I138" s="67"/>
       <c r="J138" s="56" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K138:DN138)/データ!$D$2,"")</f>
         <v/>
@@ -21215,15 +21219,15 @@
       <c r="DN138" s="21"/>
     </row>
     <row r="139" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A139" s="70"/>
-      <c r="B139" s="70"/>
-      <c r="C139" s="70"/>
-      <c r="D139" s="70"/>
-      <c r="E139" s="71"/>
-      <c r="F139" s="71"/>
-      <c r="G139" s="71"/>
-      <c r="H139" s="71"/>
-      <c r="I139" s="68"/>
+      <c r="A139" s="64"/>
+      <c r="B139" s="64"/>
+      <c r="C139" s="64"/>
+      <c r="D139" s="64"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="66"/>
       <c r="J139" s="55" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K139:DN139)/データ!$D$2,"")</f>
         <v/>
@@ -21338,15 +21342,15 @@
       <c r="DN139" s="19"/>
     </row>
     <row r="140" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A140" s="70"/>
-      <c r="B140" s="70"/>
-      <c r="C140" s="70"/>
-      <c r="D140" s="70"/>
-      <c r="E140" s="71"/>
-      <c r="F140" s="71"/>
-      <c r="G140" s="71"/>
-      <c r="H140" s="71"/>
-      <c r="I140" s="69"/>
+      <c r="A140" s="64"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="64"/>
+      <c r="D140" s="64"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="65"/>
+      <c r="I140" s="67"/>
       <c r="J140" s="56" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K140:DN140)/データ!$D$2,"")</f>
         <v/>
@@ -21461,15 +21465,15 @@
       <c r="DN140" s="21"/>
     </row>
     <row r="141" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A141" s="70"/>
-      <c r="B141" s="70"/>
-      <c r="C141" s="70"/>
-      <c r="D141" s="70"/>
-      <c r="E141" s="71"/>
-      <c r="F141" s="71"/>
-      <c r="G141" s="71"/>
-      <c r="H141" s="71"/>
-      <c r="I141" s="68"/>
+      <c r="A141" s="64"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="64"/>
+      <c r="D141" s="64"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="65"/>
+      <c r="G141" s="65"/>
+      <c r="H141" s="65"/>
+      <c r="I141" s="66"/>
       <c r="J141" s="55" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K141:DN141)/データ!$D$2,"")</f>
         <v/>
@@ -21584,15 +21588,15 @@
       <c r="DN141" s="19"/>
     </row>
     <row r="142" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A142" s="70"/>
-      <c r="B142" s="70"/>
-      <c r="C142" s="70"/>
-      <c r="D142" s="70"/>
-      <c r="E142" s="71"/>
-      <c r="F142" s="71"/>
-      <c r="G142" s="71"/>
-      <c r="H142" s="71"/>
-      <c r="I142" s="69"/>
+      <c r="A142" s="64"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="64"/>
+      <c r="E142" s="65"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="65"/>
+      <c r="H142" s="65"/>
+      <c r="I142" s="67"/>
       <c r="J142" s="56" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K142:DN142)/データ!$D$2,"")</f>
         <v/>
@@ -21707,15 +21711,15 @@
       <c r="DN142" s="21"/>
     </row>
     <row r="143" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A143" s="70"/>
-      <c r="B143" s="70"/>
-      <c r="C143" s="70"/>
-      <c r="D143" s="70"/>
-      <c r="E143" s="71"/>
-      <c r="F143" s="71"/>
-      <c r="G143" s="71"/>
-      <c r="H143" s="71"/>
-      <c r="I143" s="68"/>
+      <c r="A143" s="64"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="64"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="65"/>
+      <c r="G143" s="65"/>
+      <c r="H143" s="65"/>
+      <c r="I143" s="66"/>
       <c r="J143" s="55" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K143:DN143)/データ!$D$2,"")</f>
         <v/>
@@ -21830,15 +21834,15 @@
       <c r="DN143" s="19"/>
     </row>
     <row r="144" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A144" s="70"/>
-      <c r="B144" s="70"/>
-      <c r="C144" s="70"/>
-      <c r="D144" s="70"/>
-      <c r="E144" s="71"/>
-      <c r="F144" s="71"/>
-      <c r="G144" s="71"/>
-      <c r="H144" s="71"/>
-      <c r="I144" s="69"/>
+      <c r="A144" s="64"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="64"/>
+      <c r="D144" s="64"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="65"/>
+      <c r="G144" s="65"/>
+      <c r="H144" s="65"/>
+      <c r="I144" s="67"/>
       <c r="J144" s="56" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K144:DN144)/データ!$D$2,"")</f>
         <v/>
@@ -21953,15 +21957,15 @@
       <c r="DN144" s="21"/>
     </row>
     <row r="145" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A145" s="70"/>
-      <c r="B145" s="70"/>
-      <c r="C145" s="70"/>
-      <c r="D145" s="70"/>
-      <c r="E145" s="71"/>
-      <c r="F145" s="71"/>
-      <c r="G145" s="71"/>
-      <c r="H145" s="71"/>
-      <c r="I145" s="68"/>
+      <c r="A145" s="64"/>
+      <c r="B145" s="64"/>
+      <c r="C145" s="64"/>
+      <c r="D145" s="64"/>
+      <c r="E145" s="65"/>
+      <c r="F145" s="65"/>
+      <c r="G145" s="65"/>
+      <c r="H145" s="65"/>
+      <c r="I145" s="66"/>
       <c r="J145" s="55" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K145:DN145)/データ!$D$2,"")</f>
         <v/>
@@ -22076,15 +22080,15 @@
       <c r="DN145" s="19"/>
     </row>
     <row r="146" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A146" s="70"/>
-      <c r="B146" s="70"/>
-      <c r="C146" s="70"/>
-      <c r="D146" s="70"/>
-      <c r="E146" s="71"/>
-      <c r="F146" s="71"/>
-      <c r="G146" s="71"/>
-      <c r="H146" s="71"/>
-      <c r="I146" s="69"/>
+      <c r="A146" s="64"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="64"/>
+      <c r="D146" s="64"/>
+      <c r="E146" s="65"/>
+      <c r="F146" s="65"/>
+      <c r="G146" s="65"/>
+      <c r="H146" s="65"/>
+      <c r="I146" s="67"/>
       <c r="J146" s="56" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K146:DN146)/データ!$D$2,"")</f>
         <v/>
@@ -22199,15 +22203,15 @@
       <c r="DN146" s="21"/>
     </row>
     <row r="147" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A147" s="64"/>
-      <c r="B147" s="64"/>
-      <c r="C147" s="64"/>
-      <c r="D147" s="64"/>
-      <c r="E147" s="66"/>
-      <c r="F147" s="66"/>
-      <c r="G147" s="66"/>
-      <c r="H147" s="66"/>
-      <c r="I147" s="68"/>
+      <c r="A147" s="68"/>
+      <c r="B147" s="68"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="70"/>
+      <c r="F147" s="70"/>
+      <c r="G147" s="70"/>
+      <c r="H147" s="70"/>
+      <c r="I147" s="66"/>
       <c r="J147" s="55" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K147:DN147)/データ!$D$2,"")</f>
         <v/>
@@ -22322,15 +22326,15 @@
       <c r="DN147" s="19"/>
     </row>
     <row r="148" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A148" s="65"/>
-      <c r="B148" s="65"/>
-      <c r="C148" s="65"/>
-      <c r="D148" s="65"/>
-      <c r="E148" s="67"/>
-      <c r="F148" s="67"/>
-      <c r="G148" s="67"/>
-      <c r="H148" s="67"/>
-      <c r="I148" s="69"/>
+      <c r="A148" s="69"/>
+      <c r="B148" s="69"/>
+      <c r="C148" s="69"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="71"/>
+      <c r="F148" s="71"/>
+      <c r="G148" s="71"/>
+      <c r="H148" s="71"/>
+      <c r="I148" s="67"/>
       <c r="J148" s="56" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K148:DN148)/データ!$D$2,"")</f>
         <v/>
@@ -22445,15 +22449,15 @@
       <c r="DN148" s="21"/>
     </row>
     <row r="149" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A149" s="70"/>
-      <c r="B149" s="70"/>
-      <c r="C149" s="70"/>
-      <c r="D149" s="70"/>
-      <c r="E149" s="71"/>
-      <c r="F149" s="71"/>
-      <c r="G149" s="71"/>
-      <c r="H149" s="71"/>
-      <c r="I149" s="68"/>
+      <c r="A149" s="64"/>
+      <c r="B149" s="64"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="64"/>
+      <c r="E149" s="65"/>
+      <c r="F149" s="65"/>
+      <c r="G149" s="65"/>
+      <c r="H149" s="65"/>
+      <c r="I149" s="66"/>
       <c r="J149" s="55" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K149:DN149)/データ!$D$2,"")</f>
         <v/>
@@ -22568,15 +22572,15 @@
       <c r="DN149" s="19"/>
     </row>
     <row r="150" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A150" s="70"/>
-      <c r="B150" s="70"/>
-      <c r="C150" s="70"/>
-      <c r="D150" s="70"/>
-      <c r="E150" s="71"/>
-      <c r="F150" s="71"/>
-      <c r="G150" s="71"/>
-      <c r="H150" s="71"/>
-      <c r="I150" s="69"/>
+      <c r="A150" s="64"/>
+      <c r="B150" s="64"/>
+      <c r="C150" s="64"/>
+      <c r="D150" s="64"/>
+      <c r="E150" s="65"/>
+      <c r="F150" s="65"/>
+      <c r="G150" s="65"/>
+      <c r="H150" s="65"/>
+      <c r="I150" s="67"/>
       <c r="J150" s="56" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K150:DN150)/データ!$D$2,"")</f>
         <v/>
@@ -22691,15 +22695,15 @@
       <c r="DN150" s="21"/>
     </row>
     <row r="151" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A151" s="70"/>
-      <c r="B151" s="70"/>
-      <c r="C151" s="70"/>
-      <c r="D151" s="70"/>
-      <c r="E151" s="71"/>
-      <c r="F151" s="71"/>
-      <c r="G151" s="71"/>
-      <c r="H151" s="71"/>
-      <c r="I151" s="68"/>
+      <c r="A151" s="64"/>
+      <c r="B151" s="64"/>
+      <c r="C151" s="64"/>
+      <c r="D151" s="64"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="65"/>
+      <c r="G151" s="65"/>
+      <c r="H151" s="65"/>
+      <c r="I151" s="66"/>
       <c r="J151" s="55" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K151:DN151)/データ!$D$2,"")</f>
         <v/>
@@ -22814,15 +22818,15 @@
       <c r="DN151" s="19"/>
     </row>
     <row r="152" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A152" s="70"/>
-      <c r="B152" s="70"/>
-      <c r="C152" s="70"/>
-      <c r="D152" s="70"/>
-      <c r="E152" s="71"/>
-      <c r="F152" s="71"/>
-      <c r="G152" s="71"/>
-      <c r="H152" s="71"/>
-      <c r="I152" s="69"/>
+      <c r="A152" s="64"/>
+      <c r="B152" s="64"/>
+      <c r="C152" s="64"/>
+      <c r="D152" s="64"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="65"/>
+      <c r="G152" s="65"/>
+      <c r="H152" s="65"/>
+      <c r="I152" s="67"/>
       <c r="J152" s="56" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K152:DN152)/データ!$D$2,"")</f>
         <v/>
@@ -23569,11 +23573,11 @@
       </c>
       <c r="BF155" s="13">
         <f t="array" ref="BF155">SUM(IF(MOD(ROW(BF$5:BF$152),2)=0,BF$5:BF$152,0))</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BG155" s="13">
         <f t="array" ref="BG155">SUM(IF(MOD(ROW(BG$5:BG$152),2)=0,BG$5:BG$152,0))</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BH155" s="13">
         <f t="array" ref="BH155">SUM(IF(MOD(ROW(BH$5:BH$152),2)=0,BH$5:BH$152,0))</f>
@@ -25323,247 +25327,247 @@
       </c>
       <c r="BF159" s="15">
         <f t="shared" si="10"/>
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="BG159" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BH159" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BI159" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BJ159" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BK159" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BL159" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BM159" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BN159" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BO159" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BP159" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BQ159" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BR159" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BS159" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BT159" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BU159" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BV159" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BW159" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BX159" s="15">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BY159" s="15">
         <f t="shared" ref="BY159:DN159" si="11">BY155+BX159</f>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="BZ159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CA159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CB159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CC159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CD159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CE159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CF159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CG159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CH159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CI159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CJ159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CK159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CL159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CM159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CN159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CO159" s="15">
         <f>CO155+CN159</f>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CP159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CQ159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CR159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CS159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CT159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CU159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CV159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CW159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CX159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CY159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="CZ159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="DA159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="DB159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="DC159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="DD159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="DE159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="DF159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="DG159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="DH159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="DI159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="DJ159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="DK159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="DL159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="DM159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="DN159" s="15">
         <f t="shared" si="11"/>
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="160" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -56881,114 +56885,554 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="680">
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G41:G42"/>
@@ -57013,554 +57457,114 @@
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="I61:I62"/>
     <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K157:DN157 K35:DN152 K4:DN28">
@@ -58019,8 +58023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A27:DH34"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AR29" sqref="AR29"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AY30" sqref="AY30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -59157,15 +59161,15 @@
       </c>
       <c r="AW29" s="30">
         <f ca="1">IF(TODAY()&gt;=AW$27,ガント!BF159,NA())</f>
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AX29" s="30">
         <f ca="1">IF(TODAY()&gt;=AX$27,ガント!BG159,NA())</f>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AY29" s="30">
         <f ca="1">IF(TODAY()&gt;=AY$27,ガント!BH159,NA())</f>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AZ29" s="30" t="e">
         <f ca="1">IF(TODAY()&gt;=AZ$27,ガント!BI159,NA())</f>
@@ -60505,15 +60509,15 @@
       </c>
       <c r="AW32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-156</v>
+        <v>-161</v>
       </c>
       <c r="AX32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-32</v>
+        <v>-42</v>
       </c>
       <c r="AY32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-32</v>
+        <v>-42</v>
       </c>
       <c r="AZ32" s="23" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -61403,15 +61407,15 @@
       </c>
       <c r="AW34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.28110599078341014</v>
+        <v>0.2747747747747748</v>
       </c>
       <c r="AX34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.86497890295358648</v>
+        <v>0.82995951417004044</v>
       </c>
       <c r="AY34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.86497890295358648</v>
+        <v>0.82995951417004044</v>
       </c>
       <c r="AZ34" s="28" t="e">
         <f t="shared" ca="1" si="13"/>

--- a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/PM演習_管理ツール_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ishok\Documents\GitHub\-A-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\iwase\Documents\GitHub\-A-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="ガント" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="Z_D7C84124_F7F5_40C3_93A3_6E183C55719E_.wvu.PrintTitles" localSheetId="0" hidden="1">ガント!$A:$J,ガント!$1:$4</definedName>
     <definedName name="Z_F3151B71_E979_4754_A481_4BA5C6EA412C_.wvu.FilterData" localSheetId="2" hidden="1">懸案!$A$3:$H$29</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <customWorkbookViews>
     <customWorkbookView name="田隈広紀 - 個人用ビュー" guid="{D7C84124-F7F5-40C3-93A3-6E183C55719E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1166" activeSheetId="1"/>
   </customWorkbookViews>
@@ -70,10 +70,6 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ガントチャート</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1098,11 +1094,15 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ガントチャート</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="dd"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
@@ -1731,6 +1731,22 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1747,51 +1763,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1809,23 +1803,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1834,7 +1834,147 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="120">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2096,34 +2236,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2505,6 +2617,34 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2524,7 +2664,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -2661,7 +2801,7 @@
                   <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>313</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>341</c:v>
@@ -2688,7 +2828,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BC57-4D29-ACD4-83CFA65598C0}"/>
             </c:ext>
@@ -2804,7 +2944,7 @@
                   <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>#N/A</c:v>
@@ -2831,7 +2971,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BC57-4D29-ACD4-83CFA65598C0}"/>
             </c:ext>
@@ -2942,7 +3082,7 @@
                   <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>#N/A</c:v>
@@ -2969,7 +3109,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BC57-4D29-ACD4-83CFA65598C0}"/>
             </c:ext>
@@ -2984,11 +3124,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="238378176"/>
-        <c:axId val="238374648"/>
+        <c:axId val="341842800"/>
+        <c:axId val="341841624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="238378176"/>
+        <c:axId val="341842800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2998,14 +3138,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238374648"/>
+        <c:crossAx val="341841624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="238374648"/>
+        <c:axId val="341841624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,7 +3166,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238378176"/>
+        <c:crossAx val="341842800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3519,142 +3659,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO233"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="AL5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25:I26"/>
+      <selection pane="bottomRight" activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.77734375" style="44" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="44" customWidth="1"/>
-    <col min="5" max="8" width="5.21875" style="44" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="44" customWidth="1"/>
-    <col min="11" max="118" width="2.33203125" style="44" customWidth="1"/>
-    <col min="119" max="16384" width="2.6640625" style="44"/>
+    <col min="1" max="1" width="5.625" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.75" style="44" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="44" customWidth="1"/>
+    <col min="5" max="8" width="5.25" style="44" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="44" customWidth="1"/>
+    <col min="11" max="118" width="2.375" style="44" customWidth="1"/>
+    <col min="119" max="16384" width="2.625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:118" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="74"/>
+      <c r="B1" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="86"/>
       <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="83">
+        <v>11.4</v>
+      </c>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84">
-        <v>11.4</v>
-      </c>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="81" t="s">
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="87">
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="72">
         <v>42524</v>
       </c>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="86"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="74"/>
     </row>
-    <row r="2" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A2" s="45"/>
       <c r="D2" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="47">
         <f t="array" ref="E2">SUM(IF(MOD(ROW(J5:J152),2)=1,J5:J152,0))/20</f>
         <v>3.28125</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="48"/>
       <c r="H2" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="47">
         <f t="array" ref="I2">SUM(IF(MOD(ROW(J5:J152),2)=0,J5:J152,0))/20</f>
         <v>1.54375</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="48"/>
       <c r="L2" s="48"/>
     </row>
-    <row r="3" spans="1:118" ht="29.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+    <row r="3" spans="1:118" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="75" t="s">
+      <c r="D3" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="80" t="s">
-        <v>58</v>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79" t="s">
+        <v>57</v>
       </c>
       <c r="J3" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L3" s="50"/>
       <c r="M3" s="50"/>
@@ -3672,7 +3812,7 @@
       <c r="Y3" s="50"/>
       <c r="Z3" s="51"/>
       <c r="AA3" s="50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB3" s="50"/>
       <c r="AC3" s="50"/>
@@ -3705,7 +3845,7 @@
       <c r="BD3" s="50"/>
       <c r="BE3" s="51"/>
       <c r="BF3" s="52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BG3" s="50"/>
       <c r="BH3" s="50"/>
@@ -3737,7 +3877,7 @@
       <c r="CH3" s="50"/>
       <c r="CI3" s="50"/>
       <c r="CJ3" s="52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CK3" s="50"/>
       <c r="CL3" s="50"/>
@@ -3770,11 +3910,11 @@
       <c r="DM3" s="50"/>
       <c r="DN3" s="51"/>
     </row>
-    <row r="4" spans="1:118" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+    <row r="4" spans="1:118" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="53" t="str">
         <f>データ!A2</f>
         <v>川崎</v>
@@ -3791,9 +3931,9 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>小山</v>
       </c>
-      <c r="I4" s="80"/>
+      <c r="I4" s="79"/>
       <c r="J4" s="54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="58">
         <v>42475</v>
@@ -4120,21 +4260,21 @@
         <v>42582</v>
       </c>
     </row>
-    <row r="5" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A5" s="70">
-        <v>0</v>
-      </c>
-      <c r="B5" s="64" t="str">
+    <row r="5" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A5" s="64">
+        <v>0</v>
+      </c>
+      <c r="B5" s="68" t="str">
         <f>B1</f>
         <v>コンビニ弁当データベース開発</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="84"/>
       <c r="J5" s="55" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K5:DN5)/データ!$D$2,"")</f>
         <v/>
@@ -4248,16 +4388,16 @@
       <c r="DM5" s="18"/>
       <c r="DN5" s="19"/>
     </row>
-    <row r="6" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="72"/>
+    <row r="6" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A6" s="64"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="56" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K6:DN6)/データ!$D$2,"")</f>
         <v/>
@@ -4371,20 +4511,20 @@
       <c r="DM6" s="20"/>
       <c r="DN6" s="21"/>
     </row>
-    <row r="7" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A7" s="70">
+    <row r="7" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A7" s="64">
         <v>1</v>
       </c>
-      <c r="B7" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="72"/>
+      <c r="B7" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="84"/>
       <c r="J7" s="55" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DN7)/データ!$D$2,"")</f>
         <v/>
@@ -4498,16 +4638,16 @@
       <c r="DM7" s="18"/>
       <c r="DN7" s="19"/>
     </row>
-    <row r="8" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
+    <row r="8" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="56" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DN8)/データ!$D$2,"")</f>
         <v/>
@@ -4621,24 +4761,24 @@
       <c r="DM8" s="20"/>
       <c r="DN8" s="21"/>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A9" s="70">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A9" s="64">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="68">
+      <c r="B9" s="64"/>
+      <c r="C9" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="66">
         <v>1</v>
       </c>
       <c r="J9" s="55">
@@ -4764,16 +4904,16 @@
       <c r="DM9" s="18"/>
       <c r="DN9" s="19"/>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="69"/>
+    <row r="10" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="56">
         <f>IF(C9&lt;&gt;"",SUM(K10:DN10)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -4897,26 +5037,26 @@
       <c r="DM10" s="20"/>
       <c r="DN10" s="21"/>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A11" s="70">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A11" s="64">
         <v>1.2</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="68">
+      <c r="B11" s="64"/>
+      <c r="C11" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="66">
         <v>1</v>
       </c>
       <c r="J11" s="55">
@@ -5042,16 +5182,16 @@
       <c r="DM11" s="18"/>
       <c r="DN11" s="19"/>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="69"/>
+    <row r="12" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="56">
         <f>IF(C11&lt;&gt;"",SUM(K12:DN12)/データ!$D$2,"")</f>
         <v>4.875</v>
@@ -5181,26 +5321,26 @@
       <c r="DM12" s="20"/>
       <c r="DN12" s="21"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A13" s="70">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A13" s="64">
         <v>1.3</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="66" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="68">
+      <c r="E13" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="66">
         <v>1</v>
       </c>
       <c r="J13" s="55">
@@ -5318,16 +5458,16 @@
       <c r="DM13" s="18"/>
       <c r="DN13" s="19"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="69"/>
+    <row r="14" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="67"/>
       <c r="J14" s="56">
         <f>IF(C13&lt;&gt;"",SUM(K14:DN14)/データ!$D$2,"")</f>
         <v>0.25</v>
@@ -5445,26 +5585,26 @@
       <c r="DM14" s="20"/>
       <c r="DN14" s="21"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A15" s="64">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A15" s="68">
         <v>1.4</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="68">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="66">
         <v>1</v>
       </c>
       <c r="J15" s="55">
@@ -5590,16 +5730,16 @@
       <c r="DM15" s="18"/>
       <c r="DN15" s="19"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="69"/>
+    <row r="16" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="56">
         <f>IF(C15&lt;&gt;"",SUM(K16:DN16)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -5723,32 +5863,32 @@
       <c r="DM16" s="20"/>
       <c r="DN16" s="21"/>
     </row>
-    <row r="17" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A17" s="64">
+    <row r="17" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A17" s="68">
         <v>2</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="64" t="s">
+      <c r="E17" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="68">
+      <c r="F17" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="66">
         <v>1</v>
       </c>
       <c r="J17" s="55">
@@ -5878,16 +6018,16 @@
       <c r="DM17" s="18"/>
       <c r="DN17" s="19"/>
     </row>
-    <row r="18" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="69"/>
+    <row r="18" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="56">
         <f>IF(C17&lt;&gt;"",SUM(K18:DN18)/データ!$D$2,"")</f>
         <v>10.25</v>
@@ -6043,20 +6183,20 @@
       <c r="DM18" s="20"/>
       <c r="DN18" s="21"/>
     </row>
-    <row r="19" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A19" s="64">
+    <row r="19" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A19" s="68">
         <v>3</v>
       </c>
-      <c r="B19" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="68"/>
+      <c r="B19" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="55" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K19:DN19)/データ!$D$2,"")</f>
         <v/>
@@ -6170,16 +6310,16 @@
       <c r="DM19" s="18"/>
       <c r="DN19" s="19"/>
     </row>
-    <row r="20" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="69"/>
+    <row r="20" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="67"/>
       <c r="J20" s="56" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K20:DN20)/データ!$D$2,"")</f>
         <v/>
@@ -6293,28 +6433,28 @@
       <c r="DM20" s="20"/>
       <c r="DN20" s="21"/>
     </row>
-    <row r="21" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="64">
+    <row r="21" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="68">
         <v>3.1</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="68">
+      <c r="E21" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="66">
         <v>1</v>
       </c>
       <c r="J21" s="55">
@@ -6442,16 +6582,16 @@
       <c r="DM21" s="18"/>
       <c r="DN21" s="19"/>
     </row>
-    <row r="22" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="69"/>
+    <row r="22" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="67"/>
       <c r="J22" s="56">
         <f>IF(C21&lt;&gt;"",SUM(K22:DN22)/データ!$D$2,"")</f>
         <v>7.25</v>
@@ -6593,26 +6733,26 @@
       <c r="DM22" s="20"/>
       <c r="DN22" s="21"/>
     </row>
-    <row r="23" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A23" s="64">
+    <row r="23" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A23" s="68">
         <v>3.2</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="68">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="70"/>
+      <c r="I23" s="66">
         <v>1</v>
       </c>
       <c r="J23" s="55">
@@ -6738,16 +6878,16 @@
       <c r="DM23" s="18"/>
       <c r="DN23" s="19"/>
     </row>
-    <row r="24" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="69"/>
+    <row r="24" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="56">
         <f>IF(C23&lt;&gt;"",SUM(K24:DN24)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -6865,26 +7005,26 @@
       <c r="DM24" s="20"/>
       <c r="DN24" s="21"/>
     </row>
-    <row r="25" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="64">
+    <row r="25" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="68">
         <v>4</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="68">
+      <c r="E25" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="66">
         <v>1</v>
       </c>
       <c r="J25" s="55">
@@ -7008,16 +7148,16 @@
       <c r="DM25" s="18"/>
       <c r="DN25" s="19"/>
     </row>
-    <row r="26" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="69"/>
+    <row r="26" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="56">
         <f>IF(C25&lt;&gt;"",SUM(K26:DN26)/データ!$D$2,"")</f>
         <v>1.25</v>
@@ -7135,20 +7275,20 @@
       <c r="DM26" s="20"/>
       <c r="DN26" s="21"/>
     </row>
-    <row r="27" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="64">
+    <row r="27" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="68">
         <v>5</v>
       </c>
-      <c r="B27" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="68"/>
+      <c r="B27" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="55" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K27:DN27)/データ!$D$2,"")</f>
         <v/>
@@ -7262,16 +7402,16 @@
       <c r="DM27" s="18"/>
       <c r="DN27" s="19"/>
     </row>
-    <row r="28" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="69"/>
+    <row r="28" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="67"/>
       <c r="J28" s="56" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K28:DN28)/データ!$D$2,"")</f>
         <v/>
@@ -7385,28 +7525,28 @@
       <c r="DM28" s="20"/>
       <c r="DN28" s="21"/>
     </row>
-    <row r="29" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="64">
+    <row r="29" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="68">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="I29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="66"/>
       <c r="J29" s="55">
         <f>IF(C29&lt;&gt;"",SUM(K29:DN29)/データ!$D$2,"")</f>
         <v>4.5</v>
@@ -7461,32 +7601,32 @@
       <c r="BF29" s="40"/>
       <c r="BG29" s="40"/>
       <c r="BH29" s="40"/>
-      <c r="BI29" s="40">
+      <c r="BI29" s="40"/>
+      <c r="BJ29" s="40"/>
+      <c r="BK29" s="40"/>
+      <c r="BL29" s="40"/>
+      <c r="BM29" s="40"/>
+      <c r="BN29" s="40"/>
+      <c r="BO29" s="18"/>
+      <c r="BP29" s="40">
         <v>9</v>
       </c>
-      <c r="BJ29" s="40">
+      <c r="BQ29" s="40">
         <v>9</v>
       </c>
-      <c r="BK29" s="40">
+      <c r="BR29" s="40">
         <v>4</v>
       </c>
-      <c r="BL29" s="40">
+      <c r="BS29" s="40">
         <v>4</v>
       </c>
-      <c r="BM29" s="40">
+      <c r="BT29" s="40">
         <v>6</v>
       </c>
-      <c r="BN29" s="40">
+      <c r="BU29" s="40">
         <v>4</v>
       </c>
-      <c r="BO29" s="18"/>
-      <c r="BP29" s="18"/>
-      <c r="BQ29" s="18"/>
-      <c r="BR29" s="18"/>
-      <c r="BS29" s="18"/>
-      <c r="BT29" s="18"/>
-      <c r="BU29" s="18"/>
-      <c r="BV29" s="18"/>
+      <c r="BV29" s="40"/>
       <c r="BW29" s="18"/>
       <c r="BX29" s="18"/>
       <c r="BY29" s="18"/>
@@ -7532,16 +7672,16 @@
       <c r="DM29" s="18"/>
       <c r="DN29" s="19"/>
     </row>
-    <row r="30" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="69"/>
+    <row r="30" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="56">
         <f>IF(C29&lt;&gt;"",SUM(K30:DN30)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7655,28 +7795,28 @@
       <c r="DM30" s="20"/>
       <c r="DN30" s="21"/>
     </row>
-    <row r="31" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="64">
+    <row r="31" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="68">
         <v>5.2</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="I31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="66"/>
       <c r="J31" s="55">
         <f>IF(C31&lt;&gt;"",SUM(K31:DN31)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -7731,30 +7871,30 @@
       <c r="BF31" s="40"/>
       <c r="BG31" s="40"/>
       <c r="BH31" s="40"/>
-      <c r="BI31" s="40"/>
-      <c r="BJ31" s="18"/>
-      <c r="BK31" s="40"/>
-      <c r="BL31" s="18"/>
-      <c r="BM31" s="40"/>
-      <c r="BN31" s="18"/>
-      <c r="BO31" s="40">
+      <c r="BI31" s="40">
         <v>8</v>
       </c>
-      <c r="BP31" s="40">
+      <c r="BJ31" s="40">
         <v>2</v>
       </c>
-      <c r="BQ31" s="40">
+      <c r="BK31" s="40">
         <v>6</v>
       </c>
-      <c r="BR31" s="40">
+      <c r="BL31" s="40">
         <v>1</v>
       </c>
-      <c r="BS31" s="40">
+      <c r="BM31" s="40">
         <v>1</v>
       </c>
-      <c r="BT31" s="40">
+      <c r="BN31" s="40">
         <v>2</v>
       </c>
+      <c r="BO31" s="40"/>
+      <c r="BP31" s="40"/>
+      <c r="BQ31" s="40"/>
+      <c r="BR31" s="40"/>
+      <c r="BS31" s="40"/>
+      <c r="BT31" s="40"/>
       <c r="BU31" s="18"/>
       <c r="BV31" s="18"/>
       <c r="BW31" s="18"/>
@@ -7802,16 +7942,16 @@
       <c r="DM31" s="18"/>
       <c r="DN31" s="19"/>
     </row>
-    <row r="32" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="69"/>
+    <row r="32" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="56">
         <f>IF(C31&lt;&gt;"",SUM(K32:DN32)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7925,30 +8065,30 @@
       <c r="DM32" s="20"/>
       <c r="DN32" s="21"/>
     </row>
-    <row r="33" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="64">
+    <row r="33" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="68">
         <v>6</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="66"/>
-      <c r="I33" s="68"/>
+      <c r="E33" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="70"/>
+      <c r="I33" s="66"/>
       <c r="J33" s="55">
         <f>IF(C33&lt;&gt;"",SUM(K33:DN33)/データ!$D$2,"")</f>
         <v>3.75</v>
@@ -8074,16 +8214,16 @@
       <c r="DM33" s="18"/>
       <c r="DN33" s="19"/>
     </row>
-    <row r="34" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="69"/>
+    <row r="34" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="67"/>
       <c r="J34" s="56">
         <f>IF(C33&lt;&gt;"",SUM(K34:DN34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8197,30 +8337,30 @@
       <c r="DM34" s="20"/>
       <c r="DN34" s="21"/>
     </row>
-    <row r="35" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A35" s="64">
+    <row r="35" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A35" s="68">
         <v>7</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="66"/>
       <c r="J35" s="55">
         <f>IF(C35&lt;&gt;"",SUM(K35:DN35)/データ!$D$2,"")</f>
         <v>10</v>
@@ -8362,16 +8502,16 @@
       <c r="DM35" s="18"/>
       <c r="DN35" s="19"/>
     </row>
-    <row r="36" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="69"/>
+    <row r="36" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="56">
         <f>IF(C35&lt;&gt;"",SUM(K36:DN36)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8485,24 +8625,24 @@
       <c r="DM36" s="20"/>
       <c r="DN36" s="21"/>
     </row>
-    <row r="37" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A37" s="64">
+    <row r="37" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A37" s="68">
         <v>8</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="68"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="66"/>
       <c r="J37" s="55">
         <f>IF(C37&lt;&gt;"",SUM(K37:DN37)/データ!$D$2,"")</f>
         <v>5</v>
@@ -8636,16 +8776,16 @@
       <c r="DM37" s="18"/>
       <c r="DN37" s="19"/>
     </row>
-    <row r="38" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="69"/>
+    <row r="38" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="67"/>
       <c r="J38" s="56">
         <f>IF(C37&lt;&gt;"",SUM(K38:DN38)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8759,20 +8899,20 @@
       <c r="DM38" s="20"/>
       <c r="DN38" s="21"/>
     </row>
-    <row r="39" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="64">
+    <row r="39" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="68">
         <v>9</v>
       </c>
-      <c r="B39" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="68"/>
+      <c r="B39" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="66"/>
       <c r="J39" s="55" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K39:DN39)/データ!$D$2,"")</f>
         <v/>
@@ -8886,16 +9026,16 @@
       <c r="DM39" s="18"/>
       <c r="DN39" s="19"/>
     </row>
-    <row r="40" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="69"/>
+    <row r="40" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A40" s="69"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="67"/>
       <c r="J40" s="56" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K40:DN40)/データ!$D$2,"")</f>
         <v/>
@@ -9009,26 +9149,26 @@
       <c r="DM40" s="20"/>
       <c r="DN40" s="21"/>
     </row>
-    <row r="41" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A41" s="64">
+    <row r="41" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A41" s="68">
         <v>9.1</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="68"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="66"/>
       <c r="J41" s="55">
         <f>IF(C41&lt;&gt;"",SUM(K41:DN41)/データ!$D$2,"")</f>
         <v>1.5</v>
@@ -9148,16 +9288,16 @@
       <c r="DM41" s="18"/>
       <c r="DN41" s="19"/>
     </row>
-    <row r="42" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="69"/>
+    <row r="42" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="67"/>
       <c r="J42" s="56">
         <f>IF(C41&lt;&gt;"",SUM(K42:DN42)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9271,26 +9411,26 @@
       <c r="DM42" s="20"/>
       <c r="DN42" s="21"/>
     </row>
-    <row r="43" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A43" s="64">
+    <row r="43" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A43" s="68">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="66"/>
-      <c r="I43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="70"/>
+      <c r="I43" s="66"/>
       <c r="J43" s="55">
         <f>IF(C43&lt;&gt;"",SUM(K43:DN43)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -9410,16 +9550,16 @@
       <c r="DM43" s="18"/>
       <c r="DN43" s="19"/>
     </row>
-    <row r="44" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="69"/>
+    <row r="44" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="67"/>
       <c r="J44" s="56">
         <f>IF(C43&lt;&gt;"",SUM(K44:DN44)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9533,20 +9673,20 @@
       <c r="DM44" s="20"/>
       <c r="DN44" s="21"/>
     </row>
-    <row r="45" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="64">
+    <row r="45" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="68">
         <v>10</v>
       </c>
-      <c r="B45" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="68"/>
+      <c r="B45" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="66"/>
       <c r="J45" s="55" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K45:DN45)/データ!$D$2,"")</f>
         <v/>
@@ -9660,16 +9800,16 @@
       <c r="DM45" s="18"/>
       <c r="DN45" s="19"/>
     </row>
-    <row r="46" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="69"/>
+    <row r="46" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="67"/>
       <c r="J46" s="56" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K46:DN46)/データ!$D$2,"")</f>
         <v/>
@@ -9783,24 +9923,24 @@
       <c r="DM46" s="20"/>
       <c r="DN46" s="21"/>
     </row>
-    <row r="47" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A47" s="64">
+    <row r="47" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A47" s="68">
         <v>10.1</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="68"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="66"/>
       <c r="J47" s="55">
         <f>IF(C47&lt;&gt;"",SUM(K47:DN47)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -9920,16 +10060,16 @@
       <c r="DM47" s="18"/>
       <c r="DN47" s="19"/>
     </row>
-    <row r="48" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="69"/>
+    <row r="48" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="67"/>
       <c r="J48" s="56">
         <f>IF(C47&lt;&gt;"",SUM(K48:DN48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10043,24 +10183,24 @@
       <c r="DM48" s="20"/>
       <c r="DN48" s="21"/>
     </row>
-    <row r="49" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A49" s="70">
+    <row r="49" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A49" s="64">
         <v>10.199999999999999</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70" t="s">
+      <c r="B49" s="64"/>
+      <c r="C49" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="E49" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="68"/>
+      <c r="E49" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="66"/>
       <c r="J49" s="55">
         <f>IF(C49&lt;&gt;"",SUM(K49:DN49)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10174,16 +10314,16 @@
       <c r="DM49" s="18"/>
       <c r="DN49" s="19"/>
     </row>
-    <row r="50" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="69"/>
+    <row r="50" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="67"/>
       <c r="J50" s="56">
         <f>IF(C49&lt;&gt;"",SUM(K50:DN50)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10297,20 +10437,20 @@
       <c r="DM50" s="20"/>
       <c r="DN50" s="21"/>
     </row>
-    <row r="51" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A51" s="70">
+    <row r="51" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A51" s="64">
         <v>11</v>
       </c>
-      <c r="B51" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="68"/>
+      <c r="B51" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="66"/>
       <c r="J51" s="55" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K51:DN51)/データ!$D$2,"")</f>
         <v/>
@@ -10424,16 +10564,16 @@
       <c r="DM51" s="18"/>
       <c r="DN51" s="19"/>
     </row>
-    <row r="52" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="69"/>
+    <row r="52" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="67"/>
       <c r="J52" s="56" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K52:DN52)/データ!$D$2,"")</f>
         <v/>
@@ -10547,26 +10687,26 @@
       <c r="DM52" s="20"/>
       <c r="DN52" s="21"/>
     </row>
-    <row r="53" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A53" s="70">
+    <row r="53" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A53" s="64">
         <v>11.1</v>
       </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="70" t="s">
+      <c r="B53" s="64"/>
+      <c r="C53" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="F53" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="68"/>
+      <c r="D53" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="66"/>
       <c r="J53" s="55">
         <f>IF(C53&lt;&gt;"",SUM(K53:DN53)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -10706,16 +10846,16 @@
       <c r="DM53" s="18"/>
       <c r="DN53" s="19"/>
     </row>
-    <row r="54" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A54" s="70"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="69"/>
+    <row r="54" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A54" s="64"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="67"/>
       <c r="J54" s="56">
         <f>IF(C53&lt;&gt;"",SUM(K54:DN54)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -10837,24 +10977,24 @@
       <c r="DM54" s="20"/>
       <c r="DN54" s="21"/>
     </row>
-    <row r="55" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A55" s="70">
+    <row r="55" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A55" s="64">
         <v>11.2</v>
       </c>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="68"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="66"/>
       <c r="J55" s="55">
         <f>IF(C55&lt;&gt;"",SUM(K55:DN55)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -10994,16 +11134,16 @@
       <c r="DM55" s="18"/>
       <c r="DN55" s="19"/>
     </row>
-    <row r="56" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="69"/>
+    <row r="56" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="67"/>
       <c r="J56" s="56">
         <f>IF(C55&lt;&gt;"",SUM(K56:DN56)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11125,24 +11265,24 @@
       <c r="DM56" s="20"/>
       <c r="DN56" s="21"/>
     </row>
-    <row r="57" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A57" s="70">
+    <row r="57" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A57" s="64">
         <v>11.3</v>
       </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="68"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="66"/>
       <c r="J57" s="55">
         <f>IF(C57&lt;&gt;"",SUM(K57:DN57)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11258,16 +11398,16 @@
       <c r="DM57" s="18"/>
       <c r="DN57" s="19"/>
     </row>
-    <row r="58" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="69"/>
+    <row r="58" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A58" s="64"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="67"/>
       <c r="J58" s="56">
         <f>IF(C57&lt;&gt;"",SUM(K58:DN58)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11383,24 +11523,24 @@
       <c r="DM58" s="20"/>
       <c r="DN58" s="21"/>
     </row>
-    <row r="59" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A59" s="70">
+    <row r="59" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A59" s="64">
         <v>11.4</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="68">
+      <c r="B59" s="64"/>
+      <c r="C59" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="66">
         <v>0.5</v>
       </c>
       <c r="J59" s="55">
@@ -11518,16 +11658,16 @@
       <c r="DM59" s="18"/>
       <c r="DN59" s="19"/>
     </row>
-    <row r="60" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="69"/>
+    <row r="60" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="67"/>
       <c r="J60" s="56">
         <f>IF(C59&lt;&gt;"",SUM(K60:DN60)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11643,16 +11783,16 @@
       <c r="DM60" s="20"/>
       <c r="DN60" s="21"/>
     </row>
-    <row r="61" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="68"/>
+    <row r="61" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="66"/>
       <c r="J61" s="55" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DN61)/データ!$D$2,"")</f>
         <v/>
@@ -11766,16 +11906,16 @@
       <c r="DM61" s="18"/>
       <c r="DN61" s="19"/>
     </row>
-    <row r="62" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A62" s="70"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="69"/>
+    <row r="62" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="67"/>
       <c r="J62" s="56" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DN62)/データ!$D$2,"")</f>
         <v/>
@@ -11889,16 +12029,16 @@
       <c r="DM62" s="20"/>
       <c r="DN62" s="21"/>
     </row>
-    <row r="63" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A63" s="70"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="68"/>
+    <row r="63" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A63" s="64"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="66"/>
       <c r="J63" s="55" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K63:DN63)/データ!$D$2,"")</f>
         <v/>
@@ -12012,16 +12152,16 @@
       <c r="DM63" s="18"/>
       <c r="DN63" s="19"/>
     </row>
-    <row r="64" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A64" s="70"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="69"/>
+    <row r="64" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A64" s="64"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="67"/>
       <c r="J64" s="56" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K64:DN64)/データ!$D$2,"")</f>
         <v/>
@@ -12135,16 +12275,16 @@
       <c r="DM64" s="20"/>
       <c r="DN64" s="21"/>
     </row>
-    <row r="65" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A65" s="70"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="68"/>
+    <row r="65" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A65" s="64"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="66"/>
       <c r="J65" s="55" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K65:DN65)/データ!$D$2,"")</f>
         <v/>
@@ -12258,16 +12398,16 @@
       <c r="DM65" s="18"/>
       <c r="DN65" s="19"/>
     </row>
-    <row r="66" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A66" s="70"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="69"/>
+    <row r="66" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="67"/>
       <c r="J66" s="56" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K66:DN66)/データ!$D$2,"")</f>
         <v/>
@@ -12381,16 +12521,16 @@
       <c r="DM66" s="20"/>
       <c r="DN66" s="21"/>
     </row>
-    <row r="67" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A67" s="70"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="68"/>
+    <row r="67" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A67" s="64"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="66"/>
       <c r="J67" s="55" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DN67)/データ!$D$2,"")</f>
         <v/>
@@ -12504,16 +12644,16 @@
       <c r="DM67" s="18"/>
       <c r="DN67" s="19"/>
     </row>
-    <row r="68" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A68" s="70"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="69"/>
+    <row r="68" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A68" s="64"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="67"/>
       <c r="J68" s="56" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DN68)/データ!$D$2,"")</f>
         <v/>
@@ -12627,16 +12767,16 @@
       <c r="DM68" s="20"/>
       <c r="DN68" s="21"/>
     </row>
-    <row r="69" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A69" s="70"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="68"/>
+    <row r="69" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A69" s="64"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="66"/>
       <c r="J69" s="55" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DN69)/データ!$D$2,"")</f>
         <v/>
@@ -12750,16 +12890,16 @@
       <c r="DM69" s="18"/>
       <c r="DN69" s="19"/>
     </row>
-    <row r="70" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="69"/>
+    <row r="70" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A70" s="64"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="67"/>
       <c r="J70" s="56" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DN70)/データ!$D$2,"")</f>
         <v/>
@@ -12873,16 +13013,16 @@
       <c r="DM70" s="20"/>
       <c r="DN70" s="21"/>
     </row>
-    <row r="71" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A71" s="64"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="68"/>
+    <row r="71" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A71" s="68"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="66"/>
       <c r="J71" s="55" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K71:DN71)/データ!$D$2,"")</f>
         <v/>
@@ -12996,16 +13136,16 @@
       <c r="DM71" s="18"/>
       <c r="DN71" s="19"/>
     </row>
-    <row r="72" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="69"/>
+    <row r="72" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A72" s="69"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="67"/>
       <c r="J72" s="56" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K72:DN72)/データ!$D$2,"")</f>
         <v/>
@@ -13119,16 +13259,16 @@
       <c r="DM72" s="20"/>
       <c r="DN72" s="21"/>
     </row>
-    <row r="73" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="68"/>
+    <row r="73" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A73" s="64"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="66"/>
       <c r="J73" s="55" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K73:DN73)/データ!$D$2,"")</f>
         <v/>
@@ -13242,16 +13382,16 @@
       <c r="DM73" s="18"/>
       <c r="DN73" s="19"/>
     </row>
-    <row r="74" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A74" s="70"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="69"/>
+    <row r="74" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A74" s="64"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="67"/>
       <c r="J74" s="56" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K74:DN74)/データ!$D$2,"")</f>
         <v/>
@@ -13365,16 +13505,16 @@
       <c r="DM74" s="20"/>
       <c r="DN74" s="21"/>
     </row>
-    <row r="75" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A75" s="70"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="68"/>
+    <row r="75" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A75" s="64"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="66"/>
       <c r="J75" s="55" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K75:DN75)/データ!$D$2,"")</f>
         <v/>
@@ -13488,16 +13628,16 @@
       <c r="DM75" s="18"/>
       <c r="DN75" s="19"/>
     </row>
-    <row r="76" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A76" s="70"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="69"/>
+    <row r="76" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A76" s="64"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="67"/>
       <c r="J76" s="56" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K76:DN76)/データ!$D$2,"")</f>
         <v/>
@@ -13611,16 +13751,16 @@
       <c r="DM76" s="20"/>
       <c r="DN76" s="21"/>
     </row>
-    <row r="77" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A77" s="64"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="68"/>
+    <row r="77" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A77" s="68"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="70"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="66"/>
       <c r="J77" s="55" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DN77)/データ!$D$2,"")</f>
         <v/>
@@ -13734,16 +13874,16 @@
       <c r="DM77" s="18"/>
       <c r="DN77" s="19"/>
     </row>
-    <row r="78" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A78" s="65"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="69"/>
+    <row r="78" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A78" s="69"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="67"/>
       <c r="J78" s="56" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DN78)/データ!$D$2,"")</f>
         <v/>
@@ -13857,16 +13997,16 @@
       <c r="DM78" s="20"/>
       <c r="DN78" s="21"/>
     </row>
-    <row r="79" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A79" s="64"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="68"/>
+    <row r="79" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A79" s="68"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="70"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="66"/>
       <c r="J79" s="55" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K79:DN79)/データ!$D$2,"")</f>
         <v/>
@@ -13980,16 +14120,16 @@
       <c r="DM79" s="18"/>
       <c r="DN79" s="19"/>
     </row>
-    <row r="80" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A80" s="65"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="69"/>
+    <row r="80" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A80" s="69"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="67"/>
       <c r="J80" s="56" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K80:DN80)/データ!$D$2,"")</f>
         <v/>
@@ -14103,16 +14243,16 @@
       <c r="DM80" s="20"/>
       <c r="DN80" s="21"/>
     </row>
-    <row r="81" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A81" s="64"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="68"/>
+    <row r="81" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A81" s="68"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="70"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="66"/>
       <c r="J81" s="55" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K81:DN81)/データ!$D$2,"")</f>
         <v/>
@@ -14226,16 +14366,16 @@
       <c r="DM81" s="18"/>
       <c r="DN81" s="19"/>
     </row>
-    <row r="82" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="69"/>
+    <row r="82" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="67"/>
       <c r="J82" s="56" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K82:DN82)/データ!$D$2,"")</f>
         <v/>
@@ -14349,16 +14489,16 @@
       <c r="DM82" s="20"/>
       <c r="DN82" s="21"/>
     </row>
-    <row r="83" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="64"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="68"/>
+    <row r="83" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="68"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="70"/>
+      <c r="H83" s="70"/>
+      <c r="I83" s="66"/>
       <c r="J83" s="55" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K83:DN83)/データ!$D$2,"")</f>
         <v/>
@@ -14472,16 +14612,16 @@
       <c r="DM83" s="18"/>
       <c r="DN83" s="19"/>
     </row>
-    <row r="84" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A84" s="65"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="69"/>
+    <row r="84" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A84" s="69"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="71"/>
+      <c r="I84" s="67"/>
       <c r="J84" s="56" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K84:DN84)/データ!$D$2,"")</f>
         <v/>
@@ -14595,16 +14735,16 @@
       <c r="DM84" s="20"/>
       <c r="DN84" s="21"/>
     </row>
-    <row r="85" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A85" s="64"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="68"/>
+    <row r="85" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A85" s="68"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="66"/>
       <c r="J85" s="55" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DN85)/データ!$D$2,"")</f>
         <v/>
@@ -14718,16 +14858,16 @@
       <c r="DM85" s="18"/>
       <c r="DN85" s="19"/>
     </row>
-    <row r="86" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A86" s="65"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="69"/>
+    <row r="86" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="67"/>
       <c r="J86" s="56" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DN86)/データ!$D$2,"")</f>
         <v/>
@@ -14841,16 +14981,16 @@
       <c r="DM86" s="20"/>
       <c r="DN86" s="21"/>
     </row>
-    <row r="87" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="64"/>
-      <c r="B87" s="64"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="68"/>
+    <row r="87" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="68"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="66"/>
       <c r="J87" s="55" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K87:DN87)/データ!$D$2,"")</f>
         <v/>
@@ -14964,16 +15104,16 @@
       <c r="DM87" s="18"/>
       <c r="DN87" s="19"/>
     </row>
-    <row r="88" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A88" s="65"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="69"/>
+    <row r="88" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A88" s="69"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="71"/>
+      <c r="I88" s="67"/>
       <c r="J88" s="56" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K88:DN88)/データ!$D$2,"")</f>
         <v/>
@@ -15087,16 +15227,16 @@
       <c r="DM88" s="20"/>
       <c r="DN88" s="21"/>
     </row>
-    <row r="89" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="64"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="68"/>
+    <row r="89" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="68"/>
+      <c r="B89" s="68"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="66"/>
       <c r="J89" s="55" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K89:DN89)/データ!$D$2,"")</f>
         <v/>
@@ -15210,16 +15350,16 @@
       <c r="DM89" s="18"/>
       <c r="DN89" s="19"/>
     </row>
-    <row r="90" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A90" s="65"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="69"/>
+    <row r="90" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A90" s="69"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="71"/>
+      <c r="I90" s="67"/>
       <c r="J90" s="56" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K90:DN90)/データ!$D$2,"")</f>
         <v/>
@@ -15333,16 +15473,16 @@
       <c r="DM90" s="20"/>
       <c r="DN90" s="21"/>
     </row>
-    <row r="91" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A91" s="64"/>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="68"/>
+    <row r="91" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A91" s="68"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="68"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="66"/>
       <c r="J91" s="55" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K91:DN91)/データ!$D$2,"")</f>
         <v/>
@@ -15456,16 +15596,16 @@
       <c r="DM91" s="18"/>
       <c r="DN91" s="19"/>
     </row>
-    <row r="92" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A92" s="65"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="69"/>
+    <row r="92" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A92" s="69"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="67"/>
       <c r="J92" s="56" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K92:DN92)/データ!$D$2,"")</f>
         <v/>
@@ -15579,16 +15719,16 @@
       <c r="DM92" s="20"/>
       <c r="DN92" s="21"/>
     </row>
-    <row r="93" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A93" s="64"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="68"/>
+    <row r="93" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A93" s="68"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="70"/>
+      <c r="H93" s="70"/>
+      <c r="I93" s="66"/>
       <c r="J93" s="55" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K93:DN93)/データ!$D$2,"")</f>
         <v/>
@@ -15702,16 +15842,16 @@
       <c r="DM93" s="18"/>
       <c r="DN93" s="19"/>
     </row>
-    <row r="94" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A94" s="65"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="69"/>
+    <row r="94" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A94" s="69"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="67"/>
       <c r="J94" s="56" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K94:DN94)/データ!$D$2,"")</f>
         <v/>
@@ -15825,16 +15965,16 @@
       <c r="DM94" s="20"/>
       <c r="DN94" s="21"/>
     </row>
-    <row r="95" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="64"/>
-      <c r="B95" s="64"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="68"/>
+    <row r="95" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="68"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="70"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="66"/>
       <c r="J95" s="55" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DN95)/データ!$D$2,"")</f>
         <v/>
@@ -15948,16 +16088,16 @@
       <c r="DM95" s="18"/>
       <c r="DN95" s="19"/>
     </row>
-    <row r="96" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A96" s="65"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="69"/>
+    <row r="96" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A96" s="69"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="71"/>
+      <c r="I96" s="67"/>
       <c r="J96" s="56" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DN96)/データ!$D$2,"")</f>
         <v/>
@@ -16071,16 +16211,16 @@
       <c r="DM96" s="20"/>
       <c r="DN96" s="21"/>
     </row>
-    <row r="97" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A97" s="64"/>
-      <c r="B97" s="64"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="68"/>
+    <row r="97" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A97" s="68"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="68"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="70"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="66"/>
       <c r="J97" s="55" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DN97)/データ!$D$2,"")</f>
         <v/>
@@ -16194,16 +16334,16 @@
       <c r="DM97" s="18"/>
       <c r="DN97" s="19"/>
     </row>
-    <row r="98" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A98" s="65"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="69"/>
+    <row r="98" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A98" s="69"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="71"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="67"/>
       <c r="J98" s="56" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DN98)/データ!$D$2,"")</f>
         <v/>
@@ -16317,16 +16457,16 @@
       <c r="DM98" s="20"/>
       <c r="DN98" s="21"/>
     </row>
-    <row r="99" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A99" s="64"/>
-      <c r="B99" s="64"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="68"/>
+    <row r="99" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A99" s="68"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="66"/>
       <c r="J99" s="55" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DN99)/データ!$D$2,"")</f>
         <v/>
@@ -16440,16 +16580,16 @@
       <c r="DM99" s="18"/>
       <c r="DN99" s="19"/>
     </row>
-    <row r="100" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A100" s="65"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="67"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="69"/>
+    <row r="100" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A100" s="69"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="67"/>
       <c r="J100" s="56" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DN100)/データ!$D$2,"")</f>
         <v/>
@@ -16563,16 +16703,16 @@
       <c r="DM100" s="20"/>
       <c r="DN100" s="21"/>
     </row>
-    <row r="101" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="64"/>
-      <c r="B101" s="64"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="68"/>
+    <row r="101" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="68"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="66"/>
       <c r="J101" s="55" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DN101)/データ!$D$2,"")</f>
         <v/>
@@ -16686,16 +16826,16 @@
       <c r="DM101" s="18"/>
       <c r="DN101" s="19"/>
     </row>
-    <row r="102" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A102" s="65"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
-      <c r="I102" s="69"/>
+    <row r="102" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A102" s="69"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="71"/>
+      <c r="I102" s="67"/>
       <c r="J102" s="56" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DN102)/データ!$D$2,"")</f>
         <v/>
@@ -16809,16 +16949,16 @@
       <c r="DM102" s="20"/>
       <c r="DN102" s="21"/>
     </row>
-    <row r="103" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A103" s="64"/>
-      <c r="B103" s="64"/>
-      <c r="C103" s="64"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="68"/>
+    <row r="103" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A103" s="68"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="68"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="66"/>
       <c r="J103" s="55" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DN103)/データ!$D$2,"")</f>
         <v/>
@@ -16932,16 +17072,16 @@
       <c r="DM103" s="18"/>
       <c r="DN103" s="19"/>
     </row>
-    <row r="104" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A104" s="65"/>
-      <c r="B104" s="65"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
-      <c r="I104" s="69"/>
+    <row r="104" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A104" s="69"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="71"/>
+      <c r="H104" s="71"/>
+      <c r="I104" s="67"/>
       <c r="J104" s="56" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DN104)/データ!$D$2,"")</f>
         <v/>
@@ -17055,16 +17195,16 @@
       <c r="DM104" s="20"/>
       <c r="DN104" s="21"/>
     </row>
-    <row r="105" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A105" s="70"/>
-      <c r="B105" s="70"/>
-      <c r="C105" s="70"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="71"/>
-      <c r="F105" s="71"/>
-      <c r="G105" s="71"/>
-      <c r="H105" s="71"/>
-      <c r="I105" s="68"/>
+    <row r="105" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A105" s="64"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="66"/>
       <c r="J105" s="55" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DN105)/データ!$D$2,"")</f>
         <v/>
@@ -17178,16 +17318,16 @@
       <c r="DM105" s="18"/>
       <c r="DN105" s="19"/>
     </row>
-    <row r="106" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A106" s="70"/>
-      <c r="B106" s="70"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="71"/>
-      <c r="F106" s="71"/>
-      <c r="G106" s="71"/>
-      <c r="H106" s="71"/>
-      <c r="I106" s="69"/>
+    <row r="106" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A106" s="64"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="65"/>
+      <c r="H106" s="65"/>
+      <c r="I106" s="67"/>
       <c r="J106" s="56" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DN106)/データ!$D$2,"")</f>
         <v/>
@@ -17301,16 +17441,16 @@
       <c r="DM106" s="20"/>
       <c r="DN106" s="21"/>
     </row>
-    <row r="107" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A107" s="70"/>
-      <c r="B107" s="70"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="71"/>
-      <c r="G107" s="71"/>
-      <c r="H107" s="71"/>
-      <c r="I107" s="68"/>
+    <row r="107" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A107" s="64"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="66"/>
       <c r="J107" s="55" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DN107)/データ!$D$2,"")</f>
         <v/>
@@ -17424,16 +17564,16 @@
       <c r="DM107" s="18"/>
       <c r="DN107" s="19"/>
     </row>
-    <row r="108" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A108" s="70"/>
-      <c r="B108" s="70"/>
-      <c r="C108" s="70"/>
-      <c r="D108" s="70"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="71"/>
-      <c r="G108" s="71"/>
-      <c r="H108" s="71"/>
-      <c r="I108" s="69"/>
+    <row r="108" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A108" s="64"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="65"/>
+      <c r="H108" s="65"/>
+      <c r="I108" s="67"/>
       <c r="J108" s="56" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DN108)/データ!$D$2,"")</f>
         <v/>
@@ -17547,16 +17687,16 @@
       <c r="DM108" s="20"/>
       <c r="DN108" s="21"/>
     </row>
-    <row r="109" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A109" s="70"/>
-      <c r="B109" s="70"/>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="71"/>
-      <c r="F109" s="71"/>
-      <c r="G109" s="71"/>
-      <c r="H109" s="71"/>
-      <c r="I109" s="68"/>
+    <row r="109" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A109" s="64"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
+      <c r="G109" s="65"/>
+      <c r="H109" s="65"/>
+      <c r="I109" s="66"/>
       <c r="J109" s="55" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K109:DN109)/データ!$D$2,"")</f>
         <v/>
@@ -17670,16 +17810,16 @@
       <c r="DM109" s="18"/>
       <c r="DN109" s="19"/>
     </row>
-    <row r="110" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A110" s="70"/>
-      <c r="B110" s="70"/>
-      <c r="C110" s="70"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="71"/>
-      <c r="H110" s="71"/>
-      <c r="I110" s="69"/>
+    <row r="110" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A110" s="64"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="65"/>
+      <c r="F110" s="65"/>
+      <c r="G110" s="65"/>
+      <c r="H110" s="65"/>
+      <c r="I110" s="67"/>
       <c r="J110" s="56" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K110:DN110)/データ!$D$2,"")</f>
         <v/>
@@ -17793,16 +17933,16 @@
       <c r="DM110" s="20"/>
       <c r="DN110" s="21"/>
     </row>
-    <row r="111" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A111" s="70"/>
-      <c r="B111" s="70"/>
-      <c r="C111" s="70"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="71"/>
-      <c r="F111" s="71"/>
-      <c r="G111" s="71"/>
-      <c r="H111" s="71"/>
-      <c r="I111" s="68"/>
+    <row r="111" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A111" s="64"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="64"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="65"/>
+      <c r="I111" s="66"/>
       <c r="J111" s="55" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K111:DN111)/データ!$D$2,"")</f>
         <v/>
@@ -17916,16 +18056,16 @@
       <c r="DM111" s="18"/>
       <c r="DN111" s="19"/>
     </row>
-    <row r="112" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A112" s="70"/>
-      <c r="B112" s="70"/>
-      <c r="C112" s="70"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="71"/>
-      <c r="F112" s="71"/>
-      <c r="G112" s="71"/>
-      <c r="H112" s="71"/>
-      <c r="I112" s="69"/>
+    <row r="112" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A112" s="64"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="65"/>
+      <c r="H112" s="65"/>
+      <c r="I112" s="67"/>
       <c r="J112" s="56" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K112:DN112)/データ!$D$2,"")</f>
         <v/>
@@ -18039,16 +18179,16 @@
       <c r="DM112" s="20"/>
       <c r="DN112" s="21"/>
     </row>
-    <row r="113" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A113" s="70"/>
-      <c r="B113" s="70"/>
-      <c r="C113" s="70"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="71"/>
-      <c r="F113" s="71"/>
-      <c r="G113" s="71"/>
-      <c r="H113" s="71"/>
-      <c r="I113" s="68"/>
+    <row r="113" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A113" s="64"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="66"/>
       <c r="J113" s="55" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K113:DN113)/データ!$D$2,"")</f>
         <v/>
@@ -18162,16 +18302,16 @@
       <c r="DM113" s="18"/>
       <c r="DN113" s="19"/>
     </row>
-    <row r="114" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A114" s="70"/>
-      <c r="B114" s="70"/>
-      <c r="C114" s="70"/>
-      <c r="D114" s="70"/>
-      <c r="E114" s="71"/>
-      <c r="F114" s="71"/>
-      <c r="G114" s="71"/>
-      <c r="H114" s="71"/>
-      <c r="I114" s="69"/>
+    <row r="114" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A114" s="64"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="65"/>
+      <c r="F114" s="65"/>
+      <c r="G114" s="65"/>
+      <c r="H114" s="65"/>
+      <c r="I114" s="67"/>
       <c r="J114" s="56" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K114:DN114)/データ!$D$2,"")</f>
         <v/>
@@ -18285,16 +18425,16 @@
       <c r="DM114" s="20"/>
       <c r="DN114" s="21"/>
     </row>
-    <row r="115" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A115" s="70"/>
-      <c r="B115" s="70"/>
-      <c r="C115" s="70"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="71"/>
-      <c r="F115" s="71"/>
-      <c r="G115" s="71"/>
-      <c r="H115" s="71"/>
-      <c r="I115" s="68"/>
+    <row r="115" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A115" s="64"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="66"/>
       <c r="J115" s="55" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K115:DN115)/データ!$D$2,"")</f>
         <v/>
@@ -18408,16 +18548,16 @@
       <c r="DM115" s="18"/>
       <c r="DN115" s="19"/>
     </row>
-    <row r="116" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A116" s="70"/>
-      <c r="B116" s="70"/>
-      <c r="C116" s="70"/>
-      <c r="D116" s="70"/>
-      <c r="E116" s="71"/>
-      <c r="F116" s="71"/>
-      <c r="G116" s="71"/>
-      <c r="H116" s="71"/>
-      <c r="I116" s="69"/>
+    <row r="116" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A116" s="64"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="65"/>
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="67"/>
       <c r="J116" s="56" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K116:DN116)/データ!$D$2,"")</f>
         <v/>
@@ -18531,16 +18671,16 @@
       <c r="DM116" s="20"/>
       <c r="DN116" s="21"/>
     </row>
-    <row r="117" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A117" s="70"/>
-      <c r="B117" s="70"/>
-      <c r="C117" s="70"/>
-      <c r="D117" s="70"/>
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="68"/>
+    <row r="117" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A117" s="64"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="65"/>
+      <c r="F117" s="65"/>
+      <c r="G117" s="65"/>
+      <c r="H117" s="65"/>
+      <c r="I117" s="66"/>
       <c r="J117" s="55" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K117:DN117)/データ!$D$2,"")</f>
         <v/>
@@ -18654,16 +18794,16 @@
       <c r="DM117" s="18"/>
       <c r="DN117" s="19"/>
     </row>
-    <row r="118" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A118" s="70"/>
-      <c r="B118" s="70"/>
-      <c r="C118" s="70"/>
-      <c r="D118" s="70"/>
-      <c r="E118" s="71"/>
-      <c r="F118" s="71"/>
-      <c r="G118" s="71"/>
-      <c r="H118" s="71"/>
-      <c r="I118" s="69"/>
+    <row r="118" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A118" s="64"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="65"/>
+      <c r="F118" s="65"/>
+      <c r="G118" s="65"/>
+      <c r="H118" s="65"/>
+      <c r="I118" s="67"/>
       <c r="J118" s="56" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K118:DN118)/データ!$D$2,"")</f>
         <v/>
@@ -18777,16 +18917,16 @@
       <c r="DM118" s="20"/>
       <c r="DN118" s="21"/>
     </row>
-    <row r="119" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A119" s="70"/>
-      <c r="B119" s="70"/>
-      <c r="C119" s="70"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="71"/>
-      <c r="F119" s="71"/>
-      <c r="G119" s="71"/>
-      <c r="H119" s="71"/>
-      <c r="I119" s="68"/>
+    <row r="119" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A119" s="64"/>
+      <c r="B119" s="64"/>
+      <c r="C119" s="64"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="65"/>
+      <c r="F119" s="65"/>
+      <c r="G119" s="65"/>
+      <c r="H119" s="65"/>
+      <c r="I119" s="66"/>
       <c r="J119" s="55" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K119:DN119)/データ!$D$2,"")</f>
         <v/>
@@ -18900,16 +19040,16 @@
       <c r="DM119" s="18"/>
       <c r="DN119" s="19"/>
     </row>
-    <row r="120" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A120" s="70"/>
-      <c r="B120" s="70"/>
-      <c r="C120" s="70"/>
-      <c r="D120" s="70"/>
-      <c r="E120" s="71"/>
-      <c r="F120" s="71"/>
-      <c r="G120" s="71"/>
-      <c r="H120" s="71"/>
-      <c r="I120" s="69"/>
+    <row r="120" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A120" s="64"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="65"/>
+      <c r="F120" s="65"/>
+      <c r="G120" s="65"/>
+      <c r="H120" s="65"/>
+      <c r="I120" s="67"/>
       <c r="J120" s="56" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K120:DN120)/データ!$D$2,"")</f>
         <v/>
@@ -19023,16 +19163,16 @@
       <c r="DM120" s="20"/>
       <c r="DN120" s="21"/>
     </row>
-    <row r="121" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A121" s="70"/>
-      <c r="B121" s="70"/>
-      <c r="C121" s="70"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="71"/>
-      <c r="F121" s="71"/>
-      <c r="G121" s="71"/>
-      <c r="H121" s="71"/>
-      <c r="I121" s="68"/>
+    <row r="121" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A121" s="64"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="65"/>
+      <c r="F121" s="65"/>
+      <c r="G121" s="65"/>
+      <c r="H121" s="65"/>
+      <c r="I121" s="66"/>
       <c r="J121" s="55" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K121:DN121)/データ!$D$2,"")</f>
         <v/>
@@ -19146,16 +19286,16 @@
       <c r="DM121" s="18"/>
       <c r="DN121" s="19"/>
     </row>
-    <row r="122" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A122" s="70"/>
-      <c r="B122" s="70"/>
-      <c r="C122" s="70"/>
-      <c r="D122" s="70"/>
-      <c r="E122" s="71"/>
-      <c r="F122" s="71"/>
-      <c r="G122" s="71"/>
-      <c r="H122" s="71"/>
-      <c r="I122" s="69"/>
+    <row r="122" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A122" s="64"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="65"/>
+      <c r="F122" s="65"/>
+      <c r="G122" s="65"/>
+      <c r="H122" s="65"/>
+      <c r="I122" s="67"/>
       <c r="J122" s="56" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K122:DN122)/データ!$D$2,"")</f>
         <v/>
@@ -19269,16 +19409,16 @@
       <c r="DM122" s="20"/>
       <c r="DN122" s="21"/>
     </row>
-    <row r="123" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A123" s="70"/>
-      <c r="B123" s="70"/>
-      <c r="C123" s="70"/>
-      <c r="D123" s="70"/>
-      <c r="E123" s="71"/>
-      <c r="F123" s="71"/>
-      <c r="G123" s="71"/>
-      <c r="H123" s="71"/>
-      <c r="I123" s="68"/>
+    <row r="123" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A123" s="64"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="64"/>
+      <c r="D123" s="64"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="66"/>
       <c r="J123" s="55" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K123:DN123)/データ!$D$2,"")</f>
         <v/>
@@ -19392,16 +19532,16 @@
       <c r="DM123" s="18"/>
       <c r="DN123" s="19"/>
     </row>
-    <row r="124" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A124" s="70"/>
-      <c r="B124" s="70"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="70"/>
-      <c r="E124" s="71"/>
-      <c r="F124" s="71"/>
-      <c r="G124" s="71"/>
-      <c r="H124" s="71"/>
-      <c r="I124" s="69"/>
+    <row r="124" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A124" s="64"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="64"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="67"/>
       <c r="J124" s="56" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K124:DN124)/データ!$D$2,"")</f>
         <v/>
@@ -19515,16 +19655,16 @@
       <c r="DM124" s="20"/>
       <c r="DN124" s="21"/>
     </row>
-    <row r="125" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A125" s="70"/>
-      <c r="B125" s="70"/>
-      <c r="C125" s="70"/>
-      <c r="D125" s="70"/>
-      <c r="E125" s="71"/>
-      <c r="F125" s="71"/>
-      <c r="G125" s="71"/>
-      <c r="H125" s="71"/>
-      <c r="I125" s="68"/>
+    <row r="125" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A125" s="64"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="64"/>
+      <c r="D125" s="64"/>
+      <c r="E125" s="65"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="65"/>
+      <c r="H125" s="65"/>
+      <c r="I125" s="66"/>
       <c r="J125" s="55" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K125:DN125)/データ!$D$2,"")</f>
         <v/>
@@ -19638,16 +19778,16 @@
       <c r="DM125" s="18"/>
       <c r="DN125" s="19"/>
     </row>
-    <row r="126" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A126" s="70"/>
-      <c r="B126" s="70"/>
-      <c r="C126" s="70"/>
-      <c r="D126" s="70"/>
-      <c r="E126" s="71"/>
-      <c r="F126" s="71"/>
-      <c r="G126" s="71"/>
-      <c r="H126" s="71"/>
-      <c r="I126" s="69"/>
+    <row r="126" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A126" s="64"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="64"/>
+      <c r="E126" s="65"/>
+      <c r="F126" s="65"/>
+      <c r="G126" s="65"/>
+      <c r="H126" s="65"/>
+      <c r="I126" s="67"/>
       <c r="J126" s="56" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K126:DN126)/データ!$D$2,"")</f>
         <v/>
@@ -19761,16 +19901,16 @@
       <c r="DM126" s="20"/>
       <c r="DN126" s="21"/>
     </row>
-    <row r="127" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A127" s="64"/>
-      <c r="B127" s="64"/>
-      <c r="C127" s="64"/>
-      <c r="D127" s="64"/>
-      <c r="E127" s="66"/>
-      <c r="F127" s="66"/>
-      <c r="G127" s="66"/>
-      <c r="H127" s="66"/>
-      <c r="I127" s="68"/>
+    <row r="127" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A127" s="68"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="68"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="70"/>
+      <c r="F127" s="70"/>
+      <c r="G127" s="70"/>
+      <c r="H127" s="70"/>
+      <c r="I127" s="66"/>
       <c r="J127" s="55" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K127:DN127)/データ!$D$2,"")</f>
         <v/>
@@ -19884,16 +20024,16 @@
       <c r="DM127" s="18"/>
       <c r="DN127" s="19"/>
     </row>
-    <row r="128" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A128" s="65"/>
-      <c r="B128" s="65"/>
-      <c r="C128" s="65"/>
-      <c r="D128" s="65"/>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="67"/>
-      <c r="H128" s="67"/>
-      <c r="I128" s="69"/>
+    <row r="128" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A128" s="69"/>
+      <c r="B128" s="69"/>
+      <c r="C128" s="69"/>
+      <c r="D128" s="69"/>
+      <c r="E128" s="71"/>
+      <c r="F128" s="71"/>
+      <c r="G128" s="71"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="67"/>
       <c r="J128" s="56" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K128:DN128)/データ!$D$2,"")</f>
         <v/>
@@ -20007,16 +20147,16 @@
       <c r="DM128" s="20"/>
       <c r="DN128" s="21"/>
     </row>
-    <row r="129" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A129" s="70"/>
-      <c r="B129" s="70"/>
-      <c r="C129" s="70"/>
-      <c r="D129" s="70"/>
-      <c r="E129" s="71"/>
-      <c r="F129" s="71"/>
-      <c r="G129" s="71"/>
-      <c r="H129" s="71"/>
-      <c r="I129" s="68"/>
+    <row r="129" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A129" s="64"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="64"/>
+      <c r="E129" s="65"/>
+      <c r="F129" s="65"/>
+      <c r="G129" s="65"/>
+      <c r="H129" s="65"/>
+      <c r="I129" s="66"/>
       <c r="J129" s="55" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K129:DN129)/データ!$D$2,"")</f>
         <v/>
@@ -20130,16 +20270,16 @@
       <c r="DM129" s="18"/>
       <c r="DN129" s="19"/>
     </row>
-    <row r="130" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A130" s="70"/>
-      <c r="B130" s="70"/>
-      <c r="C130" s="70"/>
-      <c r="D130" s="70"/>
-      <c r="E130" s="71"/>
-      <c r="F130" s="71"/>
-      <c r="G130" s="71"/>
-      <c r="H130" s="71"/>
-      <c r="I130" s="69"/>
+    <row r="130" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A130" s="64"/>
+      <c r="B130" s="64"/>
+      <c r="C130" s="64"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="65"/>
+      <c r="H130" s="65"/>
+      <c r="I130" s="67"/>
       <c r="J130" s="56" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K130:DN130)/データ!$D$2,"")</f>
         <v/>
@@ -20253,16 +20393,16 @@
       <c r="DM130" s="20"/>
       <c r="DN130" s="21"/>
     </row>
-    <row r="131" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A131" s="70"/>
-      <c r="B131" s="70"/>
-      <c r="C131" s="70"/>
-      <c r="D131" s="70"/>
-      <c r="E131" s="71"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="71"/>
-      <c r="H131" s="71"/>
-      <c r="I131" s="68"/>
+    <row r="131" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A131" s="64"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="64"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="66"/>
       <c r="J131" s="55" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K131:DN131)/データ!$D$2,"")</f>
         <v/>
@@ -20376,16 +20516,16 @@
       <c r="DM131" s="18"/>
       <c r="DN131" s="19"/>
     </row>
-    <row r="132" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A132" s="70"/>
-      <c r="B132" s="70"/>
-      <c r="C132" s="70"/>
-      <c r="D132" s="70"/>
-      <c r="E132" s="71"/>
-      <c r="F132" s="71"/>
-      <c r="G132" s="71"/>
-      <c r="H132" s="71"/>
-      <c r="I132" s="69"/>
+    <row r="132" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A132" s="64"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="64"/>
+      <c r="E132" s="65"/>
+      <c r="F132" s="65"/>
+      <c r="G132" s="65"/>
+      <c r="H132" s="65"/>
+      <c r="I132" s="67"/>
       <c r="J132" s="56" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K132:DN132)/データ!$D$2,"")</f>
         <v/>
@@ -20499,16 +20639,16 @@
       <c r="DM132" s="20"/>
       <c r="DN132" s="21"/>
     </row>
-    <row r="133" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A133" s="70"/>
-      <c r="B133" s="70"/>
-      <c r="C133" s="70"/>
-      <c r="D133" s="70"/>
-      <c r="E133" s="71"/>
-      <c r="F133" s="71"/>
-      <c r="G133" s="71"/>
-      <c r="H133" s="71"/>
-      <c r="I133" s="68"/>
+    <row r="133" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A133" s="64"/>
+      <c r="B133" s="64"/>
+      <c r="C133" s="64"/>
+      <c r="D133" s="64"/>
+      <c r="E133" s="65"/>
+      <c r="F133" s="65"/>
+      <c r="G133" s="65"/>
+      <c r="H133" s="65"/>
+      <c r="I133" s="66"/>
       <c r="J133" s="55" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K133:DN133)/データ!$D$2,"")</f>
         <v/>
@@ -20622,16 +20762,16 @@
       <c r="DM133" s="18"/>
       <c r="DN133" s="19"/>
     </row>
-    <row r="134" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A134" s="70"/>
-      <c r="B134" s="70"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="70"/>
-      <c r="E134" s="71"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="71"/>
-      <c r="H134" s="71"/>
-      <c r="I134" s="69"/>
+    <row r="134" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A134" s="64"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="65"/>
+      <c r="F134" s="65"/>
+      <c r="G134" s="65"/>
+      <c r="H134" s="65"/>
+      <c r="I134" s="67"/>
       <c r="J134" s="56" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K134:DN134)/データ!$D$2,"")</f>
         <v/>
@@ -20745,16 +20885,16 @@
       <c r="DM134" s="20"/>
       <c r="DN134" s="21"/>
     </row>
-    <row r="135" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A135" s="70"/>
-      <c r="B135" s="70"/>
-      <c r="C135" s="70"/>
-      <c r="D135" s="70"/>
-      <c r="E135" s="71"/>
-      <c r="F135" s="71"/>
-      <c r="G135" s="71"/>
-      <c r="H135" s="71"/>
-      <c r="I135" s="68"/>
+    <row r="135" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A135" s="64"/>
+      <c r="B135" s="64"/>
+      <c r="C135" s="64"/>
+      <c r="D135" s="64"/>
+      <c r="E135" s="65"/>
+      <c r="F135" s="65"/>
+      <c r="G135" s="65"/>
+      <c r="H135" s="65"/>
+      <c r="I135" s="66"/>
       <c r="J135" s="55" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K135:DN135)/データ!$D$2,"")</f>
         <v/>
@@ -20868,16 +21008,16 @@
       <c r="DM135" s="18"/>
       <c r="DN135" s="19"/>
     </row>
-    <row r="136" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A136" s="70"/>
-      <c r="B136" s="70"/>
-      <c r="C136" s="70"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="71"/>
-      <c r="F136" s="71"/>
-      <c r="G136" s="71"/>
-      <c r="H136" s="71"/>
-      <c r="I136" s="69"/>
+    <row r="136" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A136" s="64"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="64"/>
+      <c r="E136" s="65"/>
+      <c r="F136" s="65"/>
+      <c r="G136" s="65"/>
+      <c r="H136" s="65"/>
+      <c r="I136" s="67"/>
       <c r="J136" s="56" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K136:DN136)/データ!$D$2,"")</f>
         <v/>
@@ -20991,16 +21131,16 @@
       <c r="DM136" s="20"/>
       <c r="DN136" s="21"/>
     </row>
-    <row r="137" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A137" s="70"/>
-      <c r="B137" s="70"/>
-      <c r="C137" s="70"/>
-      <c r="D137" s="70"/>
-      <c r="E137" s="71"/>
-      <c r="F137" s="71"/>
-      <c r="G137" s="71"/>
-      <c r="H137" s="71"/>
-      <c r="I137" s="68"/>
+    <row r="137" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A137" s="64"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="64"/>
+      <c r="D137" s="64"/>
+      <c r="E137" s="65"/>
+      <c r="F137" s="65"/>
+      <c r="G137" s="65"/>
+      <c r="H137" s="65"/>
+      <c r="I137" s="66"/>
       <c r="J137" s="55" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K137:DN137)/データ!$D$2,"")</f>
         <v/>
@@ -21114,16 +21254,16 @@
       <c r="DM137" s="18"/>
       <c r="DN137" s="19"/>
     </row>
-    <row r="138" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A138" s="70"/>
-      <c r="B138" s="70"/>
-      <c r="C138" s="70"/>
-      <c r="D138" s="70"/>
-      <c r="E138" s="71"/>
-      <c r="F138" s="71"/>
-      <c r="G138" s="71"/>
-      <c r="H138" s="71"/>
-      <c r="I138" s="69"/>
+    <row r="138" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A138" s="64"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="64"/>
+      <c r="D138" s="64"/>
+      <c r="E138" s="65"/>
+      <c r="F138" s="65"/>
+      <c r="G138" s="65"/>
+      <c r="H138" s="65"/>
+      <c r="I138" s="67"/>
       <c r="J138" s="56" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K138:DN138)/データ!$D$2,"")</f>
         <v/>
@@ -21237,16 +21377,16 @@
       <c r="DM138" s="20"/>
       <c r="DN138" s="21"/>
     </row>
-    <row r="139" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A139" s="70"/>
-      <c r="B139" s="70"/>
-      <c r="C139" s="70"/>
-      <c r="D139" s="70"/>
-      <c r="E139" s="71"/>
-      <c r="F139" s="71"/>
-      <c r="G139" s="71"/>
-      <c r="H139" s="71"/>
-      <c r="I139" s="68"/>
+    <row r="139" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A139" s="64"/>
+      <c r="B139" s="64"/>
+      <c r="C139" s="64"/>
+      <c r="D139" s="64"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="66"/>
       <c r="J139" s="55" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K139:DN139)/データ!$D$2,"")</f>
         <v/>
@@ -21360,16 +21500,16 @@
       <c r="DM139" s="18"/>
       <c r="DN139" s="19"/>
     </row>
-    <row r="140" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A140" s="70"/>
-      <c r="B140" s="70"/>
-      <c r="C140" s="70"/>
-      <c r="D140" s="70"/>
-      <c r="E140" s="71"/>
-      <c r="F140" s="71"/>
-      <c r="G140" s="71"/>
-      <c r="H140" s="71"/>
-      <c r="I140" s="69"/>
+    <row r="140" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A140" s="64"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="64"/>
+      <c r="D140" s="64"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="65"/>
+      <c r="I140" s="67"/>
       <c r="J140" s="56" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K140:DN140)/データ!$D$2,"")</f>
         <v/>
@@ -21483,16 +21623,16 @@
       <c r="DM140" s="20"/>
       <c r="DN140" s="21"/>
     </row>
-    <row r="141" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A141" s="70"/>
-      <c r="B141" s="70"/>
-      <c r="C141" s="70"/>
-      <c r="D141" s="70"/>
-      <c r="E141" s="71"/>
-      <c r="F141" s="71"/>
-      <c r="G141" s="71"/>
-      <c r="H141" s="71"/>
-      <c r="I141" s="68"/>
+    <row r="141" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A141" s="64"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="64"/>
+      <c r="D141" s="64"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="65"/>
+      <c r="G141" s="65"/>
+      <c r="H141" s="65"/>
+      <c r="I141" s="66"/>
       <c r="J141" s="55" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K141:DN141)/データ!$D$2,"")</f>
         <v/>
@@ -21606,16 +21746,16 @@
       <c r="DM141" s="18"/>
       <c r="DN141" s="19"/>
     </row>
-    <row r="142" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A142" s="70"/>
-      <c r="B142" s="70"/>
-      <c r="C142" s="70"/>
-      <c r="D142" s="70"/>
-      <c r="E142" s="71"/>
-      <c r="F142" s="71"/>
-      <c r="G142" s="71"/>
-      <c r="H142" s="71"/>
-      <c r="I142" s="69"/>
+    <row r="142" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A142" s="64"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="64"/>
+      <c r="E142" s="65"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="65"/>
+      <c r="H142" s="65"/>
+      <c r="I142" s="67"/>
       <c r="J142" s="56" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K142:DN142)/データ!$D$2,"")</f>
         <v/>
@@ -21729,16 +21869,16 @@
       <c r="DM142" s="20"/>
       <c r="DN142" s="21"/>
     </row>
-    <row r="143" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A143" s="70"/>
-      <c r="B143" s="70"/>
-      <c r="C143" s="70"/>
-      <c r="D143" s="70"/>
-      <c r="E143" s="71"/>
-      <c r="F143" s="71"/>
-      <c r="G143" s="71"/>
-      <c r="H143" s="71"/>
-      <c r="I143" s="68"/>
+    <row r="143" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A143" s="64"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="64"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="65"/>
+      <c r="G143" s="65"/>
+      <c r="H143" s="65"/>
+      <c r="I143" s="66"/>
       <c r="J143" s="55" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K143:DN143)/データ!$D$2,"")</f>
         <v/>
@@ -21852,16 +21992,16 @@
       <c r="DM143" s="18"/>
       <c r="DN143" s="19"/>
     </row>
-    <row r="144" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A144" s="70"/>
-      <c r="B144" s="70"/>
-      <c r="C144" s="70"/>
-      <c r="D144" s="70"/>
-      <c r="E144" s="71"/>
-      <c r="F144" s="71"/>
-      <c r="G144" s="71"/>
-      <c r="H144" s="71"/>
-      <c r="I144" s="69"/>
+    <row r="144" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A144" s="64"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="64"/>
+      <c r="D144" s="64"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="65"/>
+      <c r="G144" s="65"/>
+      <c r="H144" s="65"/>
+      <c r="I144" s="67"/>
       <c r="J144" s="56" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K144:DN144)/データ!$D$2,"")</f>
         <v/>
@@ -21975,16 +22115,16 @@
       <c r="DM144" s="20"/>
       <c r="DN144" s="21"/>
     </row>
-    <row r="145" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A145" s="70"/>
-      <c r="B145" s="70"/>
-      <c r="C145" s="70"/>
-      <c r="D145" s="70"/>
-      <c r="E145" s="71"/>
-      <c r="F145" s="71"/>
-      <c r="G145" s="71"/>
-      <c r="H145" s="71"/>
-      <c r="I145" s="68"/>
+    <row r="145" spans="1:119" x14ac:dyDescent="0.15">
+      <c r="A145" s="64"/>
+      <c r="B145" s="64"/>
+      <c r="C145" s="64"/>
+      <c r="D145" s="64"/>
+      <c r="E145" s="65"/>
+      <c r="F145" s="65"/>
+      <c r="G145" s="65"/>
+      <c r="H145" s="65"/>
+      <c r="I145" s="66"/>
       <c r="J145" s="55" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K145:DN145)/データ!$D$2,"")</f>
         <v/>
@@ -22098,16 +22238,16 @@
       <c r="DM145" s="18"/>
       <c r="DN145" s="19"/>
     </row>
-    <row r="146" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A146" s="70"/>
-      <c r="B146" s="70"/>
-      <c r="C146" s="70"/>
-      <c r="D146" s="70"/>
-      <c r="E146" s="71"/>
-      <c r="F146" s="71"/>
-      <c r="G146" s="71"/>
-      <c r="H146" s="71"/>
-      <c r="I146" s="69"/>
+    <row r="146" spans="1:119" x14ac:dyDescent="0.15">
+      <c r="A146" s="64"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="64"/>
+      <c r="D146" s="64"/>
+      <c r="E146" s="65"/>
+      <c r="F146" s="65"/>
+      <c r="G146" s="65"/>
+      <c r="H146" s="65"/>
+      <c r="I146" s="67"/>
       <c r="J146" s="56" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K146:DN146)/データ!$D$2,"")</f>
         <v/>
@@ -22221,16 +22361,16 @@
       <c r="DM146" s="20"/>
       <c r="DN146" s="21"/>
     </row>
-    <row r="147" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A147" s="64"/>
-      <c r="B147" s="64"/>
-      <c r="C147" s="64"/>
-      <c r="D147" s="64"/>
-      <c r="E147" s="66"/>
-      <c r="F147" s="66"/>
-      <c r="G147" s="66"/>
-      <c r="H147" s="66"/>
-      <c r="I147" s="68"/>
+    <row r="147" spans="1:119" x14ac:dyDescent="0.15">
+      <c r="A147" s="68"/>
+      <c r="B147" s="68"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="70"/>
+      <c r="F147" s="70"/>
+      <c r="G147" s="70"/>
+      <c r="H147" s="70"/>
+      <c r="I147" s="66"/>
       <c r="J147" s="55" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K147:DN147)/データ!$D$2,"")</f>
         <v/>
@@ -22344,16 +22484,16 @@
       <c r="DM147" s="18"/>
       <c r="DN147" s="19"/>
     </row>
-    <row r="148" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A148" s="65"/>
-      <c r="B148" s="65"/>
-      <c r="C148" s="65"/>
-      <c r="D148" s="65"/>
-      <c r="E148" s="67"/>
-      <c r="F148" s="67"/>
-      <c r="G148" s="67"/>
-      <c r="H148" s="67"/>
-      <c r="I148" s="69"/>
+    <row r="148" spans="1:119" x14ac:dyDescent="0.15">
+      <c r="A148" s="69"/>
+      <c r="B148" s="69"/>
+      <c r="C148" s="69"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="71"/>
+      <c r="F148" s="71"/>
+      <c r="G148" s="71"/>
+      <c r="H148" s="71"/>
+      <c r="I148" s="67"/>
       <c r="J148" s="56" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K148:DN148)/データ!$D$2,"")</f>
         <v/>
@@ -22467,16 +22607,16 @@
       <c r="DM148" s="20"/>
       <c r="DN148" s="21"/>
     </row>
-    <row r="149" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A149" s="70"/>
-      <c r="B149" s="70"/>
-      <c r="C149" s="70"/>
-      <c r="D149" s="70"/>
-      <c r="E149" s="71"/>
-      <c r="F149" s="71"/>
-      <c r="G149" s="71"/>
-      <c r="H149" s="71"/>
-      <c r="I149" s="68"/>
+    <row r="149" spans="1:119" x14ac:dyDescent="0.15">
+      <c r="A149" s="64"/>
+      <c r="B149" s="64"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="64"/>
+      <c r="E149" s="65"/>
+      <c r="F149" s="65"/>
+      <c r="G149" s="65"/>
+      <c r="H149" s="65"/>
+      <c r="I149" s="66"/>
       <c r="J149" s="55" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K149:DN149)/データ!$D$2,"")</f>
         <v/>
@@ -22590,16 +22730,16 @@
       <c r="DM149" s="18"/>
       <c r="DN149" s="19"/>
     </row>
-    <row r="150" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A150" s="70"/>
-      <c r="B150" s="70"/>
-      <c r="C150" s="70"/>
-      <c r="D150" s="70"/>
-      <c r="E150" s="71"/>
-      <c r="F150" s="71"/>
-      <c r="G150" s="71"/>
-      <c r="H150" s="71"/>
-      <c r="I150" s="69"/>
+    <row r="150" spans="1:119" x14ac:dyDescent="0.15">
+      <c r="A150" s="64"/>
+      <c r="B150" s="64"/>
+      <c r="C150" s="64"/>
+      <c r="D150" s="64"/>
+      <c r="E150" s="65"/>
+      <c r="F150" s="65"/>
+      <c r="G150" s="65"/>
+      <c r="H150" s="65"/>
+      <c r="I150" s="67"/>
       <c r="J150" s="56" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K150:DN150)/データ!$D$2,"")</f>
         <v/>
@@ -22713,16 +22853,16 @@
       <c r="DM150" s="20"/>
       <c r="DN150" s="21"/>
     </row>
-    <row r="151" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A151" s="70"/>
-      <c r="B151" s="70"/>
-      <c r="C151" s="70"/>
-      <c r="D151" s="70"/>
-      <c r="E151" s="71"/>
-      <c r="F151" s="71"/>
-      <c r="G151" s="71"/>
-      <c r="H151" s="71"/>
-      <c r="I151" s="68"/>
+    <row r="151" spans="1:119" x14ac:dyDescent="0.15">
+      <c r="A151" s="64"/>
+      <c r="B151" s="64"/>
+      <c r="C151" s="64"/>
+      <c r="D151" s="64"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="65"/>
+      <c r="G151" s="65"/>
+      <c r="H151" s="65"/>
+      <c r="I151" s="66"/>
       <c r="J151" s="55" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K151:DN151)/データ!$D$2,"")</f>
         <v/>
@@ -22836,16 +22976,16 @@
       <c r="DM151" s="18"/>
       <c r="DN151" s="19"/>
     </row>
-    <row r="152" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A152" s="70"/>
-      <c r="B152" s="70"/>
-      <c r="C152" s="70"/>
-      <c r="D152" s="70"/>
-      <c r="E152" s="71"/>
-      <c r="F152" s="71"/>
-      <c r="G152" s="71"/>
-      <c r="H152" s="71"/>
-      <c r="I152" s="69"/>
+    <row r="152" spans="1:119" x14ac:dyDescent="0.15">
+      <c r="A152" s="64"/>
+      <c r="B152" s="64"/>
+      <c r="C152" s="64"/>
+      <c r="D152" s="64"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="65"/>
+      <c r="G152" s="65"/>
+      <c r="H152" s="65"/>
+      <c r="I152" s="67"/>
       <c r="J152" s="56" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K152:DN152)/データ!$D$2,"")</f>
         <v/>
@@ -22959,10 +23099,10 @@
       <c r="DM152" s="20"/>
       <c r="DN152" s="21"/>
     </row>
-    <row r="154" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="10"/>
       <c r="J154" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K154" s="13">
         <f t="array" ref="K154">SUM(IF(MOD(ROW(K$5:K$152),2)=1,K$5:K$152,0))</f>
@@ -23166,55 +23306,55 @@
       </c>
       <c r="BI154" s="13">
         <f t="array" ref="BI154">SUM(IF(MOD(ROW(BI$5:BI$152),2)=1,BI$5:BI$152,0))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ154" s="13">
         <f t="array" ref="BJ154">SUM(IF(MOD(ROW(BJ$5:BJ$152),2)=1,BJ$5:BJ$152,0))</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BK154" s="13">
         <f t="array" ref="BK154">SUM(IF(MOD(ROW(BK$5:BK$152),2)=1,BK$5:BK$152,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BL154" s="13">
         <f t="array" ref="BL154">SUM(IF(MOD(ROW(BL$5:BL$152),2)=1,BL$5:BL$152,0))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BM154" s="13">
         <f t="array" ref="BM154">SUM(IF(MOD(ROW(BM$5:BM$152),2)=1,BM$5:BM$152,0))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BN154" s="13">
         <f t="array" ref="BN154">SUM(IF(MOD(ROW(BN$5:BN$152),2)=1,BN$5:BN$152,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BO154" s="13">
         <f t="array" ref="BO154">SUM(IF(MOD(ROW(BO$5:BO$152),2)=1,BO$5:BO$152,0))</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BP154" s="13">
         <f t="array" ref="BP154">SUM(IF(MOD(ROW(BP$5:BP$152),2)=1,BP$5:BP$152,0))</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BQ154" s="13">
         <f t="array" ref="BQ154">SUM(IF(MOD(ROW(BQ$5:BQ$152),2)=1,BQ$5:BQ$152,0))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BR154" s="13">
         <f t="array" ref="BR154">SUM(IF(MOD(ROW(BR$5:BR$152),2)=1,BR$5:BR$152,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BS154" s="13">
         <f t="array" ref="BS154">SUM(IF(MOD(ROW(BS$5:BS$152),2)=1,BS$5:BS$152,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BT154" s="13">
         <f t="array" ref="BT154">SUM(IF(MOD(ROW(BT$5:BT$152),2)=1,BT$5:BT$152,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BU154" s="13">
         <f t="array" ref="BU154">SUM(IF(MOD(ROW(BU$5:BU$152),2)=1,BU$5:BU$152,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BV154" s="13">
         <f t="array" ref="BV154">SUM(IF(MOD(ROW(BV$5:BV$152),2)=1,BV$5:BV$152,0))</f>
@@ -23397,10 +23537,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="10"/>
       <c r="J155" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K155" s="13">
         <f t="array" ref="K155">SUM(IF(MOD(ROW(K$5:K$152),2)=0,K$5:K$152,0))</f>
@@ -23835,10 +23975,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="10"/>
       <c r="J156" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K156" s="13">
         <f t="shared" ref="K156:AP156" si="0">SUM(K163:K198)</f>
@@ -24274,10 +24414,10 @@
       </c>
       <c r="DO156" s="14"/>
     </row>
-    <row r="157" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="10"/>
       <c r="J157" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K157" s="16">
         <f t="shared" ref="K157:AP157" si="4">K4</f>
@@ -24713,10 +24853,10 @@
       </c>
       <c r="DO157" s="14"/>
     </row>
-    <row r="158" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="10"/>
       <c r="J158" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K158" s="15">
         <f>K154</f>
@@ -24920,51 +25060,51 @@
       </c>
       <c r="BI158" s="15">
         <f t="shared" si="8"/>
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BJ158" s="15">
         <f t="shared" si="8"/>
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="BK158" s="15">
         <f t="shared" si="8"/>
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="BL158" s="15">
         <f t="shared" si="8"/>
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="BM158" s="15">
         <f t="shared" si="8"/>
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="BN158" s="15">
         <f t="shared" si="8"/>
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="BO158" s="15">
         <f t="shared" si="8"/>
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="BP158" s="15">
         <f t="shared" si="8"/>
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="BQ158" s="15">
         <f t="shared" si="8"/>
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="BR158" s="15">
         <f t="shared" si="8"/>
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="BS158" s="15">
         <f t="shared" si="8"/>
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="BT158" s="15">
         <f t="shared" si="8"/>
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BU158" s="15">
         <f t="shared" si="8"/>
@@ -25151,10 +25291,10 @@
         <v>525</v>
       </c>
     </row>
-    <row r="159" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="10"/>
       <c r="J159" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K159" s="15">
         <f>K155</f>
@@ -25589,10 +25729,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="160" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="10"/>
       <c r="J160" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K160" s="15">
         <f>SUM(K163:K233)*データ!$D$2</f>
@@ -26027,10 +26167,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="10"/>
     </row>
-    <row r="162" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="10"/>
       <c r="K162" s="13" t="str">
         <f>IF($I5="完了",IF(COUNTA(K6:$DO6)=0,$J5,""),"")</f>
@@ -26046,10 +26186,10 @@
       <c r="S162" s="13"/>
       <c r="T162" s="13"/>
     </row>
-    <row r="163" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="10"/>
       <c r="J163" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K163" s="14">
         <f>IF($J5&lt;&gt;"",$I5*IF(COUNTA(L6:$DN6)=0,$J5,0),0)</f>
@@ -26484,7 +26624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="10"/>
       <c r="K164" s="14">
         <f>IF($J7&lt;&gt;"",$I7*IF(COUNTA(L8:$DN8)=0,$J7,0),0)</f>
@@ -26919,7 +27059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="10"/>
       <c r="K165" s="14">
         <f>IF($J9&lt;&gt;"",$I9*IF(COUNTA(L10:$DN10)=0,$J9,0),0)</f>
@@ -27354,7 +27494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="10"/>
       <c r="K166" s="14">
         <f>IF($J11&lt;&gt;"",$I11*IF(COUNTA(L12:$DN12)=0,$J11,0),0)</f>
@@ -27789,7 +27929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="10"/>
       <c r="K167" s="14">
         <f>IF($J13&lt;&gt;"",$I13*IF(COUNTA(L14:$DN14)=0,$J13,0),0)</f>
@@ -28224,7 +28364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="10"/>
       <c r="K168" s="14">
         <f>IF($J15&lt;&gt;"",$I15*IF(COUNTA(L16:$DN16)=0,$J15,0),0)</f>
@@ -28659,7 +28799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="10"/>
       <c r="K169" s="14">
         <f>IF($J17&lt;&gt;"",$I17*IF(COUNTA(L18:$DN18)=0,$J17,0),0)</f>
@@ -29094,7 +29234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="10"/>
       <c r="K170" s="14">
         <f>IF($J19&lt;&gt;"",$I19*IF(COUNTA(L20:$DN20)=0,$J19,0),0)</f>
@@ -29529,7 +29669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="10"/>
       <c r="K171" s="14">
         <f>IF($J21&lt;&gt;"",$I21*IF(COUNTA(L22:$DN22)=0,$J21,0),0)</f>
@@ -29964,7 +30104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="10"/>
       <c r="K172" s="14">
         <f>IF($J23&lt;&gt;"",$I23*IF(COUNTA(L24:$DN24)=0,$J23,0),0)</f>
@@ -30399,7 +30539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="10"/>
       <c r="K173" s="14">
         <f>IF($J25&lt;&gt;"",$I25*IF(COUNTA(L26:$DN26)=0,$J25,0),0)</f>
@@ -30834,7 +30974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="10"/>
       <c r="K174" s="14">
         <f>IF($J27&lt;&gt;"",$I27*IF(COUNTA(L28:$DN28)=0,$J27,0),0)</f>
@@ -31269,7 +31409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="10"/>
       <c r="K175" s="14">
         <f>IF($J35&lt;&gt;"",$I35*IF(COUNTA(L36:$DN36)=0,$J35,0),0)</f>
@@ -31704,7 +31844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="10"/>
       <c r="K176" s="14">
         <f>IF($J37&lt;&gt;"",$I37*IF(COUNTA(L38:$DN38)=0,$J37,0),0)</f>
@@ -32139,7 +32279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="10"/>
       <c r="K177" s="14">
         <f>IF($J39&lt;&gt;"",$I39*IF(COUNTA(L40:$DN40)=0,$J39,0),0)</f>
@@ -32574,7 +32714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="10"/>
       <c r="K178" s="14">
         <f>IF($J41&lt;&gt;"",$I41*IF(COUNTA(L42:$DN42)=0,$J41,0),0)</f>
@@ -33009,7 +33149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="10"/>
       <c r="K179" s="14">
         <f>IF($J43&lt;&gt;"",$I43*IF(COUNTA(L44:$DN44)=0,$J43,0),0)</f>
@@ -33444,7 +33584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="10"/>
       <c r="K180" s="14">
         <f>IF($J45&lt;&gt;"",$I45*IF(COUNTA(L46:$DN46)=0,$J45,0),0)</f>
@@ -33879,7 +34019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:118" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="10"/>
       <c r="K181" s="14">
         <f>IF($J47&lt;&gt;"",$I47*IF(COUNTA(L48:$DN48)=0,$J47,0),0)</f>
@@ -34314,7 +34454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:118" x14ac:dyDescent="0.15">
       <c r="K182" s="14">
         <f>IF($J49&lt;&gt;"",$I49*IF(COUNTA(L50:$DN50)=0,$J49,0),0)</f>
         <v>0</v>
@@ -34748,7 +34888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:118" x14ac:dyDescent="0.15">
       <c r="K183" s="14">
         <f>IF($J51&lt;&gt;"",$I51*IF(COUNTA(L52:$DN52)=0,$J51,0),0)</f>
         <v>0</v>
@@ -35182,7 +35322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:118" x14ac:dyDescent="0.15">
       <c r="K184" s="14">
         <f>IF($J53&lt;&gt;"",$I53*IF(COUNTA(L54:$DN54)=0,$J53,0),0)</f>
         <v>0</v>
@@ -35616,7 +35756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:118" x14ac:dyDescent="0.15">
       <c r="K185" s="14">
         <f>IF($J55&lt;&gt;"",$I55*IF(COUNTA(L56:$DN56)=0,$J55,0),0)</f>
         <v>0</v>
@@ -36050,7 +36190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:118" x14ac:dyDescent="0.15">
       <c r="K186" s="14">
         <f>IF($J57&lt;&gt;"",$I57*IF(COUNTA(L58:$DN58)=0,$J57,0),0)</f>
         <v>0</v>
@@ -36484,7 +36624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:118" x14ac:dyDescent="0.15">
       <c r="K187" s="14">
         <f>IF($J59&lt;&gt;"",$I59*IF(COUNTA(L60:$DN60)=0,$J59,0),0)</f>
         <v>0</v>
@@ -36918,7 +37058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:118" x14ac:dyDescent="0.15">
       <c r="K188" s="14">
         <f>IF($J61&lt;&gt;"",$I61*IF(COUNTA(L62:$DN62)=0,$J61,0),0)</f>
         <v>0</v>
@@ -37352,7 +37492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:118" x14ac:dyDescent="0.15">
       <c r="K189" s="14">
         <f>IF($J63&lt;&gt;"",$I63*IF(COUNTA(L64:$DN64)=0,$J63,0),0)</f>
         <v>0</v>
@@ -37786,7 +37926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:118" x14ac:dyDescent="0.15">
       <c r="K190" s="14">
         <f>IF($J65&lt;&gt;"",$I65*IF(COUNTA(L66:$DN66)=0,$J65,0),0)</f>
         <v>0</v>
@@ -38220,7 +38360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:118" x14ac:dyDescent="0.15">
       <c r="K191" s="14">
         <f>IF($J67&lt;&gt;"",$I67*IF(COUNTA(L68:$DN68)=0,$J67,0),0)</f>
         <v>0</v>
@@ -38654,7 +38794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:118" x14ac:dyDescent="0.15">
       <c r="K192" s="14">
         <f>IF($J69&lt;&gt;"",$I69*IF(COUNTA(L70:$DN70)=0,$J69,0),0)</f>
         <v>0</v>
@@ -39088,7 +39228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="193" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K193" s="14">
         <f>IF($J71&lt;&gt;"",$I71*IF(COUNTA(L72:$DN72)=0,$J71,0),0)</f>
         <v>0</v>
@@ -39522,7 +39662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="194" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K194" s="14">
         <f>IF($J73&lt;&gt;"",$I73*IF(COUNTA(L74:$DN74)=0,$J73,0),0)</f>
         <v>0</v>
@@ -39956,7 +40096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="195" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K195" s="14">
         <f>IF($J75&lt;&gt;"",$I75*IF(COUNTA(L76:$DN76)=0,$J75,0),0)</f>
         <v>0</v>
@@ -40390,7 +40530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="196" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K196" s="14">
         <f>IF($J77&lt;&gt;"",$I77*IF(COUNTA(L78:$DN78)=0,$J77,0),0)</f>
         <v>0</v>
@@ -40824,7 +40964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="197" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K197" s="14">
         <f>IF($J79&lt;&gt;"",$I79*IF(COUNTA(L80:$DN80)=0,$J79,0),0)</f>
         <v>0</v>
@@ -41258,7 +41398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="198" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K198" s="14">
         <f>IF($J81&lt;&gt;"",$I81*IF(COUNTA(L82:$DN82)=0,$J81,0),0)</f>
         <v>0</v>
@@ -41692,7 +41832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="199" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K199" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(L84:$DN84)=0,$J83,0),0)</f>
         <v>0</v>
@@ -42126,7 +42266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="200" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K200" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(L86:$DN86)=0,$J85,0),0)</f>
         <v>0</v>
@@ -42560,7 +42700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="201" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K201" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(L88:$DN88)=0,$J87,0),0)</f>
         <v>0</v>
@@ -42994,7 +43134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="202" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K202" s="14">
         <f>IF($J89&lt;&gt;"",$I89*IF(COUNTA(L90:$DN90)=0,$J89,0),0)</f>
         <v>0</v>
@@ -43428,7 +43568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="203" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K203" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(L92:$DN92)=0,$J91,0),0)</f>
         <v>0</v>
@@ -43862,7 +44002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="204" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K204" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(L94:$DN94)=0,$J93,0),0)</f>
         <v>0</v>
@@ -44296,7 +44436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="205" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K205" s="14">
         <f>IF($J95&lt;&gt;"",$I95*IF(COUNTA(L96:$DN96)=0,$J95,0),0)</f>
         <v>0</v>
@@ -44730,7 +44870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="206" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K206" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(L98:$DN98)=0,$J97,0),0)</f>
         <v>0</v>
@@ -45164,7 +45304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="207" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K207" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(L100:$DN100)=0,$J99,0),0)</f>
         <v>0</v>
@@ -45598,7 +45738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="208" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K208" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(L102:$DN102)=0,$J101,0),0)</f>
         <v>0</v>
@@ -46032,7 +46172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="209" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K209" s="14">
         <f>IF($J103&lt;&gt;"",$I103*IF(COUNTA(L104:$DN104)=0,$J103,0),0)</f>
         <v>0</v>
@@ -46466,7 +46606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="210" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K210" s="14">
         <f>IF($J105&lt;&gt;"",$I105*IF(COUNTA(L106:$DN106)=0,$J105,0),0)</f>
         <v>0</v>
@@ -46900,7 +47040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="211" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K211" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(L108:$DN108)=0,$J107,0),0)</f>
         <v>0</v>
@@ -47334,7 +47474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="212" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K212" s="14">
         <f>IF($J109&lt;&gt;"",$I109*IF(COUNTA(L110:$DN110)=0,$J109,0),0)</f>
         <v>0</v>
@@ -47768,7 +47908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="213" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K213" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(L112:$DN112)=0,$J111,0),0)</f>
         <v>0</v>
@@ -48202,7 +48342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="214" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K214" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(L114:$DN114)=0,$J113,0),0)</f>
         <v>0</v>
@@ -48636,7 +48776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="215" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K215" s="14">
         <f>IF($J115&lt;&gt;"",$I115*IF(COUNTA(L116:$DN116)=0,$J115,0),0)</f>
         <v>0</v>
@@ -49070,7 +49210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="216" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K216" s="14">
         <f>IF($J117&lt;&gt;"",$I117*IF(COUNTA(L118:$DN118)=0,$J117,0),0)</f>
         <v>0</v>
@@ -49504,7 +49644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="217" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K217" s="14">
         <f>IF($J119&lt;&gt;"",$I119*IF(COUNTA(L120:$DN120)=0,$J119,0),0)</f>
         <v>0</v>
@@ -49938,7 +50078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="218" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K218" s="14">
         <f>IF($J121&lt;&gt;"",$I121*IF(COUNTA(L122:$DN122)=0,$J121,0),0)</f>
         <v>0</v>
@@ -50372,7 +50512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="219" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K219" s="14">
         <f>IF($J123&lt;&gt;"",$I123*IF(COUNTA(L124:$DN124)=0,$J123,0),0)</f>
         <v>0</v>
@@ -50806,7 +50946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="220" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K220" s="14">
         <f>IF($J125&lt;&gt;"",$I125*IF(COUNTA(L126:$DN126)=0,$J125,0),0)</f>
         <v>0</v>
@@ -51240,7 +51380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="221" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K221" s="14">
         <f>IF($J127&lt;&gt;"",$I127*IF(COUNTA(L128:$DN128)=0,$J127,0),0)</f>
         <v>0</v>
@@ -51674,7 +51814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="222" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K222" s="14">
         <f>IF($J129&lt;&gt;"",$I129*IF(COUNTA(L130:$DN130)=0,$J129,0),0)</f>
         <v>0</v>
@@ -52108,7 +52248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="223" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K223" s="14">
         <f>IF($J131&lt;&gt;"",$I131*IF(COUNTA(L132:$DN132)=0,$J131,0),0)</f>
         <v>0</v>
@@ -52542,7 +52682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="224" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K224" s="14">
         <f>IF($J133&lt;&gt;"",$I133*IF(COUNTA(L134:$DN134)=0,$J133,0),0)</f>
         <v>0</v>
@@ -52976,7 +53116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="225" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K225" s="14">
         <f>IF($J135&lt;&gt;"",$I135*IF(COUNTA(L136:$DN136)=0,$J135,0),0)</f>
         <v>0</v>
@@ -53410,7 +53550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="226" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K226" s="14">
         <f>IF($J137&lt;&gt;"",$I137*IF(COUNTA(L138:$DN138)=0,$J137,0),0)</f>
         <v>0</v>
@@ -53844,7 +53984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="227" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K227" s="14">
         <f>IF($J139&lt;&gt;"",$I139*IF(COUNTA(L140:$DN140)=0,$J139,0),0)</f>
         <v>0</v>
@@ -54278,7 +54418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="228" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K228" s="14">
         <f>IF($J141&lt;&gt;"",$I141*IF(COUNTA(L142:$DN142)=0,$J141,0),0)</f>
         <v>0</v>
@@ -54712,7 +54852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="229" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K229" s="14">
         <f>IF($J143&lt;&gt;"",$I143*IF(COUNTA(L144:$DN144)=0,$J143,0),0)</f>
         <v>0</v>
@@ -55146,7 +55286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="230" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K230" s="14">
         <f>IF($J145&lt;&gt;"",$I145*IF(COUNTA(L146:$DN146)=0,$J145,0),0)</f>
         <v>0</v>
@@ -55580,7 +55720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="231" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K231" s="14">
         <f>IF($J147&lt;&gt;"",$I147*IF(COUNTA(L148:$DN148)=0,$J147,0),0)</f>
         <v>0</v>
@@ -56014,7 +56154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="232" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K232" s="14">
         <f>IF($J149&lt;&gt;"",$I149*IF(COUNTA(L150:$DN150)=0,$J149,0),0)</f>
         <v>0</v>
@@ -56448,7 +56588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="11:118" x14ac:dyDescent="0.2">
+    <row r="233" spans="11:118" x14ac:dyDescent="0.15">
       <c r="K233" s="14">
         <f>IF($J151&lt;&gt;"",$I151*IF(COUNTA(L152:$DN152)=0,$J151,0),0)</f>
         <v>0</v>
@@ -56904,114 +57044,554 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="680">
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G41:G42"/>
@@ -57036,985 +57616,561 @@
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="I61:I62"/>
     <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K157:DN157 K35:DN152 K4:DN28">
-    <cfRule type="expression" dxfId="99" priority="175">
+    <cfRule type="expression" dxfId="115" priority="179">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="176">
+    <cfRule type="expression" dxfId="114" priority="180">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="177">
+    <cfRule type="expression" dxfId="113" priority="181">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75 D9:D10 I9:I10 D17:H28 D35:H76">
-    <cfRule type="expression" dxfId="96" priority="174">
+    <cfRule type="expression" dxfId="112" priority="178">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74 J76">
-    <cfRule type="expression" dxfId="95" priority="173">
+    <cfRule type="expression" dxfId="111" priority="177">
       <formula>$C73=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5 J9 J13 J17 J21 J25 J29 J37 J41 J45 J49 J53 J57 J61 J65 J69 J73">
-    <cfRule type="expression" dxfId="94" priority="155">
+    <cfRule type="expression" dxfId="110" priority="159">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6 J10 J14 J18 J22 J26 J30 J38 J42 J46 J50 J54 J58 J62 J66 J70">
-    <cfRule type="expression" dxfId="93" priority="154">
+    <cfRule type="expression" dxfId="109" priority="158">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7 J11 J15 J19 J23 J27 J35 J39 J43 J47 J51 J55 J59 J63 J67 J71">
-    <cfRule type="expression" dxfId="92" priority="153">
+    <cfRule type="expression" dxfId="108" priority="157">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8 J12 J16 J20 J24 J28 J36 J40 J44 J48 J52 J56 J60 J64 J68 J72">
-    <cfRule type="expression" dxfId="91" priority="152">
+    <cfRule type="expression" dxfId="107" priority="156">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I8 D7:E8">
-    <cfRule type="expression" dxfId="90" priority="144">
+    <cfRule type="expression" dxfId="106" priority="148">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H16 D15:E16">
-    <cfRule type="expression" dxfId="89" priority="136">
+    <cfRule type="expression" dxfId="105" priority="140">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:DN75 K73:DN73 K71:DN71 K69:DN69 K67:DN67 K65:DN65 K63:DN63 K57:DN57 K51:DN51 K49:DN49 K47:DN47 K45:DN45 K35:DN35 K27:DN27 K9:DN9 K7:DN7 K43:DN43 K41:DN41 K39:DN39 K5:DN5 K19:DN19 K59:DN59 K61:DN61 K11:DN11 K17:DN17 K15:DN15 K13:DN13 K21:DN21 K23:DN23 K25:DN25 K37:DN37 K55:DN55 K53:DN53">
-    <cfRule type="expression" dxfId="88" priority="147">
+    <cfRule type="expression" dxfId="104" priority="151">
       <formula>K5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K76:DN76 K74:DN74 K72:DN72 K70:DN70 K68:DN68 K66:DN66 K64:DN64 K62:DN62 K60:DN60 K58:DN58 K56:DN56 K54:DN54 K52:DN52 K50:DN50 K48:DN48 K46:DN46 K40:DN40 K38:DN38 K36:DN36 K28:DN28 K26:DN26 K24:DN24 K8:DN8 K6:DN6 K44:DN44 K42:DN42 K20:DN20 K10:DN10 K12:DN12 K14:DN14 K16:DN16 K18:DN18 K22:DN22">
-    <cfRule type="expression" dxfId="87" priority="146">
+    <cfRule type="expression" dxfId="103" priority="150">
       <formula>K6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E12">
-    <cfRule type="expression" dxfId="86" priority="142">
+    <cfRule type="expression" dxfId="102" priority="146">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="expression" dxfId="85" priority="143">
+    <cfRule type="expression" dxfId="101" priority="147">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C12 C17:C28 C35:C76">
-    <cfRule type="expression" dxfId="84" priority="137">
+    <cfRule type="expression" dxfId="100" priority="141">
       <formula>$I7="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="139">
+    <cfRule type="expression" dxfId="99" priority="143">
       <formula>$I7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F12">
-    <cfRule type="expression" dxfId="82" priority="118">
+    <cfRule type="expression" dxfId="98" priority="122">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C16">
-    <cfRule type="expression" dxfId="81" priority="131">
+    <cfRule type="expression" dxfId="97" priority="135">
       <formula>$I15="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="132">
+    <cfRule type="expression" dxfId="96" priority="136">
       <formula>$I15="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="expression" dxfId="79" priority="130">
+    <cfRule type="expression" dxfId="95" priority="134">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="expression" dxfId="78" priority="125">
+    <cfRule type="expression" dxfId="94" priority="129">
       <formula>$I13="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="126">
+    <cfRule type="expression" dxfId="93" priority="130">
       <formula>$I13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10 G9:H10">
-    <cfRule type="expression" dxfId="76" priority="117">
+    <cfRule type="expression" dxfId="92" priority="121">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="expression" dxfId="75" priority="116">
+    <cfRule type="expression" dxfId="91" priority="120">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="74" priority="115">
+    <cfRule type="expression" dxfId="90" priority="119">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:I6">
-    <cfRule type="expression" dxfId="73" priority="88">
+    <cfRule type="expression" dxfId="89" priority="92">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="expression" dxfId="72" priority="86">
+    <cfRule type="expression" dxfId="88" priority="90">
       <formula>$I5="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="87">
+    <cfRule type="expression" dxfId="87" priority="91">
       <formula>$I5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="expression" dxfId="70" priority="84">
+    <cfRule type="expression" dxfId="86" priority="88">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H12">
-    <cfRule type="expression" dxfId="69" priority="83">
+    <cfRule type="expression" dxfId="85" priority="87">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="expression" dxfId="68" priority="82">
+    <cfRule type="expression" dxfId="84" priority="86">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F14">
-    <cfRule type="expression" dxfId="67" priority="81">
+    <cfRule type="expression" dxfId="83" priority="85">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G14">
-    <cfRule type="expression" dxfId="66" priority="80">
+    <cfRule type="expression" dxfId="82" priority="84">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14">
-    <cfRule type="expression" dxfId="65" priority="79">
+    <cfRule type="expression" dxfId="81" priority="83">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79 J81 J85 J87 J89 J91 J93 J105 J107 J109 J111 J113 J115 J117 J119 J121 J123 J125 J127 J129 J131 J103 J97 J99 J95 J83 D79:H132">
-    <cfRule type="expression" dxfId="64" priority="72">
+    <cfRule type="expression" dxfId="80" priority="76">
       <formula>$C79=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80 J82 J86 J88 J90 J92 J94 J106 J108 J110 J112 J114 J116 J118 J120 J122 J124 J126 J128 J130 J132 J104 J98 J100 J96 J84">
-    <cfRule type="expression" dxfId="63" priority="71">
+    <cfRule type="expression" dxfId="79" priority="75">
       <formula>$C79=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77:H78 D77:E78">
-    <cfRule type="expression" dxfId="62" priority="66">
+    <cfRule type="expression" dxfId="78" priority="70">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K131:DN131 K129:DN129 K127:DN127 K125:DN125 K123:DN123 K121:DN121 K119:DN119 K113:DN113 K111:DN111 K109:DN109 K107:DN107 K105:DN105 K103:DN103 K101:DN101 K93:DN93 K91:DN91 K89:DN89 K87:DN87 K85:DN85 K99:DN99 K97:DN97 K95:DN95 K81:DN81 K79:DN79 K77:DN77 K83:DN83 K115:DN115 K117:DN117">
-    <cfRule type="expression" dxfId="61" priority="70">
+    <cfRule type="expression" dxfId="77" priority="74">
       <formula>K77&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K132:DN132 K130:DN130 K128:DN128 K126:DN126 K124:DN124 K122:DN122 K120:DN120 K118:DN118 K116:DN116 K114:DN114 K112:DN112 K110:DN110 K108:DN108 K106:DN106 K104:DN104 K102:DN102 K96:DN96 K94:DN94 K92:DN92 K90:DN90 K88:DN88 K86:DN86 K100:DN100 K98:DN98 K84:DN84 K82:DN82 K80:DN80 K78:DN78">
-    <cfRule type="expression" dxfId="60" priority="69">
+    <cfRule type="expression" dxfId="76" priority="73">
       <formula>K78&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C132">
-    <cfRule type="expression" dxfId="59" priority="67">
+    <cfRule type="expression" dxfId="75" priority="71">
       <formula>$I79="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="68">
+    <cfRule type="expression" dxfId="74" priority="72">
       <formula>$I79="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77">
-    <cfRule type="expression" dxfId="57" priority="65">
+    <cfRule type="expression" dxfId="73" priority="69">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J78">
-    <cfRule type="expression" dxfId="56" priority="64">
+    <cfRule type="expression" dxfId="72" priority="68">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C78">
-    <cfRule type="expression" dxfId="55" priority="62">
+    <cfRule type="expression" dxfId="71" priority="66">
       <formula>$I77="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="63">
+    <cfRule type="expression" dxfId="70" priority="67">
       <formula>$I77="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77:F78">
-    <cfRule type="expression" dxfId="53" priority="61">
+    <cfRule type="expression" dxfId="69" priority="65">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J101">
-    <cfRule type="expression" dxfId="52" priority="60">
+    <cfRule type="expression" dxfId="68" priority="64">
       <formula>$C101=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J102">
-    <cfRule type="expression" dxfId="51" priority="59">
+    <cfRule type="expression" dxfId="67" priority="63">
       <formula>$C101=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J133 J135 J137 J139 J141 J143 J145 J147 J149 J151 D133:H152">
-    <cfRule type="expression" dxfId="50" priority="55">
+    <cfRule type="expression" dxfId="66" priority="59">
       <formula>$C133=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134 J136 J138 J140 J142 J144 J146 J148 J150 J152">
-    <cfRule type="expression" dxfId="49" priority="54">
+    <cfRule type="expression" dxfId="65" priority="58">
       <formula>$C133=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K151:DN151 K149:DN149 K147:DN147 K145:DN145 K143:DN143 K141:DN141 K139:DN139 K133:DN133 K135:DN135 K137:DN137">
-    <cfRule type="expression" dxfId="48" priority="53">
+    <cfRule type="expression" dxfId="64" priority="57">
       <formula>K133&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K152:DN152 K150:DN150 K148:DN148 K146:DN146 K144:DN144 K142:DN142 K140:DN140 K138:DN138 K136:DN136 K134:DN134">
-    <cfRule type="expression" dxfId="47" priority="52">
+    <cfRule type="expression" dxfId="63" priority="56">
       <formula>K134&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C133:C152">
-    <cfRule type="expression" dxfId="46" priority="50">
+    <cfRule type="expression" dxfId="62" priority="54">
       <formula>$I133="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="51">
+    <cfRule type="expression" dxfId="61" priority="55">
       <formula>$I133="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I28 I35:I152">
-    <cfRule type="expression" dxfId="44" priority="49">
+    <cfRule type="expression" dxfId="60" priority="53">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:DN30">
-    <cfRule type="expression" dxfId="43" priority="46">
+    <cfRule type="expression" dxfId="19" priority="50">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="47">
+    <cfRule type="expression" dxfId="18" priority="51">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="48">
+    <cfRule type="expression" dxfId="17" priority="52">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:H30">
-    <cfRule type="expression" dxfId="40" priority="45">
+    <cfRule type="expression" dxfId="59" priority="49">
       <formula>$C29=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:DN29">
-    <cfRule type="expression" dxfId="39" priority="43">
+    <cfRule type="expression" dxfId="16" priority="47">
       <formula>K29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:DN30">
-    <cfRule type="expression" dxfId="38" priority="42">
+    <cfRule type="expression" dxfId="58" priority="46">
       <formula>K30&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C30">
-    <cfRule type="expression" dxfId="37" priority="40">
+    <cfRule type="expression" dxfId="57" priority="44">
       <formula>$I29="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="41">
+    <cfRule type="expression" dxfId="56" priority="45">
       <formula>$I29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I30">
-    <cfRule type="expression" dxfId="35" priority="39">
+    <cfRule type="expression" dxfId="55" priority="43">
       <formula>$C29=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="54" priority="42">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="33" priority="37">
+    <cfRule type="expression" dxfId="53" priority="41">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:DN32 K31:BN31 BU31:DN31">
-    <cfRule type="expression" dxfId="32" priority="34">
+  <conditionalFormatting sqref="K32:DN32 K31:BH31 BU31:DN31">
+    <cfRule type="expression" dxfId="52" priority="38">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="51" priority="39">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="36">
+    <cfRule type="expression" dxfId="50" priority="40">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:H32">
-    <cfRule type="expression" dxfId="29" priority="33">
+    <cfRule type="expression" dxfId="49" priority="37">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:BN31 BU31:DN31">
-    <cfRule type="expression" dxfId="28" priority="32">
+  <conditionalFormatting sqref="K31:BH31 BU31:DN31">
+    <cfRule type="expression" dxfId="48" priority="36">
       <formula>K31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:DN32">
-    <cfRule type="expression" dxfId="27" priority="31">
+    <cfRule type="expression" dxfId="47" priority="35">
       <formula>K32&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C32">
-    <cfRule type="expression" dxfId="26" priority="29">
+    <cfRule type="expression" dxfId="46" priority="33">
       <formula>$I31="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="30">
+    <cfRule type="expression" dxfId="45" priority="34">
       <formula>$I31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I32">
-    <cfRule type="expression" dxfId="24" priority="28">
+    <cfRule type="expression" dxfId="44" priority="32">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="43" priority="31">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="expression" dxfId="22" priority="26">
+    <cfRule type="expression" dxfId="42" priority="30">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:DN34 K33:BP33 BW33:DN33">
-    <cfRule type="expression" dxfId="21" priority="23">
+    <cfRule type="expression" dxfId="41" priority="27">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="40" priority="28">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="25">
+    <cfRule type="expression" dxfId="39" priority="29">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:H34">
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="38" priority="26">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BP33 BW33:DN33">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="37" priority="25">
       <formula>K33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:DN34">
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="36" priority="24">
       <formula>K34&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C34">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="35" priority="22">
       <formula>$I33="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="34" priority="23">
       <formula>$I33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I34">
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="33" priority="21">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO31:BT31">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="32" priority="10">
       <formula>ISERROR(MATCH(BO$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="31" priority="11">
       <formula>WEEKDAY(BO$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="30" priority="12">
       <formula>WEEKDAY(BO$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO31:BT31">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>BO31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ33:BZ33">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="28" priority="6">
       <formula>ISERROR(MATCH(BQ$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>WEEKDAY(BQ$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>WEEKDAY(BQ$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ33:BZ33">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>BQ33&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI31:BN31">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>ISERROR(MATCH(BI$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>WEEKDAY(BI$4)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>WEEKDAY(BI$4)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI31:BN31">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>BI31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -58042,50 +58198,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A27:DH34"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AY30" sqref="AY30"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="CV28" sqref="CV28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" customWidth="1"/>
-    <col min="3" max="8" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" customWidth="1"/>
-    <col min="10" max="15" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" customWidth="1"/>
-    <col min="17" max="18" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="19" max="22" width="8.77734375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="6.44140625" customWidth="1"/>
-    <col min="24" max="29" width="8.77734375" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="6.44140625" customWidth="1"/>
-    <col min="31" max="36" width="8.77734375" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="6.44140625" customWidth="1"/>
-    <col min="38" max="43" width="8.77734375" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="6.44140625" customWidth="1"/>
-    <col min="45" max="50" width="8.77734375" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="6.44140625" customWidth="1"/>
-    <col min="52" max="57" width="8.77734375" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="6.44140625" customWidth="1"/>
-    <col min="59" max="64" width="8.77734375" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="6.44140625" customWidth="1"/>
-    <col min="66" max="71" width="8.77734375" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="6.44140625" customWidth="1"/>
-    <col min="73" max="78" width="8.77734375" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="6.44140625" customWidth="1"/>
-    <col min="80" max="85" width="8.77734375" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="6.44140625" customWidth="1"/>
-    <col min="87" max="92" width="8.77734375" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="6.44140625" customWidth="1"/>
-    <col min="94" max="99" width="8.77734375" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="6.44140625" customWidth="1"/>
-    <col min="101" max="106" width="8.77734375" hidden="1" customWidth="1"/>
-    <col min="107" max="107" width="6.44140625" customWidth="1"/>
-    <col min="108" max="112" width="8.77734375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="8" width="7.625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="10" max="15" width="7.625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.375" customWidth="1"/>
+    <col min="17" max="18" width="7.625" hidden="1" customWidth="1"/>
+    <col min="19" max="22" width="8.75" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5" customWidth="1"/>
+    <col min="24" max="29" width="8.75" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5" customWidth="1"/>
+    <col min="31" max="36" width="8.75" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="6.5" customWidth="1"/>
+    <col min="38" max="43" width="8.75" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="6.5" customWidth="1"/>
+    <col min="45" max="50" width="8.75" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="6.5" customWidth="1"/>
+    <col min="52" max="57" width="8.75" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="6.5" customWidth="1"/>
+    <col min="59" max="64" width="8.75" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="6.5" customWidth="1"/>
+    <col min="66" max="71" width="8.75" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="6.5" customWidth="1"/>
+    <col min="73" max="78" width="8.75" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="6.5" customWidth="1"/>
+    <col min="80" max="85" width="8.75" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="6.5" customWidth="1"/>
+    <col min="87" max="92" width="8.75" hidden="1" customWidth="1"/>
+    <col min="93" max="93" width="6.5" customWidth="1"/>
+    <col min="94" max="99" width="8.75" hidden="1" customWidth="1"/>
+    <col min="100" max="100" width="6.5" customWidth="1"/>
+    <col min="101" max="106" width="8.75" hidden="1" customWidth="1"/>
+    <col min="107" max="107" width="6.5" customWidth="1"/>
+    <col min="108" max="112" width="8.75" hidden="1" customWidth="1"/>
     <col min="113" max="113" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="1:112" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:112" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="str">
         <f>ガント!J157</f>
         <v>日付</v>
@@ -58535,7 +58691,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:112" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:112" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A28" s="29" t="str">
         <f>ガント!J158</f>
         <v>PV</v>
@@ -58742,51 +58898,51 @@
       </c>
       <c r="AZ28" s="30">
         <f>ガント!BI158</f>
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BA28" s="30">
         <f>ガント!BJ158</f>
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="BB28" s="30">
         <f>ガント!BK158</f>
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="BC28" s="30">
         <f>ガント!BL158</f>
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="BD28" s="30">
         <f>ガント!BM158</f>
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="BE28" s="30">
         <f>ガント!BN158</f>
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="BF28" s="30">
         <f>ガント!BO158</f>
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="BG28" s="30">
         <f>ガント!BP158</f>
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="BH28" s="30">
         <f>ガント!BQ158</f>
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="BI28" s="30">
         <f>ガント!BR158</f>
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="BJ28" s="30">
         <f>ガント!BS158</f>
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="BK28" s="30">
         <f>ガント!BT158</f>
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BL28" s="30">
         <f>ガント!BU158</f>
@@ -58985,7 +59141,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A29" s="17" t="str">
         <f>ガント!J159</f>
         <v>AC</v>
@@ -59202,21 +59358,21 @@
         <f ca="1">IF(TODAY()&gt;=BB$27,ガント!BK159,NA())</f>
         <v>247</v>
       </c>
-      <c r="BC29" s="30" t="e">
+      <c r="BC29" s="30">
         <f ca="1">IF(TODAY()&gt;=BC$27,ガント!BL159,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BD29" s="30" t="e">
+        <v>247</v>
+      </c>
+      <c r="BD29" s="30">
         <f ca="1">IF(TODAY()&gt;=BD$27,ガント!BM159,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BE29" s="30" t="e">
+        <v>247</v>
+      </c>
+      <c r="BE29" s="30">
         <f ca="1">IF(TODAY()&gt;=BE$27,ガント!BN159,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BF29" s="30" t="e">
+        <v>247</v>
+      </c>
+      <c r="BF29" s="30">
         <f ca="1">IF(TODAY()&gt;=BF$27,ガント!BO159,NA())</f>
-        <v>#N/A</v>
+        <v>247</v>
       </c>
       <c r="BG29" s="30" t="e">
         <f ca="1">IF(TODAY()&gt;=BG$27,ガント!BP159,NA())</f>
@@ -59435,7 +59591,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:112" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:112" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="str">
         <f>ガント!J160</f>
         <v>EV</v>
@@ -59652,21 +59808,21 @@
         <f ca="1">IF(TODAY()&gt;=BB$27,ガント!BK160,NA())</f>
         <v>247</v>
       </c>
-      <c r="BC30" s="27" t="e">
+      <c r="BC30" s="27">
         <f ca="1">IF(TODAY()&gt;=BC$27,ガント!BL160,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BD30" s="27" t="e">
+        <v>247</v>
+      </c>
+      <c r="BD30" s="27">
         <f ca="1">IF(TODAY()&gt;=BD$27,ガント!BM160,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BE30" s="27" t="e">
+        <v>247</v>
+      </c>
+      <c r="BE30" s="27">
         <f ca="1">IF(TODAY()&gt;=BE$27,ガント!BN160,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BF30" s="27" t="e">
+        <v>247</v>
+      </c>
+      <c r="BF30" s="27">
         <f ca="1">IF(TODAY()&gt;=BF$27,ガント!BO160,NA())</f>
-        <v>#N/A</v>
+        <v>247</v>
       </c>
       <c r="BG30" s="27" t="e">
         <f ca="1">IF(TODAY()&gt;=BG$27,ガント!BP160,NA())</f>
@@ -59885,9 +60041,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:112" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:112" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A31" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="25">
         <f t="shared" ref="B31:AG31" ca="1" si="0">IF(ISERR(B30-B28),NA(),B30-B28)</f>
@@ -60091,31 +60247,31 @@
       </c>
       <c r="AZ31" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>-29</v>
+        <v>-28</v>
       </c>
       <c r="BA31" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>-38</v>
+        <v>-30</v>
       </c>
       <c r="BB31" s="25">
         <f t="shared" ca="1" si="1"/>
+        <v>-36</v>
+      </c>
+      <c r="BC31" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-37</v>
+      </c>
+      <c r="BD31" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-38</v>
+      </c>
+      <c r="BE31" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-40</v>
+      </c>
+      <c r="BF31" s="25">
+        <f t="shared" ca="1" si="1"/>
         <v>-42</v>
-      </c>
-      <c r="BC31" s="25" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BD31" s="25" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE31" s="25" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BF31" s="25" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
       </c>
       <c r="BG31" s="25" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -60334,9 +60490,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="23">
         <f t="shared" ref="B32:AG32" ca="1" si="4">IF(ISERR(B30-B29),NA(),B30-B29)</f>
@@ -60550,21 +60706,21 @@
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="BC32" s="23" t="e">
+      <c r="BC32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BD32" s="23" t="e">
+        <v>0</v>
+      </c>
+      <c r="BD32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE32" s="23" t="e">
+        <v>0</v>
+      </c>
+      <c r="BE32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BF32" s="23" t="e">
+        <v>0</v>
+      </c>
+      <c r="BF32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="BG32" s="23" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -60783,9 +60939,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="28">
         <f t="shared" ref="B33:AG33" ca="1" si="8">IF(ISERR(B30/B28),NA(),B30/B28)</f>
@@ -60989,31 +61145,31 @@
       </c>
       <c r="AZ33" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>0.89492753623188404</v>
+        <v>0.89818181818181819</v>
       </c>
       <c r="BA33" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>0.8666666666666667</v>
+        <v>0.89169675090252709</v>
       </c>
       <c r="BB33" s="28">
         <f t="shared" ca="1" si="9"/>
+        <v>0.87279151943462896</v>
+      </c>
+      <c r="BC33" s="28">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.86971830985915488</v>
+      </c>
+      <c r="BD33" s="28">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="BE33" s="28">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.86062717770034847</v>
+      </c>
+      <c r="BF33" s="28">
+        <f t="shared" ca="1" si="9"/>
         <v>0.8546712802768166</v>
-      </c>
-      <c r="BC33" s="28" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BD33" s="28" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE33" s="28" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BF33" s="28" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
       </c>
       <c r="BG33" s="28" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -61232,9 +61388,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A34" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="28">
         <f t="shared" ref="B34:AG34" ca="1" si="12">IF(ISERR(B30/B29),NA(),B30/B29)</f>
@@ -61448,21 +61604,21 @@
         <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
-      <c r="BC34" s="28" t="e">
+      <c r="BC34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BD34" s="28" t="e">
+        <v>1</v>
+      </c>
+      <c r="BD34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE34" s="28" t="e">
+        <v>1</v>
+      </c>
+      <c r="BE34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BF34" s="28" t="e">
+        <v>1</v>
+      </c>
+      <c r="BF34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="BG34" s="28" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -61691,13 +61847,13 @@
   </customSheetViews>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B27:DH27">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>ISERROR(MATCH(B$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>WEEKDAY(B$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>WEEKDAY(B$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61719,74 +61875,74 @@
       <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="1" customWidth="1"/>
     <col min="2" max="3" width="13" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="32" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="32"/>
-    <col min="8" max="8" width="19.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="D3" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="34" t="s">
+      <c r="D4" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>60</v>
-      </c>
       <c r="G4" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="35">
         <f>ROW()-4</f>
         <v>1</v>
@@ -61799,7 +61955,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="37"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="35">
         <f t="shared" ref="A6:A29" si="0">ROW()-4</f>
         <v>2</v>
@@ -61812,7 +61968,7 @@
       <c r="G6" s="36"/>
       <c r="H6" s="37"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="35">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -61825,7 +61981,7 @@
       <c r="G7" s="36"/>
       <c r="H7" s="37"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="35">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -61838,7 +61994,7 @@
       <c r="G8" s="36"/>
       <c r="H8" s="37"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -61851,7 +62007,7 @@
       <c r="G9" s="36"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="35">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -61864,7 +62020,7 @@
       <c r="G10" s="36"/>
       <c r="H10" s="37"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="35">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -61877,7 +62033,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="37"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="35">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -61890,7 +62046,7 @@
       <c r="G12" s="36"/>
       <c r="H12" s="37"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="35">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -61903,7 +62059,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="35">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -61916,7 +62072,7 @@
       <c r="G14" s="36"/>
       <c r="H14" s="37"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="35">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -61929,7 +62085,7 @@
       <c r="G15" s="36"/>
       <c r="H15" s="37"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="35">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -61942,7 +62098,7 @@
       <c r="G16" s="36"/>
       <c r="H16" s="37"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="35">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -61955,7 +62111,7 @@
       <c r="G17" s="36"/>
       <c r="H17" s="37"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="35">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -61968,7 +62124,7 @@
       <c r="G18" s="36"/>
       <c r="H18" s="37"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="35">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -61981,7 +62137,7 @@
       <c r="G19" s="36"/>
       <c r="H19" s="37"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="35">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -61994,7 +62150,7 @@
       <c r="G20" s="36"/>
       <c r="H20" s="37"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="35">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -62007,7 +62163,7 @@
       <c r="G21" s="36"/>
       <c r="H21" s="37"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="35">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -62020,7 +62176,7 @@
       <c r="G22" s="36"/>
       <c r="H22" s="37"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="35">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -62033,7 +62189,7 @@
       <c r="G23" s="36"/>
       <c r="H23" s="37"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="35">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -62046,7 +62202,7 @@
       <c r="G24" s="36"/>
       <c r="H24" s="37"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="35">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -62059,7 +62215,7 @@
       <c r="G25" s="36"/>
       <c r="H25" s="37"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="35">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -62072,7 +62228,7 @@
       <c r="G26" s="36"/>
       <c r="H26" s="37"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="35">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -62085,7 +62241,7 @@
       <c r="G27" s="36"/>
       <c r="H27" s="37"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="35">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -62098,7 +62254,7 @@
       <c r="G28" s="36"/>
       <c r="H28" s="37"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="35">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -62124,12 +62280,12 @@
   </customSheetViews>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:B29 D4:H29">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>$E4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C29">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>$E4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62157,7 +62313,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <customSheetViews>
     <customSheetView guid="{D7C84124-F7F5-40C3-93A3-6E183C55719E}">
@@ -62178,137 +62334,137 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="90" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="90" t="s">
-        <v>17</v>
       </c>
       <c r="C1" s="90"/>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="8">
         <v>42489</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="8">
         <v>42493</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="8">
         <v>42494</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="8">
         <v>42495</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="8"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="8"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="8"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
     </row>

--- a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/PM演習_管理ツール_矢吹研A班.xlsx
@@ -1731,22 +1731,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1763,29 +1747,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1803,29 +1809,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1834,39 +1834,18 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="104">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1895,97 +1874,6 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2236,6 +2124,34 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2593,34 +2509,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3124,11 +3012,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="341842800"/>
-        <c:axId val="341841624"/>
+        <c:axId val="277999208"/>
+        <c:axId val="277999600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="341842800"/>
+        <c:axId val="277999208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3138,14 +3026,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="341841624"/>
+        <c:crossAx val="277999600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="341841624"/>
+        <c:axId val="277999600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3166,7 +3054,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341842800"/>
+        <c:crossAx val="277999208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3660,7 +3548,7 @@
   <dimension ref="A1:DO233"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="AL5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="AL8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="AS1" sqref="AS1"/>
@@ -3682,65 +3570,65 @@
       <c r="A1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="86"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="83">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="84">
         <v>11.4</v>
       </c>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="80" t="s">
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="83" t="s">
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="77" t="s">
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="72">
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="87">
         <v>42524</v>
       </c>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="74"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="86"/>
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A2" s="45"/>
@@ -3769,25 +3657,25 @@
       <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:118" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="80" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="49" t="s">
@@ -3911,10 +3799,10 @@
       <c r="DN3" s="51"/>
     </row>
     <row r="4" spans="1:118" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="76"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="53" t="str">
         <f>データ!A2</f>
         <v>川崎</v>
@@ -3931,7 +3819,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>小山</v>
       </c>
-      <c r="I4" s="79"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="54" t="s">
         <v>20</v>
       </c>
@@ -4261,20 +4149,20 @@
       </c>
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A5" s="64">
-        <v>0</v>
-      </c>
-      <c r="B5" s="68" t="str">
+      <c r="A5" s="70">
+        <v>0</v>
+      </c>
+      <c r="B5" s="64" t="str">
         <f>B1</f>
         <v>コンビニ弁当データベース開発</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="84"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="55" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K5:DN5)/データ!$D$2,"")</f>
         <v/>
@@ -4389,15 +4277,15 @@
       <c r="DN5" s="19"/>
     </row>
     <row r="6" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A6" s="64"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="84"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="56" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K6:DN6)/データ!$D$2,"")</f>
         <v/>
@@ -4512,19 +4400,19 @@
       <c r="DN6" s="21"/>
     </row>
     <row r="7" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A7" s="64">
+      <c r="A7" s="70">
         <v>1</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="84"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="55" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DN7)/データ!$D$2,"")</f>
         <v/>
@@ -4639,15 +4527,15 @@
       <c r="DN7" s="19"/>
     </row>
     <row r="8" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="84"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="56" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DN8)/データ!$D$2,"")</f>
         <v/>
@@ -4762,23 +4650,23 @@
       <c r="DN8" s="21"/>
     </row>
     <row r="9" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A9" s="64">
+      <c r="A9" s="70">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="68" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="66">
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="68">
         <v>1</v>
       </c>
       <c r="J9" s="55">
@@ -4905,15 +4793,15 @@
       <c r="DN9" s="19"/>
     </row>
     <row r="10" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="67"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="69"/>
       <c r="J10" s="56">
         <f>IF(C9&lt;&gt;"",SUM(K10:DN10)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -5038,25 +4926,25 @@
       <c r="DN10" s="21"/>
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A11" s="64">
+      <c r="A11" s="70">
         <v>1.2</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="66">
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="68">
         <v>1</v>
       </c>
       <c r="J11" s="55">
@@ -5183,15 +5071,15 @@
       <c r="DN11" s="19"/>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="67"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="69"/>
       <c r="J12" s="56">
         <f>IF(C11&lt;&gt;"",SUM(K12:DN12)/データ!$D$2,"")</f>
         <v>4.875</v>
@@ -5322,25 +5210,25 @@
       <c r="DN12" s="21"/>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A13" s="64">
+      <c r="A13" s="70">
         <v>1.3</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="66">
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="68">
         <v>1</v>
       </c>
       <c r="J13" s="55">
@@ -5459,15 +5347,15 @@
       <c r="DN13" s="19"/>
     </row>
     <row r="14" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="67"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="69"/>
       <c r="J14" s="56">
         <f>IF(C13&lt;&gt;"",SUM(K14:DN14)/データ!$D$2,"")</f>
         <v>0.25</v>
@@ -5586,25 +5474,25 @@
       <c r="DN14" s="21"/>
     </row>
     <row r="15" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A15" s="68">
+      <c r="A15" s="64">
         <v>1.4</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="66">
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="68">
         <v>1</v>
       </c>
       <c r="J15" s="55">
@@ -5731,15 +5619,15 @@
       <c r="DN15" s="19"/>
     </row>
     <row r="16" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="67"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="69"/>
       <c r="J16" s="56">
         <f>IF(C15&lt;&gt;"",SUM(K16:DN16)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -5864,31 +5752,31 @@
       <c r="DN16" s="21"/>
     </row>
     <row r="17" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A17" s="68">
+      <c r="A17" s="64">
         <v>2</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="70" t="s">
+      <c r="G17" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="66">
+      <c r="I17" s="68">
         <v>1</v>
       </c>
       <c r="J17" s="55">
@@ -6019,15 +5907,15 @@
       <c r="DN17" s="19"/>
     </row>
     <row r="18" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="67"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="69"/>
       <c r="J18" s="56">
         <f>IF(C17&lt;&gt;"",SUM(K18:DN18)/データ!$D$2,"")</f>
         <v>10.25</v>
@@ -6184,19 +6072,19 @@
       <c r="DN18" s="21"/>
     </row>
     <row r="19" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A19" s="68">
+      <c r="A19" s="64">
         <v>3</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="66"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="68"/>
       <c r="J19" s="55" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K19:DN19)/データ!$D$2,"")</f>
         <v/>
@@ -6311,15 +6199,15 @@
       <c r="DN19" s="19"/>
     </row>
     <row r="20" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="67"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="69"/>
       <c r="J20" s="56" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K20:DN20)/データ!$D$2,"")</f>
         <v/>
@@ -6434,27 +6322,27 @@
       <c r="DN20" s="21"/>
     </row>
     <row r="21" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="68">
+      <c r="A21" s="64">
         <v>3.1</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70" t="s">
+      <c r="F21" s="66"/>
+      <c r="G21" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="70" t="s">
+      <c r="H21" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="66">
+      <c r="I21" s="68">
         <v>1</v>
       </c>
       <c r="J21" s="55">
@@ -6583,15 +6471,15 @@
       <c r="DN21" s="19"/>
     </row>
     <row r="22" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="67"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="69"/>
       <c r="J22" s="56">
         <f>IF(C21&lt;&gt;"",SUM(K22:DN22)/データ!$D$2,"")</f>
         <v>7.25</v>
@@ -6734,25 +6622,25 @@
       <c r="DN22" s="21"/>
     </row>
     <row r="23" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A23" s="68">
+      <c r="A23" s="64">
         <v>3.2</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68" t="s">
+      <c r="B23" s="64"/>
+      <c r="C23" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70" t="s">
+      <c r="F23" s="66"/>
+      <c r="G23" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="70"/>
-      <c r="I23" s="66">
+      <c r="H23" s="66"/>
+      <c r="I23" s="68">
         <v>1</v>
       </c>
       <c r="J23" s="55">
@@ -6879,15 +6767,15 @@
       <c r="DN23" s="19"/>
     </row>
     <row r="24" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="67"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="69"/>
       <c r="J24" s="56">
         <f>IF(C23&lt;&gt;"",SUM(K24:DN24)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -7006,25 +6894,25 @@
       <c r="DN24" s="21"/>
     </row>
     <row r="25" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="68">
+      <c r="A25" s="64">
         <v>4</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="66">
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="68">
         <v>1</v>
       </c>
       <c r="J25" s="55">
@@ -7149,15 +7037,15 @@
       <c r="DN25" s="19"/>
     </row>
     <row r="26" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="67"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="69"/>
       <c r="J26" s="56">
         <f>IF(C25&lt;&gt;"",SUM(K26:DN26)/データ!$D$2,"")</f>
         <v>1.25</v>
@@ -7276,19 +7164,19 @@
       <c r="DN26" s="21"/>
     </row>
     <row r="27" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="68">
+      <c r="A27" s="64">
         <v>5</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="66"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="68"/>
       <c r="J27" s="55" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K27:DN27)/データ!$D$2,"")</f>
         <v/>
@@ -7403,15 +7291,15 @@
       <c r="DN27" s="19"/>
     </row>
     <row r="28" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="67"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="69"/>
       <c r="J28" s="56" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K28:DN28)/データ!$D$2,"")</f>
         <v/>
@@ -7526,27 +7414,27 @@
       <c r="DN28" s="21"/>
     </row>
     <row r="29" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="68">
+      <c r="A29" s="64">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68" t="s">
+      <c r="B29" s="64"/>
+      <c r="C29" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70" t="s">
+      <c r="G29" s="66"/>
+      <c r="H29" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="I29" s="66"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="55">
         <f>IF(C29&lt;&gt;"",SUM(K29:DN29)/データ!$D$2,"")</f>
         <v>4.5</v>
@@ -7673,15 +7561,15 @@
       <c r="DN29" s="19"/>
     </row>
     <row r="30" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A30" s="69"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="67"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="69"/>
       <c r="J30" s="56">
         <f>IF(C29&lt;&gt;"",SUM(K30:DN30)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7796,27 +7684,27 @@
       <c r="DN30" s="21"/>
     </row>
     <row r="31" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="68">
+      <c r="A31" s="64">
         <v>5.2</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70" t="s">
+      <c r="F31" s="66"/>
+      <c r="G31" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="70" t="s">
+      <c r="H31" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="I31" s="66"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="55">
         <f>IF(C31&lt;&gt;"",SUM(K31:DN31)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -7943,15 +7831,15 @@
       <c r="DN31" s="19"/>
     </row>
     <row r="32" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A32" s="69"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="67"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="69"/>
       <c r="J32" s="56">
         <f>IF(C31&lt;&gt;"",SUM(K32:DN32)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8066,29 +7954,29 @@
       <c r="DN32" s="21"/>
     </row>
     <row r="33" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="68">
+      <c r="A33" s="64">
         <v>6</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="70" t="s">
+      <c r="G33" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="70"/>
-      <c r="I33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="68"/>
       <c r="J33" s="55">
         <f>IF(C33&lt;&gt;"",SUM(K33:DN33)/データ!$D$2,"")</f>
         <v>3.75</v>
@@ -8215,15 +8103,15 @@
       <c r="DN33" s="19"/>
     </row>
     <row r="34" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A34" s="69"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="67"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="69"/>
       <c r="J34" s="56">
         <f>IF(C33&lt;&gt;"",SUM(K34:DN34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8338,29 +8226,29 @@
       <c r="DN34" s="21"/>
     </row>
     <row r="35" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A35" s="68">
+      <c r="A35" s="64">
         <v>7</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="68"/>
-      <c r="E35" s="70" t="s">
+      <c r="D35" s="64"/>
+      <c r="E35" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="F35" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="70" t="s">
+      <c r="G35" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="70" t="s">
+      <c r="H35" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="66"/>
+      <c r="I35" s="68"/>
       <c r="J35" s="55">
         <f>IF(C35&lt;&gt;"",SUM(K35:DN35)/データ!$D$2,"")</f>
         <v>10</v>
@@ -8503,15 +8391,15 @@
       <c r="DN35" s="19"/>
     </row>
     <row r="36" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A36" s="69"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="67"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="69"/>
       <c r="J36" s="56">
         <f>IF(C35&lt;&gt;"",SUM(K36:DN36)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8626,23 +8514,23 @@
       <c r="DN36" s="21"/>
     </row>
     <row r="37" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A37" s="68">
+      <c r="A37" s="64">
         <v>8</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="68"/>
       <c r="J37" s="55">
         <f>IF(C37&lt;&gt;"",SUM(K37:DN37)/データ!$D$2,"")</f>
         <v>5</v>
@@ -8777,15 +8665,15 @@
       <c r="DN37" s="19"/>
     </row>
     <row r="38" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A38" s="69"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="67"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="69"/>
       <c r="J38" s="56">
         <f>IF(C37&lt;&gt;"",SUM(K38:DN38)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8900,19 +8788,19 @@
       <c r="DN38" s="21"/>
     </row>
     <row r="39" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="68">
+      <c r="A39" s="64">
         <v>9</v>
       </c>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="66"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="68"/>
       <c r="J39" s="55" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K39:DN39)/データ!$D$2,"")</f>
         <v/>
@@ -9027,15 +8915,15 @@
       <c r="DN39" s="19"/>
     </row>
     <row r="40" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A40" s="69"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="67"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="69"/>
       <c r="J40" s="56" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K40:DN40)/データ!$D$2,"")</f>
         <v/>
@@ -9150,25 +9038,25 @@
       <c r="DN40" s="21"/>
     </row>
     <row r="41" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A41" s="68">
+      <c r="A41" s="64">
         <v>9.1</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68" t="s">
+      <c r="B41" s="64"/>
+      <c r="C41" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="F41" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="68"/>
       <c r="J41" s="55">
         <f>IF(C41&lt;&gt;"",SUM(K41:DN41)/データ!$D$2,"")</f>
         <v>1.5</v>
@@ -9289,15 +9177,15 @@
       <c r="DN41" s="19"/>
     </row>
     <row r="42" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A42" s="69"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="67"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="69"/>
       <c r="J42" s="56">
         <f>IF(C41&lt;&gt;"",SUM(K42:DN42)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9412,25 +9300,25 @@
       <c r="DN42" s="21"/>
     </row>
     <row r="43" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A43" s="68">
+      <c r="A43" s="64">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68" t="s">
+      <c r="B43" s="64"/>
+      <c r="C43" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70" t="s">
+      <c r="F43" s="66"/>
+      <c r="G43" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H43" s="70"/>
-      <c r="I43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="68"/>
       <c r="J43" s="55">
         <f>IF(C43&lt;&gt;"",SUM(K43:DN43)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -9551,15 +9439,15 @@
       <c r="DN43" s="19"/>
     </row>
     <row r="44" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A44" s="69"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="67"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="69"/>
       <c r="J44" s="56">
         <f>IF(C43&lt;&gt;"",SUM(K44:DN44)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9674,19 +9562,19 @@
       <c r="DN44" s="21"/>
     </row>
     <row r="45" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="68">
+      <c r="A45" s="64">
         <v>10</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="66"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="68"/>
       <c r="J45" s="55" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K45:DN45)/データ!$D$2,"")</f>
         <v/>
@@ -9801,15 +9689,15 @@
       <c r="DN45" s="19"/>
     </row>
     <row r="46" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A46" s="69"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="67"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="69"/>
       <c r="J46" s="56" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K46:DN46)/データ!$D$2,"")</f>
         <v/>
@@ -9924,23 +9812,23 @@
       <c r="DN46" s="21"/>
     </row>
     <row r="47" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A47" s="68">
+      <c r="A47" s="64">
         <v>10.1</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68" t="s">
+      <c r="B47" s="64"/>
+      <c r="C47" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="70" t="s">
+      <c r="E47" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="55">
         <f>IF(C47&lt;&gt;"",SUM(K47:DN47)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -10061,15 +9949,15 @@
       <c r="DN47" s="19"/>
     </row>
     <row r="48" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A48" s="69"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="67"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="69"/>
       <c r="J48" s="56">
         <f>IF(C47&lt;&gt;"",SUM(K48:DN48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10184,23 +10072,23 @@
       <c r="DN48" s="21"/>
     </row>
     <row r="49" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A49" s="64">
+      <c r="A49" s="70">
         <v>10.199999999999999</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64" t="s">
+      <c r="B49" s="70"/>
+      <c r="C49" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="64" t="s">
+      <c r="D49" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="65" t="s">
+      <c r="E49" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="66"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="68"/>
       <c r="J49" s="55">
         <f>IF(C49&lt;&gt;"",SUM(K49:DN49)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10315,15 +10203,15 @@
       <c r="DN49" s="19"/>
     </row>
     <row r="50" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="67"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="69"/>
       <c r="J50" s="56">
         <f>IF(C49&lt;&gt;"",SUM(K50:DN50)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10438,19 +10326,19 @@
       <c r="DN50" s="21"/>
     </row>
     <row r="51" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A51" s="64">
+      <c r="A51" s="70">
         <v>11</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="66"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="68"/>
       <c r="J51" s="55" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K51:DN51)/データ!$D$2,"")</f>
         <v/>
@@ -10565,15 +10453,15 @@
       <c r="DN51" s="19"/>
     </row>
     <row r="52" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="67"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="69"/>
       <c r="J52" s="56" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K52:DN52)/データ!$D$2,"")</f>
         <v/>
@@ -10688,25 +10576,25 @@
       <c r="DN52" s="21"/>
     </row>
     <row r="53" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A53" s="64">
+      <c r="A53" s="70">
         <v>11.1</v>
       </c>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64" t="s">
+      <c r="B53" s="70"/>
+      <c r="C53" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="64" t="s">
+      <c r="D53" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="65" t="s">
+      <c r="E53" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="65" t="s">
+      <c r="F53" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="66"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="68"/>
       <c r="J53" s="55">
         <f>IF(C53&lt;&gt;"",SUM(K53:DN53)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -10847,15 +10735,15 @@
       <c r="DN53" s="19"/>
     </row>
     <row r="54" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A54" s="64"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="67"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="69"/>
       <c r="J54" s="56">
         <f>IF(C53&lt;&gt;"",SUM(K54:DN54)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -10978,23 +10866,23 @@
       <c r="DN54" s="21"/>
     </row>
     <row r="55" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A55" s="64">
+      <c r="A55" s="70">
         <v>11.2</v>
       </c>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64" t="s">
+      <c r="B55" s="70"/>
+      <c r="C55" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="64" t="s">
+      <c r="D55" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="E55" s="65" t="s">
+      <c r="E55" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="66"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="68"/>
       <c r="J55" s="55">
         <f>IF(C55&lt;&gt;"",SUM(K55:DN55)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -11135,15 +11023,15 @@
       <c r="DN55" s="19"/>
     </row>
     <row r="56" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A56" s="64"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="67"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="69"/>
       <c r="J56" s="56">
         <f>IF(C55&lt;&gt;"",SUM(K56:DN56)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11266,23 +11154,23 @@
       <c r="DN56" s="21"/>
     </row>
     <row r="57" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A57" s="64">
+      <c r="A57" s="70">
         <v>11.3</v>
       </c>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64" t="s">
+      <c r="B57" s="70"/>
+      <c r="C57" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="64" t="s">
+      <c r="D57" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="65" t="s">
+      <c r="E57" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="66"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="68"/>
       <c r="J57" s="55">
         <f>IF(C57&lt;&gt;"",SUM(K57:DN57)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11399,15 +11287,15 @@
       <c r="DN57" s="19"/>
     </row>
     <row r="58" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A58" s="64"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="67"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="69"/>
       <c r="J58" s="56">
         <f>IF(C57&lt;&gt;"",SUM(K58:DN58)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11524,23 +11412,23 @@
       <c r="DN58" s="21"/>
     </row>
     <row r="59" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A59" s="64">
+      <c r="A59" s="70">
         <v>11.4</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64" t="s">
+      <c r="B59" s="70"/>
+      <c r="C59" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="64" t="s">
+      <c r="D59" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="E59" s="65" t="s">
+      <c r="E59" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="66">
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="68">
         <v>0.5</v>
       </c>
       <c r="J59" s="55">
@@ -11659,15 +11547,15 @@
       <c r="DN59" s="19"/>
     </row>
     <row r="60" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A60" s="64"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="67"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="69"/>
       <c r="J60" s="56">
         <f>IF(C59&lt;&gt;"",SUM(K60:DN60)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11784,15 +11672,15 @@
       <c r="DN60" s="21"/>
     </row>
     <row r="61" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A61" s="64"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="66"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="68"/>
       <c r="J61" s="55" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DN61)/データ!$D$2,"")</f>
         <v/>
@@ -11907,15 +11795,15 @@
       <c r="DN61" s="19"/>
     </row>
     <row r="62" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A62" s="64"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="67"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="69"/>
       <c r="J62" s="56" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DN62)/データ!$D$2,"")</f>
         <v/>
@@ -12030,15 +11918,15 @@
       <c r="DN62" s="21"/>
     </row>
     <row r="63" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A63" s="64"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="66"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="68"/>
       <c r="J63" s="55" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K63:DN63)/データ!$D$2,"")</f>
         <v/>
@@ -12153,15 +12041,15 @@
       <c r="DN63" s="19"/>
     </row>
     <row r="64" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A64" s="64"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="67"/>
+      <c r="A64" s="70"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="69"/>
       <c r="J64" s="56" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K64:DN64)/データ!$D$2,"")</f>
         <v/>
@@ -12276,15 +12164,15 @@
       <c r="DN64" s="21"/>
     </row>
     <row r="65" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A65" s="64"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="66"/>
+      <c r="A65" s="70"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="68"/>
       <c r="J65" s="55" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K65:DN65)/データ!$D$2,"")</f>
         <v/>
@@ -12399,15 +12287,15 @@
       <c r="DN65" s="19"/>
     </row>
     <row r="66" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A66" s="64"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="67"/>
+      <c r="A66" s="70"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="69"/>
       <c r="J66" s="56" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K66:DN66)/データ!$D$2,"")</f>
         <v/>
@@ -12522,15 +12410,15 @@
       <c r="DN66" s="21"/>
     </row>
     <row r="67" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A67" s="64"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="66"/>
+      <c r="A67" s="70"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="68"/>
       <c r="J67" s="55" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DN67)/データ!$D$2,"")</f>
         <v/>
@@ -12645,15 +12533,15 @@
       <c r="DN67" s="19"/>
     </row>
     <row r="68" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A68" s="64"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="67"/>
+      <c r="A68" s="70"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="69"/>
       <c r="J68" s="56" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DN68)/データ!$D$2,"")</f>
         <v/>
@@ -12768,15 +12656,15 @@
       <c r="DN68" s="21"/>
     </row>
     <row r="69" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A69" s="64"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="66"/>
+      <c r="A69" s="70"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="68"/>
       <c r="J69" s="55" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DN69)/データ!$D$2,"")</f>
         <v/>
@@ -12891,15 +12779,15 @@
       <c r="DN69" s="19"/>
     </row>
     <row r="70" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A70" s="64"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="67"/>
+      <c r="A70" s="70"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="69"/>
       <c r="J70" s="56" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DN70)/データ!$D$2,"")</f>
         <v/>
@@ -13014,15 +12902,15 @@
       <c r="DN70" s="21"/>
     </row>
     <row r="71" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A71" s="68"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="66"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="68"/>
       <c r="J71" s="55" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K71:DN71)/データ!$D$2,"")</f>
         <v/>
@@ -13137,15 +13025,15 @@
       <c r="DN71" s="19"/>
     </row>
     <row r="72" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A72" s="69"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="67"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="69"/>
       <c r="J72" s="56" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K72:DN72)/データ!$D$2,"")</f>
         <v/>
@@ -13260,15 +13148,15 @@
       <c r="DN72" s="21"/>
     </row>
     <row r="73" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A73" s="64"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="66"/>
+      <c r="A73" s="70"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="68"/>
       <c r="J73" s="55" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K73:DN73)/データ!$D$2,"")</f>
         <v/>
@@ -13383,15 +13271,15 @@
       <c r="DN73" s="19"/>
     </row>
     <row r="74" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A74" s="64"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="67"/>
+      <c r="A74" s="70"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="69"/>
       <c r="J74" s="56" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K74:DN74)/データ!$D$2,"")</f>
         <v/>
@@ -13506,15 +13394,15 @@
       <c r="DN74" s="21"/>
     </row>
     <row r="75" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A75" s="64"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="66"/>
+      <c r="A75" s="70"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="68"/>
       <c r="J75" s="55" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K75:DN75)/データ!$D$2,"")</f>
         <v/>
@@ -13629,15 +13517,15 @@
       <c r="DN75" s="19"/>
     </row>
     <row r="76" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A76" s="64"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="67"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="69"/>
       <c r="J76" s="56" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K76:DN76)/データ!$D$2,"")</f>
         <v/>
@@ -13752,15 +13640,15 @@
       <c r="DN76" s="21"/>
     </row>
     <row r="77" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A77" s="68"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="70"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="66"/>
+      <c r="A77" s="64"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="68"/>
       <c r="J77" s="55" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DN77)/データ!$D$2,"")</f>
         <v/>
@@ -13875,15 +13763,15 @@
       <c r="DN77" s="19"/>
     </row>
     <row r="78" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A78" s="69"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="67"/>
+      <c r="A78" s="65"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="69"/>
       <c r="J78" s="56" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DN78)/データ!$D$2,"")</f>
         <v/>
@@ -13998,15 +13886,15 @@
       <c r="DN78" s="21"/>
     </row>
     <row r="79" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A79" s="68"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="70"/>
-      <c r="H79" s="70"/>
-      <c r="I79" s="66"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="68"/>
       <c r="J79" s="55" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K79:DN79)/データ!$D$2,"")</f>
         <v/>
@@ -14121,15 +14009,15 @@
       <c r="DN79" s="19"/>
     </row>
     <row r="80" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A80" s="69"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="67"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="69"/>
       <c r="J80" s="56" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K80:DN80)/データ!$D$2,"")</f>
         <v/>
@@ -14244,15 +14132,15 @@
       <c r="DN80" s="21"/>
     </row>
     <row r="81" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A81" s="68"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="70"/>
-      <c r="H81" s="70"/>
-      <c r="I81" s="66"/>
+      <c r="A81" s="64"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="68"/>
       <c r="J81" s="55" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K81:DN81)/データ!$D$2,"")</f>
         <v/>
@@ -14367,15 +14255,15 @@
       <c r="DN81" s="19"/>
     </row>
     <row r="82" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A82" s="69"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="67"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="69"/>
       <c r="J82" s="56" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K82:DN82)/データ!$D$2,"")</f>
         <v/>
@@ -14490,15 +14378,15 @@
       <c r="DN82" s="21"/>
     </row>
     <row r="83" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="68"/>
-      <c r="B83" s="68"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="70"/>
-      <c r="H83" s="70"/>
-      <c r="I83" s="66"/>
+      <c r="A83" s="64"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="68"/>
       <c r="J83" s="55" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K83:DN83)/データ!$D$2,"")</f>
         <v/>
@@ -14613,15 +14501,15 @@
       <c r="DN83" s="19"/>
     </row>
     <row r="84" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A84" s="69"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="67"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="69"/>
       <c r="J84" s="56" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K84:DN84)/データ!$D$2,"")</f>
         <v/>
@@ -14736,15 +14624,15 @@
       <c r="DN84" s="21"/>
     </row>
     <row r="85" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A85" s="68"/>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="70"/>
-      <c r="I85" s="66"/>
+      <c r="A85" s="64"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="68"/>
       <c r="J85" s="55" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DN85)/データ!$D$2,"")</f>
         <v/>
@@ -14859,15 +14747,15 @@
       <c r="DN85" s="19"/>
     </row>
     <row r="86" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A86" s="69"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="67"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="69"/>
       <c r="J86" s="56" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DN86)/データ!$D$2,"")</f>
         <v/>
@@ -14982,15 +14870,15 @@
       <c r="DN86" s="21"/>
     </row>
     <row r="87" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="68"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70"/>
-      <c r="I87" s="66"/>
+      <c r="A87" s="64"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="68"/>
       <c r="J87" s="55" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K87:DN87)/データ!$D$2,"")</f>
         <v/>
@@ -15105,15 +14993,15 @@
       <c r="DN87" s="19"/>
     </row>
     <row r="88" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A88" s="69"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="67"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="69"/>
       <c r="J88" s="56" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K88:DN88)/データ!$D$2,"")</f>
         <v/>
@@ -15228,15 +15116,15 @@
       <c r="DN88" s="21"/>
     </row>
     <row r="89" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="68"/>
-      <c r="B89" s="68"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="66"/>
+      <c r="A89" s="64"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="68"/>
       <c r="J89" s="55" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K89:DN89)/データ!$D$2,"")</f>
         <v/>
@@ -15351,15 +15239,15 @@
       <c r="DN89" s="19"/>
     </row>
     <row r="90" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A90" s="69"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="67"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="69"/>
       <c r="J90" s="56" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K90:DN90)/データ!$D$2,"")</f>
         <v/>
@@ -15474,15 +15362,15 @@
       <c r="DN90" s="21"/>
     </row>
     <row r="91" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A91" s="68"/>
-      <c r="B91" s="68"/>
-      <c r="C91" s="68"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="66"/>
+      <c r="A91" s="64"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="68"/>
       <c r="J91" s="55" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K91:DN91)/データ!$D$2,"")</f>
         <v/>
@@ -15597,15 +15485,15 @@
       <c r="DN91" s="19"/>
     </row>
     <row r="92" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A92" s="69"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="71"/>
-      <c r="I92" s="67"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="69"/>
       <c r="J92" s="56" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K92:DN92)/データ!$D$2,"")</f>
         <v/>
@@ -15720,15 +15608,15 @@
       <c r="DN92" s="21"/>
     </row>
     <row r="93" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A93" s="68"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="70"/>
-      <c r="G93" s="70"/>
-      <c r="H93" s="70"/>
-      <c r="I93" s="66"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="64"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="68"/>
       <c r="J93" s="55" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K93:DN93)/データ!$D$2,"")</f>
         <v/>
@@ -15843,15 +15731,15 @@
       <c r="DN93" s="19"/>
     </row>
     <row r="94" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A94" s="69"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="71"/>
-      <c r="H94" s="71"/>
-      <c r="I94" s="67"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="69"/>
       <c r="J94" s="56" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K94:DN94)/データ!$D$2,"")</f>
         <v/>
@@ -15966,15 +15854,15 @@
       <c r="DN94" s="21"/>
     </row>
     <row r="95" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="68"/>
-      <c r="B95" s="68"/>
-      <c r="C95" s="68"/>
-      <c r="D95" s="68"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="70"/>
-      <c r="I95" s="66"/>
+      <c r="A95" s="64"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="68"/>
       <c r="J95" s="55" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DN95)/データ!$D$2,"")</f>
         <v/>
@@ -16089,15 +15977,15 @@
       <c r="DN95" s="19"/>
     </row>
     <row r="96" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A96" s="69"/>
-      <c r="B96" s="69"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="71"/>
-      <c r="F96" s="71"/>
-      <c r="G96" s="71"/>
-      <c r="H96" s="71"/>
-      <c r="I96" s="67"/>
+      <c r="A96" s="65"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="69"/>
       <c r="J96" s="56" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DN96)/データ!$D$2,"")</f>
         <v/>
@@ -16212,15 +16100,15 @@
       <c r="DN96" s="21"/>
     </row>
     <row r="97" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A97" s="68"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="68"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="70"/>
-      <c r="H97" s="70"/>
-      <c r="I97" s="66"/>
+      <c r="A97" s="64"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="68"/>
       <c r="J97" s="55" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DN97)/データ!$D$2,"")</f>
         <v/>
@@ -16335,15 +16223,15 @@
       <c r="DN97" s="19"/>
     </row>
     <row r="98" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A98" s="69"/>
-      <c r="B98" s="69"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="71"/>
-      <c r="G98" s="71"/>
-      <c r="H98" s="71"/>
-      <c r="I98" s="67"/>
+      <c r="A98" s="65"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="69"/>
       <c r="J98" s="56" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DN98)/データ!$D$2,"")</f>
         <v/>
@@ -16458,15 +16346,15 @@
       <c r="DN98" s="21"/>
     </row>
     <row r="99" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A99" s="68"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="70"/>
-      <c r="I99" s="66"/>
+      <c r="A99" s="64"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="64"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="68"/>
       <c r="J99" s="55" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DN99)/データ!$D$2,"")</f>
         <v/>
@@ -16581,15 +16469,15 @@
       <c r="DN99" s="19"/>
     </row>
     <row r="100" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A100" s="69"/>
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="71"/>
-      <c r="F100" s="71"/>
-      <c r="G100" s="71"/>
-      <c r="H100" s="71"/>
-      <c r="I100" s="67"/>
+      <c r="A100" s="65"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="69"/>
       <c r="J100" s="56" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DN100)/データ!$D$2,"")</f>
         <v/>
@@ -16704,15 +16592,15 @@
       <c r="DN100" s="21"/>
     </row>
     <row r="101" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="68"/>
-      <c r="B101" s="68"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="70"/>
-      <c r="I101" s="66"/>
+      <c r="A101" s="64"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="66"/>
+      <c r="I101" s="68"/>
       <c r="J101" s="55" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DN101)/データ!$D$2,"")</f>
         <v/>
@@ -16827,15 +16715,15 @@
       <c r="DN101" s="19"/>
     </row>
     <row r="102" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A102" s="69"/>
-      <c r="B102" s="69"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="71"/>
-      <c r="F102" s="71"/>
-      <c r="G102" s="71"/>
-      <c r="H102" s="71"/>
-      <c r="I102" s="67"/>
+      <c r="A102" s="65"/>
+      <c r="B102" s="65"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="69"/>
       <c r="J102" s="56" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DN102)/データ!$D$2,"")</f>
         <v/>
@@ -16950,15 +16838,15 @@
       <c r="DN102" s="21"/>
     </row>
     <row r="103" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A103" s="68"/>
-      <c r="B103" s="68"/>
-      <c r="C103" s="68"/>
-      <c r="D103" s="68"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="66"/>
+      <c r="A103" s="64"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="66"/>
+      <c r="I103" s="68"/>
       <c r="J103" s="55" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DN103)/データ!$D$2,"")</f>
         <v/>
@@ -17073,15 +16961,15 @@
       <c r="DN103" s="19"/>
     </row>
     <row r="104" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A104" s="69"/>
-      <c r="B104" s="69"/>
-      <c r="C104" s="69"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="71"/>
-      <c r="H104" s="71"/>
-      <c r="I104" s="67"/>
+      <c r="A104" s="65"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="69"/>
       <c r="J104" s="56" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DN104)/データ!$D$2,"")</f>
         <v/>
@@ -17196,15 +17084,15 @@
       <c r="DN104" s="21"/>
     </row>
     <row r="105" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A105" s="64"/>
-      <c r="B105" s="64"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="65"/>
-      <c r="F105" s="65"/>
-      <c r="G105" s="65"/>
-      <c r="H105" s="65"/>
-      <c r="I105" s="66"/>
+      <c r="A105" s="70"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="71"/>
+      <c r="I105" s="68"/>
       <c r="J105" s="55" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DN105)/データ!$D$2,"")</f>
         <v/>
@@ -17319,15 +17207,15 @@
       <c r="DN105" s="19"/>
     </row>
     <row r="106" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A106" s="64"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="65"/>
-      <c r="H106" s="65"/>
-      <c r="I106" s="67"/>
+      <c r="A106" s="70"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="69"/>
       <c r="J106" s="56" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DN106)/データ!$D$2,"")</f>
         <v/>
@@ -17442,15 +17330,15 @@
       <c r="DN106" s="21"/>
     </row>
     <row r="107" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A107" s="64"/>
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="65"/>
-      <c r="H107" s="65"/>
-      <c r="I107" s="66"/>
+      <c r="A107" s="70"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="68"/>
       <c r="J107" s="55" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DN107)/データ!$D$2,"")</f>
         <v/>
@@ -17565,15 +17453,15 @@
       <c r="DN107" s="19"/>
     </row>
     <row r="108" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A108" s="64"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="65"/>
-      <c r="H108" s="65"/>
-      <c r="I108" s="67"/>
+      <c r="A108" s="70"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="69"/>
       <c r="J108" s="56" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DN108)/データ!$D$2,"")</f>
         <v/>
@@ -17688,15 +17576,15 @@
       <c r="DN108" s="21"/>
     </row>
     <row r="109" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A109" s="64"/>
-      <c r="B109" s="64"/>
-      <c r="C109" s="64"/>
-      <c r="D109" s="64"/>
-      <c r="E109" s="65"/>
-      <c r="F109" s="65"/>
-      <c r="G109" s="65"/>
-      <c r="H109" s="65"/>
-      <c r="I109" s="66"/>
+      <c r="A109" s="70"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="71"/>
+      <c r="F109" s="71"/>
+      <c r="G109" s="71"/>
+      <c r="H109" s="71"/>
+      <c r="I109" s="68"/>
       <c r="J109" s="55" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K109:DN109)/データ!$D$2,"")</f>
         <v/>
@@ -17811,15 +17699,15 @@
       <c r="DN109" s="19"/>
     </row>
     <row r="110" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A110" s="64"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="65"/>
-      <c r="F110" s="65"/>
-      <c r="G110" s="65"/>
-      <c r="H110" s="65"/>
-      <c r="I110" s="67"/>
+      <c r="A110" s="70"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="70"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="71"/>
+      <c r="I110" s="69"/>
       <c r="J110" s="56" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K110:DN110)/データ!$D$2,"")</f>
         <v/>
@@ -17934,15 +17822,15 @@
       <c r="DN110" s="21"/>
     </row>
     <row r="111" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A111" s="64"/>
-      <c r="B111" s="64"/>
-      <c r="C111" s="64"/>
-      <c r="D111" s="64"/>
-      <c r="E111" s="65"/>
-      <c r="F111" s="65"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="65"/>
-      <c r="I111" s="66"/>
+      <c r="A111" s="70"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="71"/>
+      <c r="F111" s="71"/>
+      <c r="G111" s="71"/>
+      <c r="H111" s="71"/>
+      <c r="I111" s="68"/>
       <c r="J111" s="55" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K111:DN111)/データ!$D$2,"")</f>
         <v/>
@@ -18057,15 +17945,15 @@
       <c r="DN111" s="19"/>
     </row>
     <row r="112" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A112" s="64"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="64"/>
-      <c r="E112" s="65"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="65"/>
-      <c r="H112" s="65"/>
-      <c r="I112" s="67"/>
+      <c r="A112" s="70"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="71"/>
+      <c r="F112" s="71"/>
+      <c r="G112" s="71"/>
+      <c r="H112" s="71"/>
+      <c r="I112" s="69"/>
       <c r="J112" s="56" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K112:DN112)/データ!$D$2,"")</f>
         <v/>
@@ -18180,15 +18068,15 @@
       <c r="DN112" s="21"/>
     </row>
     <row r="113" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A113" s="64"/>
-      <c r="B113" s="64"/>
-      <c r="C113" s="64"/>
-      <c r="D113" s="64"/>
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
-      <c r="I113" s="66"/>
+      <c r="A113" s="70"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="70"/>
+      <c r="E113" s="71"/>
+      <c r="F113" s="71"/>
+      <c r="G113" s="71"/>
+      <c r="H113" s="71"/>
+      <c r="I113" s="68"/>
       <c r="J113" s="55" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K113:DN113)/データ!$D$2,"")</f>
         <v/>
@@ -18303,15 +18191,15 @@
       <c r="DN113" s="19"/>
     </row>
     <row r="114" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A114" s="64"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="64"/>
-      <c r="E114" s="65"/>
-      <c r="F114" s="65"/>
-      <c r="G114" s="65"/>
-      <c r="H114" s="65"/>
-      <c r="I114" s="67"/>
+      <c r="A114" s="70"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="70"/>
+      <c r="E114" s="71"/>
+      <c r="F114" s="71"/>
+      <c r="G114" s="71"/>
+      <c r="H114" s="71"/>
+      <c r="I114" s="69"/>
       <c r="J114" s="56" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K114:DN114)/データ!$D$2,"")</f>
         <v/>
@@ -18426,15 +18314,15 @@
       <c r="DN114" s="21"/>
     </row>
     <row r="115" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A115" s="64"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="64"/>
-      <c r="D115" s="64"/>
-      <c r="E115" s="65"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="65"/>
-      <c r="I115" s="66"/>
+      <c r="A115" s="70"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="70"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="71"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="71"/>
+      <c r="H115" s="71"/>
+      <c r="I115" s="68"/>
       <c r="J115" s="55" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K115:DN115)/データ!$D$2,"")</f>
         <v/>
@@ -18549,15 +18437,15 @@
       <c r="DN115" s="19"/>
     </row>
     <row r="116" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A116" s="64"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="64"/>
-      <c r="D116" s="64"/>
-      <c r="E116" s="65"/>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="67"/>
+      <c r="A116" s="70"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="70"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="71"/>
+      <c r="F116" s="71"/>
+      <c r="G116" s="71"/>
+      <c r="H116" s="71"/>
+      <c r="I116" s="69"/>
       <c r="J116" s="56" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K116:DN116)/データ!$D$2,"")</f>
         <v/>
@@ -18672,15 +18560,15 @@
       <c r="DN116" s="21"/>
     </row>
     <row r="117" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A117" s="64"/>
-      <c r="B117" s="64"/>
-      <c r="C117" s="64"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="65"/>
-      <c r="F117" s="65"/>
-      <c r="G117" s="65"/>
-      <c r="H117" s="65"/>
-      <c r="I117" s="66"/>
+      <c r="A117" s="70"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="70"/>
+      <c r="D117" s="70"/>
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="68"/>
       <c r="J117" s="55" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K117:DN117)/データ!$D$2,"")</f>
         <v/>
@@ -18795,15 +18683,15 @@
       <c r="DN117" s="19"/>
     </row>
     <row r="118" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A118" s="64"/>
-      <c r="B118" s="64"/>
-      <c r="C118" s="64"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="65"/>
-      <c r="F118" s="65"/>
-      <c r="G118" s="65"/>
-      <c r="H118" s="65"/>
-      <c r="I118" s="67"/>
+      <c r="A118" s="70"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="71"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="71"/>
+      <c r="I118" s="69"/>
       <c r="J118" s="56" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K118:DN118)/データ!$D$2,"")</f>
         <v/>
@@ -18918,15 +18806,15 @@
       <c r="DN118" s="21"/>
     </row>
     <row r="119" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A119" s="64"/>
-      <c r="B119" s="64"/>
-      <c r="C119" s="64"/>
-      <c r="D119" s="64"/>
-      <c r="E119" s="65"/>
-      <c r="F119" s="65"/>
-      <c r="G119" s="65"/>
-      <c r="H119" s="65"/>
-      <c r="I119" s="66"/>
+      <c r="A119" s="70"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="70"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="71"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="68"/>
       <c r="J119" s="55" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K119:DN119)/データ!$D$2,"")</f>
         <v/>
@@ -19041,15 +18929,15 @@
       <c r="DN119" s="19"/>
     </row>
     <row r="120" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A120" s="64"/>
-      <c r="B120" s="64"/>
-      <c r="C120" s="64"/>
-      <c r="D120" s="64"/>
-      <c r="E120" s="65"/>
-      <c r="F120" s="65"/>
-      <c r="G120" s="65"/>
-      <c r="H120" s="65"/>
-      <c r="I120" s="67"/>
+      <c r="A120" s="70"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="70"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="71"/>
+      <c r="F120" s="71"/>
+      <c r="G120" s="71"/>
+      <c r="H120" s="71"/>
+      <c r="I120" s="69"/>
       <c r="J120" s="56" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K120:DN120)/データ!$D$2,"")</f>
         <v/>
@@ -19164,15 +19052,15 @@
       <c r="DN120" s="21"/>
     </row>
     <row r="121" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A121" s="64"/>
-      <c r="B121" s="64"/>
-      <c r="C121" s="64"/>
-      <c r="D121" s="64"/>
-      <c r="E121" s="65"/>
-      <c r="F121" s="65"/>
-      <c r="G121" s="65"/>
-      <c r="H121" s="65"/>
-      <c r="I121" s="66"/>
+      <c r="A121" s="70"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="70"/>
+      <c r="E121" s="71"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="71"/>
+      <c r="H121" s="71"/>
+      <c r="I121" s="68"/>
       <c r="J121" s="55" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K121:DN121)/データ!$D$2,"")</f>
         <v/>
@@ -19287,15 +19175,15 @@
       <c r="DN121" s="19"/>
     </row>
     <row r="122" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A122" s="64"/>
-      <c r="B122" s="64"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="64"/>
-      <c r="E122" s="65"/>
-      <c r="F122" s="65"/>
-      <c r="G122" s="65"/>
-      <c r="H122" s="65"/>
-      <c r="I122" s="67"/>
+      <c r="A122" s="70"/>
+      <c r="B122" s="70"/>
+      <c r="C122" s="70"/>
+      <c r="D122" s="70"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="71"/>
+      <c r="H122" s="71"/>
+      <c r="I122" s="69"/>
       <c r="J122" s="56" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K122:DN122)/データ!$D$2,"")</f>
         <v/>
@@ -19410,15 +19298,15 @@
       <c r="DN122" s="21"/>
     </row>
     <row r="123" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A123" s="64"/>
-      <c r="B123" s="64"/>
-      <c r="C123" s="64"/>
-      <c r="D123" s="64"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="65"/>
-      <c r="G123" s="65"/>
-      <c r="H123" s="65"/>
-      <c r="I123" s="66"/>
+      <c r="A123" s="70"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="71"/>
+      <c r="F123" s="71"/>
+      <c r="G123" s="71"/>
+      <c r="H123" s="71"/>
+      <c r="I123" s="68"/>
       <c r="J123" s="55" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K123:DN123)/データ!$D$2,"")</f>
         <v/>
@@ -19533,15 +19421,15 @@
       <c r="DN123" s="19"/>
     </row>
     <row r="124" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A124" s="64"/>
-      <c r="B124" s="64"/>
-      <c r="C124" s="64"/>
-      <c r="D124" s="64"/>
-      <c r="E124" s="65"/>
-      <c r="F124" s="65"/>
-      <c r="G124" s="65"/>
-      <c r="H124" s="65"/>
-      <c r="I124" s="67"/>
+      <c r="A124" s="70"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="71"/>
+      <c r="F124" s="71"/>
+      <c r="G124" s="71"/>
+      <c r="H124" s="71"/>
+      <c r="I124" s="69"/>
       <c r="J124" s="56" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K124:DN124)/データ!$D$2,"")</f>
         <v/>
@@ -19656,15 +19544,15 @@
       <c r="DN124" s="21"/>
     </row>
     <row r="125" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A125" s="64"/>
-      <c r="B125" s="64"/>
-      <c r="C125" s="64"/>
-      <c r="D125" s="64"/>
-      <c r="E125" s="65"/>
-      <c r="F125" s="65"/>
-      <c r="G125" s="65"/>
-      <c r="H125" s="65"/>
-      <c r="I125" s="66"/>
+      <c r="A125" s="70"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="70"/>
+      <c r="D125" s="70"/>
+      <c r="E125" s="71"/>
+      <c r="F125" s="71"/>
+      <c r="G125" s="71"/>
+      <c r="H125" s="71"/>
+      <c r="I125" s="68"/>
       <c r="J125" s="55" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K125:DN125)/データ!$D$2,"")</f>
         <v/>
@@ -19779,15 +19667,15 @@
       <c r="DN125" s="19"/>
     </row>
     <row r="126" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A126" s="64"/>
-      <c r="B126" s="64"/>
-      <c r="C126" s="64"/>
-      <c r="D126" s="64"/>
-      <c r="E126" s="65"/>
-      <c r="F126" s="65"/>
-      <c r="G126" s="65"/>
-      <c r="H126" s="65"/>
-      <c r="I126" s="67"/>
+      <c r="A126" s="70"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="70"/>
+      <c r="D126" s="70"/>
+      <c r="E126" s="71"/>
+      <c r="F126" s="71"/>
+      <c r="G126" s="71"/>
+      <c r="H126" s="71"/>
+      <c r="I126" s="69"/>
       <c r="J126" s="56" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K126:DN126)/データ!$D$2,"")</f>
         <v/>
@@ -19902,15 +19790,15 @@
       <c r="DN126" s="21"/>
     </row>
     <row r="127" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A127" s="68"/>
-      <c r="B127" s="68"/>
-      <c r="C127" s="68"/>
-      <c r="D127" s="68"/>
-      <c r="E127" s="70"/>
-      <c r="F127" s="70"/>
-      <c r="G127" s="70"/>
-      <c r="H127" s="70"/>
-      <c r="I127" s="66"/>
+      <c r="A127" s="64"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="64"/>
+      <c r="D127" s="64"/>
+      <c r="E127" s="66"/>
+      <c r="F127" s="66"/>
+      <c r="G127" s="66"/>
+      <c r="H127" s="66"/>
+      <c r="I127" s="68"/>
       <c r="J127" s="55" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K127:DN127)/データ!$D$2,"")</f>
         <v/>
@@ -20025,15 +19913,15 @@
       <c r="DN127" s="19"/>
     </row>
     <row r="128" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A128" s="69"/>
-      <c r="B128" s="69"/>
-      <c r="C128" s="69"/>
-      <c r="D128" s="69"/>
-      <c r="E128" s="71"/>
-      <c r="F128" s="71"/>
-      <c r="G128" s="71"/>
-      <c r="H128" s="71"/>
-      <c r="I128" s="67"/>
+      <c r="A128" s="65"/>
+      <c r="B128" s="65"/>
+      <c r="C128" s="65"/>
+      <c r="D128" s="65"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="69"/>
       <c r="J128" s="56" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K128:DN128)/データ!$D$2,"")</f>
         <v/>
@@ -20148,15 +20036,15 @@
       <c r="DN128" s="21"/>
     </row>
     <row r="129" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A129" s="64"/>
-      <c r="B129" s="64"/>
-      <c r="C129" s="64"/>
-      <c r="D129" s="64"/>
-      <c r="E129" s="65"/>
-      <c r="F129" s="65"/>
-      <c r="G129" s="65"/>
-      <c r="H129" s="65"/>
-      <c r="I129" s="66"/>
+      <c r="A129" s="70"/>
+      <c r="B129" s="70"/>
+      <c r="C129" s="70"/>
+      <c r="D129" s="70"/>
+      <c r="E129" s="71"/>
+      <c r="F129" s="71"/>
+      <c r="G129" s="71"/>
+      <c r="H129" s="71"/>
+      <c r="I129" s="68"/>
       <c r="J129" s="55" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K129:DN129)/データ!$D$2,"")</f>
         <v/>
@@ -20271,15 +20159,15 @@
       <c r="DN129" s="19"/>
     </row>
     <row r="130" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A130" s="64"/>
-      <c r="B130" s="64"/>
-      <c r="C130" s="64"/>
-      <c r="D130" s="64"/>
-      <c r="E130" s="65"/>
-      <c r="F130" s="65"/>
-      <c r="G130" s="65"/>
-      <c r="H130" s="65"/>
-      <c r="I130" s="67"/>
+      <c r="A130" s="70"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="70"/>
+      <c r="D130" s="70"/>
+      <c r="E130" s="71"/>
+      <c r="F130" s="71"/>
+      <c r="G130" s="71"/>
+      <c r="H130" s="71"/>
+      <c r="I130" s="69"/>
       <c r="J130" s="56" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K130:DN130)/データ!$D$2,"")</f>
         <v/>
@@ -20394,15 +20282,15 @@
       <c r="DN130" s="21"/>
     </row>
     <row r="131" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A131" s="64"/>
-      <c r="B131" s="64"/>
-      <c r="C131" s="64"/>
-      <c r="D131" s="64"/>
-      <c r="E131" s="65"/>
-      <c r="F131" s="65"/>
-      <c r="G131" s="65"/>
-      <c r="H131" s="65"/>
-      <c r="I131" s="66"/>
+      <c r="A131" s="70"/>
+      <c r="B131" s="70"/>
+      <c r="C131" s="70"/>
+      <c r="D131" s="70"/>
+      <c r="E131" s="71"/>
+      <c r="F131" s="71"/>
+      <c r="G131" s="71"/>
+      <c r="H131" s="71"/>
+      <c r="I131" s="68"/>
       <c r="J131" s="55" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K131:DN131)/データ!$D$2,"")</f>
         <v/>
@@ -20517,15 +20405,15 @@
       <c r="DN131" s="19"/>
     </row>
     <row r="132" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A132" s="64"/>
-      <c r="B132" s="64"/>
-      <c r="C132" s="64"/>
-      <c r="D132" s="64"/>
-      <c r="E132" s="65"/>
-      <c r="F132" s="65"/>
-      <c r="G132" s="65"/>
-      <c r="H132" s="65"/>
-      <c r="I132" s="67"/>
+      <c r="A132" s="70"/>
+      <c r="B132" s="70"/>
+      <c r="C132" s="70"/>
+      <c r="D132" s="70"/>
+      <c r="E132" s="71"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="71"/>
+      <c r="H132" s="71"/>
+      <c r="I132" s="69"/>
       <c r="J132" s="56" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K132:DN132)/データ!$D$2,"")</f>
         <v/>
@@ -20640,15 +20528,15 @@
       <c r="DN132" s="21"/>
     </row>
     <row r="133" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A133" s="64"/>
-      <c r="B133" s="64"/>
-      <c r="C133" s="64"/>
-      <c r="D133" s="64"/>
-      <c r="E133" s="65"/>
-      <c r="F133" s="65"/>
-      <c r="G133" s="65"/>
-      <c r="H133" s="65"/>
-      <c r="I133" s="66"/>
+      <c r="A133" s="70"/>
+      <c r="B133" s="70"/>
+      <c r="C133" s="70"/>
+      <c r="D133" s="70"/>
+      <c r="E133" s="71"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="71"/>
+      <c r="H133" s="71"/>
+      <c r="I133" s="68"/>
       <c r="J133" s="55" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K133:DN133)/データ!$D$2,"")</f>
         <v/>
@@ -20763,15 +20651,15 @@
       <c r="DN133" s="19"/>
     </row>
     <row r="134" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A134" s="64"/>
-      <c r="B134" s="64"/>
-      <c r="C134" s="64"/>
-      <c r="D134" s="64"/>
-      <c r="E134" s="65"/>
-      <c r="F134" s="65"/>
-      <c r="G134" s="65"/>
-      <c r="H134" s="65"/>
-      <c r="I134" s="67"/>
+      <c r="A134" s="70"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="70"/>
+      <c r="D134" s="70"/>
+      <c r="E134" s="71"/>
+      <c r="F134" s="71"/>
+      <c r="G134" s="71"/>
+      <c r="H134" s="71"/>
+      <c r="I134" s="69"/>
       <c r="J134" s="56" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K134:DN134)/データ!$D$2,"")</f>
         <v/>
@@ -20886,15 +20774,15 @@
       <c r="DN134" s="21"/>
     </row>
     <row r="135" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A135" s="64"/>
-      <c r="B135" s="64"/>
-      <c r="C135" s="64"/>
-      <c r="D135" s="64"/>
-      <c r="E135" s="65"/>
-      <c r="F135" s="65"/>
-      <c r="G135" s="65"/>
-      <c r="H135" s="65"/>
-      <c r="I135" s="66"/>
+      <c r="A135" s="70"/>
+      <c r="B135" s="70"/>
+      <c r="C135" s="70"/>
+      <c r="D135" s="70"/>
+      <c r="E135" s="71"/>
+      <c r="F135" s="71"/>
+      <c r="G135" s="71"/>
+      <c r="H135" s="71"/>
+      <c r="I135" s="68"/>
       <c r="J135" s="55" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K135:DN135)/データ!$D$2,"")</f>
         <v/>
@@ -21009,15 +20897,15 @@
       <c r="DN135" s="19"/>
     </row>
     <row r="136" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A136" s="64"/>
-      <c r="B136" s="64"/>
-      <c r="C136" s="64"/>
-      <c r="D136" s="64"/>
-      <c r="E136" s="65"/>
-      <c r="F136" s="65"/>
-      <c r="G136" s="65"/>
-      <c r="H136" s="65"/>
-      <c r="I136" s="67"/>
+      <c r="A136" s="70"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="70"/>
+      <c r="D136" s="70"/>
+      <c r="E136" s="71"/>
+      <c r="F136" s="71"/>
+      <c r="G136" s="71"/>
+      <c r="H136" s="71"/>
+      <c r="I136" s="69"/>
       <c r="J136" s="56" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K136:DN136)/データ!$D$2,"")</f>
         <v/>
@@ -21132,15 +21020,15 @@
       <c r="DN136" s="21"/>
     </row>
     <row r="137" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A137" s="64"/>
-      <c r="B137" s="64"/>
-      <c r="C137" s="64"/>
-      <c r="D137" s="64"/>
-      <c r="E137" s="65"/>
-      <c r="F137" s="65"/>
-      <c r="G137" s="65"/>
-      <c r="H137" s="65"/>
-      <c r="I137" s="66"/>
+      <c r="A137" s="70"/>
+      <c r="B137" s="70"/>
+      <c r="C137" s="70"/>
+      <c r="D137" s="70"/>
+      <c r="E137" s="71"/>
+      <c r="F137" s="71"/>
+      <c r="G137" s="71"/>
+      <c r="H137" s="71"/>
+      <c r="I137" s="68"/>
       <c r="J137" s="55" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K137:DN137)/データ!$D$2,"")</f>
         <v/>
@@ -21255,15 +21143,15 @@
       <c r="DN137" s="19"/>
     </row>
     <row r="138" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A138" s="64"/>
-      <c r="B138" s="64"/>
-      <c r="C138" s="64"/>
-      <c r="D138" s="64"/>
-      <c r="E138" s="65"/>
-      <c r="F138" s="65"/>
-      <c r="G138" s="65"/>
-      <c r="H138" s="65"/>
-      <c r="I138" s="67"/>
+      <c r="A138" s="70"/>
+      <c r="B138" s="70"/>
+      <c r="C138" s="70"/>
+      <c r="D138" s="70"/>
+      <c r="E138" s="71"/>
+      <c r="F138" s="71"/>
+      <c r="G138" s="71"/>
+      <c r="H138" s="71"/>
+      <c r="I138" s="69"/>
       <c r="J138" s="56" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K138:DN138)/データ!$D$2,"")</f>
         <v/>
@@ -21378,15 +21266,15 @@
       <c r="DN138" s="21"/>
     </row>
     <row r="139" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A139" s="64"/>
-      <c r="B139" s="64"/>
-      <c r="C139" s="64"/>
-      <c r="D139" s="64"/>
-      <c r="E139" s="65"/>
-      <c r="F139" s="65"/>
-      <c r="G139" s="65"/>
-      <c r="H139" s="65"/>
-      <c r="I139" s="66"/>
+      <c r="A139" s="70"/>
+      <c r="B139" s="70"/>
+      <c r="C139" s="70"/>
+      <c r="D139" s="70"/>
+      <c r="E139" s="71"/>
+      <c r="F139" s="71"/>
+      <c r="G139" s="71"/>
+      <c r="H139" s="71"/>
+      <c r="I139" s="68"/>
       <c r="J139" s="55" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K139:DN139)/データ!$D$2,"")</f>
         <v/>
@@ -21501,15 +21389,15 @@
       <c r="DN139" s="19"/>
     </row>
     <row r="140" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A140" s="64"/>
-      <c r="B140" s="64"/>
-      <c r="C140" s="64"/>
-      <c r="D140" s="64"/>
-      <c r="E140" s="65"/>
-      <c r="F140" s="65"/>
-      <c r="G140" s="65"/>
-      <c r="H140" s="65"/>
-      <c r="I140" s="67"/>
+      <c r="A140" s="70"/>
+      <c r="B140" s="70"/>
+      <c r="C140" s="70"/>
+      <c r="D140" s="70"/>
+      <c r="E140" s="71"/>
+      <c r="F140" s="71"/>
+      <c r="G140" s="71"/>
+      <c r="H140" s="71"/>
+      <c r="I140" s="69"/>
       <c r="J140" s="56" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K140:DN140)/データ!$D$2,"")</f>
         <v/>
@@ -21624,15 +21512,15 @@
       <c r="DN140" s="21"/>
     </row>
     <row r="141" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A141" s="64"/>
-      <c r="B141" s="64"/>
-      <c r="C141" s="64"/>
-      <c r="D141" s="64"/>
-      <c r="E141" s="65"/>
-      <c r="F141" s="65"/>
-      <c r="G141" s="65"/>
-      <c r="H141" s="65"/>
-      <c r="I141" s="66"/>
+      <c r="A141" s="70"/>
+      <c r="B141" s="70"/>
+      <c r="C141" s="70"/>
+      <c r="D141" s="70"/>
+      <c r="E141" s="71"/>
+      <c r="F141" s="71"/>
+      <c r="G141" s="71"/>
+      <c r="H141" s="71"/>
+      <c r="I141" s="68"/>
       <c r="J141" s="55" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K141:DN141)/データ!$D$2,"")</f>
         <v/>
@@ -21747,15 +21635,15 @@
       <c r="DN141" s="19"/>
     </row>
     <row r="142" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A142" s="64"/>
-      <c r="B142" s="64"/>
-      <c r="C142" s="64"/>
-      <c r="D142" s="64"/>
-      <c r="E142" s="65"/>
-      <c r="F142" s="65"/>
-      <c r="G142" s="65"/>
-      <c r="H142" s="65"/>
-      <c r="I142" s="67"/>
+      <c r="A142" s="70"/>
+      <c r="B142" s="70"/>
+      <c r="C142" s="70"/>
+      <c r="D142" s="70"/>
+      <c r="E142" s="71"/>
+      <c r="F142" s="71"/>
+      <c r="G142" s="71"/>
+      <c r="H142" s="71"/>
+      <c r="I142" s="69"/>
       <c r="J142" s="56" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K142:DN142)/データ!$D$2,"")</f>
         <v/>
@@ -21870,15 +21758,15 @@
       <c r="DN142" s="21"/>
     </row>
     <row r="143" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A143" s="64"/>
-      <c r="B143" s="64"/>
-      <c r="C143" s="64"/>
-      <c r="D143" s="64"/>
-      <c r="E143" s="65"/>
-      <c r="F143" s="65"/>
-      <c r="G143" s="65"/>
-      <c r="H143" s="65"/>
-      <c r="I143" s="66"/>
+      <c r="A143" s="70"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="70"/>
+      <c r="D143" s="70"/>
+      <c r="E143" s="71"/>
+      <c r="F143" s="71"/>
+      <c r="G143" s="71"/>
+      <c r="H143" s="71"/>
+      <c r="I143" s="68"/>
       <c r="J143" s="55" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K143:DN143)/データ!$D$2,"")</f>
         <v/>
@@ -21993,15 +21881,15 @@
       <c r="DN143" s="19"/>
     </row>
     <row r="144" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A144" s="64"/>
-      <c r="B144" s="64"/>
-      <c r="C144" s="64"/>
-      <c r="D144" s="64"/>
-      <c r="E144" s="65"/>
-      <c r="F144" s="65"/>
-      <c r="G144" s="65"/>
-      <c r="H144" s="65"/>
-      <c r="I144" s="67"/>
+      <c r="A144" s="70"/>
+      <c r="B144" s="70"/>
+      <c r="C144" s="70"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="71"/>
+      <c r="F144" s="71"/>
+      <c r="G144" s="71"/>
+      <c r="H144" s="71"/>
+      <c r="I144" s="69"/>
       <c r="J144" s="56" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K144:DN144)/データ!$D$2,"")</f>
         <v/>
@@ -22116,15 +22004,15 @@
       <c r="DN144" s="21"/>
     </row>
     <row r="145" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A145" s="64"/>
-      <c r="B145" s="64"/>
-      <c r="C145" s="64"/>
-      <c r="D145" s="64"/>
-      <c r="E145" s="65"/>
-      <c r="F145" s="65"/>
-      <c r="G145" s="65"/>
-      <c r="H145" s="65"/>
-      <c r="I145" s="66"/>
+      <c r="A145" s="70"/>
+      <c r="B145" s="70"/>
+      <c r="C145" s="70"/>
+      <c r="D145" s="70"/>
+      <c r="E145" s="71"/>
+      <c r="F145" s="71"/>
+      <c r="G145" s="71"/>
+      <c r="H145" s="71"/>
+      <c r="I145" s="68"/>
       <c r="J145" s="55" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K145:DN145)/データ!$D$2,"")</f>
         <v/>
@@ -22239,15 +22127,15 @@
       <c r="DN145" s="19"/>
     </row>
     <row r="146" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A146" s="64"/>
-      <c r="B146" s="64"/>
-      <c r="C146" s="64"/>
-      <c r="D146" s="64"/>
-      <c r="E146" s="65"/>
-      <c r="F146" s="65"/>
-      <c r="G146" s="65"/>
-      <c r="H146" s="65"/>
-      <c r="I146" s="67"/>
+      <c r="A146" s="70"/>
+      <c r="B146" s="70"/>
+      <c r="C146" s="70"/>
+      <c r="D146" s="70"/>
+      <c r="E146" s="71"/>
+      <c r="F146" s="71"/>
+      <c r="G146" s="71"/>
+      <c r="H146" s="71"/>
+      <c r="I146" s="69"/>
       <c r="J146" s="56" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K146:DN146)/データ!$D$2,"")</f>
         <v/>
@@ -22362,15 +22250,15 @@
       <c r="DN146" s="21"/>
     </row>
     <row r="147" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A147" s="68"/>
-      <c r="B147" s="68"/>
-      <c r="C147" s="68"/>
-      <c r="D147" s="68"/>
-      <c r="E147" s="70"/>
-      <c r="F147" s="70"/>
-      <c r="G147" s="70"/>
-      <c r="H147" s="70"/>
-      <c r="I147" s="66"/>
+      <c r="A147" s="64"/>
+      <c r="B147" s="64"/>
+      <c r="C147" s="64"/>
+      <c r="D147" s="64"/>
+      <c r="E147" s="66"/>
+      <c r="F147" s="66"/>
+      <c r="G147" s="66"/>
+      <c r="H147" s="66"/>
+      <c r="I147" s="68"/>
       <c r="J147" s="55" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K147:DN147)/データ!$D$2,"")</f>
         <v/>
@@ -22485,15 +22373,15 @@
       <c r="DN147" s="19"/>
     </row>
     <row r="148" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A148" s="69"/>
-      <c r="B148" s="69"/>
-      <c r="C148" s="69"/>
-      <c r="D148" s="69"/>
-      <c r="E148" s="71"/>
-      <c r="F148" s="71"/>
-      <c r="G148" s="71"/>
-      <c r="H148" s="71"/>
-      <c r="I148" s="67"/>
+      <c r="A148" s="65"/>
+      <c r="B148" s="65"/>
+      <c r="C148" s="65"/>
+      <c r="D148" s="65"/>
+      <c r="E148" s="67"/>
+      <c r="F148" s="67"/>
+      <c r="G148" s="67"/>
+      <c r="H148" s="67"/>
+      <c r="I148" s="69"/>
       <c r="J148" s="56" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K148:DN148)/データ!$D$2,"")</f>
         <v/>
@@ -22608,15 +22496,15 @@
       <c r="DN148" s="21"/>
     </row>
     <row r="149" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A149" s="64"/>
-      <c r="B149" s="64"/>
-      <c r="C149" s="64"/>
-      <c r="D149" s="64"/>
-      <c r="E149" s="65"/>
-      <c r="F149" s="65"/>
-      <c r="G149" s="65"/>
-      <c r="H149" s="65"/>
-      <c r="I149" s="66"/>
+      <c r="A149" s="70"/>
+      <c r="B149" s="70"/>
+      <c r="C149" s="70"/>
+      <c r="D149" s="70"/>
+      <c r="E149" s="71"/>
+      <c r="F149" s="71"/>
+      <c r="G149" s="71"/>
+      <c r="H149" s="71"/>
+      <c r="I149" s="68"/>
       <c r="J149" s="55" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K149:DN149)/データ!$D$2,"")</f>
         <v/>
@@ -22731,15 +22619,15 @@
       <c r="DN149" s="19"/>
     </row>
     <row r="150" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A150" s="64"/>
-      <c r="B150" s="64"/>
-      <c r="C150" s="64"/>
-      <c r="D150" s="64"/>
-      <c r="E150" s="65"/>
-      <c r="F150" s="65"/>
-      <c r="G150" s="65"/>
-      <c r="H150" s="65"/>
-      <c r="I150" s="67"/>
+      <c r="A150" s="70"/>
+      <c r="B150" s="70"/>
+      <c r="C150" s="70"/>
+      <c r="D150" s="70"/>
+      <c r="E150" s="71"/>
+      <c r="F150" s="71"/>
+      <c r="G150" s="71"/>
+      <c r="H150" s="71"/>
+      <c r="I150" s="69"/>
       <c r="J150" s="56" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K150:DN150)/データ!$D$2,"")</f>
         <v/>
@@ -22854,15 +22742,15 @@
       <c r="DN150" s="21"/>
     </row>
     <row r="151" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A151" s="64"/>
-      <c r="B151" s="64"/>
-      <c r="C151" s="64"/>
-      <c r="D151" s="64"/>
-      <c r="E151" s="65"/>
-      <c r="F151" s="65"/>
-      <c r="G151" s="65"/>
-      <c r="H151" s="65"/>
-      <c r="I151" s="66"/>
+      <c r="A151" s="70"/>
+      <c r="B151" s="70"/>
+      <c r="C151" s="70"/>
+      <c r="D151" s="70"/>
+      <c r="E151" s="71"/>
+      <c r="F151" s="71"/>
+      <c r="G151" s="71"/>
+      <c r="H151" s="71"/>
+      <c r="I151" s="68"/>
       <c r="J151" s="55" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K151:DN151)/データ!$D$2,"")</f>
         <v/>
@@ -22977,15 +22865,15 @@
       <c r="DN151" s="19"/>
     </row>
     <row r="152" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A152" s="64"/>
-      <c r="B152" s="64"/>
-      <c r="C152" s="64"/>
-      <c r="D152" s="64"/>
-      <c r="E152" s="65"/>
-      <c r="F152" s="65"/>
-      <c r="G152" s="65"/>
-      <c r="H152" s="65"/>
-      <c r="I152" s="67"/>
+      <c r="A152" s="70"/>
+      <c r="B152" s="70"/>
+      <c r="C152" s="70"/>
+      <c r="D152" s="70"/>
+      <c r="E152" s="71"/>
+      <c r="F152" s="71"/>
+      <c r="G152" s="71"/>
+      <c r="H152" s="71"/>
+      <c r="I152" s="69"/>
       <c r="J152" s="56" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K152:DN152)/データ!$D$2,"")</f>
         <v/>
@@ -57044,366 +56932,302 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="680">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G37:G38"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -57428,748 +57252,812 @@
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K157:DN157 K35:DN152 K4:DN28">
-    <cfRule type="expression" dxfId="115" priority="179">
+    <cfRule type="expression" dxfId="103" priority="179">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="180">
+    <cfRule type="expression" dxfId="102" priority="180">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="181">
+    <cfRule type="expression" dxfId="101" priority="181">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75 D9:D10 I9:I10 D17:H28 D35:H76">
-    <cfRule type="expression" dxfId="112" priority="178">
+    <cfRule type="expression" dxfId="100" priority="178">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74 J76">
-    <cfRule type="expression" dxfId="111" priority="177">
+    <cfRule type="expression" dxfId="99" priority="177">
       <formula>$C73=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5 J9 J13 J17 J21 J25 J29 J37 J41 J45 J49 J53 J57 J61 J65 J69 J73">
-    <cfRule type="expression" dxfId="110" priority="159">
+    <cfRule type="expression" dxfId="98" priority="159">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6 J10 J14 J18 J22 J26 J30 J38 J42 J46 J50 J54 J58 J62 J66 J70">
-    <cfRule type="expression" dxfId="109" priority="158">
+    <cfRule type="expression" dxfId="97" priority="158">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7 J11 J15 J19 J23 J27 J35 J39 J43 J47 J51 J55 J59 J63 J67 J71">
-    <cfRule type="expression" dxfId="108" priority="157">
+    <cfRule type="expression" dxfId="96" priority="157">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8 J12 J16 J20 J24 J28 J36 J40 J44 J48 J52 J56 J60 J64 J68 J72">
-    <cfRule type="expression" dxfId="107" priority="156">
+    <cfRule type="expression" dxfId="95" priority="156">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I8 D7:E8">
-    <cfRule type="expression" dxfId="106" priority="148">
+    <cfRule type="expression" dxfId="94" priority="148">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H16 D15:E16">
-    <cfRule type="expression" dxfId="105" priority="140">
+    <cfRule type="expression" dxfId="93" priority="140">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:DN75 K73:DN73 K71:DN71 K69:DN69 K67:DN67 K65:DN65 K63:DN63 K57:DN57 K51:DN51 K49:DN49 K47:DN47 K45:DN45 K35:DN35 K27:DN27 K9:DN9 K7:DN7 K43:DN43 K41:DN41 K39:DN39 K5:DN5 K19:DN19 K59:DN59 K61:DN61 K11:DN11 K17:DN17 K15:DN15 K13:DN13 K21:DN21 K23:DN23 K25:DN25 K37:DN37 K55:DN55 K53:DN53">
-    <cfRule type="expression" dxfId="104" priority="151">
+    <cfRule type="expression" dxfId="92" priority="151">
       <formula>K5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K76:DN76 K74:DN74 K72:DN72 K70:DN70 K68:DN68 K66:DN66 K64:DN64 K62:DN62 K60:DN60 K58:DN58 K56:DN56 K54:DN54 K52:DN52 K50:DN50 K48:DN48 K46:DN46 K40:DN40 K38:DN38 K36:DN36 K28:DN28 K26:DN26 K24:DN24 K8:DN8 K6:DN6 K44:DN44 K42:DN42 K20:DN20 K10:DN10 K12:DN12 K14:DN14 K16:DN16 K18:DN18 K22:DN22">
-    <cfRule type="expression" dxfId="103" priority="150">
+    <cfRule type="expression" dxfId="91" priority="150">
       <formula>K6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E12">
-    <cfRule type="expression" dxfId="102" priority="146">
+    <cfRule type="expression" dxfId="90" priority="146">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="expression" dxfId="101" priority="147">
+    <cfRule type="expression" dxfId="89" priority="147">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C12 C17:C28 C35:C76">
-    <cfRule type="expression" dxfId="100" priority="141">
+    <cfRule type="expression" dxfId="88" priority="141">
       <formula>$I7="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="143">
+    <cfRule type="expression" dxfId="87" priority="143">
       <formula>$I7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F12">
-    <cfRule type="expression" dxfId="98" priority="122">
+    <cfRule type="expression" dxfId="86" priority="122">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C16">
-    <cfRule type="expression" dxfId="97" priority="135">
+    <cfRule type="expression" dxfId="85" priority="135">
       <formula>$I15="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="136">
+    <cfRule type="expression" dxfId="84" priority="136">
       <formula>$I15="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="expression" dxfId="95" priority="134">
+    <cfRule type="expression" dxfId="83" priority="134">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="expression" dxfId="94" priority="129">
+    <cfRule type="expression" dxfId="82" priority="129">
       <formula>$I13="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="130">
+    <cfRule type="expression" dxfId="81" priority="130">
       <formula>$I13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10 G9:H10">
-    <cfRule type="expression" dxfId="92" priority="121">
+    <cfRule type="expression" dxfId="80" priority="121">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="expression" dxfId="91" priority="120">
+    <cfRule type="expression" dxfId="79" priority="120">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="90" priority="119">
+    <cfRule type="expression" dxfId="78" priority="119">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:I6">
-    <cfRule type="expression" dxfId="89" priority="92">
+    <cfRule type="expression" dxfId="77" priority="92">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="expression" dxfId="88" priority="90">
+    <cfRule type="expression" dxfId="76" priority="90">
       <formula>$I5="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="91">
+    <cfRule type="expression" dxfId="75" priority="91">
       <formula>$I5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="expression" dxfId="86" priority="88">
+    <cfRule type="expression" dxfId="74" priority="88">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H12">
-    <cfRule type="expression" dxfId="85" priority="87">
+    <cfRule type="expression" dxfId="73" priority="87">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="expression" dxfId="84" priority="86">
+    <cfRule type="expression" dxfId="72" priority="86">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F14">
-    <cfRule type="expression" dxfId="83" priority="85">
+    <cfRule type="expression" dxfId="71" priority="85">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G14">
-    <cfRule type="expression" dxfId="82" priority="84">
+    <cfRule type="expression" dxfId="70" priority="84">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14">
-    <cfRule type="expression" dxfId="81" priority="83">
+    <cfRule type="expression" dxfId="69" priority="83">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79 J81 J85 J87 J89 J91 J93 J105 J107 J109 J111 J113 J115 J117 J119 J121 J123 J125 J127 J129 J131 J103 J97 J99 J95 J83 D79:H132">
-    <cfRule type="expression" dxfId="80" priority="76">
+    <cfRule type="expression" dxfId="68" priority="76">
       <formula>$C79=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80 J82 J86 J88 J90 J92 J94 J106 J108 J110 J112 J114 J116 J118 J120 J122 J124 J126 J128 J130 J132 J104 J98 J100 J96 J84">
-    <cfRule type="expression" dxfId="79" priority="75">
+    <cfRule type="expression" dxfId="67" priority="75">
       <formula>$C79=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77:H78 D77:E78">
-    <cfRule type="expression" dxfId="78" priority="70">
+    <cfRule type="expression" dxfId="66" priority="70">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K131:DN131 K129:DN129 K127:DN127 K125:DN125 K123:DN123 K121:DN121 K119:DN119 K113:DN113 K111:DN111 K109:DN109 K107:DN107 K105:DN105 K103:DN103 K101:DN101 K93:DN93 K91:DN91 K89:DN89 K87:DN87 K85:DN85 K99:DN99 K97:DN97 K95:DN95 K81:DN81 K79:DN79 K77:DN77 K83:DN83 K115:DN115 K117:DN117">
-    <cfRule type="expression" dxfId="77" priority="74">
+    <cfRule type="expression" dxfId="65" priority="74">
       <formula>K77&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K132:DN132 K130:DN130 K128:DN128 K126:DN126 K124:DN124 K122:DN122 K120:DN120 K118:DN118 K116:DN116 K114:DN114 K112:DN112 K110:DN110 K108:DN108 K106:DN106 K104:DN104 K102:DN102 K96:DN96 K94:DN94 K92:DN92 K90:DN90 K88:DN88 K86:DN86 K100:DN100 K98:DN98 K84:DN84 K82:DN82 K80:DN80 K78:DN78">
-    <cfRule type="expression" dxfId="76" priority="73">
+    <cfRule type="expression" dxfId="64" priority="73">
       <formula>K78&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C132">
-    <cfRule type="expression" dxfId="75" priority="71">
+    <cfRule type="expression" dxfId="63" priority="71">
       <formula>$I79="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="72">
+    <cfRule type="expression" dxfId="62" priority="72">
       <formula>$I79="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77">
-    <cfRule type="expression" dxfId="73" priority="69">
+    <cfRule type="expression" dxfId="61" priority="69">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J78">
-    <cfRule type="expression" dxfId="72" priority="68">
+    <cfRule type="expression" dxfId="60" priority="68">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C78">
-    <cfRule type="expression" dxfId="71" priority="66">
+    <cfRule type="expression" dxfId="59" priority="66">
       <formula>$I77="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="67">
+    <cfRule type="expression" dxfId="58" priority="67">
       <formula>$I77="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77:F78">
-    <cfRule type="expression" dxfId="69" priority="65">
+    <cfRule type="expression" dxfId="57" priority="65">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J101">
-    <cfRule type="expression" dxfId="68" priority="64">
+    <cfRule type="expression" dxfId="56" priority="64">
       <formula>$C101=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J102">
-    <cfRule type="expression" dxfId="67" priority="63">
+    <cfRule type="expression" dxfId="55" priority="63">
       <formula>$C101=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J133 J135 J137 J139 J141 J143 J145 J147 J149 J151 D133:H152">
-    <cfRule type="expression" dxfId="66" priority="59">
+    <cfRule type="expression" dxfId="54" priority="59">
       <formula>$C133=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134 J136 J138 J140 J142 J144 J146 J148 J150 J152">
-    <cfRule type="expression" dxfId="65" priority="58">
+    <cfRule type="expression" dxfId="53" priority="58">
       <formula>$C133=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K151:DN151 K149:DN149 K147:DN147 K145:DN145 K143:DN143 K141:DN141 K139:DN139 K133:DN133 K135:DN135 K137:DN137">
-    <cfRule type="expression" dxfId="64" priority="57">
+    <cfRule type="expression" dxfId="52" priority="57">
       <formula>K133&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K152:DN152 K150:DN150 K148:DN148 K146:DN146 K144:DN144 K142:DN142 K140:DN140 K138:DN138 K136:DN136 K134:DN134">
-    <cfRule type="expression" dxfId="63" priority="56">
+    <cfRule type="expression" dxfId="51" priority="56">
       <formula>K134&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C133:C152">
-    <cfRule type="expression" dxfId="62" priority="54">
+    <cfRule type="expression" dxfId="50" priority="54">
       <formula>$I133="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="55">
+    <cfRule type="expression" dxfId="49" priority="55">
       <formula>$I133="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I28 I35:I152">
-    <cfRule type="expression" dxfId="60" priority="53">
+    <cfRule type="expression" dxfId="48" priority="53">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:DN30">
-    <cfRule type="expression" dxfId="19" priority="50">
+    <cfRule type="expression" dxfId="47" priority="50">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="51">
+    <cfRule type="expression" dxfId="46" priority="51">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="52">
+    <cfRule type="expression" dxfId="45" priority="52">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:H30">
-    <cfRule type="expression" dxfId="59" priority="49">
+    <cfRule type="expression" dxfId="44" priority="49">
       <formula>$C29=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:DN29">
-    <cfRule type="expression" dxfId="16" priority="47">
+    <cfRule type="expression" dxfId="43" priority="47">
       <formula>K29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:DN30">
-    <cfRule type="expression" dxfId="58" priority="46">
+    <cfRule type="expression" dxfId="42" priority="46">
       <formula>K30&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C30">
-    <cfRule type="expression" dxfId="57" priority="44">
+    <cfRule type="expression" dxfId="41" priority="44">
       <formula>$I29="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="45">
+    <cfRule type="expression" dxfId="40" priority="45">
       <formula>$I29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I30">
-    <cfRule type="expression" dxfId="55" priority="43">
+    <cfRule type="expression" dxfId="39" priority="43">
       <formula>$C29=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="54" priority="42">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="53" priority="41">
+    <cfRule type="expression" dxfId="37" priority="41">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:DN32 K31:BH31 BU31:DN31">
-    <cfRule type="expression" dxfId="52" priority="38">
+    <cfRule type="expression" dxfId="36" priority="38">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="39">
+    <cfRule type="expression" dxfId="35" priority="39">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="40">
+    <cfRule type="expression" dxfId="34" priority="40">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:H32">
-    <cfRule type="expression" dxfId="49" priority="37">
+    <cfRule type="expression" dxfId="33" priority="37">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BH31 BU31:DN31">
-    <cfRule type="expression" dxfId="48" priority="36">
+    <cfRule type="expression" dxfId="32" priority="36">
       <formula>K31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:DN32">
-    <cfRule type="expression" dxfId="47" priority="35">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>K32&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C32">
-    <cfRule type="expression" dxfId="46" priority="33">
+    <cfRule type="expression" dxfId="30" priority="33">
       <formula>$I31="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="34">
+    <cfRule type="expression" dxfId="29" priority="34">
       <formula>$I31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I32">
-    <cfRule type="expression" dxfId="44" priority="32">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="expression" dxfId="43" priority="31">
+    <cfRule type="expression" dxfId="27" priority="31">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="expression" dxfId="42" priority="30">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:DN34 K33:BP33 BW33:DN33">
-    <cfRule type="expression" dxfId="41" priority="27">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="28">
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="29">
+    <cfRule type="expression" dxfId="23" priority="29">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:H34">
-    <cfRule type="expression" dxfId="38" priority="26">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BP33 BW33:DN33">
-    <cfRule type="expression" dxfId="37" priority="25">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>K33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:DN34">
-    <cfRule type="expression" dxfId="36" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>K34&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C34">
-    <cfRule type="expression" dxfId="35" priority="22">
+    <cfRule type="expression" dxfId="19" priority="22">
       <formula>$I33="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="23">
+    <cfRule type="expression" dxfId="18" priority="23">
       <formula>$I33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I34">
-    <cfRule type="expression" dxfId="33" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO31:BT31">
-    <cfRule type="expression" dxfId="32" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>ISERROR(MATCH(BO$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="11">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>WEEKDAY(BO$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>WEEKDAY(BO$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO31:BT31">
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>BO31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ33:BZ33">
-    <cfRule type="expression" dxfId="28" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>ISERROR(MATCH(BQ$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>WEEKDAY(BQ$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>WEEKDAY(BQ$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ33:BZ33">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>BQ33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI31:BN31">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>ISERROR(MATCH(BI$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>WEEKDAY(BI$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>WEEKDAY(BI$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI31:BN31">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>BI31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61847,13 +61735,13 @@
   </customSheetViews>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B27:DH27">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>ISERROR(MATCH(B$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>WEEKDAY(B$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>WEEKDAY(B$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62280,12 +62168,12 @@
   </customSheetViews>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:B29 D4:H29">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$E4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C29">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$E4="完了"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/PM演習_管理ツール_矢吹研A班.xlsx
@@ -1731,6 +1731,22 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1747,51 +1763,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1809,23 +1803,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3012,11 +3012,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="277999208"/>
-        <c:axId val="277999600"/>
+        <c:axId val="226338912"/>
+        <c:axId val="226339304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="277999208"/>
+        <c:axId val="226338912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,14 +3026,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="277999600"/>
+        <c:crossAx val="226339304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="277999600"/>
+        <c:axId val="226339304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3054,7 +3054,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277999208"/>
+        <c:crossAx val="226338912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3570,65 +3570,65 @@
       <c r="A1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="74"/>
+      <c r="C1" s="86"/>
       <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="83">
         <v>11.4</v>
       </c>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="81" t="s">
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="84" t="s">
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="79" t="s">
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="87">
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="72">
         <v>42524</v>
       </c>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="86"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="74"/>
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A2" s="45"/>
@@ -3657,25 +3657,25 @@
       <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:118" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="80" t="s">
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="49" t="s">
@@ -3799,10 +3799,10 @@
       <c r="DN3" s="51"/>
     </row>
     <row r="4" spans="1:118" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="89"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="53" t="str">
         <f>データ!A2</f>
         <v>川崎</v>
@@ -3819,7 +3819,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>小山</v>
       </c>
-      <c r="I4" s="80"/>
+      <c r="I4" s="79"/>
       <c r="J4" s="54" t="s">
         <v>20</v>
       </c>
@@ -4149,20 +4149,20 @@
       </c>
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A5" s="70">
-        <v>0</v>
-      </c>
-      <c r="B5" s="64" t="str">
+      <c r="A5" s="64">
+        <v>0</v>
+      </c>
+      <c r="B5" s="68" t="str">
         <f>B1</f>
         <v>コンビニ弁当データベース開発</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="84"/>
       <c r="J5" s="55" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K5:DN5)/データ!$D$2,"")</f>
         <v/>
@@ -4277,15 +4277,15 @@
       <c r="DN5" s="19"/>
     </row>
     <row r="6" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="72"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="56" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K6:DN6)/データ!$D$2,"")</f>
         <v/>
@@ -4400,19 +4400,19 @@
       <c r="DN6" s="21"/>
     </row>
     <row r="7" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A7" s="70">
+      <c r="A7" s="64">
         <v>1</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="72"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="84"/>
       <c r="J7" s="55" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DN7)/データ!$D$2,"")</f>
         <v/>
@@ -4527,15 +4527,15 @@
       <c r="DN7" s="19"/>
     </row>
     <row r="8" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="56" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DN8)/データ!$D$2,"")</f>
         <v/>
@@ -4650,23 +4650,23 @@
       <c r="DN8" s="21"/>
     </row>
     <row r="9" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A9" s="70">
+      <c r="A9" s="64">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="64" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="68">
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="66">
         <v>1</v>
       </c>
       <c r="J9" s="55">
@@ -4793,15 +4793,15 @@
       <c r="DN9" s="19"/>
     </row>
     <row r="10" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="69"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="56">
         <f>IF(C9&lt;&gt;"",SUM(K10:DN10)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -4926,25 +4926,25 @@
       <c r="DN10" s="21"/>
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A11" s="70">
+      <c r="A11" s="64">
         <v>1.2</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="68">
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="66">
         <v>1</v>
       </c>
       <c r="J11" s="55">
@@ -5071,15 +5071,15 @@
       <c r="DN11" s="19"/>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="69"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="56">
         <f>IF(C11&lt;&gt;"",SUM(K12:DN12)/データ!$D$2,"")</f>
         <v>4.875</v>
@@ -5210,25 +5210,25 @@
       <c r="DN12" s="21"/>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A13" s="70">
+      <c r="A13" s="64">
         <v>1.3</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="64" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="68">
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="66">
         <v>1</v>
       </c>
       <c r="J13" s="55">
@@ -5347,15 +5347,15 @@
       <c r="DN13" s="19"/>
     </row>
     <row r="14" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="69"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="67"/>
       <c r="J14" s="56">
         <f>IF(C13&lt;&gt;"",SUM(K14:DN14)/データ!$D$2,"")</f>
         <v>0.25</v>
@@ -5474,25 +5474,25 @@
       <c r="DN14" s="21"/>
     </row>
     <row r="15" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A15" s="64">
+      <c r="A15" s="68">
         <v>1.4</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="68">
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="66">
         <v>1</v>
       </c>
       <c r="J15" s="55">
@@ -5619,15 +5619,15 @@
       <c r="DN15" s="19"/>
     </row>
     <row r="16" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="69"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="56">
         <f>IF(C15&lt;&gt;"",SUM(K16:DN16)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -5752,31 +5752,31 @@
       <c r="DN16" s="21"/>
     </row>
     <row r="17" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A17" s="64">
+      <c r="A17" s="68">
         <v>2</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="66" t="s">
+      <c r="H17" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="66">
         <v>1</v>
       </c>
       <c r="J17" s="55">
@@ -5907,15 +5907,15 @@
       <c r="DN17" s="19"/>
     </row>
     <row r="18" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="69"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="56">
         <f>IF(C17&lt;&gt;"",SUM(K18:DN18)/データ!$D$2,"")</f>
         <v>10.25</v>
@@ -6072,19 +6072,19 @@
       <c r="DN18" s="21"/>
     </row>
     <row r="19" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A19" s="64">
+      <c r="A19" s="68">
         <v>3</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="55" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K19:DN19)/データ!$D$2,"")</f>
         <v/>
@@ -6199,15 +6199,15 @@
       <c r="DN19" s="19"/>
     </row>
     <row r="20" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="69"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="67"/>
       <c r="J20" s="56" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K20:DN20)/データ!$D$2,"")</f>
         <v/>
@@ -6322,27 +6322,27 @@
       <c r="DN20" s="21"/>
     </row>
     <row r="21" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64">
+      <c r="A21" s="68">
         <v>3.1</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66" t="s">
+      <c r="F21" s="70"/>
+      <c r="G21" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="66" t="s">
+      <c r="H21" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="68">
+      <c r="I21" s="66">
         <v>1</v>
       </c>
       <c r="J21" s="55">
@@ -6471,15 +6471,15 @@
       <c r="DN21" s="19"/>
     </row>
     <row r="22" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="69"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="67"/>
       <c r="J22" s="56">
         <f>IF(C21&lt;&gt;"",SUM(K22:DN22)/データ!$D$2,"")</f>
         <v>7.25</v>
@@ -6622,25 +6622,25 @@
       <c r="DN22" s="21"/>
     </row>
     <row r="23" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A23" s="64">
+      <c r="A23" s="68">
         <v>3.2</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66" t="s">
+      <c r="F23" s="70"/>
+      <c r="G23" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="68">
+      <c r="H23" s="70"/>
+      <c r="I23" s="66">
         <v>1</v>
       </c>
       <c r="J23" s="55">
@@ -6767,15 +6767,15 @@
       <c r="DN23" s="19"/>
     </row>
     <row r="24" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="69"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="56">
         <f>IF(C23&lt;&gt;"",SUM(K24:DN24)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -6894,25 +6894,25 @@
       <c r="DN24" s="21"/>
     </row>
     <row r="25" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="64">
+      <c r="A25" s="68">
         <v>4</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="68">
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="66">
         <v>1</v>
       </c>
       <c r="J25" s="55">
@@ -7037,15 +7037,15 @@
       <c r="DN25" s="19"/>
     </row>
     <row r="26" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="69"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="56">
         <f>IF(C25&lt;&gt;"",SUM(K26:DN26)/データ!$D$2,"")</f>
         <v>1.25</v>
@@ -7164,19 +7164,19 @@
       <c r="DN26" s="21"/>
     </row>
     <row r="27" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="64">
+      <c r="A27" s="68">
         <v>5</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="55" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K27:DN27)/データ!$D$2,"")</f>
         <v/>
@@ -7291,15 +7291,15 @@
       <c r="DN27" s="19"/>
     </row>
     <row r="28" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="69"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="67"/>
       <c r="J28" s="56" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K28:DN28)/データ!$D$2,"")</f>
         <v/>
@@ -7414,27 +7414,27 @@
       <c r="DN28" s="21"/>
     </row>
     <row r="29" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="64">
+      <c r="A29" s="68">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64" t="s">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66" t="s">
+      <c r="G29" s="70"/>
+      <c r="H29" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="I29" s="68"/>
+      <c r="I29" s="66"/>
       <c r="J29" s="55">
         <f>IF(C29&lt;&gt;"",SUM(K29:DN29)/データ!$D$2,"")</f>
         <v>4.5</v>
@@ -7561,15 +7561,15 @@
       <c r="DN29" s="19"/>
     </row>
     <row r="30" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="69"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="56">
         <f>IF(C29&lt;&gt;"",SUM(K30:DN30)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7684,27 +7684,27 @@
       <c r="DN30" s="21"/>
     </row>
     <row r="31" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="64">
+      <c r="A31" s="68">
         <v>5.2</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64" t="s">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66" t="s">
+      <c r="F31" s="70"/>
+      <c r="G31" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="I31" s="68"/>
+      <c r="I31" s="66"/>
       <c r="J31" s="55">
         <f>IF(C31&lt;&gt;"",SUM(K31:DN31)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -7831,15 +7831,15 @@
       <c r="DN31" s="19"/>
     </row>
     <row r="32" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="69"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="56">
         <f>IF(C31&lt;&gt;"",SUM(K32:DN32)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7954,29 +7954,29 @@
       <c r="DN32" s="21"/>
     </row>
     <row r="33" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="64">
+      <c r="A33" s="68">
         <v>6</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="66"/>
-      <c r="I33" s="68"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="66"/>
       <c r="J33" s="55">
         <f>IF(C33&lt;&gt;"",SUM(K33:DN33)/データ!$D$2,"")</f>
         <v>3.75</v>
@@ -8103,15 +8103,15 @@
       <c r="DN33" s="19"/>
     </row>
     <row r="34" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="69"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="67"/>
       <c r="J34" s="56">
         <f>IF(C33&lt;&gt;"",SUM(K34:DN34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8226,29 +8226,29 @@
       <c r="DN34" s="21"/>
     </row>
     <row r="35" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A35" s="64">
+      <c r="A35" s="68">
         <v>7</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="66" t="s">
+      <c r="D35" s="68"/>
+      <c r="E35" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="66" t="s">
+      <c r="F35" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="66" t="s">
+      <c r="G35" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="66" t="s">
+      <c r="H35" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="68"/>
+      <c r="I35" s="66"/>
       <c r="J35" s="55">
         <f>IF(C35&lt;&gt;"",SUM(K35:DN35)/データ!$D$2,"")</f>
         <v>10</v>
@@ -8391,15 +8391,15 @@
       <c r="DN35" s="19"/>
     </row>
     <row r="36" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="69"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="56">
         <f>IF(C35&lt;&gt;"",SUM(K36:DN36)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8514,23 +8514,23 @@
       <c r="DN36" s="21"/>
     </row>
     <row r="37" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A37" s="64">
+      <c r="A37" s="68">
         <v>8</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="68"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="66"/>
       <c r="J37" s="55">
         <f>IF(C37&lt;&gt;"",SUM(K37:DN37)/データ!$D$2,"")</f>
         <v>5</v>
@@ -8665,15 +8665,15 @@
       <c r="DN37" s="19"/>
     </row>
     <row r="38" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="69"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="67"/>
       <c r="J38" s="56">
         <f>IF(C37&lt;&gt;"",SUM(K38:DN38)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8788,19 +8788,19 @@
       <c r="DN38" s="21"/>
     </row>
     <row r="39" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="64">
+      <c r="A39" s="68">
         <v>9</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="66"/>
       <c r="J39" s="55" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K39:DN39)/データ!$D$2,"")</f>
         <v/>
@@ -8915,15 +8915,15 @@
       <c r="DN39" s="19"/>
     </row>
     <row r="40" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="69"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="67"/>
       <c r="J40" s="56" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K40:DN40)/データ!$D$2,"")</f>
         <v/>
@@ -9038,25 +9038,25 @@
       <c r="DN40" s="21"/>
     </row>
     <row r="41" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A41" s="64">
+      <c r="A41" s="68">
         <v>9.1</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64" t="s">
+      <c r="B41" s="68"/>
+      <c r="C41" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="64" t="s">
+      <c r="D41" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="66" t="s">
+      <c r="E41" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="68"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="66"/>
       <c r="J41" s="55">
         <f>IF(C41&lt;&gt;"",SUM(K41:DN41)/データ!$D$2,"")</f>
         <v>1.5</v>
@@ -9177,15 +9177,15 @@
       <c r="DN41" s="19"/>
     </row>
     <row r="42" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="69"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="67"/>
       <c r="J42" s="56">
         <f>IF(C41&lt;&gt;"",SUM(K42:DN42)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9300,25 +9300,25 @@
       <c r="DN42" s="21"/>
     </row>
     <row r="43" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A43" s="64">
+      <c r="A43" s="68">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64" t="s">
+      <c r="B43" s="68"/>
+      <c r="C43" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="64" t="s">
+      <c r="D43" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="66" t="s">
+      <c r="E43" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66" t="s">
+      <c r="F43" s="70"/>
+      <c r="G43" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H43" s="66"/>
-      <c r="I43" s="68"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="66"/>
       <c r="J43" s="55">
         <f>IF(C43&lt;&gt;"",SUM(K43:DN43)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -9439,15 +9439,15 @@
       <c r="DN43" s="19"/>
     </row>
     <row r="44" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="69"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="67"/>
       <c r="J44" s="56">
         <f>IF(C43&lt;&gt;"",SUM(K44:DN44)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9562,19 +9562,19 @@
       <c r="DN44" s="21"/>
     </row>
     <row r="45" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="64">
+      <c r="A45" s="68">
         <v>10</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="66"/>
       <c r="J45" s="55" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K45:DN45)/データ!$D$2,"")</f>
         <v/>
@@ -9689,15 +9689,15 @@
       <c r="DN45" s="19"/>
     </row>
     <row r="46" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="69"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="67"/>
       <c r="J46" s="56" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K46:DN46)/データ!$D$2,"")</f>
         <v/>
@@ -9812,23 +9812,23 @@
       <c r="DN46" s="21"/>
     </row>
     <row r="47" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A47" s="64">
+      <c r="A47" s="68">
         <v>10.1</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64" t="s">
+      <c r="B47" s="68"/>
+      <c r="C47" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="64" t="s">
+      <c r="D47" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="66" t="s">
+      <c r="E47" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="68"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="66"/>
       <c r="J47" s="55">
         <f>IF(C47&lt;&gt;"",SUM(K47:DN47)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -9949,15 +9949,15 @@
       <c r="DN47" s="19"/>
     </row>
     <row r="48" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="69"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="67"/>
       <c r="J48" s="56">
         <f>IF(C47&lt;&gt;"",SUM(K48:DN48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10072,23 +10072,23 @@
       <c r="DN48" s="21"/>
     </row>
     <row r="49" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A49" s="70">
+      <c r="A49" s="64">
         <v>10.199999999999999</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70" t="s">
+      <c r="B49" s="64"/>
+      <c r="C49" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="70" t="s">
+      <c r="D49" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="71" t="s">
+      <c r="E49" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="68"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="66"/>
       <c r="J49" s="55">
         <f>IF(C49&lt;&gt;"",SUM(K49:DN49)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10203,15 +10203,15 @@
       <c r="DN49" s="19"/>
     </row>
     <row r="50" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="69"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="67"/>
       <c r="J50" s="56">
         <f>IF(C49&lt;&gt;"",SUM(K50:DN50)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10326,19 +10326,19 @@
       <c r="DN50" s="21"/>
     </row>
     <row r="51" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A51" s="70">
+      <c r="A51" s="64">
         <v>11</v>
       </c>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="68"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="66"/>
       <c r="J51" s="55" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K51:DN51)/データ!$D$2,"")</f>
         <v/>
@@ -10453,15 +10453,15 @@
       <c r="DN51" s="19"/>
     </row>
     <row r="52" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="69"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="67"/>
       <c r="J52" s="56" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K52:DN52)/データ!$D$2,"")</f>
         <v/>
@@ -10576,25 +10576,25 @@
       <c r="DN52" s="21"/>
     </row>
     <row r="53" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A53" s="70">
+      <c r="A53" s="64">
         <v>11.1</v>
       </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70" t="s">
+      <c r="B53" s="64"/>
+      <c r="C53" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="70" t="s">
+      <c r="D53" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="71" t="s">
+      <c r="E53" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="71" t="s">
+      <c r="F53" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="68"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="66"/>
       <c r="J53" s="55">
         <f>IF(C53&lt;&gt;"",SUM(K53:DN53)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -10735,15 +10735,15 @@
       <c r="DN53" s="19"/>
     </row>
     <row r="54" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A54" s="70"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="69"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="67"/>
       <c r="J54" s="56">
         <f>IF(C53&lt;&gt;"",SUM(K54:DN54)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -10866,23 +10866,23 @@
       <c r="DN54" s="21"/>
     </row>
     <row r="55" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A55" s="70">
+      <c r="A55" s="64">
         <v>11.2</v>
       </c>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70" t="s">
+      <c r="B55" s="64"/>
+      <c r="C55" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="70" t="s">
+      <c r="D55" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="E55" s="71" t="s">
+      <c r="E55" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="68"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="66"/>
       <c r="J55" s="55">
         <f>IF(C55&lt;&gt;"",SUM(K55:DN55)/データ!$D$2,"")</f>
         <v>1.625</v>
@@ -11023,15 +11023,15 @@
       <c r="DN55" s="19"/>
     </row>
     <row r="56" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="69"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="67"/>
       <c r="J56" s="56">
         <f>IF(C55&lt;&gt;"",SUM(K56:DN56)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11154,23 +11154,23 @@
       <c r="DN56" s="21"/>
     </row>
     <row r="57" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A57" s="70">
+      <c r="A57" s="64">
         <v>11.3</v>
       </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70" t="s">
+      <c r="B57" s="64"/>
+      <c r="C57" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="70" t="s">
+      <c r="D57" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="71" t="s">
+      <c r="E57" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="68"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="66"/>
       <c r="J57" s="55">
         <f>IF(C57&lt;&gt;"",SUM(K57:DN57)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11287,15 +11287,15 @@
       <c r="DN57" s="19"/>
     </row>
     <row r="58" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="69"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="67"/>
       <c r="J58" s="56">
         <f>IF(C57&lt;&gt;"",SUM(K58:DN58)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11412,23 +11412,23 @@
       <c r="DN58" s="21"/>
     </row>
     <row r="59" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A59" s="70">
+      <c r="A59" s="64">
         <v>11.4</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70" t="s">
+      <c r="B59" s="64"/>
+      <c r="C59" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="70" t="s">
+      <c r="D59" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E59" s="71" t="s">
+      <c r="E59" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="68">
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="66">
         <v>0.5</v>
       </c>
       <c r="J59" s="55">
@@ -11547,15 +11547,15 @@
       <c r="DN59" s="19"/>
     </row>
     <row r="60" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="69"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="67"/>
       <c r="J60" s="56">
         <f>IF(C59&lt;&gt;"",SUM(K60:DN60)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11672,15 +11672,15 @@
       <c r="DN60" s="21"/>
     </row>
     <row r="61" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="68"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="66"/>
       <c r="J61" s="55" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DN61)/データ!$D$2,"")</f>
         <v/>
@@ -11795,15 +11795,15 @@
       <c r="DN61" s="19"/>
     </row>
     <row r="62" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A62" s="70"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="69"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="67"/>
       <c r="J62" s="56" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DN62)/データ!$D$2,"")</f>
         <v/>
@@ -11918,15 +11918,15 @@
       <c r="DN62" s="21"/>
     </row>
     <row r="63" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A63" s="70"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="68"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="66"/>
       <c r="J63" s="55" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K63:DN63)/データ!$D$2,"")</f>
         <v/>
@@ -12041,15 +12041,15 @@
       <c r="DN63" s="19"/>
     </row>
     <row r="64" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A64" s="70"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="69"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="67"/>
       <c r="J64" s="56" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K64:DN64)/データ!$D$2,"")</f>
         <v/>
@@ -12164,15 +12164,15 @@
       <c r="DN64" s="21"/>
     </row>
     <row r="65" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A65" s="70"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="68"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="66"/>
       <c r="J65" s="55" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K65:DN65)/データ!$D$2,"")</f>
         <v/>
@@ -12287,15 +12287,15 @@
       <c r="DN65" s="19"/>
     </row>
     <row r="66" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A66" s="70"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="69"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="67"/>
       <c r="J66" s="56" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K66:DN66)/データ!$D$2,"")</f>
         <v/>
@@ -12410,15 +12410,15 @@
       <c r="DN66" s="21"/>
     </row>
     <row r="67" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A67" s="70"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="68"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="66"/>
       <c r="J67" s="55" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DN67)/データ!$D$2,"")</f>
         <v/>
@@ -12533,15 +12533,15 @@
       <c r="DN67" s="19"/>
     </row>
     <row r="68" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A68" s="70"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="69"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="67"/>
       <c r="J68" s="56" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DN68)/データ!$D$2,"")</f>
         <v/>
@@ -12656,15 +12656,15 @@
       <c r="DN68" s="21"/>
     </row>
     <row r="69" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A69" s="70"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="68"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="66"/>
       <c r="J69" s="55" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DN69)/データ!$D$2,"")</f>
         <v/>
@@ -12779,15 +12779,15 @@
       <c r="DN69" s="19"/>
     </row>
     <row r="70" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="69"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="67"/>
       <c r="J70" s="56" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DN70)/データ!$D$2,"")</f>
         <v/>
@@ -12902,15 +12902,15 @@
       <c r="DN70" s="21"/>
     </row>
     <row r="71" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A71" s="64"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="68"/>
+      <c r="A71" s="68"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="66"/>
       <c r="J71" s="55" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K71:DN71)/データ!$D$2,"")</f>
         <v/>
@@ -13025,15 +13025,15 @@
       <c r="DN71" s="19"/>
     </row>
     <row r="72" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="69"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="67"/>
       <c r="J72" s="56" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K72:DN72)/データ!$D$2,"")</f>
         <v/>
@@ -13148,15 +13148,15 @@
       <c r="DN72" s="21"/>
     </row>
     <row r="73" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="68"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="66"/>
       <c r="J73" s="55" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K73:DN73)/データ!$D$2,"")</f>
         <v/>
@@ -13271,15 +13271,15 @@
       <c r="DN73" s="19"/>
     </row>
     <row r="74" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A74" s="70"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="69"/>
+      <c r="A74" s="64"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="67"/>
       <c r="J74" s="56" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K74:DN74)/データ!$D$2,"")</f>
         <v/>
@@ -13394,15 +13394,15 @@
       <c r="DN74" s="21"/>
     </row>
     <row r="75" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A75" s="70"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="68"/>
+      <c r="A75" s="64"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="66"/>
       <c r="J75" s="55" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K75:DN75)/データ!$D$2,"")</f>
         <v/>
@@ -13517,15 +13517,15 @@
       <c r="DN75" s="19"/>
     </row>
     <row r="76" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A76" s="70"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="69"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="67"/>
       <c r="J76" s="56" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K76:DN76)/データ!$D$2,"")</f>
         <v/>
@@ -13640,15 +13640,15 @@
       <c r="DN76" s="21"/>
     </row>
     <row r="77" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A77" s="64"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="68"/>
+      <c r="A77" s="68"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="70"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="66"/>
       <c r="J77" s="55" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DN77)/データ!$D$2,"")</f>
         <v/>
@@ -13763,15 +13763,15 @@
       <c r="DN77" s="19"/>
     </row>
     <row r="78" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A78" s="65"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="69"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="67"/>
       <c r="J78" s="56" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DN78)/データ!$D$2,"")</f>
         <v/>
@@ -13886,15 +13886,15 @@
       <c r="DN78" s="21"/>
     </row>
     <row r="79" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A79" s="64"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="68"/>
+      <c r="A79" s="68"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="70"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="66"/>
       <c r="J79" s="55" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K79:DN79)/データ!$D$2,"")</f>
         <v/>
@@ -14009,15 +14009,15 @@
       <c r="DN79" s="19"/>
     </row>
     <row r="80" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A80" s="65"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="69"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="67"/>
       <c r="J80" s="56" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K80:DN80)/データ!$D$2,"")</f>
         <v/>
@@ -14132,15 +14132,15 @@
       <c r="DN80" s="21"/>
     </row>
     <row r="81" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A81" s="64"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="68"/>
+      <c r="A81" s="68"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="70"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="66"/>
       <c r="J81" s="55" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K81:DN81)/データ!$D$2,"")</f>
         <v/>
@@ -14255,15 +14255,15 @@
       <c r="DN81" s="19"/>
     </row>
     <row r="82" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="69"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="67"/>
       <c r="J82" s="56" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K82:DN82)/データ!$D$2,"")</f>
         <v/>
@@ -14378,15 +14378,15 @@
       <c r="DN82" s="21"/>
     </row>
     <row r="83" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="64"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="68"/>
+      <c r="A83" s="68"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="70"/>
+      <c r="H83" s="70"/>
+      <c r="I83" s="66"/>
       <c r="J83" s="55" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K83:DN83)/データ!$D$2,"")</f>
         <v/>
@@ -14501,15 +14501,15 @@
       <c r="DN83" s="19"/>
     </row>
     <row r="84" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A84" s="65"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="69"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="71"/>
+      <c r="I84" s="67"/>
       <c r="J84" s="56" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K84:DN84)/データ!$D$2,"")</f>
         <v/>
@@ -14624,15 +14624,15 @@
       <c r="DN84" s="21"/>
     </row>
     <row r="85" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A85" s="64"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="68"/>
+      <c r="A85" s="68"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="66"/>
       <c r="J85" s="55" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DN85)/データ!$D$2,"")</f>
         <v/>
@@ -14747,15 +14747,15 @@
       <c r="DN85" s="19"/>
     </row>
     <row r="86" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A86" s="65"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="69"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="67"/>
       <c r="J86" s="56" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DN86)/データ!$D$2,"")</f>
         <v/>
@@ -14870,15 +14870,15 @@
       <c r="DN86" s="21"/>
     </row>
     <row r="87" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="64"/>
-      <c r="B87" s="64"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="68"/>
+      <c r="A87" s="68"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="66"/>
       <c r="J87" s="55" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K87:DN87)/データ!$D$2,"")</f>
         <v/>
@@ -14993,15 +14993,15 @@
       <c r="DN87" s="19"/>
     </row>
     <row r="88" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A88" s="65"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="69"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="71"/>
+      <c r="I88" s="67"/>
       <c r="J88" s="56" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K88:DN88)/データ!$D$2,"")</f>
         <v/>
@@ -15116,15 +15116,15 @@
       <c r="DN88" s="21"/>
     </row>
     <row r="89" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="64"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="68"/>
+      <c r="A89" s="68"/>
+      <c r="B89" s="68"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="66"/>
       <c r="J89" s="55" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K89:DN89)/データ!$D$2,"")</f>
         <v/>
@@ -15239,15 +15239,15 @@
       <c r="DN89" s="19"/>
     </row>
     <row r="90" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A90" s="65"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="69"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="71"/>
+      <c r="I90" s="67"/>
       <c r="J90" s="56" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K90:DN90)/データ!$D$2,"")</f>
         <v/>
@@ -15362,15 +15362,15 @@
       <c r="DN90" s="21"/>
     </row>
     <row r="91" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A91" s="64"/>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="68"/>
+      <c r="A91" s="68"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="68"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="66"/>
       <c r="J91" s="55" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K91:DN91)/データ!$D$2,"")</f>
         <v/>
@@ -15485,15 +15485,15 @@
       <c r="DN91" s="19"/>
     </row>
     <row r="92" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A92" s="65"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="69"/>
+      <c r="A92" s="69"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="67"/>
       <c r="J92" s="56" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K92:DN92)/データ!$D$2,"")</f>
         <v/>
@@ -15608,15 +15608,15 @@
       <c r="DN92" s="21"/>
     </row>
     <row r="93" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A93" s="64"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="68"/>
+      <c r="A93" s="68"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="70"/>
+      <c r="H93" s="70"/>
+      <c r="I93" s="66"/>
       <c r="J93" s="55" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K93:DN93)/データ!$D$2,"")</f>
         <v/>
@@ -15731,15 +15731,15 @@
       <c r="DN93" s="19"/>
     </row>
     <row r="94" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A94" s="65"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="69"/>
+      <c r="A94" s="69"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="67"/>
       <c r="J94" s="56" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K94:DN94)/データ!$D$2,"")</f>
         <v/>
@@ -15854,15 +15854,15 @@
       <c r="DN94" s="21"/>
     </row>
     <row r="95" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="64"/>
-      <c r="B95" s="64"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="68"/>
+      <c r="A95" s="68"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="70"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="66"/>
       <c r="J95" s="55" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DN95)/データ!$D$2,"")</f>
         <v/>
@@ -15977,15 +15977,15 @@
       <c r="DN95" s="19"/>
     </row>
     <row r="96" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A96" s="65"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="69"/>
+      <c r="A96" s="69"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="71"/>
+      <c r="I96" s="67"/>
       <c r="J96" s="56" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DN96)/データ!$D$2,"")</f>
         <v/>
@@ -16100,15 +16100,15 @@
       <c r="DN96" s="21"/>
     </row>
     <row r="97" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A97" s="64"/>
-      <c r="B97" s="64"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="68"/>
+      <c r="A97" s="68"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="68"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="70"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="66"/>
       <c r="J97" s="55" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DN97)/データ!$D$2,"")</f>
         <v/>
@@ -16223,15 +16223,15 @@
       <c r="DN97" s="19"/>
     </row>
     <row r="98" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A98" s="65"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="69"/>
+      <c r="A98" s="69"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="71"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="67"/>
       <c r="J98" s="56" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DN98)/データ!$D$2,"")</f>
         <v/>
@@ -16346,15 +16346,15 @@
       <c r="DN98" s="21"/>
     </row>
     <row r="99" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A99" s="64"/>
-      <c r="B99" s="64"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="68"/>
+      <c r="A99" s="68"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="66"/>
       <c r="J99" s="55" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DN99)/データ!$D$2,"")</f>
         <v/>
@@ -16469,15 +16469,15 @@
       <c r="DN99" s="19"/>
     </row>
     <row r="100" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A100" s="65"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="67"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="69"/>
+      <c r="A100" s="69"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="67"/>
       <c r="J100" s="56" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DN100)/データ!$D$2,"")</f>
         <v/>
@@ -16592,15 +16592,15 @@
       <c r="DN100" s="21"/>
     </row>
     <row r="101" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="64"/>
-      <c r="B101" s="64"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="68"/>
+      <c r="A101" s="68"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="66"/>
       <c r="J101" s="55" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DN101)/データ!$D$2,"")</f>
         <v/>
@@ -16715,15 +16715,15 @@
       <c r="DN101" s="19"/>
     </row>
     <row r="102" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A102" s="65"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
-      <c r="I102" s="69"/>
+      <c r="A102" s="69"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="71"/>
+      <c r="I102" s="67"/>
       <c r="J102" s="56" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DN102)/データ!$D$2,"")</f>
         <v/>
@@ -16838,15 +16838,15 @@
       <c r="DN102" s="21"/>
     </row>
     <row r="103" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A103" s="64"/>
-      <c r="B103" s="64"/>
-      <c r="C103" s="64"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="68"/>
+      <c r="A103" s="68"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="68"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="66"/>
       <c r="J103" s="55" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DN103)/データ!$D$2,"")</f>
         <v/>
@@ -16961,15 +16961,15 @@
       <c r="DN103" s="19"/>
     </row>
     <row r="104" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A104" s="65"/>
-      <c r="B104" s="65"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
-      <c r="I104" s="69"/>
+      <c r="A104" s="69"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="71"/>
+      <c r="H104" s="71"/>
+      <c r="I104" s="67"/>
       <c r="J104" s="56" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DN104)/データ!$D$2,"")</f>
         <v/>
@@ -17084,15 +17084,15 @@
       <c r="DN104" s="21"/>
     </row>
     <row r="105" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A105" s="70"/>
-      <c r="B105" s="70"/>
-      <c r="C105" s="70"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="71"/>
-      <c r="F105" s="71"/>
-      <c r="G105" s="71"/>
-      <c r="H105" s="71"/>
-      <c r="I105" s="68"/>
+      <c r="A105" s="64"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="66"/>
       <c r="J105" s="55" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DN105)/データ!$D$2,"")</f>
         <v/>
@@ -17207,15 +17207,15 @@
       <c r="DN105" s="19"/>
     </row>
     <row r="106" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A106" s="70"/>
-      <c r="B106" s="70"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="71"/>
-      <c r="F106" s="71"/>
-      <c r="G106" s="71"/>
-      <c r="H106" s="71"/>
-      <c r="I106" s="69"/>
+      <c r="A106" s="64"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="65"/>
+      <c r="H106" s="65"/>
+      <c r="I106" s="67"/>
       <c r="J106" s="56" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DN106)/データ!$D$2,"")</f>
         <v/>
@@ -17330,15 +17330,15 @@
       <c r="DN106" s="21"/>
     </row>
     <row r="107" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A107" s="70"/>
-      <c r="B107" s="70"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="71"/>
-      <c r="G107" s="71"/>
-      <c r="H107" s="71"/>
-      <c r="I107" s="68"/>
+      <c r="A107" s="64"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="66"/>
       <c r="J107" s="55" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DN107)/データ!$D$2,"")</f>
         <v/>
@@ -17453,15 +17453,15 @@
       <c r="DN107" s="19"/>
     </row>
     <row r="108" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A108" s="70"/>
-      <c r="B108" s="70"/>
-      <c r="C108" s="70"/>
-      <c r="D108" s="70"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="71"/>
-      <c r="G108" s="71"/>
-      <c r="H108" s="71"/>
-      <c r="I108" s="69"/>
+      <c r="A108" s="64"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="65"/>
+      <c r="H108" s="65"/>
+      <c r="I108" s="67"/>
       <c r="J108" s="56" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DN108)/データ!$D$2,"")</f>
         <v/>
@@ -17576,15 +17576,15 @@
       <c r="DN108" s="21"/>
     </row>
     <row r="109" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A109" s="70"/>
-      <c r="B109" s="70"/>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="71"/>
-      <c r="F109" s="71"/>
-      <c r="G109" s="71"/>
-      <c r="H109" s="71"/>
-      <c r="I109" s="68"/>
+      <c r="A109" s="64"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
+      <c r="G109" s="65"/>
+      <c r="H109" s="65"/>
+      <c r="I109" s="66"/>
       <c r="J109" s="55" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K109:DN109)/データ!$D$2,"")</f>
         <v/>
@@ -17699,15 +17699,15 @@
       <c r="DN109" s="19"/>
     </row>
     <row r="110" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A110" s="70"/>
-      <c r="B110" s="70"/>
-      <c r="C110" s="70"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="71"/>
-      <c r="H110" s="71"/>
-      <c r="I110" s="69"/>
+      <c r="A110" s="64"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="65"/>
+      <c r="F110" s="65"/>
+      <c r="G110" s="65"/>
+      <c r="H110" s="65"/>
+      <c r="I110" s="67"/>
       <c r="J110" s="56" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K110:DN110)/データ!$D$2,"")</f>
         <v/>
@@ -17822,15 +17822,15 @@
       <c r="DN110" s="21"/>
     </row>
     <row r="111" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A111" s="70"/>
-      <c r="B111" s="70"/>
-      <c r="C111" s="70"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="71"/>
-      <c r="F111" s="71"/>
-      <c r="G111" s="71"/>
-      <c r="H111" s="71"/>
-      <c r="I111" s="68"/>
+      <c r="A111" s="64"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="64"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="65"/>
+      <c r="I111" s="66"/>
       <c r="J111" s="55" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K111:DN111)/データ!$D$2,"")</f>
         <v/>
@@ -17945,15 +17945,15 @@
       <c r="DN111" s="19"/>
     </row>
     <row r="112" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A112" s="70"/>
-      <c r="B112" s="70"/>
-      <c r="C112" s="70"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="71"/>
-      <c r="F112" s="71"/>
-      <c r="G112" s="71"/>
-      <c r="H112" s="71"/>
-      <c r="I112" s="69"/>
+      <c r="A112" s="64"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="65"/>
+      <c r="H112" s="65"/>
+      <c r="I112" s="67"/>
       <c r="J112" s="56" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K112:DN112)/データ!$D$2,"")</f>
         <v/>
@@ -18068,15 +18068,15 @@
       <c r="DN112" s="21"/>
     </row>
     <row r="113" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A113" s="70"/>
-      <c r="B113" s="70"/>
-      <c r="C113" s="70"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="71"/>
-      <c r="F113" s="71"/>
-      <c r="G113" s="71"/>
-      <c r="H113" s="71"/>
-      <c r="I113" s="68"/>
+      <c r="A113" s="64"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="66"/>
       <c r="J113" s="55" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K113:DN113)/データ!$D$2,"")</f>
         <v/>
@@ -18191,15 +18191,15 @@
       <c r="DN113" s="19"/>
     </row>
     <row r="114" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A114" s="70"/>
-      <c r="B114" s="70"/>
-      <c r="C114" s="70"/>
-      <c r="D114" s="70"/>
-      <c r="E114" s="71"/>
-      <c r="F114" s="71"/>
-      <c r="G114" s="71"/>
-      <c r="H114" s="71"/>
-      <c r="I114" s="69"/>
+      <c r="A114" s="64"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="65"/>
+      <c r="F114" s="65"/>
+      <c r="G114" s="65"/>
+      <c r="H114" s="65"/>
+      <c r="I114" s="67"/>
       <c r="J114" s="56" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K114:DN114)/データ!$D$2,"")</f>
         <v/>
@@ -18314,15 +18314,15 @@
       <c r="DN114" s="21"/>
     </row>
     <row r="115" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A115" s="70"/>
-      <c r="B115" s="70"/>
-      <c r="C115" s="70"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="71"/>
-      <c r="F115" s="71"/>
-      <c r="G115" s="71"/>
-      <c r="H115" s="71"/>
-      <c r="I115" s="68"/>
+      <c r="A115" s="64"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="66"/>
       <c r="J115" s="55" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K115:DN115)/データ!$D$2,"")</f>
         <v/>
@@ -18437,15 +18437,15 @@
       <c r="DN115" s="19"/>
     </row>
     <row r="116" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A116" s="70"/>
-      <c r="B116" s="70"/>
-      <c r="C116" s="70"/>
-      <c r="D116" s="70"/>
-      <c r="E116" s="71"/>
-      <c r="F116" s="71"/>
-      <c r="G116" s="71"/>
-      <c r="H116" s="71"/>
-      <c r="I116" s="69"/>
+      <c r="A116" s="64"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="65"/>
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="67"/>
       <c r="J116" s="56" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K116:DN116)/データ!$D$2,"")</f>
         <v/>
@@ -18560,15 +18560,15 @@
       <c r="DN116" s="21"/>
     </row>
     <row r="117" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A117" s="70"/>
-      <c r="B117" s="70"/>
-      <c r="C117" s="70"/>
-      <c r="D117" s="70"/>
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="68"/>
+      <c r="A117" s="64"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="65"/>
+      <c r="F117" s="65"/>
+      <c r="G117" s="65"/>
+      <c r="H117" s="65"/>
+      <c r="I117" s="66"/>
       <c r="J117" s="55" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K117:DN117)/データ!$D$2,"")</f>
         <v/>
@@ -18683,15 +18683,15 @@
       <c r="DN117" s="19"/>
     </row>
     <row r="118" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A118" s="70"/>
-      <c r="B118" s="70"/>
-      <c r="C118" s="70"/>
-      <c r="D118" s="70"/>
-      <c r="E118" s="71"/>
-      <c r="F118" s="71"/>
-      <c r="G118" s="71"/>
-      <c r="H118" s="71"/>
-      <c r="I118" s="69"/>
+      <c r="A118" s="64"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="65"/>
+      <c r="F118" s="65"/>
+      <c r="G118" s="65"/>
+      <c r="H118" s="65"/>
+      <c r="I118" s="67"/>
       <c r="J118" s="56" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K118:DN118)/データ!$D$2,"")</f>
         <v/>
@@ -18806,15 +18806,15 @@
       <c r="DN118" s="21"/>
     </row>
     <row r="119" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A119" s="70"/>
-      <c r="B119" s="70"/>
-      <c r="C119" s="70"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="71"/>
-      <c r="F119" s="71"/>
-      <c r="G119" s="71"/>
-      <c r="H119" s="71"/>
-      <c r="I119" s="68"/>
+      <c r="A119" s="64"/>
+      <c r="B119" s="64"/>
+      <c r="C119" s="64"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="65"/>
+      <c r="F119" s="65"/>
+      <c r="G119" s="65"/>
+      <c r="H119" s="65"/>
+      <c r="I119" s="66"/>
       <c r="J119" s="55" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K119:DN119)/データ!$D$2,"")</f>
         <v/>
@@ -18929,15 +18929,15 @@
       <c r="DN119" s="19"/>
     </row>
     <row r="120" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A120" s="70"/>
-      <c r="B120" s="70"/>
-      <c r="C120" s="70"/>
-      <c r="D120" s="70"/>
-      <c r="E120" s="71"/>
-      <c r="F120" s="71"/>
-      <c r="G120" s="71"/>
-      <c r="H120" s="71"/>
-      <c r="I120" s="69"/>
+      <c r="A120" s="64"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="65"/>
+      <c r="F120" s="65"/>
+      <c r="G120" s="65"/>
+      <c r="H120" s="65"/>
+      <c r="I120" s="67"/>
       <c r="J120" s="56" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K120:DN120)/データ!$D$2,"")</f>
         <v/>
@@ -19052,15 +19052,15 @@
       <c r="DN120" s="21"/>
     </row>
     <row r="121" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A121" s="70"/>
-      <c r="B121" s="70"/>
-      <c r="C121" s="70"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="71"/>
-      <c r="F121" s="71"/>
-      <c r="G121" s="71"/>
-      <c r="H121" s="71"/>
-      <c r="I121" s="68"/>
+      <c r="A121" s="64"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="65"/>
+      <c r="F121" s="65"/>
+      <c r="G121" s="65"/>
+      <c r="H121" s="65"/>
+      <c r="I121" s="66"/>
       <c r="J121" s="55" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K121:DN121)/データ!$D$2,"")</f>
         <v/>
@@ -19175,15 +19175,15 @@
       <c r="DN121" s="19"/>
     </row>
     <row r="122" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A122" s="70"/>
-      <c r="B122" s="70"/>
-      <c r="C122" s="70"/>
-      <c r="D122" s="70"/>
-      <c r="E122" s="71"/>
-      <c r="F122" s="71"/>
-      <c r="G122" s="71"/>
-      <c r="H122" s="71"/>
-      <c r="I122" s="69"/>
+      <c r="A122" s="64"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="65"/>
+      <c r="F122" s="65"/>
+      <c r="G122" s="65"/>
+      <c r="H122" s="65"/>
+      <c r="I122" s="67"/>
       <c r="J122" s="56" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K122:DN122)/データ!$D$2,"")</f>
         <v/>
@@ -19298,15 +19298,15 @@
       <c r="DN122" s="21"/>
     </row>
     <row r="123" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A123" s="70"/>
-      <c r="B123" s="70"/>
-      <c r="C123" s="70"/>
-      <c r="D123" s="70"/>
-      <c r="E123" s="71"/>
-      <c r="F123" s="71"/>
-      <c r="G123" s="71"/>
-      <c r="H123" s="71"/>
-      <c r="I123" s="68"/>
+      <c r="A123" s="64"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="64"/>
+      <c r="D123" s="64"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="66"/>
       <c r="J123" s="55" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K123:DN123)/データ!$D$2,"")</f>
         <v/>
@@ -19421,15 +19421,15 @@
       <c r="DN123" s="19"/>
     </row>
     <row r="124" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A124" s="70"/>
-      <c r="B124" s="70"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="70"/>
-      <c r="E124" s="71"/>
-      <c r="F124" s="71"/>
-      <c r="G124" s="71"/>
-      <c r="H124" s="71"/>
-      <c r="I124" s="69"/>
+      <c r="A124" s="64"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="64"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="67"/>
       <c r="J124" s="56" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K124:DN124)/データ!$D$2,"")</f>
         <v/>
@@ -19544,15 +19544,15 @@
       <c r="DN124" s="21"/>
     </row>
     <row r="125" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A125" s="70"/>
-      <c r="B125" s="70"/>
-      <c r="C125" s="70"/>
-      <c r="D125" s="70"/>
-      <c r="E125" s="71"/>
-      <c r="F125" s="71"/>
-      <c r="G125" s="71"/>
-      <c r="H125" s="71"/>
-      <c r="I125" s="68"/>
+      <c r="A125" s="64"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="64"/>
+      <c r="D125" s="64"/>
+      <c r="E125" s="65"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="65"/>
+      <c r="H125" s="65"/>
+      <c r="I125" s="66"/>
       <c r="J125" s="55" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K125:DN125)/データ!$D$2,"")</f>
         <v/>
@@ -19667,15 +19667,15 @@
       <c r="DN125" s="19"/>
     </row>
     <row r="126" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A126" s="70"/>
-      <c r="B126" s="70"/>
-      <c r="C126" s="70"/>
-      <c r="D126" s="70"/>
-      <c r="E126" s="71"/>
-      <c r="F126" s="71"/>
-      <c r="G126" s="71"/>
-      <c r="H126" s="71"/>
-      <c r="I126" s="69"/>
+      <c r="A126" s="64"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="64"/>
+      <c r="E126" s="65"/>
+      <c r="F126" s="65"/>
+      <c r="G126" s="65"/>
+      <c r="H126" s="65"/>
+      <c r="I126" s="67"/>
       <c r="J126" s="56" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K126:DN126)/データ!$D$2,"")</f>
         <v/>
@@ -19790,15 +19790,15 @@
       <c r="DN126" s="21"/>
     </row>
     <row r="127" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A127" s="64"/>
-      <c r="B127" s="64"/>
-      <c r="C127" s="64"/>
-      <c r="D127" s="64"/>
-      <c r="E127" s="66"/>
-      <c r="F127" s="66"/>
-      <c r="G127" s="66"/>
-      <c r="H127" s="66"/>
-      <c r="I127" s="68"/>
+      <c r="A127" s="68"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="68"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="70"/>
+      <c r="F127" s="70"/>
+      <c r="G127" s="70"/>
+      <c r="H127" s="70"/>
+      <c r="I127" s="66"/>
       <c r="J127" s="55" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K127:DN127)/データ!$D$2,"")</f>
         <v/>
@@ -19913,15 +19913,15 @@
       <c r="DN127" s="19"/>
     </row>
     <row r="128" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A128" s="65"/>
-      <c r="B128" s="65"/>
-      <c r="C128" s="65"/>
-      <c r="D128" s="65"/>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="67"/>
-      <c r="H128" s="67"/>
-      <c r="I128" s="69"/>
+      <c r="A128" s="69"/>
+      <c r="B128" s="69"/>
+      <c r="C128" s="69"/>
+      <c r="D128" s="69"/>
+      <c r="E128" s="71"/>
+      <c r="F128" s="71"/>
+      <c r="G128" s="71"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="67"/>
       <c r="J128" s="56" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K128:DN128)/データ!$D$2,"")</f>
         <v/>
@@ -20036,15 +20036,15 @@
       <c r="DN128" s="21"/>
     </row>
     <row r="129" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A129" s="70"/>
-      <c r="B129" s="70"/>
-      <c r="C129" s="70"/>
-      <c r="D129" s="70"/>
-      <c r="E129" s="71"/>
-      <c r="F129" s="71"/>
-      <c r="G129" s="71"/>
-      <c r="H129" s="71"/>
-      <c r="I129" s="68"/>
+      <c r="A129" s="64"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="64"/>
+      <c r="E129" s="65"/>
+      <c r="F129" s="65"/>
+      <c r="G129" s="65"/>
+      <c r="H129" s="65"/>
+      <c r="I129" s="66"/>
       <c r="J129" s="55" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K129:DN129)/データ!$D$2,"")</f>
         <v/>
@@ -20159,15 +20159,15 @@
       <c r="DN129" s="19"/>
     </row>
     <row r="130" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A130" s="70"/>
-      <c r="B130" s="70"/>
-      <c r="C130" s="70"/>
-      <c r="D130" s="70"/>
-      <c r="E130" s="71"/>
-      <c r="F130" s="71"/>
-      <c r="G130" s="71"/>
-      <c r="H130" s="71"/>
-      <c r="I130" s="69"/>
+      <c r="A130" s="64"/>
+      <c r="B130" s="64"/>
+      <c r="C130" s="64"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="65"/>
+      <c r="H130" s="65"/>
+      <c r="I130" s="67"/>
       <c r="J130" s="56" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K130:DN130)/データ!$D$2,"")</f>
         <v/>
@@ -20282,15 +20282,15 @@
       <c r="DN130" s="21"/>
     </row>
     <row r="131" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A131" s="70"/>
-      <c r="B131" s="70"/>
-      <c r="C131" s="70"/>
-      <c r="D131" s="70"/>
-      <c r="E131" s="71"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="71"/>
-      <c r="H131" s="71"/>
-      <c r="I131" s="68"/>
+      <c r="A131" s="64"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="64"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="66"/>
       <c r="J131" s="55" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K131:DN131)/データ!$D$2,"")</f>
         <v/>
@@ -20405,15 +20405,15 @@
       <c r="DN131" s="19"/>
     </row>
     <row r="132" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A132" s="70"/>
-      <c r="B132" s="70"/>
-      <c r="C132" s="70"/>
-      <c r="D132" s="70"/>
-      <c r="E132" s="71"/>
-      <c r="F132" s="71"/>
-      <c r="G132" s="71"/>
-      <c r="H132" s="71"/>
-      <c r="I132" s="69"/>
+      <c r="A132" s="64"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="64"/>
+      <c r="E132" s="65"/>
+      <c r="F132" s="65"/>
+      <c r="G132" s="65"/>
+      <c r="H132" s="65"/>
+      <c r="I132" s="67"/>
       <c r="J132" s="56" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K132:DN132)/データ!$D$2,"")</f>
         <v/>
@@ -20528,15 +20528,15 @@
       <c r="DN132" s="21"/>
     </row>
     <row r="133" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A133" s="70"/>
-      <c r="B133" s="70"/>
-      <c r="C133" s="70"/>
-      <c r="D133" s="70"/>
-      <c r="E133" s="71"/>
-      <c r="F133" s="71"/>
-      <c r="G133" s="71"/>
-      <c r="H133" s="71"/>
-      <c r="I133" s="68"/>
+      <c r="A133" s="64"/>
+      <c r="B133" s="64"/>
+      <c r="C133" s="64"/>
+      <c r="D133" s="64"/>
+      <c r="E133" s="65"/>
+      <c r="F133" s="65"/>
+      <c r="G133" s="65"/>
+      <c r="H133" s="65"/>
+      <c r="I133" s="66"/>
       <c r="J133" s="55" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K133:DN133)/データ!$D$2,"")</f>
         <v/>
@@ -20651,15 +20651,15 @@
       <c r="DN133" s="19"/>
     </row>
     <row r="134" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A134" s="70"/>
-      <c r="B134" s="70"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="70"/>
-      <c r="E134" s="71"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="71"/>
-      <c r="H134" s="71"/>
-      <c r="I134" s="69"/>
+      <c r="A134" s="64"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="65"/>
+      <c r="F134" s="65"/>
+      <c r="G134" s="65"/>
+      <c r="H134" s="65"/>
+      <c r="I134" s="67"/>
       <c r="J134" s="56" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K134:DN134)/データ!$D$2,"")</f>
         <v/>
@@ -20774,15 +20774,15 @@
       <c r="DN134" s="21"/>
     </row>
     <row r="135" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A135" s="70"/>
-      <c r="B135" s="70"/>
-      <c r="C135" s="70"/>
-      <c r="D135" s="70"/>
-      <c r="E135" s="71"/>
-      <c r="F135" s="71"/>
-      <c r="G135" s="71"/>
-      <c r="H135" s="71"/>
-      <c r="I135" s="68"/>
+      <c r="A135" s="64"/>
+      <c r="B135" s="64"/>
+      <c r="C135" s="64"/>
+      <c r="D135" s="64"/>
+      <c r="E135" s="65"/>
+      <c r="F135" s="65"/>
+      <c r="G135" s="65"/>
+      <c r="H135" s="65"/>
+      <c r="I135" s="66"/>
       <c r="J135" s="55" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K135:DN135)/データ!$D$2,"")</f>
         <v/>
@@ -20897,15 +20897,15 @@
       <c r="DN135" s="19"/>
     </row>
     <row r="136" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A136" s="70"/>
-      <c r="B136" s="70"/>
-      <c r="C136" s="70"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="71"/>
-      <c r="F136" s="71"/>
-      <c r="G136" s="71"/>
-      <c r="H136" s="71"/>
-      <c r="I136" s="69"/>
+      <c r="A136" s="64"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="64"/>
+      <c r="E136" s="65"/>
+      <c r="F136" s="65"/>
+      <c r="G136" s="65"/>
+      <c r="H136" s="65"/>
+      <c r="I136" s="67"/>
       <c r="J136" s="56" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K136:DN136)/データ!$D$2,"")</f>
         <v/>
@@ -21020,15 +21020,15 @@
       <c r="DN136" s="21"/>
     </row>
     <row r="137" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A137" s="70"/>
-      <c r="B137" s="70"/>
-      <c r="C137" s="70"/>
-      <c r="D137" s="70"/>
-      <c r="E137" s="71"/>
-      <c r="F137" s="71"/>
-      <c r="G137" s="71"/>
-      <c r="H137" s="71"/>
-      <c r="I137" s="68"/>
+      <c r="A137" s="64"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="64"/>
+      <c r="D137" s="64"/>
+      <c r="E137" s="65"/>
+      <c r="F137" s="65"/>
+      <c r="G137" s="65"/>
+      <c r="H137" s="65"/>
+      <c r="I137" s="66"/>
       <c r="J137" s="55" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K137:DN137)/データ!$D$2,"")</f>
         <v/>
@@ -21143,15 +21143,15 @@
       <c r="DN137" s="19"/>
     </row>
     <row r="138" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A138" s="70"/>
-      <c r="B138" s="70"/>
-      <c r="C138" s="70"/>
-      <c r="D138" s="70"/>
-      <c r="E138" s="71"/>
-      <c r="F138" s="71"/>
-      <c r="G138" s="71"/>
-      <c r="H138" s="71"/>
-      <c r="I138" s="69"/>
+      <c r="A138" s="64"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="64"/>
+      <c r="D138" s="64"/>
+      <c r="E138" s="65"/>
+      <c r="F138" s="65"/>
+      <c r="G138" s="65"/>
+      <c r="H138" s="65"/>
+      <c r="I138" s="67"/>
       <c r="J138" s="56" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K138:DN138)/データ!$D$2,"")</f>
         <v/>
@@ -21266,15 +21266,15 @@
       <c r="DN138" s="21"/>
     </row>
     <row r="139" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A139" s="70"/>
-      <c r="B139" s="70"/>
-      <c r="C139" s="70"/>
-      <c r="D139" s="70"/>
-      <c r="E139" s="71"/>
-      <c r="F139" s="71"/>
-      <c r="G139" s="71"/>
-      <c r="H139" s="71"/>
-      <c r="I139" s="68"/>
+      <c r="A139" s="64"/>
+      <c r="B139" s="64"/>
+      <c r="C139" s="64"/>
+      <c r="D139" s="64"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="66"/>
       <c r="J139" s="55" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K139:DN139)/データ!$D$2,"")</f>
         <v/>
@@ -21389,15 +21389,15 @@
       <c r="DN139" s="19"/>
     </row>
     <row r="140" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A140" s="70"/>
-      <c r="B140" s="70"/>
-      <c r="C140" s="70"/>
-      <c r="D140" s="70"/>
-      <c r="E140" s="71"/>
-      <c r="F140" s="71"/>
-      <c r="G140" s="71"/>
-      <c r="H140" s="71"/>
-      <c r="I140" s="69"/>
+      <c r="A140" s="64"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="64"/>
+      <c r="D140" s="64"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="65"/>
+      <c r="I140" s="67"/>
       <c r="J140" s="56" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K140:DN140)/データ!$D$2,"")</f>
         <v/>
@@ -21512,15 +21512,15 @@
       <c r="DN140" s="21"/>
     </row>
     <row r="141" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A141" s="70"/>
-      <c r="B141" s="70"/>
-      <c r="C141" s="70"/>
-      <c r="D141" s="70"/>
-      <c r="E141" s="71"/>
-      <c r="F141" s="71"/>
-      <c r="G141" s="71"/>
-      <c r="H141" s="71"/>
-      <c r="I141" s="68"/>
+      <c r="A141" s="64"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="64"/>
+      <c r="D141" s="64"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="65"/>
+      <c r="G141" s="65"/>
+      <c r="H141" s="65"/>
+      <c r="I141" s="66"/>
       <c r="J141" s="55" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K141:DN141)/データ!$D$2,"")</f>
         <v/>
@@ -21635,15 +21635,15 @@
       <c r="DN141" s="19"/>
     </row>
     <row r="142" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A142" s="70"/>
-      <c r="B142" s="70"/>
-      <c r="C142" s="70"/>
-      <c r="D142" s="70"/>
-      <c r="E142" s="71"/>
-      <c r="F142" s="71"/>
-      <c r="G142" s="71"/>
-      <c r="H142" s="71"/>
-      <c r="I142" s="69"/>
+      <c r="A142" s="64"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="64"/>
+      <c r="E142" s="65"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="65"/>
+      <c r="H142" s="65"/>
+      <c r="I142" s="67"/>
       <c r="J142" s="56" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K142:DN142)/データ!$D$2,"")</f>
         <v/>
@@ -21758,15 +21758,15 @@
       <c r="DN142" s="21"/>
     </row>
     <row r="143" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A143" s="70"/>
-      <c r="B143" s="70"/>
-      <c r="C143" s="70"/>
-      <c r="D143" s="70"/>
-      <c r="E143" s="71"/>
-      <c r="F143" s="71"/>
-      <c r="G143" s="71"/>
-      <c r="H143" s="71"/>
-      <c r="I143" s="68"/>
+      <c r="A143" s="64"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="64"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="65"/>
+      <c r="G143" s="65"/>
+      <c r="H143" s="65"/>
+      <c r="I143" s="66"/>
       <c r="J143" s="55" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K143:DN143)/データ!$D$2,"")</f>
         <v/>
@@ -21881,15 +21881,15 @@
       <c r="DN143" s="19"/>
     </row>
     <row r="144" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A144" s="70"/>
-      <c r="B144" s="70"/>
-      <c r="C144" s="70"/>
-      <c r="D144" s="70"/>
-      <c r="E144" s="71"/>
-      <c r="F144" s="71"/>
-      <c r="G144" s="71"/>
-      <c r="H144" s="71"/>
-      <c r="I144" s="69"/>
+      <c r="A144" s="64"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="64"/>
+      <c r="D144" s="64"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="65"/>
+      <c r="G144" s="65"/>
+      <c r="H144" s="65"/>
+      <c r="I144" s="67"/>
       <c r="J144" s="56" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K144:DN144)/データ!$D$2,"")</f>
         <v/>
@@ -22004,15 +22004,15 @@
       <c r="DN144" s="21"/>
     </row>
     <row r="145" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A145" s="70"/>
-      <c r="B145" s="70"/>
-      <c r="C145" s="70"/>
-      <c r="D145" s="70"/>
-      <c r="E145" s="71"/>
-      <c r="F145" s="71"/>
-      <c r="G145" s="71"/>
-      <c r="H145" s="71"/>
-      <c r="I145" s="68"/>
+      <c r="A145" s="64"/>
+      <c r="B145" s="64"/>
+      <c r="C145" s="64"/>
+      <c r="D145" s="64"/>
+      <c r="E145" s="65"/>
+      <c r="F145" s="65"/>
+      <c r="G145" s="65"/>
+      <c r="H145" s="65"/>
+      <c r="I145" s="66"/>
       <c r="J145" s="55" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K145:DN145)/データ!$D$2,"")</f>
         <v/>
@@ -22127,15 +22127,15 @@
       <c r="DN145" s="19"/>
     </row>
     <row r="146" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A146" s="70"/>
-      <c r="B146" s="70"/>
-      <c r="C146" s="70"/>
-      <c r="D146" s="70"/>
-      <c r="E146" s="71"/>
-      <c r="F146" s="71"/>
-      <c r="G146" s="71"/>
-      <c r="H146" s="71"/>
-      <c r="I146" s="69"/>
+      <c r="A146" s="64"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="64"/>
+      <c r="D146" s="64"/>
+      <c r="E146" s="65"/>
+      <c r="F146" s="65"/>
+      <c r="G146" s="65"/>
+      <c r="H146" s="65"/>
+      <c r="I146" s="67"/>
       <c r="J146" s="56" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K146:DN146)/データ!$D$2,"")</f>
         <v/>
@@ -22250,15 +22250,15 @@
       <c r="DN146" s="21"/>
     </row>
     <row r="147" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A147" s="64"/>
-      <c r="B147" s="64"/>
-      <c r="C147" s="64"/>
-      <c r="D147" s="64"/>
-      <c r="E147" s="66"/>
-      <c r="F147" s="66"/>
-      <c r="G147" s="66"/>
-      <c r="H147" s="66"/>
-      <c r="I147" s="68"/>
+      <c r="A147" s="68"/>
+      <c r="B147" s="68"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="70"/>
+      <c r="F147" s="70"/>
+      <c r="G147" s="70"/>
+      <c r="H147" s="70"/>
+      <c r="I147" s="66"/>
       <c r="J147" s="55" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K147:DN147)/データ!$D$2,"")</f>
         <v/>
@@ -22373,15 +22373,15 @@
       <c r="DN147" s="19"/>
     </row>
     <row r="148" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A148" s="65"/>
-      <c r="B148" s="65"/>
-      <c r="C148" s="65"/>
-      <c r="D148" s="65"/>
-      <c r="E148" s="67"/>
-      <c r="F148" s="67"/>
-      <c r="G148" s="67"/>
-      <c r="H148" s="67"/>
-      <c r="I148" s="69"/>
+      <c r="A148" s="69"/>
+      <c r="B148" s="69"/>
+      <c r="C148" s="69"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="71"/>
+      <c r="F148" s="71"/>
+      <c r="G148" s="71"/>
+      <c r="H148" s="71"/>
+      <c r="I148" s="67"/>
       <c r="J148" s="56" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K148:DN148)/データ!$D$2,"")</f>
         <v/>
@@ -22496,15 +22496,15 @@
       <c r="DN148" s="21"/>
     </row>
     <row r="149" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A149" s="70"/>
-      <c r="B149" s="70"/>
-      <c r="C149" s="70"/>
-      <c r="D149" s="70"/>
-      <c r="E149" s="71"/>
-      <c r="F149" s="71"/>
-      <c r="G149" s="71"/>
-      <c r="H149" s="71"/>
-      <c r="I149" s="68"/>
+      <c r="A149" s="64"/>
+      <c r="B149" s="64"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="64"/>
+      <c r="E149" s="65"/>
+      <c r="F149" s="65"/>
+      <c r="G149" s="65"/>
+      <c r="H149" s="65"/>
+      <c r="I149" s="66"/>
       <c r="J149" s="55" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K149:DN149)/データ!$D$2,"")</f>
         <v/>
@@ -22619,15 +22619,15 @@
       <c r="DN149" s="19"/>
     </row>
     <row r="150" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A150" s="70"/>
-      <c r="B150" s="70"/>
-      <c r="C150" s="70"/>
-      <c r="D150" s="70"/>
-      <c r="E150" s="71"/>
-      <c r="F150" s="71"/>
-      <c r="G150" s="71"/>
-      <c r="H150" s="71"/>
-      <c r="I150" s="69"/>
+      <c r="A150" s="64"/>
+      <c r="B150" s="64"/>
+      <c r="C150" s="64"/>
+      <c r="D150" s="64"/>
+      <c r="E150" s="65"/>
+      <c r="F150" s="65"/>
+      <c r="G150" s="65"/>
+      <c r="H150" s="65"/>
+      <c r="I150" s="67"/>
       <c r="J150" s="56" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K150:DN150)/データ!$D$2,"")</f>
         <v/>
@@ -22742,15 +22742,15 @@
       <c r="DN150" s="21"/>
     </row>
     <row r="151" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A151" s="70"/>
-      <c r="B151" s="70"/>
-      <c r="C151" s="70"/>
-      <c r="D151" s="70"/>
-      <c r="E151" s="71"/>
-      <c r="F151" s="71"/>
-      <c r="G151" s="71"/>
-      <c r="H151" s="71"/>
-      <c r="I151" s="68"/>
+      <c r="A151" s="64"/>
+      <c r="B151" s="64"/>
+      <c r="C151" s="64"/>
+      <c r="D151" s="64"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="65"/>
+      <c r="G151" s="65"/>
+      <c r="H151" s="65"/>
+      <c r="I151" s="66"/>
       <c r="J151" s="55" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K151:DN151)/データ!$D$2,"")</f>
         <v/>
@@ -22865,15 +22865,15 @@
       <c r="DN151" s="19"/>
     </row>
     <row r="152" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A152" s="70"/>
-      <c r="B152" s="70"/>
-      <c r="C152" s="70"/>
-      <c r="D152" s="70"/>
-      <c r="E152" s="71"/>
-      <c r="F152" s="71"/>
-      <c r="G152" s="71"/>
-      <c r="H152" s="71"/>
-      <c r="I152" s="69"/>
+      <c r="A152" s="64"/>
+      <c r="B152" s="64"/>
+      <c r="C152" s="64"/>
+      <c r="D152" s="64"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="65"/>
+      <c r="G152" s="65"/>
+      <c r="H152" s="65"/>
+      <c r="I152" s="67"/>
       <c r="J152" s="56" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K152:DN152)/データ!$D$2,"")</f>
         <v/>
@@ -56932,114 +56932,554 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="680">
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G41:G42"/>
@@ -57064,554 +57504,114 @@
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="I61:I62"/>
     <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K157:DN157 K35:DN152 K4:DN28">

--- a/PM演習_管理ツール_矢吹研A班.xlsx
+++ b/PM演習_管理ツール_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kawasaki\Documents\GitHub\-A-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ishok\Documents\GitHub\-A-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ガント" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="Z_D7C84124_F7F5_40C3_93A3_6E183C55719E_.wvu.PrintTitles" localSheetId="0" hidden="1">ガント!$A:$J,ガント!$1:$4</definedName>
     <definedName name="Z_F3151B71_E979_4754_A481_4BA5C6EA412C_.wvu.FilterData" localSheetId="2" hidden="1">懸案!$A$3:$H$29</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <customWorkbookViews>
     <customWorkbookView name="田隈広紀 - 個人用ビュー" guid="{D7C84124-F7F5-40C3-93A3-6E183C55719E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1166" activeSheetId="1"/>
   </customWorkbookViews>
@@ -1102,7 +1102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="dd"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
@@ -1731,6 +1731,22 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1747,51 +1763,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1809,23 +1803,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1834,231 +1834,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="132">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="104">
     <dxf>
       <fill>
         <patternFill>
@@ -2273,7 +2049,35 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2748,7 +2552,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -2912,7 +2716,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BC57-4D29-ACD4-83CFA65598C0}"/>
             </c:ext>
@@ -3031,13 +2835,13 @@
                   <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>342</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>400</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>477</c:v>
+                  <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>#N/A</c:v>
@@ -3055,7 +2859,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BC57-4D29-ACD4-83CFA65598C0}"/>
             </c:ext>
@@ -3193,7 +2997,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BC57-4D29-ACD4-83CFA65598C0}"/>
             </c:ext>
@@ -3530,6 +3334,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3565,6 +3386,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3743,11 +3581,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO233"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="BN5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="AU11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I61" sqref="I61:I62"/>
+      <selection pane="bottomRight" activeCell="BZ31" sqref="BZ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3766,65 +3604,65 @@
       <c r="A1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="74"/>
+      <c r="C1" s="86"/>
       <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="83">
         <v>11.4</v>
       </c>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="81" t="s">
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="84" t="s">
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="79" t="s">
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="87">
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="72">
         <v>42524</v>
       </c>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="86"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="74"/>
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A2" s="45"/>
@@ -3844,7 +3682,7 @@
       </c>
       <c r="I2" s="47">
         <f t="array" ref="I2">SUM(IF(MOD(ROW(J5:J152),2)=0,J5:J152,0))/20</f>
-        <v>2.9812500000000002</v>
+        <v>2.8062499999999999</v>
       </c>
       <c r="J2" s="48" t="s">
         <v>27</v>
@@ -3853,25 +3691,25 @@
       <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:118" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="80" t="s">
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="49" t="s">
@@ -3995,10 +3833,10 @@
       <c r="DN3" s="51"/>
     </row>
     <row r="4" spans="1:118" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="89"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="53" t="str">
         <f>データ!A2</f>
         <v>川崎</v>
@@ -4015,7 +3853,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>小山</v>
       </c>
-      <c r="I4" s="80"/>
+      <c r="I4" s="79"/>
       <c r="J4" s="54" t="s">
         <v>20</v>
       </c>
@@ -4345,20 +4183,20 @@
       </c>
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A5" s="70">
-        <v>0</v>
-      </c>
-      <c r="B5" s="64" t="str">
+      <c r="A5" s="64">
+        <v>0</v>
+      </c>
+      <c r="B5" s="68" t="str">
         <f>B1</f>
         <v>コンビニ弁当データベース開発</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="84"/>
       <c r="J5" s="55" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K5:DN5)/データ!$D$2,"")</f>
         <v/>
@@ -4473,15 +4311,15 @@
       <c r="DN5" s="19"/>
     </row>
     <row r="6" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="72"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="56" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K6:DN6)/データ!$D$2,"")</f>
         <v/>
@@ -4596,19 +4434,19 @@
       <c r="DN6" s="21"/>
     </row>
     <row r="7" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A7" s="70">
+      <c r="A7" s="64">
         <v>1</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="72"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="84"/>
       <c r="J7" s="55" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DN7)/データ!$D$2,"")</f>
         <v/>
@@ -4723,15 +4561,15 @@
       <c r="DN7" s="19"/>
     </row>
     <row r="8" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="56" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DN8)/データ!$D$2,"")</f>
         <v/>
@@ -4846,23 +4684,23 @@
       <c r="DN8" s="21"/>
     </row>
     <row r="9" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A9" s="70">
+      <c r="A9" s="64">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="64" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="68">
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="66">
         <v>1</v>
       </c>
       <c r="J9" s="55">
@@ -4989,15 +4827,15 @@
       <c r="DN9" s="19"/>
     </row>
     <row r="10" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="69"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="56">
         <f>IF(C9&lt;&gt;"",SUM(K10:DN10)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -5122,25 +4960,25 @@
       <c r="DN10" s="21"/>
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A11" s="70">
+      <c r="A11" s="64">
         <v>1.2</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="68">
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="66">
         <v>1</v>
       </c>
       <c r="J11" s="55">
@@ -5267,15 +5105,15 @@
       <c r="DN11" s="19"/>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="69"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="56">
         <f>IF(C11&lt;&gt;"",SUM(K12:DN12)/データ!$D$2,"")</f>
         <v>4.875</v>
@@ -5406,25 +5244,25 @@
       <c r="DN12" s="21"/>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A13" s="70">
+      <c r="A13" s="64">
         <v>1.3</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="64" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="68">
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="66">
         <v>1</v>
       </c>
       <c r="J13" s="55">
@@ -5543,15 +5381,15 @@
       <c r="DN13" s="19"/>
     </row>
     <row r="14" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="69"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="67"/>
       <c r="J14" s="56">
         <f>IF(C13&lt;&gt;"",SUM(K14:DN14)/データ!$D$2,"")</f>
         <v>0.25</v>
@@ -5670,25 +5508,25 @@
       <c r="DN14" s="21"/>
     </row>
     <row r="15" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A15" s="64">
+      <c r="A15" s="68">
         <v>1.4</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="68">
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="66">
         <v>1</v>
       </c>
       <c r="J15" s="55">
@@ -5815,15 +5653,15 @@
       <c r="DN15" s="19"/>
     </row>
     <row r="16" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="69"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="56">
         <f>IF(C15&lt;&gt;"",SUM(K16:DN16)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -5948,31 +5786,31 @@
       <c r="DN16" s="21"/>
     </row>
     <row r="17" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A17" s="64">
+      <c r="A17" s="68">
         <v>2</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="66" t="s">
+      <c r="H17" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="66">
         <v>1</v>
       </c>
       <c r="J17" s="55">
@@ -6103,15 +5941,15 @@
       <c r="DN17" s="19"/>
     </row>
     <row r="18" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="69"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="56">
         <f>IF(C17&lt;&gt;"",SUM(K18:DN18)/データ!$D$2,"")</f>
         <v>10.25</v>
@@ -6268,19 +6106,19 @@
       <c r="DN18" s="21"/>
     </row>
     <row r="19" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A19" s="64">
+      <c r="A19" s="68">
         <v>3</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="55" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K19:DN19)/データ!$D$2,"")</f>
         <v/>
@@ -6395,15 +6233,15 @@
       <c r="DN19" s="19"/>
     </row>
     <row r="20" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="69"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="67"/>
       <c r="J20" s="56" t="str">
         <f>IF(C19&lt;&gt;"",SUM(K20:DN20)/データ!$D$2,"")</f>
         <v/>
@@ -6518,27 +6356,27 @@
       <c r="DN20" s="21"/>
     </row>
     <row r="21" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64">
+      <c r="A21" s="68">
         <v>3.1</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66" t="s">
+      <c r="F21" s="70"/>
+      <c r="G21" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="66" t="s">
+      <c r="H21" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="68">
+      <c r="I21" s="66">
         <v>1</v>
       </c>
       <c r="J21" s="55">
@@ -6667,15 +6505,15 @@
       <c r="DN21" s="19"/>
     </row>
     <row r="22" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="69"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="67"/>
       <c r="J22" s="56">
         <f>IF(C21&lt;&gt;"",SUM(K22:DN22)/データ!$D$2,"")</f>
         <v>7.25</v>
@@ -6818,25 +6656,25 @@
       <c r="DN22" s="21"/>
     </row>
     <row r="23" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A23" s="64">
+      <c r="A23" s="68">
         <v>3.2</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66" t="s">
+      <c r="F23" s="70"/>
+      <c r="G23" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="68">
+      <c r="H23" s="70"/>
+      <c r="I23" s="66">
         <v>1</v>
       </c>
       <c r="J23" s="55">
@@ -6963,15 +6801,15 @@
       <c r="DN23" s="19"/>
     </row>
     <row r="24" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="69"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="56">
         <f>IF(C23&lt;&gt;"",SUM(K24:DN24)/データ!$D$2,"")</f>
         <v>0.75</v>
@@ -7090,25 +6928,25 @@
       <c r="DN24" s="21"/>
     </row>
     <row r="25" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="64">
+      <c r="A25" s="68">
         <v>4</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="68">
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="66">
         <v>1</v>
       </c>
       <c r="J25" s="55">
@@ -7233,15 +7071,15 @@
       <c r="DN25" s="19"/>
     </row>
     <row r="26" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="69"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="56">
         <f>IF(C25&lt;&gt;"",SUM(K26:DN26)/データ!$D$2,"")</f>
         <v>5</v>
@@ -7362,19 +7200,19 @@
       <c r="DN26" s="21"/>
     </row>
     <row r="27" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="64">
+      <c r="A27" s="68">
         <v>5</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="55" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K27:DN27)/データ!$D$2,"")</f>
         <v/>
@@ -7489,15 +7327,15 @@
       <c r="DN27" s="19"/>
     </row>
     <row r="28" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="69"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="67"/>
       <c r="J28" s="56" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K28:DN28)/データ!$D$2,"")</f>
         <v/>
@@ -7612,27 +7450,27 @@
       <c r="DN28" s="21"/>
     </row>
     <row r="29" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="64">
+      <c r="A29" s="68">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64" t="s">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66" t="s">
+      <c r="G29" s="70"/>
+      <c r="H29" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="I29" s="68">
+      <c r="I29" s="66">
         <v>1</v>
       </c>
       <c r="J29" s="55">
@@ -7761,18 +7599,18 @@
       <c r="DN29" s="19"/>
     </row>
     <row r="30" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="69"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="56">
         <f>IF(C29&lt;&gt;"",SUM(K30:DN30)/データ!$D$2,"")</f>
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
@@ -7849,36 +7687,20 @@
       <c r="BU30" s="20">
         <v>2</v>
       </c>
-      <c r="BV30" s="20">
-        <v>4</v>
-      </c>
-      <c r="BW30" s="20">
-        <v>4</v>
-      </c>
-      <c r="BX30" s="20">
-        <v>4</v>
-      </c>
+      <c r="BV30" s="20"/>
+      <c r="BW30" s="20"/>
+      <c r="BX30" s="20"/>
       <c r="BY30" s="20">
         <v>2</v>
       </c>
       <c r="BZ30" s="20">
         <v>2</v>
       </c>
-      <c r="CA30" s="20">
-        <v>2</v>
-      </c>
-      <c r="CB30" s="20">
-        <v>2</v>
-      </c>
-      <c r="CC30" s="20">
-        <v>4</v>
-      </c>
-      <c r="CD30" s="20">
-        <v>4</v>
-      </c>
-      <c r="CE30" s="20">
-        <v>4</v>
-      </c>
+      <c r="CA30" s="20"/>
+      <c r="CB30" s="20"/>
+      <c r="CC30" s="20"/>
+      <c r="CD30" s="20"/>
+      <c r="CE30" s="20"/>
       <c r="CF30" s="20">
         <v>2</v>
       </c>
@@ -7926,27 +7748,27 @@
       <c r="DN30" s="21"/>
     </row>
     <row r="31" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="64">
+      <c r="A31" s="68">
         <v>5.2</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64" t="s">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66" t="s">
+      <c r="F31" s="70"/>
+      <c r="G31" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="I31" s="68">
+      <c r="I31" s="66">
         <v>1</v>
       </c>
       <c r="J31" s="55">
@@ -8075,15 +7897,15 @@
       <c r="DN31" s="19"/>
     </row>
     <row r="32" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="69"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="56">
         <f>IF(C31&lt;&gt;"",SUM(K32:DN32)/データ!$D$2,"")</f>
         <v>2.875</v>
@@ -8218,29 +8040,29 @@
       <c r="DN32" s="21"/>
     </row>
     <row r="33" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="64">
+      <c r="A33" s="68">
         <v>6</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="66"/>
-      <c r="I33" s="68">
+      <c r="H33" s="70"/>
+      <c r="I33" s="66">
         <v>1</v>
       </c>
       <c r="J33" s="55">
@@ -8369,15 +8191,15 @@
       <c r="DN33" s="19"/>
     </row>
     <row r="34" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="69"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="67"/>
       <c r="J34" s="56">
         <f>IF(C33&lt;&gt;"",SUM(K34:DN34)/データ!$D$2,"")</f>
         <v>3.875</v>
@@ -8510,29 +8332,29 @@
       <c r="DN34" s="21"/>
     </row>
     <row r="35" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A35" s="64">
+      <c r="A35" s="68">
         <v>7</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="66" t="s">
+      <c r="D35" s="68"/>
+      <c r="E35" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="66" t="s">
+      <c r="F35" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="66" t="s">
+      <c r="G35" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="66" t="s">
+      <c r="H35" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="68">
+      <c r="I35" s="66">
         <v>0.6</v>
       </c>
       <c r="J35" s="55">
@@ -8677,15 +8499,15 @@
       <c r="DN35" s="19"/>
     </row>
     <row r="36" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="69"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="56">
         <f>IF(C35&lt;&gt;"",SUM(K36:DN36)/データ!$D$2,"")</f>
         <v>9</v>
@@ -8820,23 +8642,23 @@
       <c r="DN36" s="21"/>
     </row>
     <row r="37" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A37" s="64">
+      <c r="A37" s="68">
         <v>8</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="68"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="66"/>
       <c r="J37" s="55">
         <f>IF(C37&lt;&gt;"",SUM(K37:DN37)/データ!$D$2,"")</f>
         <v>5</v>
@@ -8971,15 +8793,15 @@
       <c r="DN37" s="19"/>
     </row>
     <row r="38" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="69"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="67"/>
       <c r="J38" s="56">
         <f>IF(C37&lt;&gt;"",SUM(K38:DN38)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9094,19 +8916,19 @@
       <c r="DN38" s="21"/>
     </row>
     <row r="39" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="64">
+      <c r="A39" s="68">
         <v>9</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="66"/>
       <c r="J39" s="55" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K39:DN39)/データ!$D$2,"")</f>
         <v/>
@@ -9221,15 +9043,15 @@
       <c r="DN39" s="19"/>
     </row>
     <row r="40" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="69"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="67"/>
       <c r="J40" s="56" t="str">
         <f>IF(C39&lt;&gt;"",SUM(K40:DN40)/データ!$D$2,"")</f>
         <v/>
@@ -9344,25 +9166,25 @@
       <c r="DN40" s="21"/>
     </row>
     <row r="41" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A41" s="64">
+      <c r="A41" s="68">
         <v>9.1</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64" t="s">
+      <c r="B41" s="68"/>
+      <c r="C41" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="64" t="s">
+      <c r="D41" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="66" t="s">
+      <c r="E41" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="68"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="66"/>
       <c r="J41" s="55">
         <f>IF(C41&lt;&gt;"",SUM(K41:DN41)/データ!$D$2,"")</f>
         <v>1.5</v>
@@ -9483,15 +9305,15 @@
       <c r="DN41" s="19"/>
     </row>
     <row r="42" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="69"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="67"/>
       <c r="J42" s="56">
         <f>IF(C41&lt;&gt;"",SUM(K42:DN42)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9606,25 +9428,25 @@
       <c r="DN42" s="21"/>
     </row>
     <row r="43" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A43" s="64">
+      <c r="A43" s="68">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64" t="s">
+      <c r="B43" s="68"/>
+      <c r="C43" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="64" t="s">
+      <c r="D43" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="66" t="s">
+      <c r="E43" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66" t="s">
+      <c r="F43" s="70"/>
+      <c r="G43" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H43" s="66"/>
-      <c r="I43" s="68"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="66"/>
       <c r="J43" s="55">
         <f>IF(C43&lt;&gt;"",SUM(K43:DN43)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -9745,15 +9567,15 @@
       <c r="DN43" s="19"/>
     </row>
     <row r="44" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="69"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="67"/>
       <c r="J44" s="56">
         <f>IF(C43&lt;&gt;"",SUM(K44:DN44)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9868,19 +9690,19 @@
       <c r="DN44" s="21"/>
     </row>
     <row r="45" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="64">
+      <c r="A45" s="68">
         <v>10</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="66"/>
       <c r="J45" s="55" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K45:DN45)/データ!$D$2,"")</f>
         <v/>
@@ -9995,15 +9817,15 @@
       <c r="DN45" s="19"/>
     </row>
     <row r="46" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="69"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="67"/>
       <c r="J46" s="56" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K46:DN46)/データ!$D$2,"")</f>
         <v/>
@@ -10118,23 +9940,23 @@
       <c r="DN46" s="21"/>
     </row>
     <row r="47" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A47" s="64">
+      <c r="A47" s="68">
         <v>10.1</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64" t="s">
+      <c r="B47" s="68"/>
+      <c r="C47" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="64" t="s">
+      <c r="D47" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="66" t="s">
+      <c r="E47" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="68"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="66"/>
       <c r="J47" s="55">
         <f>IF(C47&lt;&gt;"",SUM(K47:DN47)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -10255,15 +10077,15 @@
       <c r="DN47" s="19"/>
     </row>
     <row r="48" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="69"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="67"/>
       <c r="J48" s="56">
         <f>IF(C47&lt;&gt;"",SUM(K48:DN48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10378,23 +10200,23 @@
       <c r="DN48" s="21"/>
     </row>
     <row r="49" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A49" s="70">
+      <c r="A49" s="64">
         <v>10.199999999999999</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70" t="s">
+      <c r="B49" s="64"/>
+      <c r="C49" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="70" t="s">
+      <c r="D49" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="71" t="s">
+      <c r="E49" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="68"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="66"/>
       <c r="J49" s="55">
         <f>IF(C49&lt;&gt;"",SUM(K49:DN49)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10509,15 +10331,15 @@
       <c r="DN49" s="19"/>
     </row>
     <row r="50" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="69"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="67"/>
       <c r="J50" s="56">
         <f>IF(C49&lt;&gt;"",SUM(K50:DN50)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10632,19 +10454,19 @@
       <c r="DN50" s="21"/>
     </row>
     <row r="51" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A51" s="70">
+      <c r="A51" s="64">
         <v>11</v>
       </c>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="68"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="66"/>
       <c r="J51" s="55" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K51:DN51)/データ!$D$2,"")</f>
         <v/>
@@ -10759,15 +10581,15 @@
       <c r="DN51" s="19"/>
     </row>
     <row r="52" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="69"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="67"/>
       <c r="J52" s="56" t="str">
         <f>IF(C51&lt;&gt;"",SUM(K52:DN52)/データ!$D$2,"")</f>
         <v/>
@@ -10882,25 +10704,25 @@
       <c r="DN52" s="21"/>
     </row>
     <row r="53" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A53" s="70">
+      <c r="A53" s="64">
         <v>11.1</v>
       </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70" t="s">
+      <c r="B53" s="64"/>
+      <c r="C53" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="70" t="s">
+      <c r="D53" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="71" t="s">
+      <c r="E53" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="71" t="s">
+      <c r="F53" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="68">
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="66">
         <v>0.8</v>
       </c>
       <c r="J53" s="55">
@@ -11043,15 +10865,15 @@
       <c r="DN53" s="19"/>
     </row>
     <row r="54" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A54" s="70"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="69"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="67"/>
       <c r="J54" s="56">
         <f>IF(C53&lt;&gt;"",SUM(K54:DN54)/データ!$D$2,"")</f>
         <v>1.375</v>
@@ -11188,23 +11010,23 @@
       <c r="DN54" s="21"/>
     </row>
     <row r="55" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A55" s="70">
+      <c r="A55" s="64">
         <v>11.2</v>
       </c>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70" t="s">
+      <c r="B55" s="64"/>
+      <c r="C55" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="70" t="s">
+      <c r="D55" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="E55" s="71" t="s">
+      <c r="E55" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="68">
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="66">
         <v>0.8</v>
       </c>
       <c r="J55" s="55">
@@ -11347,15 +11169,15 @@
       <c r="DN55" s="19"/>
     </row>
     <row r="56" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="69"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="67"/>
       <c r="J56" s="56">
         <f>IF(C55&lt;&gt;"",SUM(K56:DN56)/データ!$D$2,"")</f>
         <v>1.375</v>
@@ -11492,23 +11314,23 @@
       <c r="DN56" s="21"/>
     </row>
     <row r="57" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A57" s="70">
+      <c r="A57" s="64">
         <v>11.3</v>
       </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70" t="s">
+      <c r="B57" s="64"/>
+      <c r="C57" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="70" t="s">
+      <c r="D57" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="71" t="s">
+      <c r="E57" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="68">
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="66">
         <v>1</v>
       </c>
       <c r="J57" s="55">
@@ -11627,15 +11449,15 @@
       <c r="DN57" s="19"/>
     </row>
     <row r="58" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="69"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="67"/>
       <c r="J58" s="56">
         <f>IF(C57&lt;&gt;"",SUM(K58:DN58)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -11752,23 +11574,23 @@
       <c r="DN58" s="21"/>
     </row>
     <row r="59" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A59" s="70">
+      <c r="A59" s="64">
         <v>11.4</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70" t="s">
+      <c r="B59" s="64"/>
+      <c r="C59" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="70" t="s">
+      <c r="D59" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E59" s="71" t="s">
+      <c r="E59" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="68">
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="66">
         <v>0.8</v>
       </c>
       <c r="J59" s="55">
@@ -11887,15 +11709,15 @@
       <c r="DN59" s="19"/>
     </row>
     <row r="60" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="69"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="67"/>
       <c r="J60" s="56">
         <f>IF(C59&lt;&gt;"",SUM(K60:DN60)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -12012,15 +11834,15 @@
       <c r="DN60" s="21"/>
     </row>
     <row r="61" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="68"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="66"/>
       <c r="J61" s="55" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K61:DN61)/データ!$D$2,"")</f>
         <v/>
@@ -12135,15 +11957,15 @@
       <c r="DN61" s="19"/>
     </row>
     <row r="62" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A62" s="70"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="69"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="67"/>
       <c r="J62" s="56" t="str">
         <f>IF(C61&lt;&gt;"",SUM(K62:DN62)/データ!$D$2,"")</f>
         <v/>
@@ -12258,15 +12080,15 @@
       <c r="DN62" s="21"/>
     </row>
     <row r="63" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A63" s="70"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="68"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="66"/>
       <c r="J63" s="55" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K63:DN63)/データ!$D$2,"")</f>
         <v/>
@@ -12381,15 +12203,15 @@
       <c r="DN63" s="19"/>
     </row>
     <row r="64" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A64" s="70"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="69"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="67"/>
       <c r="J64" s="56" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K64:DN64)/データ!$D$2,"")</f>
         <v/>
@@ -12504,15 +12326,15 @@
       <c r="DN64" s="21"/>
     </row>
     <row r="65" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A65" s="70"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="68"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="66"/>
       <c r="J65" s="55" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K65:DN65)/データ!$D$2,"")</f>
         <v/>
@@ -12627,15 +12449,15 @@
       <c r="DN65" s="19"/>
     </row>
     <row r="66" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A66" s="70"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="69"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="67"/>
       <c r="J66" s="56" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K66:DN66)/データ!$D$2,"")</f>
         <v/>
@@ -12750,15 +12572,15 @@
       <c r="DN66" s="21"/>
     </row>
     <row r="67" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A67" s="70"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="68"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="66"/>
       <c r="J67" s="55" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DN67)/データ!$D$2,"")</f>
         <v/>
@@ -12873,15 +12695,15 @@
       <c r="DN67" s="19"/>
     </row>
     <row r="68" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A68" s="70"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="69"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="67"/>
       <c r="J68" s="56" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DN68)/データ!$D$2,"")</f>
         <v/>
@@ -12996,15 +12818,15 @@
       <c r="DN68" s="21"/>
     </row>
     <row r="69" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A69" s="70"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="68"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="66"/>
       <c r="J69" s="55" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DN69)/データ!$D$2,"")</f>
         <v/>
@@ -13119,15 +12941,15 @@
       <c r="DN69" s="19"/>
     </row>
     <row r="70" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="69"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="67"/>
       <c r="J70" s="56" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DN70)/データ!$D$2,"")</f>
         <v/>
@@ -13242,15 +13064,15 @@
       <c r="DN70" s="21"/>
     </row>
     <row r="71" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A71" s="64"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="68"/>
+      <c r="A71" s="68"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="66"/>
       <c r="J71" s="55" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K71:DN71)/データ!$D$2,"")</f>
         <v/>
@@ -13365,15 +13187,15 @@
       <c r="DN71" s="19"/>
     </row>
     <row r="72" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="69"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="67"/>
       <c r="J72" s="56" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K72:DN72)/データ!$D$2,"")</f>
         <v/>
@@ -13488,15 +13310,15 @@
       <c r="DN72" s="21"/>
     </row>
     <row r="73" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="68"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="66"/>
       <c r="J73" s="55" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K73:DN73)/データ!$D$2,"")</f>
         <v/>
@@ -13611,15 +13433,15 @@
       <c r="DN73" s="19"/>
     </row>
     <row r="74" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A74" s="70"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="69"/>
+      <c r="A74" s="64"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="67"/>
       <c r="J74" s="56" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K74:DN74)/データ!$D$2,"")</f>
         <v/>
@@ -13734,15 +13556,15 @@
       <c r="DN74" s="21"/>
     </row>
     <row r="75" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A75" s="70"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="68"/>
+      <c r="A75" s="64"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="66"/>
       <c r="J75" s="55" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K75:DN75)/データ!$D$2,"")</f>
         <v/>
@@ -13857,15 +13679,15 @@
       <c r="DN75" s="19"/>
     </row>
     <row r="76" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A76" s="70"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="69"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="67"/>
       <c r="J76" s="56" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K76:DN76)/データ!$D$2,"")</f>
         <v/>
@@ -13980,15 +13802,15 @@
       <c r="DN76" s="21"/>
     </row>
     <row r="77" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A77" s="64"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="68"/>
+      <c r="A77" s="68"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="70"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="66"/>
       <c r="J77" s="55" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DN77)/データ!$D$2,"")</f>
         <v/>
@@ -14103,15 +13925,15 @@
       <c r="DN77" s="19"/>
     </row>
     <row r="78" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A78" s="65"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="69"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="67"/>
       <c r="J78" s="56" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DN78)/データ!$D$2,"")</f>
         <v/>
@@ -14226,15 +14048,15 @@
       <c r="DN78" s="21"/>
     </row>
     <row r="79" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A79" s="64"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="68"/>
+      <c r="A79" s="68"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="70"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="66"/>
       <c r="J79" s="55" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K79:DN79)/データ!$D$2,"")</f>
         <v/>
@@ -14349,15 +14171,15 @@
       <c r="DN79" s="19"/>
     </row>
     <row r="80" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A80" s="65"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="69"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="67"/>
       <c r="J80" s="56" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K80:DN80)/データ!$D$2,"")</f>
         <v/>
@@ -14472,15 +14294,15 @@
       <c r="DN80" s="21"/>
     </row>
     <row r="81" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A81" s="64"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="68"/>
+      <c r="A81" s="68"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="70"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="66"/>
       <c r="J81" s="55" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K81:DN81)/データ!$D$2,"")</f>
         <v/>
@@ -14595,15 +14417,15 @@
       <c r="DN81" s="19"/>
     </row>
     <row r="82" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="69"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="67"/>
       <c r="J82" s="56" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K82:DN82)/データ!$D$2,"")</f>
         <v/>
@@ -14718,15 +14540,15 @@
       <c r="DN82" s="21"/>
     </row>
     <row r="83" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="64"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="68"/>
+      <c r="A83" s="68"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="70"/>
+      <c r="H83" s="70"/>
+      <c r="I83" s="66"/>
       <c r="J83" s="55" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K83:DN83)/データ!$D$2,"")</f>
         <v/>
@@ -14841,15 +14663,15 @@
       <c r="DN83" s="19"/>
     </row>
     <row r="84" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A84" s="65"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="69"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="71"/>
+      <c r="I84" s="67"/>
       <c r="J84" s="56" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K84:DN84)/データ!$D$2,"")</f>
         <v/>
@@ -14964,15 +14786,15 @@
       <c r="DN84" s="21"/>
     </row>
     <row r="85" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A85" s="64"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="68"/>
+      <c r="A85" s="68"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="66"/>
       <c r="J85" s="55" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DN85)/データ!$D$2,"")</f>
         <v/>
@@ -15087,15 +14909,15 @@
       <c r="DN85" s="19"/>
     </row>
     <row r="86" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A86" s="65"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="69"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="67"/>
       <c r="J86" s="56" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DN86)/データ!$D$2,"")</f>
         <v/>
@@ -15210,15 +15032,15 @@
       <c r="DN86" s="21"/>
     </row>
     <row r="87" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="64"/>
-      <c r="B87" s="64"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="68"/>
+      <c r="A87" s="68"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="66"/>
       <c r="J87" s="55" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K87:DN87)/データ!$D$2,"")</f>
         <v/>
@@ -15333,15 +15155,15 @@
       <c r="DN87" s="19"/>
     </row>
     <row r="88" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A88" s="65"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="69"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="71"/>
+      <c r="I88" s="67"/>
       <c r="J88" s="56" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K88:DN88)/データ!$D$2,"")</f>
         <v/>
@@ -15456,15 +15278,15 @@
       <c r="DN88" s="21"/>
     </row>
     <row r="89" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="64"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="68"/>
+      <c r="A89" s="68"/>
+      <c r="B89" s="68"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="66"/>
       <c r="J89" s="55" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K89:DN89)/データ!$D$2,"")</f>
         <v/>
@@ -15579,15 +15401,15 @@
       <c r="DN89" s="19"/>
     </row>
     <row r="90" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A90" s="65"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="69"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="71"/>
+      <c r="I90" s="67"/>
       <c r="J90" s="56" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K90:DN90)/データ!$D$2,"")</f>
         <v/>
@@ -15702,15 +15524,15 @@
       <c r="DN90" s="21"/>
     </row>
     <row r="91" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A91" s="64"/>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="68"/>
+      <c r="A91" s="68"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="68"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="66"/>
       <c r="J91" s="55" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K91:DN91)/データ!$D$2,"")</f>
         <v/>
@@ -15825,15 +15647,15 @@
       <c r="DN91" s="19"/>
     </row>
     <row r="92" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A92" s="65"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="69"/>
+      <c r="A92" s="69"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="67"/>
       <c r="J92" s="56" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K92:DN92)/データ!$D$2,"")</f>
         <v/>
@@ -15948,15 +15770,15 @@
       <c r="DN92" s="21"/>
     </row>
     <row r="93" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A93" s="64"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="68"/>
+      <c r="A93" s="68"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="70"/>
+      <c r="H93" s="70"/>
+      <c r="I93" s="66"/>
       <c r="J93" s="55" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K93:DN93)/データ!$D$2,"")</f>
         <v/>
@@ -16071,15 +15893,15 @@
       <c r="DN93" s="19"/>
     </row>
     <row r="94" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A94" s="65"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="69"/>
+      <c r="A94" s="69"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="67"/>
       <c r="J94" s="56" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K94:DN94)/データ!$D$2,"")</f>
         <v/>
@@ -16194,15 +16016,15 @@
       <c r="DN94" s="21"/>
     </row>
     <row r="95" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="64"/>
-      <c r="B95" s="64"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="68"/>
+      <c r="A95" s="68"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="70"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="66"/>
       <c r="J95" s="55" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DN95)/データ!$D$2,"")</f>
         <v/>
@@ -16317,15 +16139,15 @@
       <c r="DN95" s="19"/>
     </row>
     <row r="96" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A96" s="65"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="69"/>
+      <c r="A96" s="69"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="71"/>
+      <c r="I96" s="67"/>
       <c r="J96" s="56" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DN96)/データ!$D$2,"")</f>
         <v/>
@@ -16440,15 +16262,15 @@
       <c r="DN96" s="21"/>
     </row>
     <row r="97" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A97" s="64"/>
-      <c r="B97" s="64"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="68"/>
+      <c r="A97" s="68"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="68"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="70"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="66"/>
       <c r="J97" s="55" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DN97)/データ!$D$2,"")</f>
         <v/>
@@ -16563,15 +16385,15 @@
       <c r="DN97" s="19"/>
     </row>
     <row r="98" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A98" s="65"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="69"/>
+      <c r="A98" s="69"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="71"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="67"/>
       <c r="J98" s="56" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DN98)/データ!$D$2,"")</f>
         <v/>
@@ -16686,15 +16508,15 @@
       <c r="DN98" s="21"/>
     </row>
     <row r="99" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A99" s="64"/>
-      <c r="B99" s="64"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="68"/>
+      <c r="A99" s="68"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="66"/>
       <c r="J99" s="55" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DN99)/データ!$D$2,"")</f>
         <v/>
@@ -16809,15 +16631,15 @@
       <c r="DN99" s="19"/>
     </row>
     <row r="100" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A100" s="65"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="67"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="69"/>
+      <c r="A100" s="69"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="67"/>
       <c r="J100" s="56" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DN100)/データ!$D$2,"")</f>
         <v/>
@@ -16932,15 +16754,15 @@
       <c r="DN100" s="21"/>
     </row>
     <row r="101" spans="1:118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="64"/>
-      <c r="B101" s="64"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="68"/>
+      <c r="A101" s="68"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="66"/>
       <c r="J101" s="55" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DN101)/データ!$D$2,"")</f>
         <v/>
@@ -17055,15 +16877,15 @@
       <c r="DN101" s="19"/>
     </row>
     <row r="102" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A102" s="65"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
-      <c r="I102" s="69"/>
+      <c r="A102" s="69"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="71"/>
+      <c r="I102" s="67"/>
       <c r="J102" s="56" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DN102)/データ!$D$2,"")</f>
         <v/>
@@ -17178,15 +17000,15 @@
       <c r="DN102" s="21"/>
     </row>
     <row r="103" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A103" s="64"/>
-      <c r="B103" s="64"/>
-      <c r="C103" s="64"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="68"/>
+      <c r="A103" s="68"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="68"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="66"/>
       <c r="J103" s="55" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DN103)/データ!$D$2,"")</f>
         <v/>
@@ -17301,15 +17123,15 @@
       <c r="DN103" s="19"/>
     </row>
     <row r="104" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A104" s="65"/>
-      <c r="B104" s="65"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
-      <c r="I104" s="69"/>
+      <c r="A104" s="69"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="71"/>
+      <c r="H104" s="71"/>
+      <c r="I104" s="67"/>
       <c r="J104" s="56" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DN104)/データ!$D$2,"")</f>
         <v/>
@@ -17424,15 +17246,15 @@
       <c r="DN104" s="21"/>
     </row>
     <row r="105" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A105" s="70"/>
-      <c r="B105" s="70"/>
-      <c r="C105" s="70"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="71"/>
-      <c r="F105" s="71"/>
-      <c r="G105" s="71"/>
-      <c r="H105" s="71"/>
-      <c r="I105" s="68"/>
+      <c r="A105" s="64"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="66"/>
       <c r="J105" s="55" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DN105)/データ!$D$2,"")</f>
         <v/>
@@ -17547,15 +17369,15 @@
       <c r="DN105" s="19"/>
     </row>
     <row r="106" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A106" s="70"/>
-      <c r="B106" s="70"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="71"/>
-      <c r="F106" s="71"/>
-      <c r="G106" s="71"/>
-      <c r="H106" s="71"/>
-      <c r="I106" s="69"/>
+      <c r="A106" s="64"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="65"/>
+      <c r="H106" s="65"/>
+      <c r="I106" s="67"/>
       <c r="J106" s="56" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DN106)/データ!$D$2,"")</f>
         <v/>
@@ -17670,15 +17492,15 @@
       <c r="DN106" s="21"/>
     </row>
     <row r="107" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A107" s="70"/>
-      <c r="B107" s="70"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="71"/>
-      <c r="G107" s="71"/>
-      <c r="H107" s="71"/>
-      <c r="I107" s="68"/>
+      <c r="A107" s="64"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="66"/>
       <c r="J107" s="55" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DN107)/データ!$D$2,"")</f>
         <v/>
@@ -17793,15 +17615,15 @@
       <c r="DN107" s="19"/>
     </row>
     <row r="108" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A108" s="70"/>
-      <c r="B108" s="70"/>
-      <c r="C108" s="70"/>
-      <c r="D108" s="70"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="71"/>
-      <c r="G108" s="71"/>
-      <c r="H108" s="71"/>
-      <c r="I108" s="69"/>
+      <c r="A108" s="64"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="65"/>
+      <c r="H108" s="65"/>
+      <c r="I108" s="67"/>
       <c r="J108" s="56" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DN108)/データ!$D$2,"")</f>
         <v/>
@@ -17916,15 +17738,15 @@
       <c r="DN108" s="21"/>
     </row>
     <row r="109" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A109" s="70"/>
-      <c r="B109" s="70"/>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="71"/>
-      <c r="F109" s="71"/>
-      <c r="G109" s="71"/>
-      <c r="H109" s="71"/>
-      <c r="I109" s="68"/>
+      <c r="A109" s="64"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
+      <c r="G109" s="65"/>
+      <c r="H109" s="65"/>
+      <c r="I109" s="66"/>
       <c r="J109" s="55" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K109:DN109)/データ!$D$2,"")</f>
         <v/>
@@ -18039,15 +17861,15 @@
       <c r="DN109" s="19"/>
     </row>
     <row r="110" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A110" s="70"/>
-      <c r="B110" s="70"/>
-      <c r="C110" s="70"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="71"/>
-      <c r="H110" s="71"/>
-      <c r="I110" s="69"/>
+      <c r="A110" s="64"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="65"/>
+      <c r="F110" s="65"/>
+      <c r="G110" s="65"/>
+      <c r="H110" s="65"/>
+      <c r="I110" s="67"/>
       <c r="J110" s="56" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K110:DN110)/データ!$D$2,"")</f>
         <v/>
@@ -18162,15 +17984,15 @@
       <c r="DN110" s="21"/>
     </row>
     <row r="111" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A111" s="70"/>
-      <c r="B111" s="70"/>
-      <c r="C111" s="70"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="71"/>
-      <c r="F111" s="71"/>
-      <c r="G111" s="71"/>
-      <c r="H111" s="71"/>
-      <c r="I111" s="68"/>
+      <c r="A111" s="64"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="64"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="65"/>
+      <c r="I111" s="66"/>
       <c r="J111" s="55" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K111:DN111)/データ!$D$2,"")</f>
         <v/>
@@ -18285,15 +18107,15 @@
       <c r="DN111" s="19"/>
     </row>
     <row r="112" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A112" s="70"/>
-      <c r="B112" s="70"/>
-      <c r="C112" s="70"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="71"/>
-      <c r="F112" s="71"/>
-      <c r="G112" s="71"/>
-      <c r="H112" s="71"/>
-      <c r="I112" s="69"/>
+      <c r="A112" s="64"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="65"/>
+      <c r="H112" s="65"/>
+      <c r="I112" s="67"/>
       <c r="J112" s="56" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K112:DN112)/データ!$D$2,"")</f>
         <v/>
@@ -18408,15 +18230,15 @@
       <c r="DN112" s="21"/>
     </row>
     <row r="113" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A113" s="70"/>
-      <c r="B113" s="70"/>
-      <c r="C113" s="70"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="71"/>
-      <c r="F113" s="71"/>
-      <c r="G113" s="71"/>
-      <c r="H113" s="71"/>
-      <c r="I113" s="68"/>
+      <c r="A113" s="64"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="66"/>
       <c r="J113" s="55" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K113:DN113)/データ!$D$2,"")</f>
         <v/>
@@ -18531,15 +18353,15 @@
       <c r="DN113" s="19"/>
     </row>
     <row r="114" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A114" s="70"/>
-      <c r="B114" s="70"/>
-      <c r="C114" s="70"/>
-      <c r="D114" s="70"/>
-      <c r="E114" s="71"/>
-      <c r="F114" s="71"/>
-      <c r="G114" s="71"/>
-      <c r="H114" s="71"/>
-      <c r="I114" s="69"/>
+      <c r="A114" s="64"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="65"/>
+      <c r="F114" s="65"/>
+      <c r="G114" s="65"/>
+      <c r="H114" s="65"/>
+      <c r="I114" s="67"/>
       <c r="J114" s="56" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K114:DN114)/データ!$D$2,"")</f>
         <v/>
@@ -18654,15 +18476,15 @@
       <c r="DN114" s="21"/>
     </row>
     <row r="115" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A115" s="70"/>
-      <c r="B115" s="70"/>
-      <c r="C115" s="70"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="71"/>
-      <c r="F115" s="71"/>
-      <c r="G115" s="71"/>
-      <c r="H115" s="71"/>
-      <c r="I115" s="68"/>
+      <c r="A115" s="64"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="66"/>
       <c r="J115" s="55" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K115:DN115)/データ!$D$2,"")</f>
         <v/>
@@ -18777,15 +18599,15 @@
       <c r="DN115" s="19"/>
     </row>
     <row r="116" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A116" s="70"/>
-      <c r="B116" s="70"/>
-      <c r="C116" s="70"/>
-      <c r="D116" s="70"/>
-      <c r="E116" s="71"/>
-      <c r="F116" s="71"/>
-      <c r="G116" s="71"/>
-      <c r="H116" s="71"/>
-      <c r="I116" s="69"/>
+      <c r="A116" s="64"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="65"/>
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="67"/>
       <c r="J116" s="56" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K116:DN116)/データ!$D$2,"")</f>
         <v/>
@@ -18900,15 +18722,15 @@
       <c r="DN116" s="21"/>
     </row>
     <row r="117" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A117" s="70"/>
-      <c r="B117" s="70"/>
-      <c r="C117" s="70"/>
-      <c r="D117" s="70"/>
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="68"/>
+      <c r="A117" s="64"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="65"/>
+      <c r="F117" s="65"/>
+      <c r="G117" s="65"/>
+      <c r="H117" s="65"/>
+      <c r="I117" s="66"/>
       <c r="J117" s="55" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K117:DN117)/データ!$D$2,"")</f>
         <v/>
@@ -19023,15 +18845,15 @@
       <c r="DN117" s="19"/>
     </row>
     <row r="118" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A118" s="70"/>
-      <c r="B118" s="70"/>
-      <c r="C118" s="70"/>
-      <c r="D118" s="70"/>
-      <c r="E118" s="71"/>
-      <c r="F118" s="71"/>
-      <c r="G118" s="71"/>
-      <c r="H118" s="71"/>
-      <c r="I118" s="69"/>
+      <c r="A118" s="64"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="65"/>
+      <c r="F118" s="65"/>
+      <c r="G118" s="65"/>
+      <c r="H118" s="65"/>
+      <c r="I118" s="67"/>
       <c r="J118" s="56" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K118:DN118)/データ!$D$2,"")</f>
         <v/>
@@ -19146,15 +18968,15 @@
       <c r="DN118" s="21"/>
     </row>
     <row r="119" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A119" s="70"/>
-      <c r="B119" s="70"/>
-      <c r="C119" s="70"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="71"/>
-      <c r="F119" s="71"/>
-      <c r="G119" s="71"/>
-      <c r="H119" s="71"/>
-      <c r="I119" s="68"/>
+      <c r="A119" s="64"/>
+      <c r="B119" s="64"/>
+      <c r="C119" s="64"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="65"/>
+      <c r="F119" s="65"/>
+      <c r="G119" s="65"/>
+      <c r="H119" s="65"/>
+      <c r="I119" s="66"/>
       <c r="J119" s="55" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K119:DN119)/データ!$D$2,"")</f>
         <v/>
@@ -19269,15 +19091,15 @@
       <c r="DN119" s="19"/>
     </row>
     <row r="120" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A120" s="70"/>
-      <c r="B120" s="70"/>
-      <c r="C120" s="70"/>
-      <c r="D120" s="70"/>
-      <c r="E120" s="71"/>
-      <c r="F120" s="71"/>
-      <c r="G120" s="71"/>
-      <c r="H120" s="71"/>
-      <c r="I120" s="69"/>
+      <c r="A120" s="64"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="65"/>
+      <c r="F120" s="65"/>
+      <c r="G120" s="65"/>
+      <c r="H120" s="65"/>
+      <c r="I120" s="67"/>
       <c r="J120" s="56" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K120:DN120)/データ!$D$2,"")</f>
         <v/>
@@ -19392,15 +19214,15 @@
       <c r="DN120" s="21"/>
     </row>
     <row r="121" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A121" s="70"/>
-      <c r="B121" s="70"/>
-      <c r="C121" s="70"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="71"/>
-      <c r="F121" s="71"/>
-      <c r="G121" s="71"/>
-      <c r="H121" s="71"/>
-      <c r="I121" s="68"/>
+      <c r="A121" s="64"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="65"/>
+      <c r="F121" s="65"/>
+      <c r="G121" s="65"/>
+      <c r="H121" s="65"/>
+      <c r="I121" s="66"/>
       <c r="J121" s="55" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K121:DN121)/データ!$D$2,"")</f>
         <v/>
@@ -19515,15 +19337,15 @@
       <c r="DN121" s="19"/>
     </row>
     <row r="122" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A122" s="70"/>
-      <c r="B122" s="70"/>
-      <c r="C122" s="70"/>
-      <c r="D122" s="70"/>
-      <c r="E122" s="71"/>
-      <c r="F122" s="71"/>
-      <c r="G122" s="71"/>
-      <c r="H122" s="71"/>
-      <c r="I122" s="69"/>
+      <c r="A122" s="64"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="65"/>
+      <c r="F122" s="65"/>
+      <c r="G122" s="65"/>
+      <c r="H122" s="65"/>
+      <c r="I122" s="67"/>
       <c r="J122" s="56" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K122:DN122)/データ!$D$2,"")</f>
         <v/>
@@ -19638,15 +19460,15 @@
       <c r="DN122" s="21"/>
     </row>
     <row r="123" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A123" s="70"/>
-      <c r="B123" s="70"/>
-      <c r="C123" s="70"/>
-      <c r="D123" s="70"/>
-      <c r="E123" s="71"/>
-      <c r="F123" s="71"/>
-      <c r="G123" s="71"/>
-      <c r="H123" s="71"/>
-      <c r="I123" s="68"/>
+      <c r="A123" s="64"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="64"/>
+      <c r="D123" s="64"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="66"/>
       <c r="J123" s="55" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K123:DN123)/データ!$D$2,"")</f>
         <v/>
@@ -19761,15 +19583,15 @@
       <c r="DN123" s="19"/>
     </row>
     <row r="124" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A124" s="70"/>
-      <c r="B124" s="70"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="70"/>
-      <c r="E124" s="71"/>
-      <c r="F124" s="71"/>
-      <c r="G124" s="71"/>
-      <c r="H124" s="71"/>
-      <c r="I124" s="69"/>
+      <c r="A124" s="64"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="64"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="67"/>
       <c r="J124" s="56" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K124:DN124)/データ!$D$2,"")</f>
         <v/>
@@ -19884,15 +19706,15 @@
       <c r="DN124" s="21"/>
     </row>
     <row r="125" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A125" s="70"/>
-      <c r="B125" s="70"/>
-      <c r="C125" s="70"/>
-      <c r="D125" s="70"/>
-      <c r="E125" s="71"/>
-      <c r="F125" s="71"/>
-      <c r="G125" s="71"/>
-      <c r="H125" s="71"/>
-      <c r="I125" s="68"/>
+      <c r="A125" s="64"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="64"/>
+      <c r="D125" s="64"/>
+      <c r="E125" s="65"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="65"/>
+      <c r="H125" s="65"/>
+      <c r="I125" s="66"/>
       <c r="J125" s="55" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K125:DN125)/データ!$D$2,"")</f>
         <v/>
@@ -20007,15 +19829,15 @@
       <c r="DN125" s="19"/>
     </row>
     <row r="126" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A126" s="70"/>
-      <c r="B126" s="70"/>
-      <c r="C126" s="70"/>
-      <c r="D126" s="70"/>
-      <c r="E126" s="71"/>
-      <c r="F126" s="71"/>
-      <c r="G126" s="71"/>
-      <c r="H126" s="71"/>
-      <c r="I126" s="69"/>
+      <c r="A126" s="64"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="64"/>
+      <c r="E126" s="65"/>
+      <c r="F126" s="65"/>
+      <c r="G126" s="65"/>
+      <c r="H126" s="65"/>
+      <c r="I126" s="67"/>
       <c r="J126" s="56" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K126:DN126)/データ!$D$2,"")</f>
         <v/>
@@ -20130,15 +19952,15 @@
       <c r="DN126" s="21"/>
     </row>
     <row r="127" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A127" s="64"/>
-      <c r="B127" s="64"/>
-      <c r="C127" s="64"/>
-      <c r="D127" s="64"/>
-      <c r="E127" s="66"/>
-      <c r="F127" s="66"/>
-      <c r="G127" s="66"/>
-      <c r="H127" s="66"/>
-      <c r="I127" s="68"/>
+      <c r="A127" s="68"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="68"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="70"/>
+      <c r="F127" s="70"/>
+      <c r="G127" s="70"/>
+      <c r="H127" s="70"/>
+      <c r="I127" s="66"/>
       <c r="J127" s="55" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K127:DN127)/データ!$D$2,"")</f>
         <v/>
@@ -20253,15 +20075,15 @@
       <c r="DN127" s="19"/>
     </row>
     <row r="128" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A128" s="65"/>
-      <c r="B128" s="65"/>
-      <c r="C128" s="65"/>
-      <c r="D128" s="65"/>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="67"/>
-      <c r="H128" s="67"/>
-      <c r="I128" s="69"/>
+      <c r="A128" s="69"/>
+      <c r="B128" s="69"/>
+      <c r="C128" s="69"/>
+      <c r="D128" s="69"/>
+      <c r="E128" s="71"/>
+      <c r="F128" s="71"/>
+      <c r="G128" s="71"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="67"/>
       <c r="J128" s="56" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K128:DN128)/データ!$D$2,"")</f>
         <v/>
@@ -20376,15 +20198,15 @@
       <c r="DN128" s="21"/>
     </row>
     <row r="129" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A129" s="70"/>
-      <c r="B129" s="70"/>
-      <c r="C129" s="70"/>
-      <c r="D129" s="70"/>
-      <c r="E129" s="71"/>
-      <c r="F129" s="71"/>
-      <c r="G129" s="71"/>
-      <c r="H129" s="71"/>
-      <c r="I129" s="68"/>
+      <c r="A129" s="64"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="64"/>
+      <c r="E129" s="65"/>
+      <c r="F129" s="65"/>
+      <c r="G129" s="65"/>
+      <c r="H129" s="65"/>
+      <c r="I129" s="66"/>
       <c r="J129" s="55" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K129:DN129)/データ!$D$2,"")</f>
         <v/>
@@ -20499,15 +20321,15 @@
       <c r="DN129" s="19"/>
     </row>
     <row r="130" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A130" s="70"/>
-      <c r="B130" s="70"/>
-      <c r="C130" s="70"/>
-      <c r="D130" s="70"/>
-      <c r="E130" s="71"/>
-      <c r="F130" s="71"/>
-      <c r="G130" s="71"/>
-      <c r="H130" s="71"/>
-      <c r="I130" s="69"/>
+      <c r="A130" s="64"/>
+      <c r="B130" s="64"/>
+      <c r="C130" s="64"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="65"/>
+      <c r="H130" s="65"/>
+      <c r="I130" s="67"/>
       <c r="J130" s="56" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K130:DN130)/データ!$D$2,"")</f>
         <v/>
@@ -20622,15 +20444,15 @@
       <c r="DN130" s="21"/>
     </row>
     <row r="131" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A131" s="70"/>
-      <c r="B131" s="70"/>
-      <c r="C131" s="70"/>
-      <c r="D131" s="70"/>
-      <c r="E131" s="71"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="71"/>
-      <c r="H131" s="71"/>
-      <c r="I131" s="68"/>
+      <c r="A131" s="64"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="64"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="66"/>
       <c r="J131" s="55" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K131:DN131)/データ!$D$2,"")</f>
         <v/>
@@ -20745,15 +20567,15 @@
       <c r="DN131" s="19"/>
     </row>
     <row r="132" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A132" s="70"/>
-      <c r="B132" s="70"/>
-      <c r="C132" s="70"/>
-      <c r="D132" s="70"/>
-      <c r="E132" s="71"/>
-      <c r="F132" s="71"/>
-      <c r="G132" s="71"/>
-      <c r="H132" s="71"/>
-      <c r="I132" s="69"/>
+      <c r="A132" s="64"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="64"/>
+      <c r="E132" s="65"/>
+      <c r="F132" s="65"/>
+      <c r="G132" s="65"/>
+      <c r="H132" s="65"/>
+      <c r="I132" s="67"/>
       <c r="J132" s="56" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K132:DN132)/データ!$D$2,"")</f>
         <v/>
@@ -20868,15 +20690,15 @@
       <c r="DN132" s="21"/>
     </row>
     <row r="133" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A133" s="70"/>
-      <c r="B133" s="70"/>
-      <c r="C133" s="70"/>
-      <c r="D133" s="70"/>
-      <c r="E133" s="71"/>
-      <c r="F133" s="71"/>
-      <c r="G133" s="71"/>
-      <c r="H133" s="71"/>
-      <c r="I133" s="68"/>
+      <c r="A133" s="64"/>
+      <c r="B133" s="64"/>
+      <c r="C133" s="64"/>
+      <c r="D133" s="64"/>
+      <c r="E133" s="65"/>
+      <c r="F133" s="65"/>
+      <c r="G133" s="65"/>
+      <c r="H133" s="65"/>
+      <c r="I133" s="66"/>
       <c r="J133" s="55" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K133:DN133)/データ!$D$2,"")</f>
         <v/>
@@ -20991,15 +20813,15 @@
       <c r="DN133" s="19"/>
     </row>
     <row r="134" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A134" s="70"/>
-      <c r="B134" s="70"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="70"/>
-      <c r="E134" s="71"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="71"/>
-      <c r="H134" s="71"/>
-      <c r="I134" s="69"/>
+      <c r="A134" s="64"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="65"/>
+      <c r="F134" s="65"/>
+      <c r="G134" s="65"/>
+      <c r="H134" s="65"/>
+      <c r="I134" s="67"/>
       <c r="J134" s="56" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K134:DN134)/データ!$D$2,"")</f>
         <v/>
@@ -21114,15 +20936,15 @@
       <c r="DN134" s="21"/>
     </row>
     <row r="135" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A135" s="70"/>
-      <c r="B135" s="70"/>
-      <c r="C135" s="70"/>
-      <c r="D135" s="70"/>
-      <c r="E135" s="71"/>
-      <c r="F135" s="71"/>
-      <c r="G135" s="71"/>
-      <c r="H135" s="71"/>
-      <c r="I135" s="68"/>
+      <c r="A135" s="64"/>
+      <c r="B135" s="64"/>
+      <c r="C135" s="64"/>
+      <c r="D135" s="64"/>
+      <c r="E135" s="65"/>
+      <c r="F135" s="65"/>
+      <c r="G135" s="65"/>
+      <c r="H135" s="65"/>
+      <c r="I135" s="66"/>
       <c r="J135" s="55" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K135:DN135)/データ!$D$2,"")</f>
         <v/>
@@ -21237,15 +21059,15 @@
       <c r="DN135" s="19"/>
     </row>
     <row r="136" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A136" s="70"/>
-      <c r="B136" s="70"/>
-      <c r="C136" s="70"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="71"/>
-      <c r="F136" s="71"/>
-      <c r="G136" s="71"/>
-      <c r="H136" s="71"/>
-      <c r="I136" s="69"/>
+      <c r="A136" s="64"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="64"/>
+      <c r="E136" s="65"/>
+      <c r="F136" s="65"/>
+      <c r="G136" s="65"/>
+      <c r="H136" s="65"/>
+      <c r="I136" s="67"/>
       <c r="J136" s="56" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K136:DN136)/データ!$D$2,"")</f>
         <v/>
@@ -21360,15 +21182,15 @@
       <c r="DN136" s="21"/>
     </row>
     <row r="137" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A137" s="70"/>
-      <c r="B137" s="70"/>
-      <c r="C137" s="70"/>
-      <c r="D137" s="70"/>
-      <c r="E137" s="71"/>
-      <c r="F137" s="71"/>
-      <c r="G137" s="71"/>
-      <c r="H137" s="71"/>
-      <c r="I137" s="68"/>
+      <c r="A137" s="64"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="64"/>
+      <c r="D137" s="64"/>
+      <c r="E137" s="65"/>
+      <c r="F137" s="65"/>
+      <c r="G137" s="65"/>
+      <c r="H137" s="65"/>
+      <c r="I137" s="66"/>
       <c r="J137" s="55" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K137:DN137)/データ!$D$2,"")</f>
         <v/>
@@ -21483,15 +21305,15 @@
       <c r="DN137" s="19"/>
     </row>
     <row r="138" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A138" s="70"/>
-      <c r="B138" s="70"/>
-      <c r="C138" s="70"/>
-      <c r="D138" s="70"/>
-      <c r="E138" s="71"/>
-      <c r="F138" s="71"/>
-      <c r="G138" s="71"/>
-      <c r="H138" s="71"/>
-      <c r="I138" s="69"/>
+      <c r="A138" s="64"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="64"/>
+      <c r="D138" s="64"/>
+      <c r="E138" s="65"/>
+      <c r="F138" s="65"/>
+      <c r="G138" s="65"/>
+      <c r="H138" s="65"/>
+      <c r="I138" s="67"/>
       <c r="J138" s="56" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K138:DN138)/データ!$D$2,"")</f>
         <v/>
@@ -21606,15 +21428,15 @@
       <c r="DN138" s="21"/>
     </row>
     <row r="139" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A139" s="70"/>
-      <c r="B139" s="70"/>
-      <c r="C139" s="70"/>
-      <c r="D139" s="70"/>
-      <c r="E139" s="71"/>
-      <c r="F139" s="71"/>
-      <c r="G139" s="71"/>
-      <c r="H139" s="71"/>
-      <c r="I139" s="68"/>
+      <c r="A139" s="64"/>
+      <c r="B139" s="64"/>
+      <c r="C139" s="64"/>
+      <c r="D139" s="64"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="66"/>
       <c r="J139" s="55" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K139:DN139)/データ!$D$2,"")</f>
         <v/>
@@ -21729,15 +21551,15 @@
       <c r="DN139" s="19"/>
     </row>
     <row r="140" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A140" s="70"/>
-      <c r="B140" s="70"/>
-      <c r="C140" s="70"/>
-      <c r="D140" s="70"/>
-      <c r="E140" s="71"/>
-      <c r="F140" s="71"/>
-      <c r="G140" s="71"/>
-      <c r="H140" s="71"/>
-      <c r="I140" s="69"/>
+      <c r="A140" s="64"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="64"/>
+      <c r="D140" s="64"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="65"/>
+      <c r="I140" s="67"/>
       <c r="J140" s="56" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K140:DN140)/データ!$D$2,"")</f>
         <v/>
@@ -21852,15 +21674,15 @@
       <c r="DN140" s="21"/>
     </row>
     <row r="141" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A141" s="70"/>
-      <c r="B141" s="70"/>
-      <c r="C141" s="70"/>
-      <c r="D141" s="70"/>
-      <c r="E141" s="71"/>
-      <c r="F141" s="71"/>
-      <c r="G141" s="71"/>
-      <c r="H141" s="71"/>
-      <c r="I141" s="68"/>
+      <c r="A141" s="64"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="64"/>
+      <c r="D141" s="64"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="65"/>
+      <c r="G141" s="65"/>
+      <c r="H141" s="65"/>
+      <c r="I141" s="66"/>
       <c r="J141" s="55" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K141:DN141)/データ!$D$2,"")</f>
         <v/>
@@ -21975,15 +21797,15 @@
       <c r="DN141" s="19"/>
     </row>
     <row r="142" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A142" s="70"/>
-      <c r="B142" s="70"/>
-      <c r="C142" s="70"/>
-      <c r="D142" s="70"/>
-      <c r="E142" s="71"/>
-      <c r="F142" s="71"/>
-      <c r="G142" s="71"/>
-      <c r="H142" s="71"/>
-      <c r="I142" s="69"/>
+      <c r="A142" s="64"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="64"/>
+      <c r="E142" s="65"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="65"/>
+      <c r="H142" s="65"/>
+      <c r="I142" s="67"/>
       <c r="J142" s="56" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K142:DN142)/データ!$D$2,"")</f>
         <v/>
@@ -22098,15 +21920,15 @@
       <c r="DN142" s="21"/>
     </row>
     <row r="143" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A143" s="70"/>
-      <c r="B143" s="70"/>
-      <c r="C143" s="70"/>
-      <c r="D143" s="70"/>
-      <c r="E143" s="71"/>
-      <c r="F143" s="71"/>
-      <c r="G143" s="71"/>
-      <c r="H143" s="71"/>
-      <c r="I143" s="68"/>
+      <c r="A143" s="64"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="64"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="65"/>
+      <c r="G143" s="65"/>
+      <c r="H143" s="65"/>
+      <c r="I143" s="66"/>
       <c r="J143" s="55" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K143:DN143)/データ!$D$2,"")</f>
         <v/>
@@ -22221,15 +22043,15 @@
       <c r="DN143" s="19"/>
     </row>
     <row r="144" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A144" s="70"/>
-      <c r="B144" s="70"/>
-      <c r="C144" s="70"/>
-      <c r="D144" s="70"/>
-      <c r="E144" s="71"/>
-      <c r="F144" s="71"/>
-      <c r="G144" s="71"/>
-      <c r="H144" s="71"/>
-      <c r="I144" s="69"/>
+      <c r="A144" s="64"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="64"/>
+      <c r="D144" s="64"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="65"/>
+      <c r="G144" s="65"/>
+      <c r="H144" s="65"/>
+      <c r="I144" s="67"/>
       <c r="J144" s="56" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K144:DN144)/データ!$D$2,"")</f>
         <v/>
@@ -22344,15 +22166,15 @@
       <c r="DN144" s="21"/>
     </row>
     <row r="145" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A145" s="70"/>
-      <c r="B145" s="70"/>
-      <c r="C145" s="70"/>
-      <c r="D145" s="70"/>
-      <c r="E145" s="71"/>
-      <c r="F145" s="71"/>
-      <c r="G145" s="71"/>
-      <c r="H145" s="71"/>
-      <c r="I145" s="68"/>
+      <c r="A145" s="64"/>
+      <c r="B145" s="64"/>
+      <c r="C145" s="64"/>
+      <c r="D145" s="64"/>
+      <c r="E145" s="65"/>
+      <c r="F145" s="65"/>
+      <c r="G145" s="65"/>
+      <c r="H145" s="65"/>
+      <c r="I145" s="66"/>
       <c r="J145" s="55" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K145:DN145)/データ!$D$2,"")</f>
         <v/>
@@ -22467,15 +22289,15 @@
       <c r="DN145" s="19"/>
     </row>
     <row r="146" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A146" s="70"/>
-      <c r="B146" s="70"/>
-      <c r="C146" s="70"/>
-      <c r="D146" s="70"/>
-      <c r="E146" s="71"/>
-      <c r="F146" s="71"/>
-      <c r="G146" s="71"/>
-      <c r="H146" s="71"/>
-      <c r="I146" s="69"/>
+      <c r="A146" s="64"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="64"/>
+      <c r="D146" s="64"/>
+      <c r="E146" s="65"/>
+      <c r="F146" s="65"/>
+      <c r="G146" s="65"/>
+      <c r="H146" s="65"/>
+      <c r="I146" s="67"/>
       <c r="J146" s="56" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K146:DN146)/データ!$D$2,"")</f>
         <v/>
@@ -22590,15 +22412,15 @@
       <c r="DN146" s="21"/>
     </row>
     <row r="147" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A147" s="64"/>
-      <c r="B147" s="64"/>
-      <c r="C147" s="64"/>
-      <c r="D147" s="64"/>
-      <c r="E147" s="66"/>
-      <c r="F147" s="66"/>
-      <c r="G147" s="66"/>
-      <c r="H147" s="66"/>
-      <c r="I147" s="68"/>
+      <c r="A147" s="68"/>
+      <c r="B147" s="68"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="70"/>
+      <c r="F147" s="70"/>
+      <c r="G147" s="70"/>
+      <c r="H147" s="70"/>
+      <c r="I147" s="66"/>
       <c r="J147" s="55" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K147:DN147)/データ!$D$2,"")</f>
         <v/>
@@ -22713,15 +22535,15 @@
       <c r="DN147" s="19"/>
     </row>
     <row r="148" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A148" s="65"/>
-      <c r="B148" s="65"/>
-      <c r="C148" s="65"/>
-      <c r="D148" s="65"/>
-      <c r="E148" s="67"/>
-      <c r="F148" s="67"/>
-      <c r="G148" s="67"/>
-      <c r="H148" s="67"/>
-      <c r="I148" s="69"/>
+      <c r="A148" s="69"/>
+      <c r="B148" s="69"/>
+      <c r="C148" s="69"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="71"/>
+      <c r="F148" s="71"/>
+      <c r="G148" s="71"/>
+      <c r="H148" s="71"/>
+      <c r="I148" s="67"/>
       <c r="J148" s="56" t="str">
         <f>IF(C147&lt;&gt;"",SUM(K148:DN148)/データ!$D$2,"")</f>
         <v/>
@@ -22836,15 +22658,15 @@
       <c r="DN148" s="21"/>
     </row>
     <row r="149" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A149" s="70"/>
-      <c r="B149" s="70"/>
-      <c r="C149" s="70"/>
-      <c r="D149" s="70"/>
-      <c r="E149" s="71"/>
-      <c r="F149" s="71"/>
-      <c r="G149" s="71"/>
-      <c r="H149" s="71"/>
-      <c r="I149" s="68"/>
+      <c r="A149" s="64"/>
+      <c r="B149" s="64"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="64"/>
+      <c r="E149" s="65"/>
+      <c r="F149" s="65"/>
+      <c r="G149" s="65"/>
+      <c r="H149" s="65"/>
+      <c r="I149" s="66"/>
       <c r="J149" s="55" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K149:DN149)/データ!$D$2,"")</f>
         <v/>
@@ -22959,15 +22781,15 @@
       <c r="DN149" s="19"/>
     </row>
     <row r="150" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A150" s="70"/>
-      <c r="B150" s="70"/>
-      <c r="C150" s="70"/>
-      <c r="D150" s="70"/>
-      <c r="E150" s="71"/>
-      <c r="F150" s="71"/>
-      <c r="G150" s="71"/>
-      <c r="H150" s="71"/>
-      <c r="I150" s="69"/>
+      <c r="A150" s="64"/>
+      <c r="B150" s="64"/>
+      <c r="C150" s="64"/>
+      <c r="D150" s="64"/>
+      <c r="E150" s="65"/>
+      <c r="F150" s="65"/>
+      <c r="G150" s="65"/>
+      <c r="H150" s="65"/>
+      <c r="I150" s="67"/>
       <c r="J150" s="56" t="str">
         <f>IF(C149&lt;&gt;"",SUM(K150:DN150)/データ!$D$2,"")</f>
         <v/>
@@ -23082,15 +22904,15 @@
       <c r="DN150" s="21"/>
     </row>
     <row r="151" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A151" s="70"/>
-      <c r="B151" s="70"/>
-      <c r="C151" s="70"/>
-      <c r="D151" s="70"/>
-      <c r="E151" s="71"/>
-      <c r="F151" s="71"/>
-      <c r="G151" s="71"/>
-      <c r="H151" s="71"/>
-      <c r="I151" s="68"/>
+      <c r="A151" s="64"/>
+      <c r="B151" s="64"/>
+      <c r="C151" s="64"/>
+      <c r="D151" s="64"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="65"/>
+      <c r="G151" s="65"/>
+      <c r="H151" s="65"/>
+      <c r="I151" s="66"/>
       <c r="J151" s="55" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K151:DN151)/データ!$D$2,"")</f>
         <v/>
@@ -23205,15 +23027,15 @@
       <c r="DN151" s="19"/>
     </row>
     <row r="152" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="A152" s="70"/>
-      <c r="B152" s="70"/>
-      <c r="C152" s="70"/>
-      <c r="D152" s="70"/>
-      <c r="E152" s="71"/>
-      <c r="F152" s="71"/>
-      <c r="G152" s="71"/>
-      <c r="H152" s="71"/>
-      <c r="I152" s="69"/>
+      <c r="A152" s="64"/>
+      <c r="B152" s="64"/>
+      <c r="C152" s="64"/>
+      <c r="D152" s="64"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="65"/>
+      <c r="G152" s="65"/>
+      <c r="H152" s="65"/>
+      <c r="I152" s="67"/>
       <c r="J152" s="56" t="str">
         <f>IF(C151&lt;&gt;"",SUM(K152:DN152)/データ!$D$2,"")</f>
         <v/>
@@ -24024,15 +23846,15 @@
       </c>
       <c r="BV155" s="13">
         <f t="array" ref="BV155">SUM(IF(MOD(ROW(BV$5:BV$152),2)=0,BV$5:BV$152,0))</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BW155" s="13">
         <f t="array" ref="BW155">SUM(IF(MOD(ROW(BW$5:BW$152),2)=0,BW$5:BW$152,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BX155" s="13">
         <f t="array" ref="BX155">SUM(IF(MOD(ROW(BX$5:BX$152),2)=0,BX$5:BX$152,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BY155" s="13">
         <f t="array" ref="BY155">SUM(IF(MOD(ROW(BY$5:BY$152),2)=0,BY$5:BY$152,0))</f>
@@ -24044,23 +23866,23 @@
       </c>
       <c r="CA155" s="13">
         <f t="array" ref="CA155">SUM(IF(MOD(ROW(CA$5:CA$152),2)=0,CA$5:CA$152,0))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="CB155" s="13">
         <f t="array" ref="CB155">SUM(IF(MOD(ROW(CB$5:CB$152),2)=0,CB$5:CB$152,0))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CC155" s="13">
         <f t="array" ref="CC155">SUM(IF(MOD(ROW(CC$5:CC$152),2)=0,CC$5:CC$152,0))</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CD155" s="13">
         <f t="array" ref="CD155">SUM(IF(MOD(ROW(CD$5:CD$152),2)=0,CD$5:CD$152,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="CE155" s="13">
         <f t="array" ref="CE155">SUM(IF(MOD(ROW(CE$5:CE$152),2)=0,CE$5:CE$152,0))</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CF155" s="13">
         <f t="array" ref="CF155">SUM(IF(MOD(ROW(CF$5:CF$152),2)=0,CF$5:CF$152,0))</f>
@@ -25778,183 +25600,183 @@
       </c>
       <c r="BV159" s="15">
         <f t="shared" si="10"/>
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="BW159" s="15">
         <f t="shared" si="10"/>
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="BX159" s="15">
         <f t="shared" si="10"/>
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="BY159" s="15">
         <f t="shared" ref="BY159:DN159" si="11">BY155+BX159</f>
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="BZ159" s="15">
         <f t="shared" si="11"/>
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="CA159" s="15">
         <f t="shared" si="11"/>
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="CB159" s="15">
         <f t="shared" si="11"/>
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="CC159" s="15">
         <f t="shared" si="11"/>
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="CD159" s="15">
         <f t="shared" si="11"/>
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="CE159" s="15">
         <f t="shared" si="11"/>
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="CF159" s="15">
         <f t="shared" si="11"/>
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="CG159" s="15">
         <f t="shared" si="11"/>
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="CH159" s="15">
         <f t="shared" si="11"/>
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="CI159" s="15">
         <f t="shared" si="11"/>
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="CJ159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="CK159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="CL159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="CM159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="CN159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="CO159" s="15">
         <f>CO155+CN159</f>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="CP159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="CQ159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="CR159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="CS159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="CT159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="CU159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="CV159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="CW159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="CX159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="CY159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="CZ159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="DA159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="DB159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="DC159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="DD159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="DE159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="DF159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="DG159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="DH159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="DI159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="DJ159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="DK159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="DL159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="DM159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="DN159" s="15">
         <f t="shared" si="11"/>
-        <v>477</v>
+        <v>449</v>
       </c>
     </row>
     <row r="160" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -57272,114 +57094,554 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="680">
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G41:G42"/>
@@ -57404,1000 +57666,560 @@
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="I61:I62"/>
     <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K157:DN157 K35:DN152 K4:DN28">
-    <cfRule type="expression" dxfId="131" priority="179">
+    <cfRule type="expression" dxfId="103" priority="179">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="180">
+    <cfRule type="expression" dxfId="102" priority="180">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="181">
+    <cfRule type="expression" dxfId="101" priority="181">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75 D9:D10 I9:I10 D17:H28 D35:H76">
-    <cfRule type="expression" dxfId="128" priority="178">
+    <cfRule type="expression" dxfId="100" priority="178">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74 J76">
-    <cfRule type="expression" dxfId="127" priority="177">
+    <cfRule type="expression" dxfId="99" priority="177">
       <formula>$C73=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5 J9 J13 J17 J21 J25 J29 J37 J41 J45 J49 J53 J57 J61 J65 J69 J73">
-    <cfRule type="expression" dxfId="126" priority="159">
+    <cfRule type="expression" dxfId="98" priority="159">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6 J10 J14 J18 J22 J26 J30 J38 J42 J46 J50 J54 J58 J62 J66 J70">
-    <cfRule type="expression" dxfId="125" priority="158">
+    <cfRule type="expression" dxfId="97" priority="158">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7 J11 J15 J19 J23 J27 J35 J39 J43 J47 J51 J55 J59 J63 J67 J71">
-    <cfRule type="expression" dxfId="124" priority="157">
+    <cfRule type="expression" dxfId="96" priority="157">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8 J12 J16 J20 J24 J28 J36 J40 J44 J48 J52 J56 J60 J64 J68 J72">
-    <cfRule type="expression" dxfId="123" priority="156">
+    <cfRule type="expression" dxfId="95" priority="156">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I8 D7:E8">
-    <cfRule type="expression" dxfId="122" priority="148">
+    <cfRule type="expression" dxfId="94" priority="148">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H16 D15:E16">
-    <cfRule type="expression" dxfId="121" priority="140">
+    <cfRule type="expression" dxfId="93" priority="140">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:DN75 K73:DN73 K71:DN71 K69:DN69 K67:DN67 K65:DN65 K63:DN63 K57:DN57 K51:DN51 K49:DN49 K47:DN47 K45:DN45 K35:DN35 K27:DN27 K9:DN9 K7:DN7 K43:DN43 K41:DN41 K39:DN39 K5:DN5 K19:DN19 K59:DN59 K61:DN61 K11:DN11 K17:DN17 K15:DN15 K13:DN13 K21:DN21 K23:DN23 K25:DN25 K37:DN37 K55:DN55 K53:DN53">
-    <cfRule type="expression" dxfId="120" priority="151">
+    <cfRule type="expression" dxfId="92" priority="151">
       <formula>K5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K76:DN76 K74:DN74 K72:DN72 K70:DN70 K68:DN68 K66:DN66 K64:DN64 K62:DN62 K60:DN60 K58:DN58 K56:DN56 K54:DN54 K52:DN52 K50:DN50 K48:DN48 K46:DN46 K40:DN40 K38:DN38 K36:DN36 K28:DN28 K26:DN26 K24:DN24 K8:DN8 K6:DN6 K44:DN44 K42:DN42 K20:DN20 K10:DN10 K12:DN12 K14:DN14 K16:DN16 K18:DN18 K22:DN22">
-    <cfRule type="expression" dxfId="119" priority="150">
+    <cfRule type="expression" dxfId="91" priority="150">
       <formula>K6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E12">
-    <cfRule type="expression" dxfId="118" priority="146">
+    <cfRule type="expression" dxfId="90" priority="146">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="expression" dxfId="117" priority="147">
+    <cfRule type="expression" dxfId="89" priority="147">
       <formula>$C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C12 C17:C28 C35:C76">
-    <cfRule type="expression" dxfId="116" priority="141">
+    <cfRule type="expression" dxfId="88" priority="141">
       <formula>$I7="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="143">
+    <cfRule type="expression" dxfId="87" priority="143">
       <formula>$I7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F12">
-    <cfRule type="expression" dxfId="114" priority="122">
+    <cfRule type="expression" dxfId="86" priority="122">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C16">
-    <cfRule type="expression" dxfId="113" priority="135">
+    <cfRule type="expression" dxfId="85" priority="135">
       <formula>$I15="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="136">
+    <cfRule type="expression" dxfId="84" priority="136">
       <formula>$I15="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="expression" dxfId="111" priority="134">
+    <cfRule type="expression" dxfId="83" priority="134">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="expression" dxfId="110" priority="129">
+    <cfRule type="expression" dxfId="82" priority="129">
       <formula>$I13="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="130">
+    <cfRule type="expression" dxfId="81" priority="130">
       <formula>$I13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10 G9:H10">
-    <cfRule type="expression" dxfId="108" priority="121">
+    <cfRule type="expression" dxfId="80" priority="121">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="expression" dxfId="107" priority="120">
+    <cfRule type="expression" dxfId="79" priority="120">
       <formula>$C9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="106" priority="119">
+    <cfRule type="expression" dxfId="78" priority="119">
       <formula>$C15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:I6">
-    <cfRule type="expression" dxfId="105" priority="92">
+    <cfRule type="expression" dxfId="77" priority="92">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="expression" dxfId="104" priority="90">
+    <cfRule type="expression" dxfId="76" priority="90">
       <formula>$I5="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="91">
+    <cfRule type="expression" dxfId="75" priority="91">
       <formula>$I5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="expression" dxfId="102" priority="88">
+    <cfRule type="expression" dxfId="74" priority="88">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H12">
-    <cfRule type="expression" dxfId="101" priority="87">
+    <cfRule type="expression" dxfId="73" priority="87">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="expression" dxfId="100" priority="86">
+    <cfRule type="expression" dxfId="72" priority="86">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F14">
-    <cfRule type="expression" dxfId="99" priority="85">
+    <cfRule type="expression" dxfId="71" priority="85">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G14">
-    <cfRule type="expression" dxfId="98" priority="84">
+    <cfRule type="expression" dxfId="70" priority="84">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14">
-    <cfRule type="expression" dxfId="97" priority="83">
+    <cfRule type="expression" dxfId="69" priority="83">
       <formula>$C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79 J81 J85 J87 J89 J91 J93 J105 J107 J109 J111 J113 J115 J117 J119 J121 J123 J125 J127 J129 J131 J103 J97 J99 J95 J83 D79:H132">
-    <cfRule type="expression" dxfId="96" priority="76">
+    <cfRule type="expression" dxfId="68" priority="76">
       <formula>$C79=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80 J82 J86 J88 J90 J92 J94 J106 J108 J110 J112 J114 J116 J118 J120 J122 J124 J126 J128 J130 J132 J104 J98 J100 J96 J84">
-    <cfRule type="expression" dxfId="95" priority="75">
+    <cfRule type="expression" dxfId="67" priority="75">
       <formula>$C79=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77:H78 D77:E78">
-    <cfRule type="expression" dxfId="94" priority="70">
+    <cfRule type="expression" dxfId="66" priority="70">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K131:DN131 K129:DN129 K127:DN127 K125:DN125 K123:DN123 K121:DN121 K119:DN119 K113:DN113 K111:DN111 K109:DN109 K107:DN107 K105:DN105 K103:DN103 K101:DN101 K93:DN93 K91:DN91 K89:DN89 K87:DN87 K85:DN85 K99:DN99 K97:DN97 K95:DN95 K81:DN81 K79:DN79 K77:DN77 K83:DN83 K115:DN115 K117:DN117">
-    <cfRule type="expression" dxfId="93" priority="74">
+    <cfRule type="expression" dxfId="65" priority="74">
       <formula>K77&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K132:DN132 K130:DN130 K128:DN128 K126:DN126 K124:DN124 K122:DN122 K120:DN120 K118:DN118 K116:DN116 K114:DN114 K112:DN112 K110:DN110 K108:DN108 K106:DN106 K104:DN104 K102:DN102 K96:DN96 K94:DN94 K92:DN92 K90:DN90 K88:DN88 K86:DN86 K100:DN100 K98:DN98 K84:DN84 K82:DN82 K80:DN80 K78:DN78">
-    <cfRule type="expression" dxfId="92" priority="73">
+    <cfRule type="expression" dxfId="64" priority="73">
       <formula>K78&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C132">
-    <cfRule type="expression" dxfId="91" priority="71">
+    <cfRule type="expression" dxfId="63" priority="71">
       <formula>$I79="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="72">
+    <cfRule type="expression" dxfId="62" priority="72">
       <formula>$I79="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77">
-    <cfRule type="expression" dxfId="89" priority="69">
+    <cfRule type="expression" dxfId="61" priority="69">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J78">
-    <cfRule type="expression" dxfId="88" priority="68">
+    <cfRule type="expression" dxfId="60" priority="68">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C78">
-    <cfRule type="expression" dxfId="87" priority="66">
+    <cfRule type="expression" dxfId="59" priority="66">
       <formula>$I77="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="67">
+    <cfRule type="expression" dxfId="58" priority="67">
       <formula>$I77="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77:F78">
-    <cfRule type="expression" dxfId="85" priority="65">
+    <cfRule type="expression" dxfId="57" priority="65">
       <formula>$C77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J101">
-    <cfRule type="expression" dxfId="84" priority="64">
+    <cfRule type="expression" dxfId="56" priority="64">
       <formula>$C101=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J102">
-    <cfRule type="expression" dxfId="83" priority="63">
+    <cfRule type="expression" dxfId="55" priority="63">
       <formula>$C101=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J133 J135 J137 J139 J141 J143 J145 J147 J149 J151 D133:H152">
-    <cfRule type="expression" dxfId="82" priority="59">
+    <cfRule type="expression" dxfId="54" priority="59">
       <formula>$C133=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134 J136 J138 J140 J142 J144 J146 J148 J150 J152">
-    <cfRule type="expression" dxfId="81" priority="58">
+    <cfRule type="expression" dxfId="53" priority="58">
       <formula>$C133=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K151:DN151 K149:DN149 K147:DN147 K145:DN145 K143:DN143 K141:DN141 K139:DN139 K133:DN133 K135:DN135 K137:DN137">
-    <cfRule type="expression" dxfId="80" priority="57">
+    <cfRule type="expression" dxfId="52" priority="57">
       <formula>K133&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K152:DN152 K150:DN150 K148:DN148 K146:DN146 K144:DN144 K142:DN142 K140:DN140 K138:DN138 K136:DN136 K134:DN134">
-    <cfRule type="expression" dxfId="79" priority="56">
+    <cfRule type="expression" dxfId="51" priority="56">
       <formula>K134&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C133:C152">
-    <cfRule type="expression" dxfId="78" priority="54">
+    <cfRule type="expression" dxfId="50" priority="54">
       <formula>$I133="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="55">
+    <cfRule type="expression" dxfId="49" priority="55">
       <formula>$I133="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I28 I35:I152">
-    <cfRule type="expression" dxfId="76" priority="53">
+    <cfRule type="expression" dxfId="48" priority="53">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:DN30">
-    <cfRule type="expression" dxfId="75" priority="50">
+    <cfRule type="expression" dxfId="47" priority="50">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="51">
+    <cfRule type="expression" dxfId="46" priority="51">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="52">
+    <cfRule type="expression" dxfId="45" priority="52">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:H30">
-    <cfRule type="expression" dxfId="72" priority="49">
+    <cfRule type="expression" dxfId="44" priority="49">
       <formula>$C29=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:DN29">
-    <cfRule type="expression" dxfId="71" priority="47">
+    <cfRule type="expression" dxfId="43" priority="47">
       <formula>K29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:DN30">
-    <cfRule type="expression" dxfId="70" priority="46">
+    <cfRule type="expression" dxfId="42" priority="46">
       <formula>K30&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C30">
-    <cfRule type="expression" dxfId="69" priority="44">
+    <cfRule type="expression" dxfId="41" priority="44">
       <formula>$I29="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="45">
+    <cfRule type="expression" dxfId="40" priority="45">
       <formula>$I29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I30">
-    <cfRule type="expression" dxfId="67" priority="43">
+    <cfRule type="expression" dxfId="39" priority="43">
       <formula>$C29=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="66" priority="42">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="65" priority="41">
+    <cfRule type="expression" dxfId="37" priority="41">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BH31 BU31:DN31 K32:DN32">
-    <cfRule type="expression" dxfId="11" priority="38">
+    <cfRule type="expression" dxfId="36" priority="38">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="39">
+    <cfRule type="expression" dxfId="35" priority="39">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="40">
+    <cfRule type="expression" dxfId="34" priority="40">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:H32">
-    <cfRule type="expression" dxfId="64" priority="37">
+    <cfRule type="expression" dxfId="33" priority="37">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BH31 BU31:DN31">
-    <cfRule type="expression" dxfId="63" priority="36">
+    <cfRule type="expression" dxfId="32" priority="36">
       <formula>K31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:DN32">
-    <cfRule type="expression" dxfId="8" priority="35">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>K32&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C32">
-    <cfRule type="expression" dxfId="62" priority="33">
+    <cfRule type="expression" dxfId="30" priority="33">
       <formula>$I31="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="34">
+    <cfRule type="expression" dxfId="29" priority="34">
       <formula>$I31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I32">
-    <cfRule type="expression" dxfId="60" priority="32">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>$C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="expression" dxfId="59" priority="31">
+    <cfRule type="expression" dxfId="27" priority="31">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="expression" dxfId="58" priority="30">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:DN34 K33:BP33 BW33:DN33">
-    <cfRule type="expression" dxfId="57" priority="27">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>ISERROR(MATCH(K$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="28">
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>WEEKDAY(K$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="29">
+    <cfRule type="expression" dxfId="23" priority="29">
       <formula>WEEKDAY(K$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:H34">
-    <cfRule type="expression" dxfId="54" priority="26">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BP33 BW33:DN33">
-    <cfRule type="expression" dxfId="53" priority="25">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>K33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:DN34">
-    <cfRule type="expression" dxfId="52" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>K34&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C34">
-    <cfRule type="expression" dxfId="51" priority="22">
+    <cfRule type="expression" dxfId="19" priority="22">
       <formula>$I33="遂行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="23">
+    <cfRule type="expression" dxfId="18" priority="23">
       <formula>$I33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I34">
-    <cfRule type="expression" dxfId="49" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>$C33=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO31:BT31">
-    <cfRule type="expression" dxfId="48" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>ISERROR(MATCH(BO$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="11">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>WEEKDAY(BO$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>WEEKDAY(BO$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO31:BT31">
-    <cfRule type="expression" dxfId="45" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>BO31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ33:BZ33">
-    <cfRule type="expression" dxfId="44" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>ISERROR(MATCH(BQ$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>WEEKDAY(BQ$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>WEEKDAY(BQ$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ33:BZ33">
-    <cfRule type="expression" dxfId="41" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>BQ33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI31:BN31">
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>ISERROR(MATCH(BI$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>WEEKDAY(BI$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>WEEKDAY(BI$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI31:BN31">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>BI31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58426,7 +58248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A27:DH34"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="CV28" sqref="CV28"/>
     </sheetView>
   </sheetViews>
@@ -59628,67 +59450,67 @@
       </c>
       <c r="BM29" s="30">
         <f ca="1">IF(TODAY()&gt;=BM$27,ガント!BV159,NA())</f>
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="BN29" s="30">
         <f ca="1">IF(TODAY()&gt;=BN$27,ガント!BW159,NA())</f>
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="BO29" s="30">
         <f ca="1">IF(TODAY()&gt;=BO$27,ガント!BX159,NA())</f>
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="BP29" s="30">
         <f ca="1">IF(TODAY()&gt;=BP$27,ガント!BY159,NA())</f>
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="BQ29" s="30">
         <f ca="1">IF(TODAY()&gt;=BQ$27,ガント!BZ159,NA())</f>
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="BR29" s="30">
         <f ca="1">IF(TODAY()&gt;=BR$27,ガント!CA159,NA())</f>
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="BS29" s="30">
         <f ca="1">IF(TODAY()&gt;=BS$27,ガント!CB159,NA())</f>
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="BT29" s="30">
         <f ca="1">IF(TODAY()&gt;=BT$27,ガント!CC159,NA())</f>
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="BU29" s="30">
         <f ca="1">IF(TODAY()&gt;=BU$27,ガント!CD159,NA())</f>
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="BV29" s="30">
         <f ca="1">IF(TODAY()&gt;=BV$27,ガント!CE159,NA())</f>
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="BW29" s="30">
         <f ca="1">IF(TODAY()&gt;=BW$27,ガント!CF159,NA())</f>
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="BX29" s="30">
         <f ca="1">IF(TODAY()&gt;=BX$27,ガント!CG159,NA())</f>
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="BY29" s="30">
         <f ca="1">IF(TODAY()&gt;=BY$27,ガント!CH159,NA())</f>
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="BZ29" s="30">
         <f ca="1">IF(TODAY()&gt;=BZ$27,ガント!CI159,NA())</f>
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="CA29" s="30">
         <f ca="1">IF(TODAY()&gt;=CA$27,ガント!CJ159,NA())</f>
-        <v>477</v>
-      </c>
-      <c r="CB29" s="30" t="e">
+        <v>449</v>
+      </c>
+      <c r="CB29" s="30">
         <f ca="1">IF(TODAY()&gt;=CB$27,ガント!CK159,NA())</f>
-        <v>#N/A</v>
+        <v>449</v>
       </c>
       <c r="CC29" s="30" t="e">
         <f ca="1">IF(TODAY()&gt;=CC$27,ガント!CL159,NA())</f>
@@ -60136,9 +59958,9 @@
         <f ca="1">IF(TODAY()&gt;=CA$27,ガント!CJ160,NA())</f>
         <v>320.99999999999994</v>
       </c>
-      <c r="CB30" s="27" t="e">
+      <c r="CB30" s="27">
         <f ca="1">IF(TODAY()&gt;=CB$27,ガント!CK160,NA())</f>
-        <v>#N/A</v>
+        <v>320.99999999999994</v>
       </c>
       <c r="CC30" s="27" t="e">
         <f ca="1">IF(TODAY()&gt;=CC$27,ガント!CL160,NA())</f>
@@ -60585,9 +60407,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>-106.00000000000006</v>
       </c>
-      <c r="CB31" s="25" t="e">
+      <c r="CB31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>-108.00000000000006</v>
       </c>
       <c r="CC31" s="25" t="e">
         <f t="shared" ca="1" si="2"/>
@@ -60976,67 +60798,67 @@
       </c>
       <c r="BM32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-89.800000000000011</v>
+        <v>-85.800000000000011</v>
       </c>
       <c r="BN32" s="23">
         <f t="shared" ref="BN32:CS32" ca="1" si="6">IF(ISERR(BN30-BN29),NA(),BN30-BN29)</f>
-        <v>-97.800000000000011</v>
+        <v>-89.800000000000011</v>
       </c>
       <c r="BO32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-105.80000000000001</v>
+        <v>-93.800000000000011</v>
       </c>
       <c r="BP32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-109.80000000000001</v>
+        <v>-97.800000000000011</v>
       </c>
       <c r="BQ32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-113.80000000000001</v>
+        <v>-101.80000000000001</v>
       </c>
       <c r="BR32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-123.80000000000001</v>
+        <v>-109.80000000000001</v>
       </c>
       <c r="BS32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-131.80000000000001</v>
+        <v>-115.80000000000001</v>
       </c>
       <c r="BT32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-147.80000000000001</v>
+        <v>-127.80000000000001</v>
       </c>
       <c r="BU32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-155.80000000000001</v>
+        <v>-131.80000000000001</v>
       </c>
       <c r="BV32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-171.8</v>
+        <v>-143.80000000000001</v>
       </c>
       <c r="BW32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-177.8</v>
+        <v>-149.80000000000001</v>
       </c>
       <c r="BX32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-192.8</v>
+        <v>-164.8</v>
       </c>
       <c r="BY32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-200.8</v>
+        <v>-172.8</v>
       </c>
       <c r="BZ32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-206.8</v>
+        <v>-178.8</v>
       </c>
       <c r="CA32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-156.00000000000006</v>
-      </c>
-      <c r="CB32" s="23" t="e">
+        <v>-128.00000000000006</v>
+      </c>
+      <c r="CB32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
+        <v>-128.00000000000006</v>
       </c>
       <c r="CC32" s="23" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -61483,9 +61305,9 @@
         <f t="shared" ca="1" si="10"/>
         <v>0.75175644028103028</v>
       </c>
-      <c r="CB33" s="28" t="e">
+      <c r="CB33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
+        <v>0.74825174825174812</v>
       </c>
       <c r="CC33" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -61874,67 +61696,67 @@
       </c>
       <c r="BM34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.73742690058479532</v>
+        <v>0.74615384615384617</v>
       </c>
       <c r="BN34" s="28">
         <f t="shared" ref="BN34:CS34" ca="1" si="14">IF(ISERR(BN30/BN29),NA(),BN30/BN29)</f>
-        <v>0.72057142857142853</v>
+        <v>0.73742690058479532</v>
       </c>
       <c r="BO34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.70446927374301671</v>
+        <v>0.72890173410404624</v>
       </c>
       <c r="BP34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.69668508287292819</v>
+        <v>0.72057142857142853</v>
       </c>
       <c r="BQ34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.68907103825136606</v>
+        <v>0.71242937853107347</v>
       </c>
       <c r="BR34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.67074468085106376</v>
+        <v>0.69668508287292819</v>
       </c>
       <c r="BS34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.6567708333333333</v>
+        <v>0.68532608695652175</v>
       </c>
       <c r="BT34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.63049999999999995</v>
+        <v>0.66368421052631577</v>
       </c>
       <c r="BU34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.61813725490196081</v>
+        <v>0.6567708333333333</v>
       </c>
       <c r="BV34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.59481132075471699</v>
+        <v>0.63686868686868681</v>
       </c>
       <c r="BW34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.58651162790697675</v>
+        <v>0.62736318407960201</v>
       </c>
       <c r="BX34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.56674157303370787</v>
+        <v>0.60479616306954431</v>
       </c>
       <c r="BY34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.55673289183222952</v>
+        <v>0.59341176470588231</v>
       </c>
       <c r="BZ34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.54945533769063182</v>
+        <v>0.58515081206496522</v>
       </c>
       <c r="CA34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.67295597484276715</v>
-      </c>
-      <c r="CB34" s="28" t="e">
+        <v>0.71492204899777267</v>
+      </c>
+      <c r="CB34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
+        <v>0.71492204899777267</v>
       </c>
       <c r="CC34" s="28" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -62075,13 +61897,13 @@
   </customSheetViews>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B27:DH27">
-    <cfRule type="expression" dxfId="36" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>ISERROR(MATCH(B$4,INDIRECT("データ!$B$2:$B$15"),0))=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>WEEKDAY(B$4)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>WEEKDAY(B$4)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62508,12 +62330,12 @@
   </customSheetViews>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:B29 D4:H29">
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$E4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C29">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$E4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
